--- a/Datasets/ESM_2/ESM_2.xlsx
+++ b/Datasets/ESM_2/ESM_2.xlsx
@@ -570,10 +570,14 @@
           <t>Persuasive games are an effective approach for motivating health behavior, and recent years have seen an increase in games designed for changing human behaviors or attitudes. However, these games are limited in two major ways: first, they are not based on theories of what motivates healthy behavior change. This makes it difficult to evaluate why a persuasive approach works. Second, most persuasive games treat players as a monolithic group. As an attempt to resolve these weaknesses, we conducted a large-scale survey of 642 gamers' eating habits and their associated determinants of healthy behavior to understand how health behavior relates to gamer type. We developed seven different models of healthy eating behavior for the gamer types identified by BrainHex. We then explored the differences between the models and created two approaches for effective persuasive game design based on our results. The first is a one-size-fits-all approach that will motivate the majority of the population, while not demotivating any players. The second is a personalized approach that will best motivate a particular type of gamer. Finally, to make our approaches actionable in persuasive game design, we map common game mechanics to the determinants of healthy behavior.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>behavior theory;  gamer types;  games design;  hbm;  health;  persuasive game;  player typology;  serious games</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RitaOrji; Regan L.Mandryk; JulitaVassileva; Kathrin M.Gerling</t>
+          <t>Orji, Rita; Mandryk, Regan L.; Vassileva, Julita; Gerling, Kathrin M.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -589,10 +593,30 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>467-2476</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>2467-2476</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/2470654.2481341,
+    author = "Orji, Rita and Mandryk, Regan L. and Vassileva, Julita and Gerling, Kathrin M.",
+    title = "Tailoring persuasive health games to gamer type",
+    year = "2013",
+    isbn = "9781450318990",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/2470654.2481341",
+    doi = "10.1145/2470654.2481341",
+    abstract = "Persuasive games are an effective approach for motivating health behavior, and recent years have seen an increase in games designed for changing human behaviors or attitudes. However, these games are limited in two major ways: first, they are not based on theories of what motivates healthy behavior change. This makes it difficult to evaluate why a persuasive approach works. Second, most persuasive games treat players as a monolithic group. As an attempt to resolve these weaknesses, we conducted a large-scale survey of 642 gamers' eating habits and their associated determinants of healthy behavior to understand how health behavior relates to gamer type. We developed seven different models of healthy eating behavior for the gamer types identified by BrainHex. We then explored the differences between the models and created two approaches for effective persuasive game design based on our results. The first is a one-size-fits-all approach that will motivate the majority of the population, while not demotivating any players. The second is a personalized approach that will best motivate a particular type of gamer. Finally, to make our approaches actionable in persuasive game design, we map common game mechanics to the determinants of healthy behavior.",
+    booktitle = "Proceedings of the SIGCHI Conference on Human Factors in Computing Systems",
+    pages = "2467-2476",
+    numpages = "10",
+    keywords = "behavior theory, gamer types, games design, hbm, health, persuasive game, player typology, serious games",
+    location = "Paris, France",
+    series = "CHI '13"
+}</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -619,7 +643,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -628,7 +652,11 @@
           <t>Tailoring persuasive health games to gamer type</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/2470654.2481341</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -636,7 +664,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -666,7 +694,11 @@
           <t>Ahmed Fadhil; Gianluca Schiavo; Yunlong Wang</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.1904.11961</t>
@@ -710,11 +742,15 @@
           <t>CoachAI: A Conversational Agent Assisted Health Coaching Platform</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arXiv.1904.11961</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>nan; Venue; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
+          <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
@@ -744,7 +780,11 @@
           <t>Nirmalie Wiratunga; Kay Cooper; Anjana Wijekoon; Chamath Palihawadana; Vanessa Mendham; Ehud Reiter; Kyle Martin</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arXiv.2004.14067</t>
@@ -788,11 +828,15 @@
           <t>FitChat: Conversational Artificial Intelligence Interventions for Encouraging Physical Activity in Older Adults</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arXiv.2004.14067</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>nan; Venue; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
+          <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
@@ -813,12 +857,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Objective Poor lifestyle represents a health risk factor and is the leading cause of morbidity and chronic conditions. The impact of poor lifestyle can be significantly altered by individual's behavioral modification. Although there are abundant lifestyle promotion applications and tools, they are still limited in providing tailored social support that goes beyond their predefined functionalities. In addition, virtual coaching approaches are still unable to handle user emotional needs. Our approach presents a human-virtual agent mediated system that leverages the conversational agent to handle menial caregiver's works by engaging users (e.g., patients) in a conversation with the conversational agent. The dialog used a natural conversation to interact with users, delivered by the conversational agent and handled with a finite state machine automaton. Our research differs from existing approaches that replace a human coach with a fully automated assistant on user support. The methodology allows users to interact with the technology and access health-related interventions. To assist physicians, the conversational agent gives weighting to user's adherence, based on prior defined conditions. Materials and Methods This article describes the design and validation of CoachAI, a conversational agent-assisted health coaching system to support health intervention delivery to individuals or groups. CoachAI instantiates a text-based health care conversational agent system that bridges the remote human coach and the users. Results We will discuss our approach and highlight the outcome of a 1-month validation study on physical activity, healthy diet, and stress coping. The study validates technology aspects of our human-virtual agent mediated health coaching system. We present the intervention settings and findings from the study. In addition, we present some user-experience validation results gathered during or after the experimentation. Conclusions The study provided a set of dimensions when building a human-conversational agent powered health intervention tool. The results provided interesting insights when using human-conversational agent mediated approach in health coaching systems. The findings revealed that users who were highly engaged were also more adherent to conversational-agent activities. This research made key contributions to the literature on techniques in providing social, yet tailored health coaching support: (1) identifying habitual patterns to understand user preferences; (2) the role of a conversational agent in delivering health promoting microactivities; (3) building the technology while adhering to individuals' daily messaging routine; and (4) a socio-technical system that fits with the role of conversational agent as an assistive component. Future Work Future improvements will consider building the activity recommender based on users' interaction data and integrating users' dietary pattern and emotional wellbeing into the initial user clustering by leveraging information and communication technology approaches (e.g., machine learning). We will integrate a sentiment analysis capability to gather further data about individuals and report these data to the caregiver. © 2019 Georg Thieme Verlag KG Stuttgart New York.</t>
+          <t>Objective Poor lifestyle represents a health risk factor and is the leading cause of morbidity and chronic conditions. The impact of poor lifestyle can be significantly altered by individual's behavioral modification. Although there are abundant lifestyle promotion applications and tools, they are still limited in providing tailored social support that goes beyond their predefined functionalities. In addition, virtual coaching approaches are still unable to handle user emotional needs. Our approach presents a human-virtual agent mediated system that leverages the conversational agent to handle menial caregiver's works by engaging users (e.g., patients) in a conversation with the conversational agent. The dialog used a natural conversation to interact with users, delivered by the conversational agent and handled with a finite state machine automaton. Our research differs from existing approaches that replace a human coach with a fully automated assistant on user support. The methodology allows users to interact with the technology and access health-related interventions. To assist physicians, the conversational agent gives weighting to user's adherence, based on prior defined conditions. Materials and Methods This article describes the design and validation of CoachAI, a conversational agent-assisted health coaching system to support health intervention delivery to individuals or groups. CoachAI instantiates a text-based health care conversational agent system that bridges the remote human coach and the users. Results We will discuss our approach and highlight the outcome of a 1-month validation study on physical activity, healthy diet, and stress coping. The study validates technology aspects of our human-virtual agent mediated health coaching system. We present the intervention settings and findings from the study. In addition, we present some user-experience validation results gathered during or after the experimentation. Conclusions The study provided a set of dimensions when building a human-conversational agent powered health intervention tool. The results provided interesting insights when using human-conversational agent mediated approach in health coaching systems. The findings revealed that users who were highly engaged were also more adherent to conversational-agent activities. This research made key contributions to the literature on techniques in providing social, yet tailored health coaching support: (1) identifying habitual patterns to understand user preferences; (2) the role of a conversational agent in delivering health promoting microactivities; (3) building the technology while adhering to individuals' daily messaging routine; and (4) a socio-technical system that fits with the role of conversational agent as an assistive component. Future Work Future improvements will consider building the activity recommender based on users' interaction data and integrating users' dietary pattern and emotional wellbeing into the initial user clustering by leveraging information and communication technology approaches (e.g., machine learning). We will integrate a sentiment analysis capability to gather further data about individuals and report these data to the caregiver.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Communication; Diet; Exercise; Health; Health Knowledge, Attitudes, Practice; Humans; Mental Health; Mentoring; Motivation; Patient Compliance; Surveys and Questionnaires; attitude to health; diet; exercise; health; human; interpersonal communication; mental health; mentoring; motivation; patient compliance; questionnaire</t>
+          <t>Communication; Diet; Exercise; Health; Health Knowledge;  Attitudes;  Practice; Humans; Mental Health; Mentoring; Motivation; Patient Compliance; Surveys and Questionnaires; attitude to health; diet; exercise; health; human; interpersonal communication; mental health; mentoring; motivation; patient compliance; questionnaire</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -839,23 +883,23 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9 – 23</t>
+          <t>9 - 23</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Fadhil20199,
+          <t>@ARTICLE{Fadhil20199,
     author = "Fadhil, Ahmed and Wang, Yunlong and Reiterer, Harald",
     title = "Assistive Conversational Agent for Health Coaching: A Validation Study",
     year = "2019",
     journal = "Methods of Information in Medicine",
     volume = "58",
     number = "1",
-    pages = "9 – 23",
+    pages = "9 - 23",
     doi = "10.1055/s-0039-1688757",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85068611002\&amp;doi=10.1055\%2fs-0039-1688757\&amp;partnerID=40\&amp;md5=f6a41cca76217e3f8f1a48aa5aaf853d",
     affiliations = "University of Trento, Via Calepina, 14, Trento TN, 38122, Italy; HCI Group, University of Konstanz, Konstanz, Germany",
-    abstract = "Objective Poor lifestyle represents a health risk factor and is the leading cause of morbidity and chronic conditions. The impact of poor lifestyle can be significantly altered by individual's behavioral modification. Although there are abundant lifestyle promotion applications and tools, they are still limited in providing tailored social support that goes beyond their predefined functionalities. In addition, virtual coaching approaches are still unable to handle user emotional needs. Our approach presents a human-virtual agent mediated system that leverages the conversational agent to handle menial caregiver's works by engaging users (e.g., patients) in a conversation with the conversational agent. The dialog used a natural conversation to interact with users, delivered by the conversational agent and handled with a finite state machine automaton. Our research differs from existing approaches that replace a human coach with a fully automated assistant on user support. The methodology allows users to interact with the technology and access health-related interventions. To assist physicians, the conversational agent gives weighting to user's adherence, based on prior defined conditions. Materials and Methods This article describes the design and validation of CoachAI, a conversational agent-assisted health coaching system to support health intervention delivery to individuals or groups. CoachAI instantiates a text-based health care conversational agent system that bridges the remote human coach and the users. Results We will discuss our approach and highlight the outcome of a 1-month validation study on physical activity, healthy diet, and stress coping. The study validates technology aspects of our human-virtual agent mediated health coaching system. We present the intervention settings and findings from the study. In addition, we present some user-experience validation results gathered during or after the experimentation. Conclusions The study provided a set of dimensions when building a human-conversational agent powered health intervention tool. The results provided interesting insights when using human-conversational agent mediated approach in health coaching systems. The findings revealed that users who were highly engaged were also more adherent to conversational-agent activities. This research made key contributions to the literature on techniques in providing social, yet tailored health coaching support: (1) identifying habitual patterns to understand user preferences; (2) the role of a conversational agent in delivering health promoting microactivities; (3) building the technology while adhering to individuals' daily messaging routine; and (4) a socio-technical system that fits with the role of conversational agent as an assistive component. Future Work Future improvements will consider building the activity recommender based on users' interaction data and integrating users' dietary pattern and emotional wellbeing into the initial user clustering by leveraging information and communication technology approaches (e.g., machine learning). We will integrate a sentiment analysis capability to gather further data about individuals and report these data to the caregiver. © 2019 Georg Thieme Verlag KG Stuttgart New York.",
+    abstract = "Objective Poor lifestyle represents a health risk factor and is the leading cause of morbidity and chronic conditions. The impact of poor lifestyle can be significantly altered by individual's behavioral modification. Although there are abundant lifestyle promotion applications and tools, they are still limited in providing tailored social support that goes beyond their predefined functionalities. In addition, virtual coaching approaches are still unable to handle user emotional needs. Our approach presents a human-virtual agent mediated system that leverages the conversational agent to handle menial caregiver's works by engaging users (e.g., patients) in a conversation with the conversational agent. The dialog used a natural conversation to interact with users, delivered by the conversational agent and handled with a finite state machine automaton. Our research differs from existing approaches that replace a human coach with a fully automated assistant on user support. The methodology allows users to interact with the technology and access health-related interventions. To assist physicians, the conversational agent gives weighting to user's adherence, based on prior defined conditions. Materials and Methods This article describes the design and validation of CoachAI, a conversational agent-assisted health coaching system to support health intervention delivery to individuals or groups. CoachAI instantiates a text-based health care conversational agent system that bridges the remote human coach and the users. Results We will discuss our approach and highlight the outcome of a 1-month validation study on physical activity, healthy diet, and stress coping. The study validates technology aspects of our human-virtual agent mediated health coaching system. We present the intervention settings and findings from the study. In addition, we present some user-experience validation results gathered during or after the experimentation. Conclusions The study provided a set of dimensions when building a human-conversational agent powered health intervention tool. The results provided interesting insights when using human-conversational agent mediated approach in health coaching systems. The findings revealed that users who were highly engaged were also more adherent to conversational-agent activities. This research made key contributions to the literature on techniques in providing social, yet tailored health coaching support: (1) identifying habitual patterns to understand user preferences; (2) the role of a conversational agent in delivering health promoting microactivities; (3) building the technology while adhering to individuals' daily messaging routine; and (4) a socio-technical system that fits with the role of conversational agent as an assistive component. Future Work Future improvements will consider building the activity recommender based on users' interaction data and integrating users' dietary pattern and emotional wellbeing into the initial user clustering by leveraging information and communication technology approaches (e.g., machine learning). We will integrate a sentiment analysis capability to gather further data about individuals and report these data to the caregiver. (c) 2019 Georg Thieme Verlag KG Stuttgart New York.",
     author_keywords = "conversational agent; Health coaching; healthy diet; mental wellness; physical activity; validation study",
     keywords = "Communication; Diet; Exercise; Health; Health Knowledge, Attitudes, Practice; Humans; Mental Health; Mentoring; Motivation; Patient Compliance; Surveys and Questionnaires; attitude to health; diet; exercise; health; human; interpersonal communication; mental health; mentoring; motivation; patient compliance; questionnaire",
     correspondence_address = "A. Fadhil; University of Trento, Trento TN, Via Calepina, 14, 38122, Italy; email: ahmed.fadhil@unitn.it",
@@ -869,8 +913,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 55; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -899,7 +942,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -910,7 +953,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85068611002&amp;doi=10.1055%2fs-0039-1688757&amp;partnerID=40&amp;md5=f6a41cca76217e3f8f1a48aa5aaf853d</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85068611002&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=f0254ec1431cbd37c690dea187a34258&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28assistive+conversational+agent+for+health+coaching+a+validation+study%29&amp;sl=84&amp;sessionSearchId=f0254ec1431cbd37c690dea187a34258&amp;relpos=0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -941,7 +984,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Purpose. Assistive technology for wayfinding will significantly improve the quality of life for many individuals with cognitive impairments. The user interface of such a system is as crucial as the underlying implementation and localisation technology. We studied the user interface of an indoor navigation system for individuals with cognitive impairments. Method. We built a system using the Wizard-of-Oz technique that let us experiment with many guidance strategies and interface modalities. Through user studies, we evaluated various configurations of the user interface for accuracy of route completion, time to completion, and user preferences. We used a counter-balanced design that included different modalities (images, audio, and text) and different routes. Results. We found that although users were able to use all types of modalities to find their way indoors, they varied significantly in their preferred modalities. We also found that timing of directions requires careful attention, as does providing users with confirmation messages at appropriate times. Conclusions. Our findings suggest that the ability to adapt indoor wayfinding devices for specific users' preferences and needs will be particularly important. © 2008 Informa UK Ltd All rights reserved.</t>
+          <t>Purpose. Assistive technology for wayfinding will significantly improve the quality of life for many individuals with cognitive impairments. The user interface of such a system is as crucial as the underlying implementation and localisation technology. We studied the user interface of an indoor navigation system for individuals with cognitive impairments. Method. We built a system using the Wizard-of-Oz technique that let us experiment with many guidance strategies and interface modalities. Through user studies, we evaluated various configurations of the user interface for accuracy of route completion, time to completion, and user preferences. We used a counter-balanced design that included different modalities (images, audio, and text) and different routes. Results. We found that although users were able to use all types of modalities to find their way indoors, they varied significantly in their preferred modalities. We also found that timing of directions requires careful attention, as does providing users with confirmation messages at appropriate times. Conclusions. Our findings suggest that the ability to adapt indoor wayfinding devices for specific users' preferences and needs will be particularly important.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -967,23 +1010,23 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>69 – 81</t>
+          <t>69 - 81</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Liu200869,
+          <t>@ARTICLE{Liu200869,
     author = "Liu, Alan L. and Hile, Harlan and Kautz, Henry and Borriello, Gaetano and Brown, Pat A. and Harniss, Mark and Johnson, Kurt",
     title = "Indoor wayfinding: Developing a functional interface for individuals with cognitive impairments",
     year = "2008",
     journal = "Disability and Rehabilitation: Assistive Technology",
     volume = "3",
     number = "1-2",
-    pages = "69 – 81",
+    pages = "69 - 81",
     doi = "10.1080/17483100701500173",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-44449156488\&amp;doi=10.1080\%2f17483100701500173\&amp;partnerID=40\&amp;md5=d88c580bb52c7ce15072feb4e42bea58",
     affiliations = "Department of Computer Science and Engineering, University of Washington, Box 352350, Seattle, WA 98195-2350, United States; Center for Technology and Disability Studies, University of Washington, Box 357920, Seattle, WA 98195-7920, United States",
-    abstract = "Purpose. Assistive technology for wayfinding will significantly improve the quality of life for many individuals with cognitive impairments. The user interface of such a system is as crucial as the underlying implementation and localisation technology. We studied the user interface of an indoor navigation system for individuals with cognitive impairments. Method. We built a system using the Wizard-of-Oz technique that let us experiment with many guidance strategies and interface modalities. Through user studies, we evaluated various configurations of the user interface for accuracy of route completion, time to completion, and user preferences. We used a counter-balanced design that included different modalities (images, audio, and text) and different routes. Results. We found that although users were able to use all types of modalities to find their way indoors, they varied significantly in their preferred modalities. We also found that timing of directions requires careful attention, as does providing users with confirmation messages at appropriate times. Conclusions. Our findings suggest that the ability to adapt indoor wayfinding devices for specific users' preferences and needs will be particularly important. © 2008 Informa UK Ltd All rights reserved.",
+    abstract = "Purpose. Assistive technology for wayfinding will significantly improve the quality of life for many individuals with cognitive impairments. The user interface of such a system is as crucial as the underlying implementation and localisation technology. We studied the user interface of an indoor navigation system for individuals with cognitive impairments. Method. We built a system using the Wizard-of-Oz technique that let us experiment with many guidance strategies and interface modalities. Through user studies, we evaluated various configurations of the user interface for accuracy of route completion, time to completion, and user preferences. We used a counter-balanced design that included different modalities (images, audio, and text) and different routes. Results. We found that although users were able to use all types of modalities to find their way indoors, they varied significantly in their preferred modalities. We also found that timing of directions requires careful attention, as does providing users with confirmation messages at appropriate times. Conclusions. Our findings suggest that the ability to adapt indoor wayfinding devices for specific users' preferences and needs will be particularly important. (c) 2008 Informa UK Ltd All rights reserved.",
     author_keywords = "assistive technology; user interface; Wayfinding",
     keywords = "Adult; Cognition; Cognition Disorders; Computer Simulation; Disabled Persons; Female; Humans; Locomotion; Male; Middle Aged; Pilot Projects; Self-Help Devices; User-Computer Interface; Visual Fields; adult; article; cognition; cognitive defect; computer interface; computer simulation; disabled person; female; human; locomotion; male; middle aged; pilot study; self help; visual field",
     correspondence_address = "K. Johnson; Center for Technology and Disability Studies, University of Washington, Box 357920, Seattle, WA 98195-7920, United States; email: kjohnson@u.washington.edu",
@@ -995,8 +1038,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 51"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1028,7 +1070,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -1039,13 +1081,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-44449156488&amp;doi=10.1080%2f17483100701500173&amp;partnerID=40&amp;md5=d88c580bb52c7ce15072feb4e42bea58</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
+          <t>https://dl.acm.org/doi/10.1145/1168987.1169005</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1112,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Restricted and repetitive behaviors (RRBs) are a core symptom and an early marker of autism. Current research and intervention for RRB heavily rely on professional experience and effort. Guided Play is a technology that uses instrumented games and toys as a platform to understand children's play behavior and facilitate behavioral intervention during play. This paper presents the design and implementation of a prototype based on the technology, as well as an evaluation on 6 children with autism. The results show that children with RRBs in physical world activities also exhibit similar patterns in a similar digital activity, and that digital coaching can reduce RRBs by expanding children's play skill repertoire and promoting symbolic play. © 2019 Association for Computing Machinery.</t>
+          <t>Restricted and repetitive behaviors (RRBs) are a core symptom and an early marker of autism. Current research and intervention for RRB heavily rely on professional experience and effort. Guided Play is a technology that uses instrumented games and toys as a platform to understand children's play behavior and facilitate behavioral intervention during play. This paper presents the design and implementation of a prototype based on the technology, as well as an evaluation on 6 children with autism. The results show that children with RRBs in physical world activities also exhibit similar patterns in a similar digital activity, and that digital coaching can reduce RRBs by expanding children's play skill repertoire and promoting symbolic play.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1092,22 +1138,22 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>208 – 217</t>
+          <t>208 - 217</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Chen2019208,
+          <t>@CONFERENCE{Chen2019208,
     author = "Chen, Cong and Chander, Ajay and Uchino, Kanji",
     title = "Guided play: Digital sensing and coaching for stereotypical play behavior in children with autism",
     year = "2019",
     journal = "International Conference on Intelligent User Interfaces, Proceedings IUI",
     volume = "Part F147615",
-    pages = "208 – 217",
+    pages = "208 - 217",
     doi = "10.1145/3301275.3302309",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85065581090\&amp;doi=10.1145\%2f3301275.3302309\&amp;partnerID=40\&amp;md5=56f53574c1be4874c53f9702570d8ca5",
     affiliations = "Fujitsu Laboratories of America, Sunnyvale, CA, United States",
-    abstract = "Restricted and repetitive behaviors (RRBs) are a core symptom and an early marker of autism. Current research and intervention for RRB heavily rely on professional experience and effort. Guided Play is a technology that uses instrumented games and toys as a platform to understand children's play behavior and facilitate behavioral intervention during play. This paper presents the design and implementation of a prototype based on the technology, as well as an evaluation on 6 children with autism. The results show that children with RRBs in physical world activities also exhibit similar patterns in a similar digital activity, and that digital coaching can reduce RRBs by expanding children's play skill repertoire and promoting symbolic play. © 2019 Association for Computing Machinery.",
+    abstract = "Restricted and repetitive behaviors (RRBs) are a core symptom and an early marker of autism. Current research and intervention for RRB heavily rely on professional experience and effort. Guided Play is a technology that uses instrumented games and toys as a platform to understand children's play behavior and facilitate behavioral intervention during play. This paper presents the design and implementation of a prototype based on the technology, as well as an evaluation on 6 children with autism. The results show that children with RRBs in physical world activities also exhibit similar patterns in a similar digital activity, and that digital coaching can reduce RRBs by expanding children's play skill repertoire and promoting symbolic play. (c) 2019 Association for Computing Machinery.",
     author_keywords = "ASD; Assistive technology; Autism; Behavior sensing; Children; Evaluation; Health; Intervention; Object play; Play; Pretend play; Symbolic play",
     keywords = "Health; Petroleum reservoir evaluation; User interfaces; Assistive technology; Autism; Behavior sensing; Children; Evaluation; Intervention; Object play; Play; Pretend play; Symbolic play; Diseases",
     publisher = "Association for Computing Machinery",
@@ -1117,8 +1163,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 3; Conference name: 24th ACM International Conference on Intelligent User Interfaces, IUI 2019; Conference date: 17 March 2019 through 20 March 2019; Conference code: 147615"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1147,7 +1192,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -1158,7 +1203,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85065581090&amp;doi=10.1145%2f3301275.3302309&amp;partnerID=40&amp;md5=56f53574c1be4874c53f9702570d8ca5</t>
+          <t>https://dl.acm.org/doi/10.1145/3301275.3302309</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1189,7 +1234,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eating out has recently become part of our lifestyle. However, when eating out in restaurants, many people find it difficult to make meal choices consistent with their health goals. Bad eating choices and habits are in part responsible for the alarming increase in the prevalence of chronic diseases such as obesity, diabetes, and high blood pressure, which burden the health care system. Therefore, there is a need for an intervention that educates the public on how to make healthy choices while eating away from home. In this paper, we propose a goal-based slow-casual game approach that addresses this need. This approach acknowledges different groups of users with varying health goals and adopts slow technology to promote learning and reflection. We model two recognized determinants of well-being into dietary interventions and provide feedback accordingly. To demonstrate the suitability of our approach for long-term sustained learning, reflection, and attitude and/or behavior change, we develop and evaluate LunchTime - a goal-based slow-casual game that educates players on how to make healthier meal choices. The result from the evaluation shows that LunchTime facilitates learning and reflection and promotes positive dietary attitude change. © 2012 Springer-Verlag London Limited.</t>
+          <t>Eating out has recently become part of our lifestyle. However, when eating out in restaurants, many people find it difficult to make meal choices consistent with their health goals. Bad eating choices and habits are in part responsible for the alarming increase in the prevalence of chronic diseases such as obesity, diabetes, and high blood pressure, which burden the health care system. Therefore, there is a need for an intervention that educates the public on how to make healthy choices while eating away from home. In this paper, we propose a goal-based slow-casual game approach that addresses this need. This approach acknowledges different groups of users with varying health goals and adopts slow technology to promote learning and reflection. We model two recognized determinants of well-being into dietary interventions and provide feedback accordingly. To demonstrate the suitability of our approach for long-term sustained learning, reflection, and attitude and/or behavior change, we develop and evaluate LunchTime - a goal-based slow-casual game that educates players on how to make healthier meal choices. The result from the evaluation shows that LunchTime facilitates learning and reflection and promotes positive dietary attitude change.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1212,26 +1257,45 @@
           <t>https://doi.org/10.1007/s00779-012-0590-6</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>http://www.fatburn-secrets.com/fast-food-statistics.html
+                  . Accessed March, 2010; citation_journal_title=Am J Health Promot; citation_title=The relationship between obesity and the prevalence of fast food restaurants: state-level analysis; citation_author=J Maddock; citation_volume=19; citation_publication_date=2004; citation_pages=137-143; citation_id=CR2; Toscos T, Faber A, An S, Gandhi MP (2006) Chick clique: persuasive technology to motivate teenage girls to exercise. In: CHI '06 extended abstracts on human factors in computing systems, pp 1873-1878; Consolvo S, Everitt K, Smith I, Landay JA (2006) Design requirements for technologies that encourage physical activity. In: Proceedings of the SIGCHI conference on human factors in computing systems--CHI'06, p 457; citation_title=Persuasive technology: using computers to change what we think and do; citation_publication_date=2003; citation_id=CR5; citation_author=BJ Fogg; citation_publisher=Morgan Kaufmann Pub; citation_journal_title=Nutr Res Rev; citation_title=The transtheoretical model as applied to dietary behaviour and outcomes; citation_author=L Spencer, C Wharton, S Moyle, T Adams; citation_volume=20; citation_issue=1; citation_publication_date=2007; citation_pages=46-73; citation_id=CR6; Grimes A, Kantroo V, Grinter RE (2010) Let's play!: mobile health games for adults. In: Proceedings of the 12th ACM 2010 international conference on Ubiquitous computing, pp 241-250; Fogg BJ (2009) A behavior model for persuasive design. In: Proceedings of the 4th international conference on persuasive technology, pp 1-7; Consolvo S, McDonald DW, Landay JA (2009) Theory-driven design strategies for technologies that support behavior change in everyday life. In: Proceedings of the 27th international conference on human factors in computing systems, pp 405-414; citation_journal_title=Am Psychol; citation_title=In search of how people change: applications to addictive behaviors; citation_author=JO Prochaska, CC DiClemente, JC Norcross; citation_volume=47; citation_issue=9; citation_publication_date=1992; citation_pages=1102-1114; citation_doi=10.1037/0003-066X.47.9.1102; citation_id=CR10; citation_journal_title=Am Psychol; citation_title=Building a practically useful theory of goal setting and task motivation: a 35-year odyssey; citation_author=EA Locke, GP Latham; citation_volume=57; citation_issue=9; citation_publication_date=2002; citation_pages=705-717; citation_doi=10.1037/0003-066X.57.9.705; citation_id=CR11; citation_title=Science and human behavior; citation_publication_date=1953; citation_id=CR12; citation_author=BF Skinner; citation_publisher=Macmillan; citation_title=Aggression: a social learning theory analysis; citation_publication_date=1973; citation_id=CR13; citation_author=A Bandura; citation_publisher=Prentice-Hall Pub; citation_journal_title=J Am Diet Assoc; citation_title=Position of the American dietetic association: total diet approach to communicating food and nutrition information; citation_author=J Freeland-Graves, S Nitzke; citation_volume=102; citation_issue=1; citation_publication_date=2002; citation_pages=100-108; citation_doi=10.1016/S0002-8223(02)90030-1; citation_id=CR14; citation_journal_title=Health Educ Res; citation_title=The transtheoretical model and stages of change: a critique; citation_author=J Brug, M Conner, N Harre, S Kremers, S McKellar, S Whitelaw; citation_volume=20; citation_issue=2; citation_publication_date=2005; citation_pages=244-258; citation_id=CR15; citation_journal_title=Acad Manag Perspect; citation_title=Goals gone wild: how goals systematically harm individuals and organizations; citation_author=L Ordonez, ME Schweitzer, A Galinsky, M Bazerman; citation_volume=23; citation_issue=1; citation_publication_date=2009; citation_pages=6; citation_id=CR16; citation_journal_title=Rev Educ Res; citation_title=Reinforcement, reward, and intrinsic motivation: a meta-analysis; citation_author=J Cameron, WD Pierce; citation_volume=64; citation_issue=3; citation_publication_date=1994; citation_pages=363-423; citation_doi=10.3102/00346543064003363; citation_id=CR17; Colineau N, Paris C (2010) Can beneficial habits be induced through reflection? 
+                    http://www.ict.csiro.au/staff/nathalie.colineau/publications/Colineau-Paris_WorkshopUM4Motivation.pdf
+                  . Accessed December, 2011; citation_title=Management; citation_publication_date=2005; citation_id=CR19; citation_author=JR Schermerhorn; citation_publisher=Wiley; Landcare Research (2002) Using participatory and learning-based approaches for environmental management to help achieve constructive behavior change. 
+                    http://www.landcareresearch.co.nz/research/sustainablesoc/social/par_rep.asp
+                  . Accessed December, 2011; citation_title=Criminology; citation_publication_date=1990; citation_id=CR21; citation_author=CR Jeffery; citation_publisher=Prentice Hall; Nweze EN (2009) Community nutrition: planning health promotion and disease prevention. Jones &amp; Bartlett Publishers, Sudbury; Grimes A, Tan D, Morris D (2009) Toward technologies that support family reflections on health. In: Proceedings of the ACM 2009 international conference on supporting group work, pp 311-320; citation_journal_title=Comput Entertain; citation_title=NEAT-o-games: blending physical activity and fun in the daily routine; citation_author=Y Fujiki, K Kazakos, C Puri, P Buddharaju, I Pavlidis, J Levine; citation_volume=6; citation_issue=2; citation_publication_date=2008; citation_pages=1-22; citation_doi=10.1145/1371216.1371224; citation_id=CR24; citation_journal_title=ACM Comput Entertain; citation_title=International survey on the dance dance revolution game; citation_author=J Hoysniemi; citation_volume=4; citation_issue=2; citation_publication_date=2006; citation_pages=3-30; citation_doi=10.1145/1129006.1129011; citation_id=CR25; Xu J, Chen P-y, Uglow S, Scott A, Montague E (2011) A case study of the design and evaluation of a persuasive healthy lifestyle assistance technology: challenges and design guidelines. Univers Access Hum 6768:464-471; citation_title=Analyzing research on transformative learning theory; citation_inbook_title=Learning as transformation: critical perspectives on a theory in progress; citation_publication_date=2000; citation_pages=29-310; citation_id=CR27; citation_author=EW Taylor; citation_publisher=Jossey-Bass; Bogost I, Partner F, Games P (2007) Persuasive games on mobile devices. 
+                    http://www.bogost.com/downloads/I.%20Bogost%20Mobile%20Persuasion.pdf
+                  . Accessed December, 2011; Khaled R (2008) Culturally-relevant persuasive technology. Pt design. Victoria University of Wellington. 
+                    http://researcharchive.vuw.ac.nz/handle/10063/365
+                  . Accessed on June, 2011; Stokes B (2005) Video games have changed: time to consider; Game Food Pyramid, USA: Playnormous 
+                    http://www.playnormous.com/game_food_pyramid.cfm
+                  . Accessed December, 2010; http://www.escapefromdiab.com/
+                  . Accessed January, 2012; Trigger Happy. Dallas, Texas, USA: BlockDot Inc. 
+                    http://www.blockdot.com/caseStudies/gsk-alli.aspx
+                  . Accessed December, 2010; Kuittinen J, Kultima A, Niemela J, Paavilainen J (2007) Casual games discussion. In: Proceedings of the 2007 conference on future play--future play'07, p 105; citation_journal_title=Pers Ubiq Comput; citation_title=Slow technology--designing for reflection; citation_author=L Hallna, J Redstro; citation_volume=5; citation_publication_date=2001; citation_pages=201-212; citation_id=CR35; citation_journal_title=Obes Res; citation_title=Population diets: a scientific review; citation_author=MR Freedman, J King, E Kennedy; citation_volume=9; citation_publication_date=2001; citation_pages=1S-40S; citation_doi=10.1038/oby.2001.113; citation_id=CR36; Orji R, Vassileva J, Mandryk RL (2012) Towards a data-driven approach to intervention design: a predictive path model of healthy eating determinants. In: 7th international conference on persuasive technology, Persuasive 2012, vol 7284, pp 203-214; http://www.ctv.ca/CTVNews/Health/20051119/students_fastfood_051119/
+                  . Accessed December, 2010</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1211 – 1221</t>
+          <t>1211 - 1221</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Orji20131211,
+          <t>@ARTICLE{Orji20131211,
     author = "Orji, Rita and Vassileva, Julita and Mandryk, Regan L.",
     title = "LunchTime: A slow-casual game for long-term dietary behavior change",
     year = "2013",
     journal = "Personal and Ubiquitous Computing",
     volume = "17",
     number = "6",
-    pages = "1211 – 1221",
+    pages = "1211 - 1221",
     doi = "10.1007/s00779-012-0590-6",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84883462042\&amp;doi=10.1007\%2fs00779-012-0590-6\&amp;partnerID=40\&amp;md5=7750d5b2c43f693d60f2f23b58636bca",
     affiliations = "Computer Science Department, University of Saskatchewan, Saskatoon, SK S7N 5C9, Canada",
-    abstract = "Eating out has recently become part of our lifestyle. However, when eating out in restaurants, many people find it difficult to make meal choices consistent with their health goals. Bad eating choices and habits are in part responsible for the alarming increase in the prevalence of chronic diseases such as obesity, diabetes, and high blood pressure, which burden the health care system. Therefore, there is a need for an intervention that educates the public on how to make healthy choices while eating away from home. In this paper, we propose a goal-based slow-casual game approach that addresses this need. This approach acknowledges different groups of users with varying health goals and adopts slow technology to promote learning and reflection. We model two recognized determinants of well-being into dietary interventions and provide feedback accordingly. To demonstrate the suitability of our approach for long-term sustained learning, reflection, and attitude and/or behavior change, we develop and evaluate LunchTime - a goal-based slow-casual game that educates players on how to make healthier meal choices. The result from the evaluation shows that LunchTime facilitates learning and reflection and promotes positive dietary attitude change. © 2012 Springer-Verlag London Limited.",
+    abstract = "Eating out has recently become part of our lifestyle. However, when eating out in restaurants, many people find it difficult to make meal choices consistent with their health goals. Bad eating choices and habits are in part responsible for the alarming increase in the prevalence of chronic diseases such as obesity, diabetes, and high blood pressure, which burden the health care system. Therefore, there is a need for an intervention that educates the public on how to make healthy choices while eating away from home. In this paper, we propose a goal-based slow-casual game approach that addresses this need. This approach acknowledges different groups of users with varying health goals and adopts slow technology to promote learning and reflection. We model two recognized determinants of well-being into dietary interventions and provide feedback accordingly. To demonstrate the suitability of our approach for long-term sustained learning, reflection, and attitude and/or behavior change, we develop and evaluate LunchTime - a goal-based slow-casual game that educates players on how to make healthier meal choices. The result from the evaluation shows that LunchTime facilitates learning and reflection and promotes positive dietary attitude change. (c) 2012 Springer-Verlag London Limited.",
     author_keywords = "Attitude change; Behavior change; Casual games; Design; Diet; Food; Goal-based; Health; Human factors; Nutrition; Persuasive game; Slow technology; Theory",
     keywords = "Blood pressure; Design; Food products; Health; Human engineering; Nutrition; Attitude change; Behavior change; Casual games; Goal-based; Persuasive game; Theory; Behavioral research",
     correspondence_address = "R. Orji; Computer Science Department, University of Saskatchewan, Saskatoon, SK S7N 5C9, Canada; email: rita.orji@usask.ca",
@@ -1242,8 +1306,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 136"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1273,7 +1336,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1284,15 +1347,15 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84883462042&amp;doi=10.1007%2fs00779-012-0590-6&amp;partnerID=40&amp;md5=7750d5b2c43f693d60f2f23b58636bca</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>nan; References; Publisher</t>
-        </is>
-      </c>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84883462042&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=c798210b91c7fb7b2220f091a3179590&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28lunchtime+a+slow+casual+game+for+long+term+dietary+behavior+change%29&amp;sl=81&amp;sessionSearchId=c798210b91c7fb7b2220f091a3179590&amp;relpos=0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Springer-Verlag</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1311,7 +1374,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Persuasive games and gamified systems are effective tools for motivating behavior change using various persuasive strategies. Research has shown that tailoring these systems can increase their efficacy. However, there is little knowledge on how game-based persuasive systems can be tailored to individuals of various personality traits. To advance research in this area, we conducted a large-scale study of 660 participants to investigate how different personalities respond to various persuasive strategies that are used in persuasive health games and gamified systems. Our results reveal that people's personality traits play a significant role in the perceived persuasiveness of different strategies. Conscientious people tend to be motivated by goal setting, simulation, self-monitoring and feedback; people who are more open to experience are more likely to be demotivated by rewards, competition, comparison, and cooperation. We contribute to the CHI community by offering design guidelines for tailoring persuasive games and gamified designs to a particular group of personalities. © 2017 ACM.</t>
+          <t>Persuasive games and gamified systems are effective tools for motivating behavior change using various persuasive strategies. Research has shown that tailoring these systems can increase their efficacy. However, there is little knowledge on how game-based persuasive systems can be tailored to individuals of various personality traits. To advance research in this area, we conducted a large-scale study of 660 participants to investigate how different personalities respond to various persuasive strategies that are used in persuasive health games and gamified systems. Our results reveal that people's personality traits play a significant role in the perceived persuasiveness of different strategies. Conscientious people tend to be motivated by goal setting, simulation, self-monitoring and feedback; people who are more open to experience are more likely to be demotivated by rewards, competition, comparison, and cooperation. We contribute to the CHI community by offering design guidelines for tailoring persuasive games and gamified designs to a particular group of personalities.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1337,22 +1400,22 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1015 – 1027</t>
+          <t>1015 - 1027</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Orji20171015,
+          <t>@CONFERENCE{Orji20171015,
     author = "Orji, Rita and Nacke, Lennart E. and Di Marco, Chrysanne",
     title = "Towards personality-driven persuasive health games and gamified systems",
     year = "2017",
     journal = "Conference on Human Factors in Computing Systems - Proceedings",
     volume = "2017-May",
-    pages = "1015 – 1027",
+    pages = "1015 - 1027",
     doi = "10.1145/3025453.3025577",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85026734459\&amp;doi=10.1145\%2f3025453.3025577\&amp;partnerID=40\&amp;md5=9f0d85f2f7d8177b2eb8d653918723f4",
     affiliations = "Cheriton School of Computer Science, University of Waterloo, Waterloo, ON, Canada; HCI Games Group, Games Institute, University of Waterloo, Waterloo, ON, Canada",
-    abstract = "Persuasive games and gamified systems are effective tools for motivating behavior change using various persuasive strategies. Research has shown that tailoring these systems can increase their efficacy. However, there is little knowledge on how game-based persuasive systems can be tailored to individuals of various personality traits. To advance research in this area, we conducted a large-scale study of 660 participants to investigate how different personalities respond to various persuasive strategies that are used in persuasive health games and gamified systems. Our results reveal that people's personality traits play a significant role in the perceived persuasiveness of different strategies. Conscientious people tend to be motivated by goal setting, simulation, self-monitoring and feedback; people who are more open to experience are more likely to be demotivated by rewards, competition, comparison, and cooperation. We contribute to the CHI community by offering design guidelines for tailoring persuasive games and gamified designs to a particular group of personalities. © 2017 ACM.",
+    abstract = "Persuasive games and gamified systems are effective tools for motivating behavior change using various persuasive strategies. Research has shown that tailoring these systems can increase their efficacy. However, there is little knowledge on how game-based persuasive systems can be tailored to individuals of various personality traits. To advance research in this area, we conducted a large-scale study of 660 participants to investigate how different personalities respond to various persuasive strategies that are used in persuasive health games and gamified systems. Our results reveal that people's personality traits play a significant role in the perceived persuasiveness of different strategies. Conscientious people tend to be motivated by goal setting, simulation, self-monitoring and feedback; people who are more open to experience are more likely to be demotivated by rewards, competition, comparison, and cooperation. We contribute to the CHI community by offering design guidelines for tailoring persuasive games and gamified designs to a particular group of personalities. (c) 2017 ACM.",
     author_keywords = "Behavior change; Gamified design; Personality; Personalization; Persuasive game; Persuasive strategies; Risky health behavior; Serious games",
     keywords = "Behavioral research; Health; Human computer interaction; Human engineering; Motivation; Behavior change; Health behaviors; Personality; Personalizations; Persuasive game; Persuasive strategies; Serious games",
     publisher = "Association for Computing Machinery",
@@ -1363,8 +1426,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 206; Conference name: 2017 ACM SIGCHI Conference on Human Factors in Computing Systems, CHI 2017; Conference date: 6 May 2017 through 11 May 2017; Conference code: 127654"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1393,7 +1455,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1404,7 +1466,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85026734459&amp;doi=10.1145%2f3025453.3025577&amp;partnerID=40&amp;md5=9f0d85f2f7d8177b2eb8d653918723f4</t>
+          <t>https://dl.acm.org/doi/10.1145/3025453.3025577</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1435,7 +1497,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Persuasive gameful systems are effective tools for motivating behaviour change. Research has shown that tailoring these systems to individuals can increase their efficacy; however, there is little knowledge on how to personalize them. We conducted a large-scale study of 543 participants to investigate how different gamification user types responded to ten persuasive strategies depicted in storyboards representing persuasive gameful health systems. Our results reveal that people's gamification user types play significant roles in the perceived persuasiveness of different strategies. People scoring high in the'player' user type tend to be motivated by competition, comparison, cooperation, and reward while'disruptors' are likely to be demotivated by punishment, goal-setting, simulation, and self-monitoring.'Socialisers' could be motivated using any of the strategies; they are the most responsive to persuasion overall. Finally, we contribute to CHI research and practice by offering design guidelines for tailoring persuasive gameful systems to each gamification user type. © 2018 Association for Computing Machinery.</t>
+          <t>Persuasive gameful systems are effective tools for motivating behaviour change. Research has shown that tailoring these systems to individuals can increase their efficacy; however, there is little knowledge on how to personalize them. We conducted a large-scale study of 543 participants to investigate how different gamification user types responded to ten persuasive strategies depicted in storyboards representing persuasive gameful health systems. Our results reveal that people's gamification user types play significant roles in the perceived persuasiveness of different strategies. People scoring high in the'player' user type tend to be motivated by competition, comparison, cooperation, and reward while'disruptors' are likely to be demotivated by punishment, goal-setting, simulation, and self-monitoring.'Socialisers' could be motivated using any of the strategies; they are the most responsive to persuasion overall. Finally, we contribute to CHI research and practice by offering design guidelines for tailoring persuasive gameful systems to each gamification user type.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1459,10 +1521,14 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1-14</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Orji2018,
+          <t>@CONFERENCE{Orji2018,
     author = "Orji, Rita and Tondello, Gustavo F. and Nacke, Lennart E.",
     title = "Personalizing persuasive strategies in gameful systems to gamification user types",
     year = "2018",
@@ -1471,7 +1537,7 @@
     doi = "10.1145/3173574.3174009",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85046150825\&amp;doi=10.1145\%2f3173574.3174009\&amp;partnerID=40\&amp;md5=d9540948527cdbf003752370756b8f8c",
     affiliations = "Faculty of Computer Science, Dalhousie University, Halifax, NS, Canada; HCI Games Group, Games Institute, Canada; Cheriton School of Computer Science, Canada; Drama and Speech Communication and Stratford Campus, University of Waterloo, ON, Canada",
-    abstract = "Persuasive gameful systems are effective tools for motivating behaviour change. Research has shown that tailoring these systems to individuals can increase their efficacy; however, there is little knowledge on how to personalize them. We conducted a large-scale study of 543 participants to investigate how different gamification user types responded to ten persuasive strategies depicted in storyboards representing persuasive gameful health systems. Our results reveal that people's gamification user types play significant roles in the perceived persuasiveness of different strategies. People scoring high in the'player' user type tend to be motivated by competition, comparison, cooperation, and reward while'disruptors' are likely to be demotivated by punishment, goal-setting, simulation, and self-monitoring.'Socialisers' could be motivated using any of the strategies; they are the most responsive to persuasion overall. Finally, we contribute to CHI research and practice by offering design guidelines for tailoring persuasive gameful systems to each gamification user type. © 2018 Association for Computing Machinery.",
+    abstract = "Persuasive gameful systems are effective tools for motivating behaviour change. Research has shown that tailoring these systems to individuals can increase their efficacy; however, there is little knowledge on how to personalize them. We conducted a large-scale study of 543 participants to investigate how different gamification user types responded to ten persuasive strategies depicted in storyboards representing persuasive gameful health systems. Our results reveal that people's gamification user types play significant roles in the perceived persuasiveness of different strategies. People scoring high in the'player' user type tend to be motivated by competition, comparison, cooperation, and reward while'disruptors' are likely to be demotivated by punishment, goal-setting, simulation, and self-monitoring.'Socialisers' could be motivated using any of the strategies; they are the most responsive to persuasion overall. Finally, we contribute to CHI research and practice by offering design guidelines for tailoring persuasive gameful systems to each gamification user type. (c) 2018 Association for Computing Machinery.",
     author_keywords = "Behaviour change; Gameful design; Gamification; Hexad; Personalization; Persuasive strategies; Risky health behavior",
     keywords = "Gamification; Behaviour changes; Gameful designs; Health behaviors; Hexad; Personalizations; Persuasive strategies; Behavioral research",
     publisher = "Association for Computing Machinery",
@@ -1482,8 +1548,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 138; Conference name: 2018 CHI Conference on Human Factors in Computing Systems, CHI 2018; Conference date: 21 April 2018 through 26 April 2018; Conference code: 135975; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1512,7 +1577,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1523,7 +1588,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85046150825&amp;doi=10.1145%2f3173574.3174009&amp;partnerID=40&amp;md5=d9540948527cdbf003752370756b8f8c</t>
+          <t>https://dl.acm.org/doi/10.1145/3173574.3174009</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1533,7 +1598,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1619,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>In this paper, we present the iterative design of StepQuest, a Fitbit-based social motion-based game for health (MGH) to sustain physical activity (PA) and support extended play. We conducted two 6-week user studies (n=24) to evaluate the effectiveness of the game to promote PA for an extended period of time as well as the role of existing social relationship. Our findings indicate that a pre-existing positive relationship (e.g., friendship) has a positive impact on players’ PA levels when they play a social MGH, compared to strangers, and that this effect was amplified when more gameplay actions were available. However, our results also show that overall PA levels declined for both groups in week 4, and that preexisting social relationship and a variety of gameplay actions are not enough to sustain long-term motivation for PA. Based on these results and drawing from game design literature, we present a list of design implications including less-discussed key topics such as game balancing. © 2018 Association for Computing Machinery.</t>
+          <t>In this paper, we present the iterative design of StepQuest, a Fitbit-based social motion-based game for health (MGH) to sustain physical activity (PA) and support extended play. We conducted two 6-week user studies (n=24) to evaluate the effectiveness of the game to promote PA for an extended period of time as well as the role of existing social relationship. Our findings indicate that a pre-existing positive relationship (e.g., friendship) has a positive impact on players' PA levels when they play a social MGH, compared to strangers, and that this effect was amplified when more gameplay actions were available. However, our results also show that overall PA levels declined for both groups in week 4, and that preexisting social relationship and a variety of gameplay actions are not enough to sustain long-term motivation for PA. Based on these results and drawing from game design literature, we present a list of design implications including less-discussed key topics such as game balancing.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1578,10 +1643,14 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>77-87</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Caro2018,
+          <t>@CONFERENCE{Caro2018,
     author = "Caro, Karina and Feng, Yuanyuan and Day, Timothy and Freed, Evan and Fox, Boyd and Zhu, Jichen",
     editor = "N., Minsky and V., Osmani",
     title = "Understanding the effect of existing positive relationships on a social motion-based game for health",
@@ -1590,7 +1659,7 @@
     doi = "10.1145/3240925.3240942",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85116361719\&amp;doi=10.1145\%2f3240925.3240942\&amp;partnerID=40\&amp;md5=cd087568f2f3e6f704a3ee36dcb89607",
     affiliations = "Drexel University, United States",
-    abstract = "In this paper, we present the iterative design of StepQuest, a Fitbit-based social motion-based game for health (MGH) to sustain physical activity (PA) and support extended play. We conducted two 6-week user studies (n=24) to evaluate the effectiveness of the game to promote PA for an extended period of time as well as the role of existing social relationship. Our findings indicate that a pre-existing positive relationship (e.g., friendship) has a positive impact on players’ PA levels when they play a social MGH, compared to strangers, and that this effect was amplified when more gameplay actions were available. However, our results also show that overall PA levels declined for both groups in week 4, and that preexisting social relationship and a variety of gameplay actions are not enough to sustain long-term motivation for PA. Based on these results and drawing from game design literature, we present a list of design implications including less-discussed key topics such as game balancing. © 2018 Association for Computing Machinery.",
+    abstract = "In this paper, we present the iterative design of StepQuest, a Fitbit-based social motion-based game for health (MGH) to sustain physical activity (PA) and support extended play. We conducted two 6-week user studies (n=24) to evaluate the effectiveness of the game to promote PA for an extended period of time as well as the role of existing social relationship. Our findings indicate that a pre-existing positive relationship (e.g., friendship) has a positive impact on players' PA levels when they play a social MGH, compared to strangers, and that this effect was amplified when more gameplay actions were available. However, our results also show that overall PA levels declined for both groups in week 4, and that preexisting social relationship and a variety of gameplay actions are not enough to sustain long-term motivation for PA. Based on these results and drawing from game design literature, we present a list of design implications including less-discussed key topics such as game balancing. (c) 2018 Association for Computing Machinery.",
     author_keywords = "Motion-based game for health; Social game; Social relationships",
     keywords = "Game design; Health; Interactive computer graphics; Game design; Game for healths; Gameplay; Iterative design; Motion-based game for health; Physical activity; Physical activity levels; Social games; Social relationships; User study; Social aspects",
     publisher = "Association for Computing Machinery",
@@ -1602,8 +1671,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 10; Conference name: 12th EAI International Conference on Pervasive Computing Technologies for Healthcare, PervasiveHealth 2018; Conference date: 21 May 2018 through 24 May 2018; Conference code: 265849"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1632,7 +1700,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1643,7 +1711,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85116361719&amp;doi=10.1145%2f3240925.3240942&amp;partnerID=40&amp;md5=cd087568f2f3e6f704a3ee36dcb89607</t>
+          <t>https://dl.acm.org/doi/10.1145/3240925.3240942</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1653,7 +1721,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1742,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Background: The success of internet-based mental health interventions in practice—that is, in the wild—depends on the uptake and retention of the application and the user’s focused attention in the moment of use. Incorporating game-based motivational design into digital interventions delivered in the wild has been shown to increase uptake and retention in internet-based training; however, there are outstanding questions about the potential of game-based motivational strategies to increase engagement with a task in the moment of use and the effect on intervention efficacy. Objective: Designers of internet-based interventions need to know whether game-based motivational design strategies can increase in-the-moment engagement and thus improve digital interventions. The aim of this study was to investigate the effects of 1 motivational design strategy (avatar customization) in an example mental health intervention (computerized cognitive training for attention bias modification). Methods: We assigned 317 participants to either a customized avatar or an assigned avatar condition. After measuring state anxiety (State-Trait Anxiety Inventory), we randomly assigned half of the participants in each condition to either an attentional retraining condition (Attention Bias Modification Training) or a control condition. After training, participants were exposed to a negative mood induction using images with strong negative valance (International Affective Picture System), after which we measured state anxiety again. Results: Avatar customization decreased posttraining state anxiety when controlling for baseline state anxiety for those in the attentional retraining condition; however, those who did not train experienced decreased resilience to the negative mood induction (F1,252=6.86, P=.009, ηp 2=.027). This interaction effect suggests that customization increased task engagement with the intervention in the moment of use. Avatar customization also increased avatar identification (F5,252=12.46, P&lt;.001, R2=.23), regardless of condition (F1,252=.79, P=.38). Avatar identification reduced anxiety after the negative mood induction for participants who underwent training but increased poststimulus anxiety for participants who did not undergo training, further suggesting that customization increases engagement in the task (F1,252=6.19, P=.01). The beneficial effect of avatar customization on training was driven by participants who were low in their basic satisfaction of relatedness (F10,248=18.5, P&lt;.001, R2=.43), which is important because these are the participants who are most likely in need of digital interventions for mental health. Conclusions: Our results suggest that applying motivational design—specifically avatar customization—is a viable strategy to increase engagement and subsequently training efficacy in a computerized cognitive task. ©Max Valentin Birk, Regan Lee Mandryk.</t>
+          <t>Background: The success of internet-based mental health interventions in practice--that is, in the wild--depends on the uptake and retention of the application and the user's focused attention in the moment of use. Incorporating game-based motivational design into digital interventions delivered in the wild has been shown to increase uptake and retention in internet-based training; however, there are outstanding questions about the potential of game-based motivational strategies to increase engagement with a task in the moment of use and the effect on intervention efficacy. Objective: Designers of internet-based interventions need to know whether game-based motivational design strategies can increase in-the-moment engagement and thus improve digital interventions. The aim of this study was to investigate the effects of 1 motivational design strategy (avatar customization) in an example mental health intervention (computerized cognitive training for attention bias modification). Methods: We assigned 317 participants to either a customized avatar or an assigned avatar condition. After measuring state anxiety (State-Trait Anxiety Inventory), we randomly assigned half of the participants in each condition to either an attentional retraining condition (Attention Bias Modification Training) or a control condition. After training, participants were exposed to a negative mood induction using images with strong negative valance (International Affective Picture System), after which we measured state anxiety again. Results: Avatar customization decreased posttraining state anxiety when controlling for baseline state anxiety for those in the attentional retraining condition; however, those who did not train experienced decreased resilience to the negative mood induction (F1,252=6.86, P=.009, ep 2=.027). This interaction effect suggests that customization increased task engagement with the intervention in the moment of use. Avatar customization also increased avatar identification (F5,252=12.46, P&lt;.001, R2=.23), regardless of condition (F1,252=.79, P=.38). Avatar identification reduced anxiety after the negative mood induction for participants who underwent training but increased poststimulus anxiety for participants who did not undergo training, further suggesting that customization increases engagement in the task (F1,252=6.19, P=.01). The beneficial effect of avatar customization on training was driven by participants who were low in their basic satisfaction of relatedness (F10,248=18.5, P&lt;.001, R2=.43), which is important because these are the participants who are most likely in need of digital interventions for mental health. Conclusions: Our results suggest that applying motivational design--specifically avatar customization--is a viable strategy to increase engagement and subsequently training efficacy in a computerized cognitive task.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1701,7 +1769,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Birk2019,
+          <t>@ARTICLE{Birk2019,
     author = "Birk, Max Valentin and Mandryk, Regan Lee",
     title = "Improving the efficacy of cognitive training for digital mental health interventions through avatar customization: Crowdsourced quasi-experimental study",
     year = "2019",
@@ -1711,7 +1779,7 @@
     doi = "10.2196/10133",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85059795050\&amp;doi=10.2196\%2f10133\&amp;partnerID=40\&amp;md5=9e31f8c087e4f058a80f9e382f7f2144",
     affiliations = "University of Saskatchewan, Department of Computer Science, 110 Science Place, Saskatoon, S7N 5C9, SK, Canada",
-    abstract = "Background: The success of internet-based mental health interventions in practice—that is, in the wild—depends on the uptake and retention of the application and the user’s focused attention in the moment of use. Incorporating game-based motivational design into digital interventions delivered in the wild has been shown to increase uptake and retention in internet-based training; however, there are outstanding questions about the potential of game-based motivational strategies to increase engagement with a task in the moment of use and the effect on intervention efficacy. Objective: Designers of internet-based interventions need to know whether game-based motivational design strategies can increase in-the-moment engagement and thus improve digital interventions. The aim of this study was to investigate the effects of 1 motivational design strategy (avatar customization) in an example mental health intervention (computerized cognitive training for attention bias modification). Methods: We assigned 317 participants to either a customized avatar or an assigned avatar condition. After measuring state anxiety (State-Trait Anxiety Inventory), we randomly assigned half of the participants in each condition to either an attentional retraining condition (Attention Bias Modification Training) or a control condition. After training, participants were exposed to a negative mood induction using images with strong negative valance (International Affective Picture System), after which we measured state anxiety again. Results: Avatar customization decreased posttraining state anxiety when controlling for baseline state anxiety for those in the attentional retraining condition; however, those who did not train experienced decreased resilience to the negative mood induction (F1,252=6.86, P=.009, ηp 2=.027). This interaction effect suggests that customization increased task engagement with the intervention in the moment of use. Avatar customization also increased avatar identification (F5,252=12.46, P&lt;.001, R2=.23), regardless of condition (F1,252=.79, P=.38). Avatar identification reduced anxiety after the negative mood induction for participants who underwent training but increased poststimulus anxiety for participants who did not undergo training, further suggesting that customization increases engagement in the task (F1,252=6.19, P=.01). The beneficial effect of avatar customization on training was driven by participants who were low in their basic satisfaction of relatedness (F10,248=18.5, P&lt;.001, R2=.43), which is important because these are the participants who are most likely in need of digital interventions for mental health. Conclusions: Our results suggest that applying motivational design—specifically avatar customization—is a viable strategy to increase engagement and subsequently training efficacy in a computerized cognitive task. ©Max Valentin Birk, Regan Lee Mandryk.",
+    abstract = "Background: The success of internet-based mental health interventions in practice--that is, in the wild--depends on the uptake and retention of the application and the user's focused attention in the moment of use. Incorporating game-based motivational design into digital interventions delivered in the wild has been shown to increase uptake and retention in internet-based training; however, there are outstanding questions about the potential of game-based motivational strategies to increase engagement with a task in the moment of use and the effect on intervention efficacy. Objective: Designers of internet-based interventions need to know whether game-based motivational design strategies can increase in-the-moment engagement and thus improve digital interventions. The aim of this study was to investigate the effects of 1 motivational design strategy (avatar customization) in an example mental health intervention (computerized cognitive training for attention bias modification). Methods: We assigned 317 participants to either a customized avatar or an assigned avatar condition. After measuring state anxiety (State-Trait Anxiety Inventory), we randomly assigned half of the participants in each condition to either an attentional retraining condition (Attention Bias Modification Training) or a control condition. After training, participants were exposed to a negative mood induction using images with strong negative valance (International Affective Picture System), after which we measured state anxiety again. Results: Avatar customization decreased posttraining state anxiety when controlling for baseline state anxiety for those in the attentional retraining condition; however, those who did not train experienced decreased resilience to the negative mood induction (F1,252=6.86, P=.009, ep 2=.027). This interaction effect suggests that customization increased task engagement with the intervention in the moment of use. Avatar customization also increased avatar identification (F5,252=12.46, P&lt;.001, R2=.23), regardless of condition (F1,252=.79, P=.38). Avatar identification reduced anxiety after the negative mood induction for participants who underwent training but increased poststimulus anxiety for participants who did not undergo training, further suggesting that customization increases engagement in the task (F1,252=6.19, P=.01). The beneficial effect of avatar customization on training was driven by participants who were low in their basic satisfaction of relatedness (F10,248=18.5, P&lt;.001, R2=.43), which is important because these are the participants who are most likely in need of digital interventions for mental health. Conclusions: Our results suggest that applying motivational design--specifically avatar customization--is a viable strategy to increase engagement and subsequently training efficacy in a computerized cognitive task. (c)Max Valentin Birk, Regan Lee Mandryk.",
     author_keywords = "Attentional bias; Cognitive bias; Cognitive therapy; Computer-assisted therapy; Motivation; Video games",
     keywords = "Cognition; Crowdsourcing; Female; Humans; Male; Mental Health; Research Design; adult; article; attentional bias; cognition; cognitive therapy; computer assisted therapy; controlled study; female; human; major clinical study; male; mental health; mood; motivation; quasi experimental study; randomized controlled trial; satisfaction; State Trait Anxiety Inventory; video game; crowdsourcing; mental health; methodology; physiology; procedures",
     correspondence_address = "M.V. Birk; University of Saskatchewan, Department of Computer Science, Saskatoon, 110 Science Place, S7N 5C9, Canada; email: max.birk@usask.ca",
@@ -1724,8 +1792,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 43; All Open Access, Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1746,8 +1813,7 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">not have adaptive user interface
-</t>
+          <t>not have adaptive user interface</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1755,7 +1821,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1766,12 +1832,12 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85059795050&amp;doi=10.2196%2f10133&amp;partnerID=40&amp;md5=9e31f8c087e4f058a80f9e382f7f2144</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85059795050&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=f752a1c4c250ff95d39ee0d7824a99eb&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28improving+the+efficacy+of+cognitive+training+for+digital+mental+health+interventions+through+avatar+customization+crowdsourced+quasi+experimental+study%29&amp;sl=166&amp;sessionSearchId=f752a1c4c250ff95d39ee0d7824a99eb&amp;relpos=0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -1797,10 +1863,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Background: Gamification and persuasive games are effective tools to motivate behavior change, particularly to promote daily physical activities. On the one hand, studies have suggested that a one-size-fits-all approach does not work well for persuasive game design. On the other hand, player modeling and recommender systems are increasingly used for personalizing content. However, there are few existing studies on how to build comprehensive player models for personalizing gamified systems, recommending daily physical activities, or the long-term effectiveness of such gamified exercise-promoting systems. Objective: This paper aims to introduce a gamified, 24/7 fitness assistant system that provides personalized recommendations and generates gamified content targeted at individual users to bridge the aforementioned gaps. This research aims to investigate how to design gamified physical activity interventions to achieve long-term engagement. Methods: We proposed a comprehensive model for gamified fitness recommender systems that uses detailed and dynamic player modeling and wearable-based tracking to provide personalized game features and activity recommendations. Data were collected from 40 participants (23 men and 17 women) who participated in a long-term investigation on the effectiveness of our recommender system that gradually establishes and updates an individual player model (for each unique user) over a period of 60 days. Results: Our results showed the feasibility and effectiveness of the proposed system, particularly for generating personalized exercise recommendations using player modeling. There was a statistically significant difference among the 3 groups (full, personalized, and gamified) for overall motivation (F3,36=22.49; P&lt;.001), satisfaction (F3,36=22.12; P&lt;.001), and preference (F3,36=15.0; P&lt;.001), suggesting that both gamification and personalization have positive effects on the levels of motivation, satisfaction, and preference. Furthermore, qualitative results revealed that a customized storyline was the most requested feature, followed by a multiplayer mode, more quality recommendations, a feature for setting and tracking fitness goals, and more location-based features. Conclusions: On the basis of these results and drawing from the gamer modeling literature, we conclude that personalizing recommendations using player modeling and gamification can improve participants’ engagement and motivation toward fitness activities over time. © 2020 JMIR Publications. All Rights Reserved.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Background: Gamification and persuasive games are effective tools to motivate behavior change, particularly to promote daily physical activities. On the one hand, studies have suggested that a one-size-fits-all approach does not work well for persuasive game design. On the other hand, player modeling and recommender systems are increasingly used for personalizing content. However, there are few existing studies on how to build comprehensive player models for personalizing gamified systems, recommending daily physical activities, or the long-term effectiveness of such gamified exercise-promoting systems. Objective: This paper aims to introduce a gamified, 24/7 fitness assistant system that provides personalized recommendations and generates gamified content targeted at individual users to bridge the aforementioned gaps. This research aims to investigate how to design gamified physical activity interventions to achieve long-term engagement. Methods: We proposed a comprehensive model for gamified fitness recommender systems that uses detailed and dynamic player modeling and wearable-based tracking to provide personalized game features and activity recommendations. Data were collected from 40 participants (23 men and 17 women) who participated in a long-term investigation on the effectiveness of our recommender system that gradually establishes and updates an individual player model (for each unique user) over a period of 60 days. Results: Our results showed the feasibility and effectiveness of the proposed system, particularly for generating personalized exercise recommendations using player modeling. There was a statistically significant difference among the 3 groups (full, personalized, and gamified) for overall motivation (F3,36=22.49; P&lt;.001), satisfaction (F3,36=22.12; P&lt;.001), and preference (F3,36=15.0; P&lt;.001), suggesting that both gamification and personalization have positive effects on the levels of motivation, satisfaction, and preference. Furthermore, qualitative results revealed that a customized storyline was the most requested feature, followed by a multiplayer mode, more quality recommendations, a feature for setting and tracking fitness goals, and more location-based features. Conclusions: On the basis of these results and drawing from the gamer modeling literature, we conclude that personalizing recommendations using player modeling and gamification can improve participants' engagement and motivation toward fitness activities over time.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mobile apps;; Mobile phone;; Motivation;; Persuasive communication;; Video games;; Wearable electronic devices</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Zhao, Zhao; Arya, Ali; Orji, Rita; Chan, Gerry</t>
@@ -1820,7 +1890,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Zhao2020,
+          <t>@ARTICLE{Zhao2020,
     author = "Zhao, Zhao and Arya, Ali and Orji, Rita and Chan, Gerry",
     title = "Effects of a personalized fitness recommender system using gamification and continuous player modeling: System design and long-term validation study",
     year = "2020",
@@ -1830,7 +1900,7 @@
     doi = "10.2196/19968",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85097492379\&amp;doi=10.2196\%2f19968\&amp;partnerID=40\&amp;md5=03688d67d1d5d020b56be3d671e30b88",
     affiliations = "Institute of Communication, Culture, Information and Technology, University of Toronto Mississauga, Mississauga, ON, Canada; School of Information Technology, Carleton University, Ottawa, ON, Canada; Faculty of Computer Science, Dalhousie University, Halifax, NS, Canada",
-    abstract = "Background: Gamification and persuasive games are effective tools to motivate behavior change, particularly to promote daily physical activities. On the one hand, studies have suggested that a one-size-fits-all approach does not work well for persuasive game design. On the other hand, player modeling and recommender systems are increasingly used for personalizing content. However, there are few existing studies on how to build comprehensive player models for personalizing gamified systems, recommending daily physical activities, or the long-term effectiveness of such gamified exercise-promoting systems. Objective: This paper aims to introduce a gamified, 24/7 fitness assistant system that provides personalized recommendations and generates gamified content targeted at individual users to bridge the aforementioned gaps. This research aims to investigate how to design gamified physical activity interventions to achieve long-term engagement. Methods: We proposed a comprehensive model for gamified fitness recommender systems that uses detailed and dynamic player modeling and wearable-based tracking to provide personalized game features and activity recommendations. Data were collected from 40 participants (23 men and 17 women) who participated in a long-term investigation on the effectiveness of our recommender system that gradually establishes and updates an individual player model (for each unique user) over a period of 60 days. Results: Our results showed the feasibility and effectiveness of the proposed system, particularly for generating personalized exercise recommendations using player modeling. There was a statistically significant difference among the 3 groups (full, personalized, and gamified) for overall motivation (F3,36=22.49; P&lt;.001), satisfaction (F3,36=22.12; P&lt;.001), and preference (F3,36=15.0; P&lt;.001), suggesting that both gamification and personalization have positive effects on the levels of motivation, satisfaction, and preference. Furthermore, qualitative results revealed that a customized storyline was the most requested feature, followed by a multiplayer mode, more quality recommendations, a feature for setting and tracking fitness goals, and more location-based features. Conclusions: On the basis of these results and drawing from the gamer modeling literature, we conclude that personalizing recommendations using player modeling and gamification can improve participants’ engagement and motivation toward fitness activities over time. © 2020 JMIR Publications. All Rights Reserved.",
+    abstract = "Background: Gamification and persuasive games are effective tools to motivate behavior change, particularly to promote daily physical activities. On the one hand, studies have suggested that a one-size-fits-all approach does not work well for persuasive game design. On the other hand, player modeling and recommender systems are increasingly used for personalizing content. However, there are few existing studies on how to build comprehensive player models for personalizing gamified systems, recommending daily physical activities, or the long-term effectiveness of such gamified exercise-promoting systems. Objective: This paper aims to introduce a gamified, 24/7 fitness assistant system that provides personalized recommendations and generates gamified content targeted at individual users to bridge the aforementioned gaps. This research aims to investigate how to design gamified physical activity interventions to achieve long-term engagement. Methods: We proposed a comprehensive model for gamified fitness recommender systems that uses detailed and dynamic player modeling and wearable-based tracking to provide personalized game features and activity recommendations. Data were collected from 40 participants (23 men and 17 women) who participated in a long-term investigation on the effectiveness of our recommender system that gradually establishes and updates an individual player model (for each unique user) over a period of 60 days. Results: Our results showed the feasibility and effectiveness of the proposed system, particularly for generating personalized exercise recommendations using player modeling. There was a statistically significant difference among the 3 groups (full, personalized, and gamified) for overall motivation (F3,36=22.49; P&lt;.001), satisfaction (F3,36=22.12; P&lt;.001), and preference (F3,36=15.0; P&lt;.001), suggesting that both gamification and personalization have positive effects on the levels of motivation, satisfaction, and preference. Furthermore, qualitative results revealed that a customized storyline was the most requested feature, followed by a multiplayer mode, more quality recommendations, a feature for setting and tracking fitness goals, and more location-based features. Conclusions: On the basis of these results and drawing from the gamer modeling literature, we conclude that personalizing recommendations using player modeling and gamification can improve participants' engagement and motivation toward fitness activities over time. (c) 2020 JMIR Publications. All Rights Reserved.",
     author_keywords = "Mobile apps; Mobile phone; Motivation; Persuasive communication; Video games; Wearable electronic devices",
     correspondence_address = "Z. Zhao; Institute of Communication, Culture, Information and Technology, University of Toronto Mississauga, Mississauga, 3359 Mississauga Road, L5L 1C6, Canada; email: zhao.zhao@utoronto.ca",
     publisher = "JMIR Publications Inc.",
@@ -1841,8 +1911,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 34; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1872,7 +1941,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1883,17 +1952,17 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85097492379&amp;doi=10.2196%2f19968&amp;partnerID=40&amp;md5=03688d67d1d5d020b56be3d671e30b88</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85097492379&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=7a9778e65077de9ba4a558af6074e9cd&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28effects+of+a+personalized+fitness+recommender+system+using+gamification+and+continuous+player+modeling+system+design+and+long+term+validation+study%29&amp;sl=162&amp;sessionSearchId=7a9778e65077de9ba4a558af6074e9cd&amp;relpos=0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1983,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>In this paper, we present the design and development of a persuasive game for promoting physical activity and discouraging sedentariness. The game is based on the tree metaphor which links a player's physical activity level (operationalized using step count) to the health of a tree. Thus, as the player becomes physically active (such as walking or running), the tree's health improves. The tree withers if player's physical activity level reduces. The game employs various persuasive strategies based on the Persuasive Systems Design (PSD) framework to boost players' motivation and provide an enjoyable experience. We believe that our game will yield improved physical activity levels among adults by encouraging them to regularly engage in light-intensity activity (e.g., slow-walking), moderate-intensity activity (e.g., brisk-walking), and vigorous-intensity activity (e.g., running). By being physically active, players protect themselves from chronic health conditions and improve their emotional and mental well-being. © 2020 IEEE.</t>
+          <t>In this paper, we present the design and development of a persuasive game for promoting physical activity and discouraging sedentariness. The game is based on the tree metaphor which links a player's physical activity level (operationalized using step count) to the health of a tree. Thus, as the player becomes physically active (such as walking or running), the tree's health improves. The tree withers if player's physical activity level reduces. The game employs various persuasive strategies based on the Persuasive Systems Design (PSD) framework to boost players' motivation and provide an enjoyable experience. We believe that our game will yield improved physical activity levels among adults by encouraging them to regularly engage in light-intensity activity (e.g., slow-walking), moderate-intensity activity (e.g., brisk-walking), and vigorous-intensity activity (e.g., running). By being physically active, players protect themselves from chronic health conditions and improve their emotional and mental well-being.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1941,7 +2010,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Oyebode2020,
+          <t>@CONFERENCE{Oyebode2020,
     author = "Oyebode, Oladapo and Maurya, Devansh and Orji, Rita",
     editor = "N., Rodrigues and R., Smith and N., Dias and J.L., Vilaca and K., Qayumi and E., Oliveira and D., Duque",
     title = "Nourish Your Tree! Developing a Persuasive Exergame for Promoting Physical Activity among Adults",
@@ -1950,7 +2019,7 @@
     doi = "10.1109/SeGAH49190.2020.9201637",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85092702539\&amp;doi=10.1109\%2fSeGAH49190.2020.9201637\&amp;partnerID=40\&amp;md5=efe5f16aba977bbcc236372d6f36cf97",
     affiliations = "Faculty of Computer Science, Dalhousie University, Halifax, Canada; National Institute of Technology Meghalaya, Dept. of Computer Science and Eng., Shillong, India",
-    abstract = "In this paper, we present the design and development of a persuasive game for promoting physical activity and discouraging sedentariness. The game is based on the tree metaphor which links a player's physical activity level (operationalized using step count) to the health of a tree. Thus, as the player becomes physically active (such as walking or running), the tree's health improves. The tree withers if player's physical activity level reduces. The game employs various persuasive strategies based on the Persuasive Systems Design (PSD) framework to boost players' motivation and provide an enjoyable experience. We believe that our game will yield improved physical activity levels among adults by encouraging them to regularly engage in light-intensity activity (e.g., slow-walking), moderate-intensity activity (e.g., brisk-walking), and vigorous-intensity activity (e.g., running). By being physically active, players protect themselves from chronic health conditions and improve their emotional and mental well-being. © 2020 IEEE.",
+    abstract = "In this paper, we present the design and development of a persuasive game for promoting physical activity and discouraging sedentariness. The game is based on the tree metaphor which links a player's physical activity level (operationalized using step count) to the health of a tree. Thus, as the player becomes physically active (such as walking or running), the tree's health improves. The tree withers if player's physical activity level reduces. The game employs various persuasive strategies based on the Persuasive Systems Design (PSD) framework to boost players' motivation and provide an enjoyable experience. We believe that our game will yield improved physical activity levels among adults by encouraging them to regularly engage in light-intensity activity (e.g., slow-walking), moderate-intensity activity (e.g., brisk-walking), and vigorous-intensity activity (e.g., running). By being physically active, players protect themselves from chronic health conditions and improve their emotional and mental well-being. (c) 2020 IEEE.",
     author_keywords = "Exergame; Health; Mobile game; Persuasive game; Persuasive strategy; Persuasive technology; Physical activity; Wellbeing",
     keywords = "Forestry; Serious games; Design and Development; Health condition; Light intensity; Physical activity; Physical activity levels; Well being; Health",
     publisher = "Institute of Electrical and Electronics Engineers Inc.",
@@ -1961,8 +2030,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 19; Conference name: 8th IEEE International Conference on Serious Games and Applications for Health, SeGAH 2020; Conference date: 12 August 2020 through 14 August 2020; Conference code: 163264"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1987,7 +2055,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1998,12 +2066,12 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85092702539&amp;doi=10.1109%2fSeGAH49190.2020.9201637&amp;partnerID=40&amp;md5=efe5f16aba977bbcc236372d6f36cf97</t>
+          <t>https://ieeexplore.ieee.org/document/9201637</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+          <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2029,7 +2097,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The growing number of people with mental health issues and the worldwide shortage of professionals emphasise the need for tailored persuasive interventions. This paper explores the relationships between the types of motivation individuals experience and their preferences for various features that are widely used in persuasive apps for mental and emotional well-being. First, we reviewed 103 mental health apps from app stores and identified various persuasive features and then conducted focus-group studies of 32 participants. Finally, we implemented the common features in persuasive mental health app prototypes and conducted a large-scale study of 561 users to evaluate their perceived effectiveness. The results reveal that people’s motivation types significantly influence the perceived persuasiveness of different features. People high in intrinsic motivation are more motivated by apps that offer relaxation exercises while providing opportunities to track various mental health-related information. We offer design guidelines for tailoring persuasive mental health apps based on motivation types. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The growing number of people with mental health issues and the worldwide shortage of professionals emphasise the need for tailored persuasive interventions. This paper explores the relationships between the types of motivation individuals experience and their preferences for various features that are widely used in persuasive apps for mental and emotional well-being. First, we reviewed 103 mental health apps from app stores and identified various persuasive features and then conducted focus-group studies of 32 participants. Finally, we implemented the common features in persuasive mental health app prototypes and conducted a large-scale study of 561 users to evaluate their perceived effectiveness. The results reveal that people's motivation types significantly influence the perceived persuasiveness of different features. People high in intrinsic motivation are more motivated by apps that offer relaxation exercises while providing opportunities to track various mental health-related information. We offer design guidelines for tailoring persuasive mental health apps based on motivation types.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2055,23 +2123,23 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>569 – 595</t>
+          <t>569 - 595</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Alqahtani2023569,
+          <t>@ARTICLE{Alqahtani2023569,
     author = "Alqahtani, Felwah and Orji, Rita and Riper, Heleen and McCleary, Nicola and Witteman, Holly and McGrath, Patrick",
     title = "Motivation-based approach for tailoring persuasive mental health applications",
     year = "2023",
     journal = "Behaviour and Information Technology",
     volume = "42",
     number = "5",
-    pages = "569 – 595",
+    pages = "569 - 595",
     doi = "10.1080/0144929X.2022.2031296",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85124754502\&amp;doi=10.1080\%2f0144929X.2022.2031296\&amp;partnerID=40\&amp;md5=4b747d822af39e23c5442c6b30a15e2d",
-    affiliations = "Faculty of Computer Science, Dalhousie University, Halifax, Canada; Faculty of Computer Science, King Khalid University, Abha, Saudi Arabia; Department of Clinical, Neuro and Developmental Psychology, Vrije Universiteit Amsterdam, Amsterdam, Netherlands; Department of Psychiatry, Amsterdam Public Health Research Institute, VU University Medical Center, Amsterdam, Netherlands; Clinical Epidemiology Program, Ottawa Hospital Research Institute, Ottawa, Canada; School of Epidemiology and Public Health, University of Ottawa, Ottawa, Canada; Department of Family and Emergency Medicine, Université Laval, QC, Canada; IWK Health Centre, Nova Scotia Health Authority, Dalhousie University, Halifax, Canada",
-    abstract = "The growing number of people with mental health issues and the worldwide shortage of professionals emphasise the need for tailored persuasive interventions. This paper explores the relationships between the types of motivation individuals experience and their preferences for various features that are widely used in persuasive apps for mental and emotional well-being. First, we reviewed 103 mental health apps from app stores and identified various persuasive features and then conducted focus-group studies of 32 participants. Finally, we implemented the common features in persuasive mental health app prototypes and conducted a large-scale study of 561 users to evaluate their perceived effectiveness. The results reveal that people’s motivation types significantly influence the perceived persuasiveness of different features. People high in intrinsic motivation are more motivated by apps that offer relaxation exercises while providing opportunities to track various mental health-related information. We offer design guidelines for tailoring persuasive mental health apps based on motivation types. © 2022 Informa UK Limited, trading as Taylor \&amp; Francis Group.",
+    affiliations = "Faculty of Computer Science, Dalhousie University, Halifax, Canada; Faculty of Computer Science, King Khalid University, Abha, Saudi Arabia; Department of Clinical, Neuro and Developmental Psychology, Vrije Universiteit Amsterdam, Amsterdam, Netherlands; Department of Psychiatry, Amsterdam Public Health Research Institute, VU University Medical Center, Amsterdam, Netherlands; Clinical Epidemiology Program, Ottawa Hospital Research Institute, Ottawa, Canada; School of Epidemiology and Public Health, University of Ottawa, Ottawa, Canada; Department of Family and Emergency Medicine, Universite Laval, QC, Canada; IWK Health Centre, Nova Scotia Health Authority, Dalhousie University, Halifax, Canada",
+    abstract = "The growing number of people with mental health issues and the worldwide shortage of professionals emphasise the need for tailored persuasive interventions. This paper explores the relationships between the types of motivation individuals experience and their preferences for various features that are widely used in persuasive apps for mental and emotional well-being. First, we reviewed 103 mental health apps from app stores and identified various persuasive features and then conducted focus-group studies of 32 participants. Finally, we implemented the common features in persuasive mental health app prototypes and conducted a large-scale study of 561 users to evaluate their perceived effectiveness. The results reveal that people's motivation types significantly influence the perceived persuasiveness of different features. People high in intrinsic motivation are more motivated by apps that offer relaxation exercises while providing opportunities to track various mental health-related information. We offer design guidelines for tailoring persuasive mental health apps based on motivation types. (c) 2022 Informa UK Limited, trading as Taylor \&amp; Francis Group.",
     author_keywords = "mental health; personalization; persuasive features; Persuasive technology; self-determination theory",
     keywords = "Behavioral research; Health; App stores; Focus group studies; Health issues; Mental health; Number of peoples; Personalizations; Persuasive feature; Persuasive technology; Self-determination theories; Well being; adult; article; clinical article; comparative effectiveness; emotional well-being; exercise; female; human; human experiment; intrinsic motivation; leisure; male; mental health; motivation; persuasive technology; practice guideline; Motivation",
     correspondence_address = "F. Alqahtani; Faculty of Computer Science, Dalhousie University, Halifax, Canada; email: Felwah.alqahtani@dal.ca",
@@ -2084,8 +2152,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2114,7 +2181,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -2125,12 +2192,12 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85124754502&amp;doi=10.1080%2f0144929X.2022.2031296&amp;partnerID=40&amp;md5=4b747d822af39e23c5442c6b30a15e2d</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85124754502&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=07015e4a58e777002544ddc28cf2fa4e&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28motivation+based+approach+for+tailoring+persuasive+mental+health+applications%29&amp;sl=92&amp;sessionSearchId=07015e4a58e777002544ddc28cf2fa4e&amp;relpos=0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Taylor and Francis Ltd.</t>
+          <t>Taylor and Francis Ltd</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2156,7 +2223,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Persons that suffered from a cardiac disease are often recommended to integrate a sufficient level of physical exercise in their daily life. Initially, cardiac rehabilitation takes place in a closely monitored setting in a hospital or a rehabilitation center. Sustaining the effort once the patient has left the ambulatory, supervised environment is a challenge, and drop-out rates are high. Emerging approaches such as telemonitoring and telerehabilitation have been proven to show the potential to support the cardiac patient in adhering to the advised physical exercise. However, most telerehabilitation solutions only support a limited range of physical exercise, such as step-counting during walking. We propose BoB (Back on Bike), a mobile application that guides cardiac patients while cycling. Design choices are explained according to three pillars: ease of use, reduce fear, and direct and indirect motivation. In this paper, we report the results from a field study with cardiac patients. © 2016 ACM.</t>
+          <t>Persons that suffered from a cardiac disease are often recommended to integrate a sufficient level of physical exercise in their daily life. Initially, cardiac rehabilitation takes place in a closely monitored setting in a hospital or a rehabilitation center. Sustaining the effort once the patient has left the ambulatory, supervised environment is a challenge, and drop-out rates are high. Emerging approaches such as telemonitoring and telerehabilitation have been proven to show the potential to support the cardiac patient in adhering to the advised physical exercise. However, most telerehabilitation solutions only support a limited range of physical exercise, such as step-counting during walking. We propose BoB (Back on Bike), a mobile application that guides cardiac patients while cycling. Design choices are explained according to three pillars: ease of use, reduce fear, and direct and indirect motivation. In this paper, we report the results from a field study with cardiac patients.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2182,21 +2249,21 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>135 – 146</t>
+          <t>135 - 146</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Geurts2016135,
+          <t>@CONFERENCE{Geurts2016135,
     author = "Geurts, Eva and Haesen, Mieke and Dendale, Paul and Luyten, Kris and Coninx, Karin",
     title = "Back on bike: The BoB mobile cycling app for secondary prevention in cardiac patients",
     year = "2016",
     journal = "Proceedings of the 18th International Conference on Human-Computer Interaction with Mobile Devices and Services, MobileHCI 2016",
-    pages = "135 – 146",
+    pages = "135 - 146",
     doi = "10.1145/2935334.2935377",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84991383492\&amp;doi=10.1145\%2f2935334.2935377\&amp;partnerID=40\&amp;md5=5945d8dfd7eafea8241fd114edb73e9d",
     affiliations = "Expertise Centre for Digital Media, Hasselt University - tUL - iMinds, Wetenschapspark 2, Diepenbeek, 3590, Belgium; Faculty of Medical and Life Sciences, Hasselt University, Agoralaan - Building D, Diepenbeek, 3590, Belgium; Department of Cardiology, Jessa Ziekenhuis, Stadsomvaart 11, Hasselt, 3500, Belgium",
-    abstract = "Persons that suffered from a cardiac disease are often recommended to integrate a sufficient level of physical exercise in their daily life. Initially, cardiac rehabilitation takes place in a closely monitored setting in a hospital or a rehabilitation center. Sustaining the effort once the patient has left the ambulatory, supervised environment is a challenge, and drop-out rates are high. Emerging approaches such as telemonitoring and telerehabilitation have been proven to show the potential to support the cardiac patient in adhering to the advised physical exercise. However, most telerehabilitation solutions only support a limited range of physical exercise, such as step-counting during walking. We propose BoB (Back on Bike), a mobile application that guides cardiac patients while cycling. Design choices are explained according to three pillars: ease of use, reduce fear, and direct and indirect motivation. In this paper, we report the results from a field study with cardiac patients. © 2016 ACM.",
+    abstract = "Persons that suffered from a cardiac disease are often recommended to integrate a sufficient level of physical exercise in their daily life. Initially, cardiac rehabilitation takes place in a closely monitored setting in a hospital or a rehabilitation center. Sustaining the effort once the patient has left the ambulatory, supervised environment is a challenge, and drop-out rates are high. Emerging approaches such as telemonitoring and telerehabilitation have been proven to show the potential to support the cardiac patient in adhering to the advised physical exercise. However, most telerehabilitation solutions only support a limited range of physical exercise, such as step-counting during walking. We propose BoB (Back on Bike), a mobile application that guides cardiac patients while cycling. Design choices are explained according to three pillars: ease of use, reduce fear, and direct and indirect motivation. In this paper, we report the results from a field study with cardiac patients. (c) 2016 ACM.",
     author_keywords = "Cardiac rehabilitation; Mobile application; Persuasion; Prevention; Remote monitoring; User experience",
     keywords = "Heart; Mobile computing; Mobile devices; Mobile telecommunication systems; Sports; Cardiac rehabilitations; Mobile applications; Persuasion; Prevention; Remote monitoring; User experience; Human computer interaction",
     publisher = "Association for Computing Machinery, Inc",
@@ -2207,8 +2274,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 9; Conference name: 18th International Conference on Human-Computer Interaction with Mobile Devices and Services, MobileHCI 2016; Conference date: 6 September 2016 through 9 September 2016; Conference code: 123722"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2237,7 +2303,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -2248,7 +2314,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84991383492&amp;doi=10.1145%2f2935334.2935377&amp;partnerID=40&amp;md5=5945d8dfd7eafea8241fd114edb73e9d</t>
+          <t>https://dl.acm.org/doi/10.1145/2935334.2935377</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2282,10 +2348,14 @@
           <t>Diabetes mellitus is an illness that requires continuing medical care and self-management system for the patients to prevent acute complications to reduce the risk of long-term complications. It is a complex disease in which the care for health is supposed to be a satisfactory daily prescribed diet and practicing regular habits, in addition to proper medication and treatment. Good diet and exercise habits, as well as continuous monitoring of blood pressure and sugar are all important for a diabetic patient in order to maintain his proper health. Although there are too many health care solutions exist in the market today, but none of them focus on providing a personalized health care management system for the patient. This proposed mobile application will take an effort to ensure a healthy balanced diet for the patients with the synchronization of balancing food energy. The system provides more facilities by giving the chance to set the medicine alarms, monitoring blood pressure and sugar levels in a chart. The system also provides more safety by making emergency calls and messages in real-time by utilizing GPS reporting technology considering the crucial moment of the patient. Two surveys are included in order to show the necessity of the implementation.</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Biomedical monitoring;Blood pressure;Diabetes;Biosensors;Sugar;Monitoring;Diabetes;Self-Management;Healthy diet;Balancing Food Energy;Medications;Monitoring;Emergency;GPS</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Farzana Alam Khan; Mohammad Ibrahim Khan</t>
+          <t>Khan, Farzana Alam; Khan, Mohammad Ibrahim</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2303,8 +2373,29 @@
           <t>1.A. Carpio, J. Kim and R. Hoda, "Med Touch: Towards the Development of Smartphone-based Software Solutions for Mobile Health Care", SEPTA Electrical and Computer Engineering The University of Auckland Auckland New Zealand 22nd Australasian Software Engineering Conference-Industry Proceedings, 4-7 June, 2013. Google Scholar; 2.N. Tarara, "Designing mobile patient-centric self-help terminals for people with diabetes", Proc. of the 11 th International Conference on Human-Computer Interaction with Mobile Devices and Services, 2009. CrossRef  Google Scholar; 3.American Diabetes Association: Diabetes Statistics,  [online]  Available: http://www.diabetes.org/diabetes-basics/diabetesstatistics. Google Scholar; 4.A. Nardolollo, M. P. Kane, R. S. Busch, J. Watsky and R. A. Hamilton, "A Clinical Perspective of Canagliflozin in the Management of Type 2 Diabetes Mellitus" in Albeny College of Pharmacy and Health Sciences, Albany, NY:The Endocrine Group, LLP, September 2014. Google Scholar; 5.A. Liebl, K. Khunti, D. O. Beltran and J. F. Yale, Health Economic Evaluation of Type 2 Diabetes Mellitus: A Clinical Practice Focused Review, UK:University of Leicester, March 2015. Google Scholar; 6.V. Gay, P. Leijdekkers and E. Barin, "A Mobile Rehabilitation Application for the Remote Monitoring of Cardiac Patients after a Heart Attack or a Coronary Bypass Surgery", Proc. of the 2 nd International Pervasive Technologies Related to Assistive Environments, 2009. CrossRef  Google Scholar; 7.I. Qudah, P. Leijdekkers and V. Gay, "Using Mobile Phones to Improve Medication Compliance and Awareness for Cardiac Patients", Proc. of the 3 rd International Conference on Pervasive Technologies Related to Assistive Environments, 2012. CrossRef  Google Scholar; 8.S. Akter, M. M. Rahman, S. K. Abe and P. Sultana, "Prevalence of diabetes and pre-diabetes and their risk factors among Bangladeshi adults: a nationwide survey" in Department of Epidemiology and Prevention Clinical Research Center National Center for Global Health and Medicine, Toyama 1-21-1, Shinjuku-ku, Tokyo 162-8655, Japan:Department of Global Health Policy, University of Tokyo, Japan, Department of Statistics, University of Rajshahi, January 2014. CrossRef  Google Scholar; 9.G. Bakris and J. R Sowers, ASH Position Paper: Treatment of Hypertension in Patients with Diabetes-an Update, Chicago:Department of Medicine, University of Chicago Pritzker School of Medicine, September 2008. Google Scholar; 10.F. Zhou, Mobile Personal Health care System for Patients with Diabetes, Ames, Iowa, United States:Iowa State University, September 2010. CrossRef  Google Scholar; 11.IDF Diabetes Atlas International Diabetes federation, 2013,  [online]  Available: https://www.idf.org/diabetesatlas. Google Scholar; 12.Qudah, P. Leijdekkers and V. Gay, "Using mobile phones to improve medication compliance and awareness for cardiac patients", Proc. of the 3rd International Conference on Pervasive Technologies Related to Assistive Environments, 2012. CrossRef  Google Scholar; 13.Y. WenBai and D. Yang, "Mobile Blood-glucose Monitoring of an Integrated Health Information management System", IEEE International Conference on Consumer Electronics (ICCE), 2012. View Article  Google Scholar; 14.L. Don, "Importance of cardiovascular disease risk management in patients with type 2 diabetes mellitus", Diabetes MetabSyndr Obes, vol. 7, pp. 169-83, May 2014. Google Scholar; 15.BMR Calculator,  [online]  Available: http://www.calculator.net. Google Scholar; 16."Diabetic Patients Book", referred by by Chittagong Diabetic Hospital Association. Google Scholar; 17.Sky Health: Glucose Buddy,  [online]  Available: https://play.google.com/store/apps/details?id=com.skyhealth.glucosebuddyfree=en. Google Scholar; 18.K. Rao, M. Ahmed Hanash and G. Ahmed AL-Aidaros, "Development of Mobile Phone Medical Application Software for Clinical Diagnosis", International Journal of Innovative Science and Modern Engineering (IJISME), September 2014. Google Scholar</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{7873054,
+    author = "Khan, Farzana Alam and Khan, Mohammad Ibrahim",
+    booktitle = "2016 3rd International Conference on Electrical Engineering and Information Communication Technology (ICEEICT)",
+    title = "Android based health care system for aged diabetic patients",
+    year = "2016",
+    volume = "",
+    number = "",
+    pages = "1-6",
+    abstract = "Diabetes mellitus is an illness that requires continuing medical care and self-management system for the patients to prevent acute complications to reduce the risk of long-term complications. It is a complex disease in which the care for health is supposed to be a satisfactory daily prescribed diet and practicing regular habits, in addition to proper medication and treatment. Good diet and exercise habits, as well as continuous monitoring of blood pressure and sugar are all important for a diabetic patient in order to maintain his proper health. Although there are too many health care solutions exist in the market today, but none of them focus on providing a personalized health care management system for the patient. This proposed mobile application will take an effort to ensure a healthy balanced diet for the patients with the synchronization of balancing food energy. The system provides more facilities by giving the chance to set the medicine alarms, monitoring blood pressure and sugar levels in a chart. The system also provides more safety by making emergency calls and messages in real-time by utilizing GPS reporting technology considering the crucial moment of the patient. Two surveys are included in order to show the necessity of the implementation.",
+    keywords = "Biomedical monitoring;Blood pressure;Diabetes;Biosensors;Sugar;Monitoring;Diabetes;Self-Management;Healthy diet;Balancing Food Energy;Medications;Monitoring;Emergency;GPS",
+    doi = "10.1109/CEEICT.2016.7873054",
+    ISSN = "",
+    month = "Sep."
+}</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>Included</t>
@@ -2331,7 +2422,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2340,17 +2431,17 @@
           <t>Android based health care system for aged diabetic patients</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/7873054</t>
+        </is>
+      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2369,7 +2460,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>This paper describes a mobile health monitoring system called iCare for the elderly. We use wireless body sensors and smart phones to monitor the wellbeing of the elderly. It can offer remote monitoring for the elderly anytime anywhere and provide tailored services for each person based on their personal health condition. When detecting an emergency, the smart phone will automatically alert pre-assigned people who could be the old people's family and friends, and call the ambulance of the emergency centre. It also acts as the personal health information system and the medical guidance which offers one communication platform and the medical knowledge database so that the family and friends of the served people can cooperate with doctors to take care of him/her. The system also features some unique functions that cater to the living demands of the elderly, including regular reminder, quick alarm, medical guidance, etc. iCare is not only a real-time health monitoring system for the elderly, but also a living assistant which can make their lives more convenient and comfortable. © 2010 IEEE.</t>
+          <t>This paper describes a mobile health monitoring system called iCare for the elderly. We use wireless body sensors and smart phones to monitor the wellbeing of the elderly. It can offer remote monitoring for the elderly anytime anywhere and provide tailored services for each person based on their personal health condition. When detecting an emergency, the smart phone will automatically alert pre-assigned people who could be the old people's family and friends, and call the ambulance of the emergency centre. It also acts as the personal health information system and the medical guidance which offers one communication platform and the medical knowledge database so that the family and friends of the served people can cooperate with doctors to take care of him/her. The system also features some unique functions that cater to the living demands of the elderly, including regular reminder, quick alarm, medical guidance, etc. iCare is not only a real-time health monitoring system for the elderly, but also a living assistant which can make their lives more convenient and comfortable.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2395,21 +2486,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>699 – 705</t>
+          <t>699 - 705</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Lv2010699,
+          <t>@CONFERENCE{Lv2010699,
     author = "Lv, Ziyu and Xia, Feng and Wu, Guowei and Yao, Lin and Chen, Zhikui",
     title = "iCare: A mobile health monitoring system for the elderly",
     year = "2010",
     journal = "Proceedings - 2010 IEEE/ACM International Conference on Green Computing and Communications, GreenCom 2010, 2010 IEEE/ACM International Conference on Cyber, Physical and Social Computing, CPSCom 2010",
-    pages = "699 – 705",
+    pages = "699 - 705",
     doi = "10.1109/GreenCom-CPSCom.2010.84",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-79953096846\&amp;doi=10.1109\%2fGreenCom-CPSCom.2010.84\&amp;partnerID=40\&amp;md5=adede5bcc823272f2c75e2b04b521524",
     affiliations = "School of Software, Dalian University of Technology, Dalian 116620, China",
-    abstract = "This paper describes a mobile health monitoring system called iCare for the elderly. We use wireless body sensors and smart phones to monitor the wellbeing of the elderly. It can offer remote monitoring for the elderly anytime anywhere and provide tailored services for each person based on their personal health condition. When detecting an emergency, the smart phone will automatically alert pre-assigned people who could be the old people's family and friends, and call the ambulance of the emergency centre. It also acts as the personal health information system and the medical guidance which offers one communication platform and the medical knowledge database so that the family and friends of the served people can cooperate with doctors to take care of him/her. The system also features some unique functions that cater to the living demands of the elderly, including regular reminder, quick alarm, medical guidance, etc. iCare is not only a real-time health monitoring system for the elderly, but also a living assistant which can make their lives more convenient and comfortable. © 2010 IEEE.",
+    abstract = "This paper describes a mobile health monitoring system called iCare for the elderly. We use wireless body sensors and smart phones to monitor the wellbeing of the elderly. It can offer remote monitoring for the elderly anytime anywhere and provide tailored services for each person based on their personal health condition. When detecting an emergency, the smart phone will automatically alert pre-assigned people who could be the old people's family and friends, and call the ambulance of the emergency centre. It also acts as the personal health information system and the medical guidance which offers one communication platform and the medical knowledge database so that the family and friends of the served people can cooperate with doctors to take care of him/her. The system also features some unique functions that cater to the living demands of the elderly, including regular reminder, quick alarm, medical guidance, etc. iCare is not only a real-time health monitoring system for the elderly, but also a living assistant which can make their lives more convenient and comfortable. (c) 2010 IEEE.",
     author_keywords = "Assisted living; Body sensor; Health monitoring; Healthcare; Medical guidance",
     keywords = "Health; Health care; Sensors; Telephone sets; Assisted living; Body sensor; Communication platforms; Health monitoring; Medical guidance; Medical knowledge; Mobile health monitoring; Old people; Personal health; Real-time health monitoring; Remote monitoring; Smart phones; Wellbeing; Monitoring",
     isbn = "978-076954331-4",
@@ -2419,8 +2510,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 86; Conference name: 2010 IEEE/ACM International Conference on Green Computing and Communications, GreenCom 2010, 2010 IEEE/ACM International Conference on Cyber, Physical and Social Computing, CPSCom 2010; Conference date: 18 December 2010 through 20 December 2010; Conference code: 84392; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2445,7 +2535,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2456,13 +2546,17 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-79953096846&amp;doi=10.1109%2fGreenCom-CPSCom.2010.84&amp;partnerID=40&amp;md5=adede5bcc823272f2c75e2b04b521524</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>https://dl.acm.org/doi/10.1145/2910674.2935855</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -2478,7 +2572,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>People Like Me:Designing for Reflection on Aggregate Cohort Data in Personal Informatics Systems</t>
+          <t>People Like Me: Designing for Reflection on Aggregate Cohort Data in Personal Informatics Systems</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2486,15 +2580,19 @@
           <t>Increases in data complexity in personal informatics systems require new ways of contextualizing personal data to facilitate meaningful reflection. An emerging approach for providing such context includes augmenting one's personal data with the data of others "like them" to help individuals make sense of their data. However, we do not yet understand how an individual's self-reflection process is affected when the data of others is made available. In this paper, we investigate how people reflect on three types of personal data when presented alongside a large set of aggregated data of multiple cohorts. We conducted personal and cohort data reviews using a subset of participants from a mobile-sensing study that collected physical activity, digital social activity, and perceived stress, from 47 students over three weeks. Participants preferred to use characteristics of the data (e.g., maxima, minima) and graphical presentation (e.g., appearance of trends) along with demographic identities (e.g., age, gender) when relating to cohorts. We further characterize how participants incorporated cohort data into their self-reflection process, and conclude with discussion of the implications for personal informatics systems that leverage the data of "people like me" to enable meaningful reflection.</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Self-Reflection;  Qualitative Study;  Personal Informatics;  Health and Wellness;  Cohort Data</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ClaytonFeustel; ShyamakAggarwal; BongshinLee; LaurenWilcox</t>
+          <t>Feustel, Clayton; Aggarwal, Shyamak; Lee, Bongshin; Wilcox, Lauren</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Interactive, Mobile, Wearable and Ubiquitous Technologies</t>
+          <t>Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2504,7 +2602,28 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>@article{10.1145/3264917,
+    author = "Feustel, Clayton and Aggarwal, Shyamak and Lee, Bongshin and Wilcox, Lauren",
+    title = "People Like Me: Designing for Reflection on Aggregate Cohort Data in Personal Informatics Systems",
+    year = "2018",
+    issue_date = "September 2018",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    volume = "2",
+    number = "3",
+    url = "https://doi.org/10.1145/3264917",
+    doi = "10.1145/3264917",
+    abstract = {Increases in data complexity in personal informatics systems require new ways of contextualizing personal data to facilitate meaningful reflection. An emerging approach for providing such context includes augmenting one's personal data with the data of others "like them" to help individuals make sense of their data. However, we do not yet understand how an individual's self-reflection process is affected when the data of others is made available. In this paper, we investigate how people reflect on three types of personal data when presented alongside a large set of aggregated data of multiple cohorts. We conducted personal and cohort data reviews using a subset of participants from a mobile-sensing study that collected physical activity, digital social activity, and perceived stress, from 47 students over three weeks. Participants preferred to use characteristics of the data (e.g., maxima, minima) and graphical presentation (e.g., appearance of trends) along with demographic identities (e.g., age, gender) when relating to cohorts. We further characterize how participants incorporated cohort data into their self-reflection process, and conclude with discussion of the implications for personal informatics systems that leverage the data of "people like me" to enable meaningful reflection.},
+    journal = "Proc. ACM Interact. Mob. Wearable Ubiquitous Technol.",
+    month = "sep",
+    articleno = "107",
+    numpages = "21",
+    keywords = "Self-Reflection, Qualitative Study, Personal Informatics, Health and Wellness, Cohort Data"
+}</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -2527,7 +2646,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2536,7 +2655,11 @@
           <t>People Like Me: Designing for Reflection on Aggregate Cohort Data in Personal Informatics Systems</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3264917</t>
+        </is>
+      </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -2544,7 +2667,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages; Year; Bibtex; Link</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -2565,13 +2688,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AbstractI-CARE is a hand-held activation system that allows professional and informal caregivers to cognitively and socially activate people with dementia in joint activation sessions without special training or expertise. I-CARE consists of an easy-to-use tablet application that presents activation content and a server-based backend system that securely manages the contents and events of activation sessions. It tracks various sources of explicit and implicit feedback from user interactions and different sensors to estimate which content is successful in activating individual users. Over the course of use, I-CARE's recommendation system learns about the individual needs and resources of its users and automatically personalizes the activation content. In addition, information about past sessions can be retrieved such that activations seamlessly build on previous sessions while eligible stakeholders are informed about the current state of care and daily form of their protegees. In addition, caregivers can connect with supervisors and professionals through the I-CARE remote calling feature, to get activation sessions tracked in real time via audio and video support. In this way, I-CARE provides technical support for a decentralized and spontaneous formation of ad hoc activation groups and fosters tight engagement of the social network and caring community. By these means, I-CARE promotes new care infrastructures in the community and the neighborhood as well as relieves professional and informal caregivers.Keywords:activation for people with dementia; intelligent services; professional and informal caregivers; recommendation system; technical assistance.</t>
+          <t>I-CARE is a hand-held activation system that allows professional and informal caregivers to cognitively and socially activate people with dementia in joint activation sessions without special training or expertise. I-CARE consists of an easy-to-use tablet application that presents activation content and a server-based backend system that securely manages the contents and events of activation sessions. It tracks various sources of explicit and implicit feedback from user interactions and different sensors to estimate which content is successful in activating individual users. Over the course of use, I-CARE's recommendation system learns about the individual needs and resources of its users and automatically personalizes the activation content. In addition, information about past sessions can be retrieved such that activations seamlessly build on previous sessions while eligible stakeholders are informed about the current state of care and daily form of their protegees. In addition, caregivers can connect with supervisors and professionals through the I-CARE remote calling feature, to get activation sessions tracked in real time via audio and video support. In this way, I-CARE provides technical support for a decentralized and spontaneous formation of ad hoc activation groups and fosters tight engagement of the social network and caring community. By these means, I-CARE promotes new care infrastructures in the community and the neighborhood as well as relieves professional and informal caregivers.Keywords:activation for people with dementia; intelligent services; professional and informal caregivers; recommendation system; technical assistance.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tanja Schultz1,; Felix Putze1,; Lars Steinert1,; Ralf Mikut2,; Anamaria Depner3,; Andreas Kruse3,; Ingo Franz4,; Philipp Gaerte5,; Todor Dimitrov6,; Tobias Gehrig7,; Jana Lohse8,; Clarissa Simon8; Tanja Schultzet al.; Tanja Schultz1,; Felix Putze1,; Lars Steinert1,; Ralf Mikut2,; Anamaria Depner3,; Andreas Kruse3,; Ingo Franz4,; Philipp Gaerte5,; Todor Dimitrov6,; Tobias Gehrig7,; Jana Lohse8,; Clarissa Simon8</t>
+          <t>Tanja Schultz; Felix Putze; Lars Steinert; Ralf Mikut; Anamaria Depner; Andreas Kruse; Ingo Franz; Philipp Gaerte; Todor Dimitrov; Tobias Gehrig; Jana Lohse; Clarissa Simon; Tanja Schultzet al.; Tanja Schultz; Felix Putze; Lars Steinert; Ralf Mikut; Anamaria Depner; Andreas Kruse; Ingo Franz; Philipp Gaerte; Todor Dimitrov; Tobias Gehrig; Jana Lohse; Clarissa Simon</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2587,7 +2710,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>:51</t>
+          <t>51</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -2626,7 +2749,11 @@
           <t>I-care-an interaction system for the individual activation of people with dementia</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>https://doi.org/DOI:10.3390/geriatrics6020051</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
@@ -2651,7 +2778,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>This project aims to foster shared positive experiences between people living with moderate to advanced dementia and their visitors as they may struggle to fnd topics to talk about and engaging things to do together. To promote a better visit, we trialed a previously developed app that includes eight games with twenty-one residents and their partners or carers across four care centers for three months each. Through interviews and data logging, we found that residents preferred games that were closer to their interests and skills, and that gameplay and cooperation fostered meaningful and shared interactions between residents and their visitors. The contribution of this work is twofold: (1) insights and opportunities into dyadic interactions when using an app and into promoting positive social experiences through technology design, and (2) refections on the challenges of evaluating the benefts of technology for people living with dementia. © 2021 ACM.</t>
+          <t>This project aims to foster shared positive experiences between people living with moderate to advanced dementia and their visitors as they may struggle to fnd topics to talk about and engaging things to do together. To promote a better visit, we trialed a previously developed app that includes eight games with twenty-one residents and their partners or carers across four care centers for three months each. Through interviews and data logging, we found that residents preferred games that were closer to their interests and skills, and that gameplay and cooperation fostered meaningful and shared interactions between residents and their visitors. The contribution of this work is twofold: (1) insights and opportunities into dyadic interactions when using an app and into promoting positive social experiences through technology design, and (2) refections on the challenges of evaluating the benefts of technology for people living with dementia.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2675,10 +2802,14 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1-13</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Munoz2021,
+          <t>@CONFERENCE{Munoz2021,
     author = "Munoz, Diego and Favilla, Stu and Pedell, Sonja",
     title = "Evaluating an app to promote a beter visit through shared activities for people living with dementia and their families",
     year = "2021",
@@ -2686,7 +2817,7 @@
     doi = "10.1145/3411764.3445764",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85106754711\&amp;doi=10.1145\%2f3411764.3445764\&amp;partnerID=40\&amp;md5=8efc39830696418819fa0c0a66449466",
     affiliations = "Centre for Design Innovation, Swinburne University of Technology, Australia",
-    abstract = "This project aims to foster shared positive experiences between people living with moderate to advanced dementia and their visitors as they may struggle to fnd topics to talk about and engaging things to do together. To promote a better visit, we trialed a previously developed app that includes eight games with twenty-one residents and their partners or carers across four care centers for three months each. Through interviews and data logging, we found that residents preferred games that were closer to their interests and skills, and that gameplay and cooperation fostered meaningful and shared interactions between residents and their visitors. The contribution of this work is twofold: (1) insights and opportunities into dyadic interactions when using an app and into promoting positive social experiences through technology design, and (2) refections on the challenges of evaluating the benefts of technology for people living with dementia. © 2021 ACM.",
+    abstract = "This project aims to foster shared positive experiences between people living with moderate to advanced dementia and their visitors as they may struggle to fnd topics to talk about and engaging things to do together. To promote a better visit, we trialed a previously developed app that includes eight games with twenty-one residents and their partners or carers across four care centers for three months each. Through interviews and data logging, we found that residents preferred games that were closer to their interests and skills, and that gameplay and cooperation fostered meaningful and shared interactions between residents and their visitors. The contribution of this work is twofold: (1) insights and opportunities into dyadic interactions when using an app and into promoting positive social experiences through technology design, and (2) refections on the challenges of evaluating the benefts of technology for people living with dementia. (c) 2021 ACM.",
     author_keywords = "App evaluation; Dementia; Dyadic interactions; Person-centered care",
     keywords = "Human engineering; Data logging; Dyadic interaction; Gameplay; Positive experiences; Technology designs; Neurodegenerative diseases",
     publisher = "Association for Computing Machinery",
@@ -2697,8 +2828,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 20; Conference name: 2021 CHI Conference on Human Factors in Computing Systems: Making Waves, Combining Strengths, CHI 2021; Conference date: 8 May 2021 through 13 May 2021; Conference code: 168790"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2723,7 +2853,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -2734,7 +2864,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85106754711&amp;doi=10.1145%2f3411764.3445764&amp;partnerID=40&amp;md5=8efc39830696418819fa0c0a66449466</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85106754711&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=c8393149df4eb088593f164adfbb5533&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28evaluating+an+app+to+promote+a+beter+visit+through+shared+activities+for+people+living+with+dementia+and+their+families%29&amp;sl=134&amp;sessionSearchId=c8393149df4eb088593f164adfbb5533&amp;relpos=0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2744,7 +2874,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2895,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Principles of human-computer interaction (HCI) are imperative when it comes to efficient user interface design. This becomes even more significant when the interface is for users with special needs and especially when there is a treatment methodology incorporated in a piece of software. This study investigates user interfaces that are specifically made for children with autism-spectrum disorders. We conducted a survey to evaluate the adaptability and applicability of various interfaces. For this, we selected four of the behavioral interventions for autism namely discrete trial training (DTT), cognitive-behavioral therapy (CBT), empathy enhancement and verbal behavior approach (VBA). User interfaces (UIs) of 16 software applications were assessed for the said features. Results of this assessment revealed that these Applications were adaptable to two behavioral interventions, on the average. Moreover, these Applications were simultaneously applicable for treatment of three levels of autism; namely high functioning, low functioning, and autistic adults. These interfaces were also applicable to the children with no autism (typically developing) who acted as a controlled group. © 2020, © 2020 The Author(s). Published by Informa UK Limited trading as Taylor &amp; Francis Group on behalf of the © The Instiution of Electronics and Telelcommunications Engineers (IETE).</t>
+          <t>Principles of human-computer interaction (HCI) are imperative when it comes to efficient user interface design. This becomes even more significant when the interface is for users with special needs and especially when there is a treatment methodology incorporated in a piece of software. This study investigates user interfaces that are specifically made for children with autism-spectrum disorders. We conducted a survey to evaluate the adaptability and applicability of various interfaces. For this, we selected four of the behavioral interventions for autism namely discrete trial training (DTT), cognitive-behavioral therapy (CBT), empathy enhancement and verbal behavior approach (VBA). User interfaces (UIs) of 16 software applications were assessed for the said features. Results of this assessment revealed that these Applications were adaptable to two behavioral interventions, on the average. Moreover, these Applications were simultaneously applicable for treatment of three levels of autism; namely high functioning, low functioning, and autistic adults. These interfaces were also applicable to the children with no autism (typically developing) who acted as a controlled group.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2791,23 +2921,23 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>180 – 195</t>
+          <t>180 - 195</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Hassan2020180,
+          <t>@ARTICLE{Hassan2020180,
     author = "Hassan, Ahmed and Pinkwart, Niels",
     title = "On the Adaptability and Applicability of Multi-touch User Interfaces Addressing Behavioral Interventions for Children with Autism",
     year = "2020",
     journal = "IETE Technical Review (Institution of Electronics and Telecommunication Engineers, India)",
     volume = "37",
     number = "2",
-    pages = "180 – 195",
+    pages = "180 - 195",
     doi = "10.1080/02564602.2019.1590164",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85063404639\&amp;doi=10.1080\%2f02564602.2019.1590164\&amp;partnerID=40\&amp;md5=da51e3873d25e679ed2105d59c379b40",
     affiliations = "Department of Informatics, Humboldt University, Berlin, Germany",
-    abstract = "Principles of human-computer interaction (HCI) are imperative when it comes to efficient user interface design. This becomes even more significant when the interface is for users with special needs and especially when there is a treatment methodology incorporated in a piece of software. This study investigates user interfaces that are specifically made for children with autism-spectrum disorders. We conducted a survey to evaluate the adaptability and applicability of various interfaces. For this, we selected four of the behavioral interventions for autism namely discrete trial training (DTT), cognitive-behavioral therapy (CBT), empathy enhancement and verbal behavior approach (VBA). User interfaces (UIs) of 16 software applications were assessed for the said features. Results of this assessment revealed that these Applications were adaptable to two behavioral interventions, on the average. Moreover, these Applications were simultaneously applicable for treatment of three levels of autism; namely high functioning, low functioning, and autistic adults. These interfaces were also applicable to the children with no autism (typically developing) who acted as a controlled group. © 2020, © 2020 The Author(s). Published by Informa UK Limited trading as Taylor \&amp; Francis Group on behalf of the © The Instiution of Electronics and Telelcommunications Engineers (IETE).",
+    abstract = "Principles of human-computer interaction (HCI) are imperative when it comes to efficient user interface design. This becomes even more significant when the interface is for users with special needs and especially when there is a treatment methodology incorporated in a piece of software. This study investigates user interfaces that are specifically made for children with autism-spectrum disorders. We conducted a survey to evaluate the adaptability and applicability of various interfaces. For this, we selected four of the behavioral interventions for autism namely discrete trial training (DTT), cognitive-behavioral therapy (CBT), empathy enhancement and verbal behavior approach (VBA). User interfaces (UIs) of 16 software applications were assessed for the said features. Results of this assessment revealed that these Applications were adaptable to two behavioral interventions, on the average. Moreover, these Applications were simultaneously applicable for treatment of three levels of autism; namely high functioning, low functioning, and autistic adults. These interfaces were also applicable to the children with no autism (typically developing) who acted as a controlled group. (c) 2020, (c) 2020 The Author(s). Published by Informa UK Limited trading as Taylor \&amp; Francis Group on behalf of the (c) The Instiution of Electronics and Telelcommunications Engineers (IETE).",
     author_keywords = "Child computer interaction; Human-computer interaction; Multi-touch user interfaces; Multi-touch user interfaces for autism treatment",
     keywords = "Application programs; Behavioral research; Diseases; Human computer interaction; Autism treatments; Behavioral interventions; Child-computer interactions; Cognitive-behavioral therapies; Human computer interaction (HCI); Multi-touch user interfaces; Software applications; User interface designs; User interfaces",
     publisher = "Taylor and Francis Ltd.",
@@ -2819,8 +2949,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 4; All Open Access, Green Open Access, Hybrid Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2849,7 +2978,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -2860,12 +2989,12 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85063404639&amp;doi=10.1080%2f02564602.2019.1590164&amp;partnerID=40&amp;md5=da51e3873d25e679ed2105d59c379b40</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85063404639&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=30becb95ce62a24ae2930a9368754bf1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28on+the+adaptability+and+applicability+of+multi+touch+user+interfaces+addressing+behavioral+interventions+for+children+with+autism%29&amp;sl=144&amp;sessionSearchId=30becb95ce62a24ae2930a9368754bf1&amp;relpos=0</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Taylor and Francis Ltd.</t>
+          <t>Taylor and Francis Ltd</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -2886,12 +3015,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CoFaçade: A customizable assistive approach for elders and their helpers</t>
+          <t>CoFacade: A customizable assistive approach for elders and their helpers</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>We present CoFaçade, a novel approach to helping elders reach their goals with IT products by working collaboratively with helpers. In this approach, the elder uses an interface with a small number of triggers, where each trigger is a single button (or card) that can execute a procedure. The helper uses a customization interface to link triggers to procedures that accomplish frequently-recurring high-level goals with IT products. Customization can be done either locally or remotely. We conducted an experiment to compare the CoFaçade approach with a baseline approach where helpers taught elders to perform IT tasks. Our results showed that CoFaçade can reduce helpers' time and effort, reduce elders' frustration, and improve elders' success rate in completing IT tasks. © Copyright 2015 ACM.</t>
+          <t>We present CoFacade, a novel approach to helping elders reach their goals with IT products by working collaboratively with helpers. In this approach, the elder uses an interface with a small number of triggers, where each trigger is a single button (or card) that can execute a procedure. The helper uses a customization interface to link triggers to procedures that accomplish frequently-recurring high-level goals with IT products. Customization can be done either locally or remotely. We conducted an experiment to compare the CoFacade approach with a baseline approach where helpers taught elders to perform IT tasks. Our results showed that CoFacade can reduce helpers' time and effort, reduce elders' frustration, and improve elders' success rate in completing IT tasks.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2917,23 +3046,23 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1583 – 1592</t>
+          <t>1583 - 1592</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Zhao20151583,
+          <t>@CONFERENCE{Zhao20151583,
     author = "Zhao, Jason Chen and Davis, Richard C. and Foong, Pin Sym and Zhao, Shengdong",
-    title = "CoFaçade: A customizable assistive approach for elders and their helpers",
+    title = "CoFacade: A customizable assistive approach for elders and their helpers",
     year = "2015",
     journal = "Conference on Human Factors in Computing Systems - Proceedings",
     volume = "2015-April",
-    pages = "1583 – 1592",
+    pages = "1583 - 1592",
     doi = "10.1145/2702123.2702588",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84951034989\&amp;doi=10.1145\%2f2702123.2702588\&amp;partnerID=40\&amp;md5=ba4767e9bb73e5ba3b61410ae5739761",
     affiliations = "NUS-HCI Lab, National University of Singapore, 13 Computing Drive, J-Singapore, 117417, Singapore; SIS, Singapore Management University, 80 Stamford Road, J-Singapore, 178902, Japan",
-    abstract = "We present CoFaçade, a novel approach to helping elders reach their goals with IT products by working collaboratively with helpers. In this approach, the elder uses an interface with a small number of triggers, where each trigger is a single button (or card) that can execute a procedure. The helper uses a customization interface to link triggers to procedures that accomplish frequently-recurring high-level goals with IT products. Customization can be done either locally or remotely. We conducted an experiment to compare the CoFaçade approach with a baseline approach where helpers taught elders to perform IT tasks. Our results showed that CoFaçade can reduce helpers' time and effort, reduce elders' frustration, and improve elders' success rate in completing IT tasks. © Copyright 2015 ACM.",
-    author_keywords = "Accessibility design; Cofaçade; Collaboration; Silver computing",
+    abstract = "We present CoFacade, a novel approach to helping elders reach their goals with IT products by working collaboratively with helpers. In this approach, the elder uses an interface with a small number of triggers, where each trigger is a single button (or card) that can execute a procedure. The helper uses a customization interface to link triggers to procedures that accomplish frequently-recurring high-level goals with IT products. Customization can be done either locally or remotely. We conducted an experiment to compare the CoFacade approach with a baseline approach where helpers taught elders to perform IT tasks. Our results showed that CoFacade can reduce helpers' time and effort, reduce elders' frustration, and improve elders' success rate in completing IT tasks. (c) Copyright 2015 ACM.",
+    author_keywords = "Accessibility design; Cofacade; Collaboration; Silver computing",
     keywords = "Human engineering; Assistive; Collaboration; Customizable; High-level goals; IT products; Link triggers; Human computer interaction",
     publisher = "Association for Computing Machinery",
     isbn = "978-145033145-6",
@@ -2943,8 +3072,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5; Conference name: 33rd Annual CHI Conference on Human Factors in Computing Systems, CHI 2015; Conference date: 18 April 2015 through 23 April 2015; Conference code: 116824; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2973,7 +3101,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2984,7 +3112,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84951034989&amp;doi=10.1145%2f2702123.2702588&amp;partnerID=40&amp;md5=ba4767e9bb73e5ba3b61410ae5739761</t>
+          <t>https://doi.org/10.1145/2702123.2702588</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -2994,7 +3122,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>nan; References</t>
+          <t>nan; References; Link</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3138,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emerald—exercise monitoring emotional assistant</t>
+          <t>Emerald--exercise monitoring emotional assistant</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The increase in the elderly population in today’s society entails the need for new policies to maintain an adequate level of care without excessively increasing social spending. One of the possible options is to promote home care for the elderly. In this sense, this paper introduces a personal assistant designed to help elderly people in their activities of daily living. This system, called EMERALD, is comprised of a sensing platform and different mechanisms for emotion detection and decision-making that combined produces a cognitive assistant that engages users in Active Aging. The contribution of the paper is twofold—on the one hand, the integration of low-cost sensors that among other characteristics allows for detecting the emotional state of the user at an affordable cost; on the other hand, an automatic activity suggestion module that engages the users, mainly oriented to the elderly, in a healthy lifestyle. Moreover, by continuously correcting the system using the on-line monitoring carried out through the sensors integrated in the system, the system is personalized, and, in broad terms, emotionally intelligent. A functional prototype is being currently tested in a daycare centre in the northern area of Portugal where preliminary tests show positive results. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>The increase in the elderly population in today's society entails the need for new policies to maintain an adequate level of care without excessively increasing social spending. One of the possible options is to promote home care for the elderly. In this sense, this paper introduces a personal assistant designed to help elderly people in their activities of daily living. This system, called EMERALD, is comprised of a sensing platform and different mechanisms for emotion detection and decision-making that combined produces a cognitive assistant that engages users in Active Aging. The contribution of the paper is twofold--on the one hand, the integration of low-cost sensors that among other characteristics allows for detecting the emotional state of the user at an affordable cost; on the other hand, an automatic activity suggestion module that engages the users, mainly oriented to the elderly, in a healthy lifestyle. Moreover, by continuously correcting the system using the on-line monitoring carried out through the sensors integrated in the system, the system is personalized, and, in broad terms, emotionally intelligent. A functional prototype is being currently tested in a daycare centre in the northern area of Portugal where preliminary tests show positive results.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3042,20 +3170,20 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Rincon2019,
+          <t>@ARTICLE{Rincon2019,
     author = "Rincon, Jaime A. and Costa, Angelo and Carrascosa, Carlos and Novais, Paulo and Julian, Vicente",
-    title = "Emerald—exercise monitoring emotional assistant",
+    title = "Emerald--exercise monitoring emotional assistant",
     year = "2019",
     journal = "Sensors (Switzerland)",
     volume = "19",
     number = "8",
     doi = "10.3390/s19081953",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85065334422\&amp;doi=10.3390\%2fs19081953\&amp;partnerID=40\&amp;md5=cd7f5578aa0d093b5c18a5fd92f1a75b",
-    affiliations = "Departamento de Sistemas Informaticos y Computación, Universitat Politècnica de València, Valencia, 46022, Spain; ALGORITMI Center/Department of Informatics, University of Minho, Braga, 4704-553, Portugal",
-    abstract = "The increase in the elderly population in today’s society entails the need for new policies to maintain an adequate level of care without excessively increasing social spending. One of the possible options is to promote home care for the elderly. In this sense, this paper introduces a personal assistant designed to help elderly people in their activities of daily living. This system, called EMERALD, is comprised of a sensing platform and different mechanisms for emotion detection and decision-making that combined produces a cognitive assistant that engages users in Active Aging. The contribution of the paper is twofold—on the one hand, the integration of low-cost sensors that among other characteristics allows for detecting the emotional state of the user at an affordable cost; on the other hand, an automatic activity suggestion module that engages the users, mainly oriented to the elderly, in a healthy lifestyle. Moreover, by continuously correcting the system using the on-line monitoring carried out through the sensors integrated in the system, the system is personalized, and, in broad terms, emotionally intelligent. A functional prototype is being currently tested in a daycare centre in the northern area of Portugal where preliminary tests show positive results. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.",
+    affiliations = "Departamento de Sistemas Informaticos y Computacion, Universitat Politecnica de Valencia, Valencia, 46022, Spain; ALGORITMI Center/Department of Informatics, University of Minho, Braga, 4704-553, Portugal",
+    abstract = "The increase in the elderly population in today's society entails the need for new policies to maintain an adequate level of care without excessively increasing social spending. One of the possible options is to promote home care for the elderly. In this sense, this paper introduces a personal assistant designed to help elderly people in their activities of daily living. This system, called EMERALD, is comprised of a sensing platform and different mechanisms for emotion detection and decision-making that combined produces a cognitive assistant that engages users in Active Aging. The contribution of the paper is twofold--on the one hand, the integration of low-cost sensors that among other characteristics allows for detecting the emotional state of the user at an affordable cost; on the other hand, an automatic activity suggestion module that engages the users, mainly oriented to the elderly, in a healthy lifestyle. Moreover, by continuously correcting the system using the on-line monitoring carried out through the sensors integrated in the system, the system is personalized, and, in broad terms, emotionally intelligent. A functional prototype is being currently tested in a daycare centre in the northern area of Portugal where preliminary tests show positive results. (c) 2019 by the authors. Licensee MDPI, Basel, Switzerland.",
     author_keywords = "Cognitive assistant; Elderly well-being; Emotion detection; Signal processing; Wearable",
     keywords = "Behavioral research; Decision making; Activities of Daily Living; Cognitive assistant; Different mechanisms; Elderly populations; Emotion detection; Functional Prototypes; Wearable; Well being; Signal processing",
-    correspondence_address = "V. Julian; Departamento de Sistemas Informaticos y Computación, Universitat Politècnica de València, Valencia, 46022, Spain; email: vinglada@dsic.upv.es",
+    correspondence_address = "V. Julian; Departamento de Sistemas Informaticos y Computacion, Universitat Politecnica de Valencia, Valencia, 46022, Spain; email: vinglada@dsic.upv.es",
     publisher = "MDPI AG",
     issn = "14248220",
     pmid = "31027296",
@@ -3065,8 +3193,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 11; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3091,7 +3218,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -3102,7 +3229,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85065334422&amp;doi=10.3390%2fs19081953&amp;partnerID=40&amp;md5=cd7f5578aa0d093b5c18a5fd92f1a75b</t>
+          <t>https://doi.org/10.3390/s19081953</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3112,7 +3239,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References; Pages; Link</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3266,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">J. A. Rincon, A. Costa, P. Novais, V. Julian, and C. Carrascosa, </t>
+          <t>J. A. Rincon, A. Costa, P. Novais, V. Julian, and C. Carrascosa,</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3182,11 +3309,15 @@
           <t>ME3CA: A cognitive assistant for physical exercises that monitors emotions and the environment</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7039382/</t>
+        </is>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
+          <t>nan; Venue; Authors; Abstract; Keywords; References; Pages; Year; Bibtex; Publisher</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3348,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Florian Klompmaker17,; Anke Workowski18,; Wolfgang Thronicke19,; Florian Ostermair19,; Detlev Willemsen18&amp;; Jan-Dirk Hoffmann18</t>
+          <t>Florian Klompmaker; Anke Workowski; Wolfgang Thronicke; Florian Ostermair; Detlev Willemsen; Jan-Dirk Hoffmann</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3233,7 +3364,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>pp 41–50</t>
+          <t>pp 41-50</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -3272,7 +3403,11 @@
           <t>User centered design of an interactive mobile assistance and supervision system for rehabilitation purposes</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-37893-5_5</t>
+        </is>
+      </c>
       <c r="W26" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
@@ -3311,7 +3446,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Florian Klompmaker4,; Clemens Busch5,; Karsten Nebe4,; Andreas Bleiker6&amp;; Detlev Willemsen5</t>
+          <t>Florian Klompmaker; Clemens Busch; Karsten Nebe; Andreas Bleiker; Detlev Willemsen</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3327,7 +3462,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>pp 111–122</t>
+          <t>pp 111-122</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -3349,7 +3484,7 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t xml:space="preserve">not mention how to adapt </t>
+          <t>not mention how to adapt</t>
         </is>
       </c>
       <c r="R27" t="n">
@@ -3366,7 +3501,11 @@
           <t>Designing a telemedical system for cardiac exercise rehabilitation</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-18472-7_9</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
@@ -3413,27 +3552,31 @@
           <t>HEALTHINF 2010 - 3rd International Conference on Health Informatics, Proceedings</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-77956298822&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=22bf45acdab2c862d1194a1d4914edaf&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28user+centered+design+of+patient+user+interfaces+for+remote+training+supervision+a+user+study%29&amp;sl=107&amp;sessionSearchId=22bf45acdab2c862d1194a1d4914edaf&amp;relpos=0</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>106 – 113</t>
+          <t>106 - 113</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Klompmaker2010106,
+          <t>@CONFERENCE{Klompmaker2010106,
     author = "Klompmaker, Florian and Nebe, Karsten and Bleiker, Andreas and Busch, Clemens and Willemsen, Detlev",
     title = "User centered design of patient user interfaces for remote training supervision: A user study",
     year = "2010",
     journal = "HEALTHINF 2010 - 3rd International Conference on Health Informatics, Proceedings",
-    pages = "106 – 113",
+    pages = "106 - 113",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-77956298822\&amp;partnerID=40\&amp;md5=9f4e04d0cb3c080e2fee03749c57ab77",
-    affiliations = "C-LAB, University of Paderborn, 33102 Paderborn, Fürstenallee 11, Germany; Siemens IT Solutions and Services, C-LAB, 33102 Paderborn, Fürstenallee 11, Germany; Schüchtermann Schiller'sche Kliniken GmbH and Co KG, 49214 Bad Rothenfelde, Ulmenallee 5-11, Germany",
+    affiliations = "C-LAB, University of Paderborn, 33102 Paderborn, Furstenallee 11, Germany; Siemens IT Solutions and Services, C-LAB, 33102 Paderborn, Furstenallee 11, Germany; Schuchtermann Schiller'sche Kliniken GmbH and Co KG, 49214 Bad Rothenfelde, Ulmenallee 5-11, Germany",
     abstract = "Remote training supervision is a new approach that combines medical and IT knowledge into one system. Such a system enables patients with cardiac diseases to continue a supervised training - on an ergometer bicycle and even when exercising outdoors - after rehabilitation phase in a clinic. The goal of the study presented in this paper is to develop user interfaces for an ergometer. These interfaces have to allow an intuitive interaction and to take the different capabilities, needs and preferences of potential users - often elderly people having visual impairments and different IT knowledge - into account. In order to create minimal attention user interfaces it is mandatory to apply user centered techniques, which involve potential users into the design phase of the development process. The evaluation of the study served as basis for the next iteration of the user centered design process and raised new functional requirements to the underlying system from the user's perspective.",
     author_keywords = "Tele-medicine; Tele-monitoring; Usability; User centered design; User interfaces",
     keywords = "Design; Information science; Patient rehabilitation; Phase interfaces; Cardiac disease; Design phase; Development process; Elderly people; Functional requirement; Intuitive interaction; IT knowledge; New approaches; Potential users; Remote training; Tele-monitoring; Underlying systems; Usability; User centered designs; User study; User-centered; User-centered design process; Visual impairment; User interfaces",
-    correspondence_address = "F. Klompmaker; C-LAB, University of Paderborn, 33102 Paderborn, Fürstenallee 11, Germany; email: florian.klompmaker@c-lab.de",
+    correspondence_address = "F. Klompmaker; C-LAB, University of Paderborn, 33102 Paderborn, Furstenallee 11, Germany; email: florian.klompmaker@c-lab.de",
     isbn = "978-989674016-0",
     language = "English",
     abbrev_source_title = "HEALTHINF - Int. Conf. Health Inf., Proc.",
@@ -3441,8 +3584,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 1; Conference name: 3rd International Conference on Health Informatics, HEALTHINF 2010; Conference date: 20 January 2010 through 23 January 2010; Conference code: 81594"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3471,7 +3613,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -3482,13 +3624,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-77956298822&amp;partnerID=40&amp;md5=9f4e04d0cb3c080e2fee03749c57ab77</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-77956298822&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=22bf45acdab2c862d1194a1d4914edaf&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28user+centered+design+of+patient+user+interfaces+for+remote+training+supervision+a+user+study%29&amp;sl=107&amp;sessionSearchId=22bf45acdab2c862d1194a1d4914edaf&amp;relpos=0</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
-          <t>nan; References; DOI; Publisher</t>
+          <t>nan; References; Publisher</t>
         </is>
       </c>
     </row>
@@ -3512,10 +3654,14 @@
           <t>This paper describes an application that aims to stimulate physical activity adapted to elderly people. The application is implemented as a game with two avatars: user and trainer. The user avatar must reproduce the movements of the trainer's avatar. The similarity between two movements is computed using Dynamic Time Warping. Also the speed of the trainer is adapted to the user's movements using cross-correlation. Thus the game can stimulate for a long time physically activity. The preliminary evaluations with ten people have shown that the system can be an effective tool that engages users into physical activity.</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Games;Senior citizens;Muscles;Avatars;Training;Hip;Legged locomotion;exergame;Dynamic Time Warping;cross correlation;adaptation</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Irina Mocanu; Cosmin Marian; Lucia Rusu; Raluca Arba</t>
+          <t>Mocanu, Irina; Marian, Cosmin; Rusu, Lucia; Arba, Raluca</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3530,11 +3676,32 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.L. Lazär, Albu Violeta and Bârsan Simona, Particularitati ale antrenamentului fizic la varstnici Revista Acta Medica Transilvanica sectiunea EMC alte specialitati luna aprilie, 2007. Google Scholar; 2.Exercise vs ADL (Activities of Daily Living), May 2016,  [online]  Available: http://www.tristatebariatrics.org/exercise-vs-adl-activities-of-daily-living/. Google Scholar; 3.B. Hurley and S. Roth, Strength training in the elderly: effects on risk factors for age-related diseases Sports Medicine, vol. 30, pp. 244-68, 2000. Google Scholar; 4.ACSM ACSM's guidelines for exercise testing and prescription (6th ed.), Baltimore, MD:Lippincott, Williams, &amp; Wilkins, 2000. Google Scholar; 5.J. Janot and L. Kravitz, Training clients with diabetes IDEA Personal Trainer, vol. 5, pp. 15-5, 2000. Google Scholar; 6.E. Rhodes et al., Effects of one year of resistance training on the relation between muscular strength and bone density in elderly women British Journal of Sports Medicine, vol. 34, pp. 18-22, 2000. Google Scholar; 7.M. Zyda, From Visual Simulation to Virtual Reality to Games IEEE Computer, vol. 38, no. 9, pp. 25-32, 2005. Google Scholar; 8.J.A. Garcia, N.K. Felix, D. Schoene, D. Smith, S.T. and Y. Pisan, "Exergames for the elderly: Towards an embedded kinect-based clinical test of falls risk Health Informatics: Building a Healthcare Future Through Trusted Information", Selected Papers from the 20th Australian National Health Informatics Conference (Hic 2012), pp. 51-57, 2012. Google Scholar; 9.M.J.D. Taylor, D. McCormick, R. Impson, T. Shawis and M. Griffin, Activity-promoting gaming systems in exercise and rehabilitation Journal of Rehabilitation Research and Development, vol. 48, no. 10, pp. 1171-1186, 2011. Google Scholar; 10.A.S. Billis, E.I. Konstantinidis, C. Mouzakidis, M.N. Tsolaki, C. Pappas and P.D. Bamidis, A game-like interface for training seniors' dynamic balance and coordination Proceedings of the Conference on Medical and Biological Engineering and Computing 2010, vol. 29, pp. 691-694.; 11.Jewel Mine Project 2010, may 2016,  [online]  Available: http://ict.usc.edu/prototypes/jewel-mine/. Google Scholar; 12.GameUp Project, may 2016,  [online]  Available: http://www.gameupproject.eu/. Google Scholar; 13.V. Hasselmann, P. Oesch, L. Fernandez-Luque and S. Bachmann, Are exergames promoting mobility an attactive alternative to conventional self-training for elderly people? BMC Geriatrics, pp. 15-108, 2015. Google Scholar; 14.W.-C. Fang, F.-R. Sheu, Y.-L. Lin, Y.-L. Lee and N.-S. Chen, "Interactive Physical Games: Improving Balance in Older Adults", Smart Learning Environments, pp. 159-174, 2015. CrossRef  Google Scholar; 15.A. Nawaz, M. Waerstad, K. Omholt, J. L. Helbostad, B. Vereijken, N. Skjæret, et al., Designing Simplified Exergame for Muscle and Balance Training in Seniors: A Concept of ‘Out in Nature’ In Proceedings of PervasiveHealth ‘14, pp. 309-312, 2014.; 16.A. Karime, B. Hafidh, W. Gueaieb and A. El Saddik, A Modular Mobile Exergaming System With an Adaptive Behavior Me MeA, pp. 531-536, 2015. Google Scholar; 17.S. H. Fraile, J. Browne, E. Brox and G. Evertsen, Suitability analysis of commercial open-source driven motion sensor devices applied to exergames for the elderly AAL forum Eindhoven, September 2012. Google Scholar; 18.JointType Enumeration 2014, may 2016,  [online]  Available: https://msdn.microsoft.com/en-us/library/microsoft.kinect.Jointtype.aspx. Google Scholar; 19.O. Schipor and I. Mocanu, MAKING E-MOBILITY SUITABLE FOR ELDFRLY The 12th International Scientific Conference eLearning and Software, 2015.; 20.Kinect SDK, May 2016,  [online]  Available: http://wiki.etc.cmu.edu/unity3d/index.php/Microsoft_Kinect_Microsoft_SDK. Google Scholar; 21.Sheng-Tzong Cheng, Chih-Wei Hsu and Jian-Pan Li, Combined Hand Gesture - Speech Model for Human Action Recognition Sensors, vol. 13, pp. 17098-17129, 2013. Google Scholar; 22.Matthew Rhudy, Time Alignment Techniques for Experimental Sensor Data International Journal of Computer Science &amp; Engineering Survey (IJCSES), vol. 5, no. 2, pp. 1-14, 2014. Google Scholar; 23.Zephyr Bioharness Belt, May 2016,  [online]  Available: https://www.zephyranywhere.com/products/bioharness-3. Google Scholar</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>1.L. Lazar, Albu Violeta and Barsan Simona, Particularitati ale antrenamentului fizic la varstnici Revista Acta Medica Transilvanica sectiunea EMC alte specialitati luna aprilie, 2007. Google Scholar; 2.Exercise vs ADL (Activities of Daily Living), May 2016,  [online]  Available: http://www.tristatebariatrics.org/exercise-vs-adl-activities-of-daily-living/. Google Scholar; 3.B. Hurley and S. Roth, Strength training in the elderly: effects on risk factors for age-related diseases Sports Medicine, vol. 30, pp. 244-68, 2000. Google Scholar; 4.ACSM ACSM's guidelines for exercise testing and prescription (6th ed.), Baltimore, MD:Lippincott, Williams, &amp; Wilkins, 2000. Google Scholar; 5.J. Janot and L. Kravitz, Training clients with diabetes IDEA Personal Trainer, vol. 5, pp. 15-5, 2000. Google Scholar; 6.E. Rhodes et al., Effects of one year of resistance training on the relation between muscular strength and bone density in elderly women British Journal of Sports Medicine, vol. 34, pp. 18-22, 2000. Google Scholar; 7.M. Zyda, From Visual Simulation to Virtual Reality to Games IEEE Computer, vol. 38, no. 9, pp. 25-32, 2005. Google Scholar; 8.J.A. Garcia, N.K. Felix, D. Schoene, D. Smith, S.T. and Y. Pisan, "Exergames for the elderly: Towards an embedded kinect-based clinical test of falls risk Health Informatics: Building a Healthcare Future Through Trusted Information", Selected Papers from the 20th Australian National Health Informatics Conference (Hic 2012), pp. 51-57, 2012. Google Scholar; 9.M.J.D. Taylor, D. McCormick, R. Impson, T. Shawis and M. Griffin, Activity-promoting gaming systems in exercise and rehabilitation Journal of Rehabilitation Research and Development, vol. 48, no. 10, pp. 1171-1186, 2011. Google Scholar; 10.A.S. Billis, E.I. Konstantinidis, C. Mouzakidis, M.N. Tsolaki, C. Pappas and P.D. Bamidis, A game-like interface for training seniors' dynamic balance and coordination Proceedings of the Conference on Medical and Biological Engineering and Computing 2010, vol. 29, pp. 691-694.; 11.Jewel Mine Project 2010, may 2016,  [online]  Available: http://ict.usc.edu/prototypes/jewel-mine/. Google Scholar; 12.GameUp Project, may 2016,  [online]  Available: http://www.gameupproject.eu/. Google Scholar; 13.V. Hasselmann, P. Oesch, L. Fernandez-Luque and S. Bachmann, Are exergames promoting mobility an attactive alternative to conventional self-training for elderly people? BMC Geriatrics, pp. 15-108, 2015. Google Scholar; 14.W.-C. Fang, F.-R. Sheu, Y.-L. Lin, Y.-L. Lee and N.-S. Chen, "Interactive Physical Games: Improving Balance in Older Adults", Smart Learning Environments, pp. 159-174, 2015. CrossRef  Google Scholar; 15.A. Nawaz, M. Waerstad, K. Omholt, J. L. Helbostad, B. Vereijken, N. Skjaeret, et al., Designing Simplified Exergame for Muscle and Balance Training in Seniors: A Concept of 'Out in Nature' In Proceedings of PervasiveHealth '14, pp. 309-312, 2014.; 16.A. Karime, B. Hafidh, W. Gueaieb and A. El Saddik, A Modular Mobile Exergaming System With an Adaptive Behavior Me MeA, pp. 531-536, 2015. Google Scholar; 17.S. H. Fraile, J. Browne, E. Brox and G. Evertsen, Suitability analysis of commercial open-source driven motion sensor devices applied to exergames for the elderly AAL forum Eindhoven, September 2012. Google Scholar; 18.JointType Enumeration 2014, may 2016,  [online]  Available: https://msdn.microsoft.com/en-us/library/microsoft.kinect.Jointtype.aspx. Google Scholar; 19.O. Schipor and I. Mocanu, MAKING E-MOBILITY SUITABLE FOR ELDFRLY The 12th International Scientific Conference eLearning and Software, 2015.; 20.Kinect SDK, May 2016,  [online]  Available: http://wiki.etc.cmu.edu/unity3d/index.php/Microsoft_Kinect_Microsoft_SDK. Google Scholar; 21.Sheng-Tzong Cheng, Chih-Wei Hsu and Jian-Pan Li, Combined Hand Gesture - Speech Model for Human Action Recognition Sensors, vol. 13, pp. 17098-17129, 2013. Google Scholar; 22.Matthew Rhudy, Time Alignment Techniques for Experimental Sensor Data International Journal of Computer Science &amp; Engineering Survey (IJCSES), vol. 5, no. 2, pp. 1-14, 2014. Google Scholar; 23.Zephyr Bioharness Belt, May 2016,  [online]  Available: https://www.zephyranywhere.com/products/bioharness-3. Google Scholar</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>117-124</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{7737132,
+    author = "Mocanu, Irina and Marian, Cosmin and Rusu, Lucia and Arba, Raluca",
+    booktitle = "2016 IEEE 12th International Conference on Intelligent Computer Communication and Processing (ICCP)",
+    title = "A Kinect based adaptive exergame",
+    year = "2016",
+    volume = "",
+    number = "",
+    pages = "117-124",
+    abstract = "This paper describes an application that aims to stimulate physical activity adapted to elderly people. The application is implemented as a game with two avatars: user and trainer. The user avatar must reproduce the movements of the trainer's avatar. The similarity between two movements is computed using Dynamic Time Warping. Also the speed of the trainer is adapted to the user's movements using cross-correlation. Thus the game can stimulate for a long time physically activity. The preliminary evaluations with ten people have shown that the system can be an effective tool that engages users into physical activity.",
+    keywords = "Games;Senior citizens;Muscles;Avatars;Training;Hip;Legged locomotion;exergame;Dynamic Time Warping;cross correlation;adaptation",
+    doi = "10.1109/ICCP.2016.7737132",
+    ISSN = "",
+    month = "Sep."
+}</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>Included</t>
@@ -3557,7 +3724,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -3566,17 +3733,17 @@
           <t>A Kinect based adaptive exergame</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/7737132</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3590,7 +3757,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Designing for dynamic diversity:making accessible interfaces for older people</t>
+          <t>Designing for dynamic diversity: making accessible interfaces for older people</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3598,10 +3765,14 @@
           <t>In this paper, we describe why designers need to look beyond the twin aims of designing for the 'typical' user and designing "prostheses." Making accessible interfaces for older people is a unique but many faceted challenge. Effective applications and interface design needs to address the dynamic diversity of the human species. We introduce a new design paradigm, Design for Dynamic Diversity, and a methodology to assist its achievement, User Sensitive Inclusive Design.</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>user sensitive inclusive design;  usability engineering;  universal accessibility;  design for dynamic diversity;  design for all;  HCI</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PeterGregor; Alan FNewell</t>
+          <t>Gregor, Peter; Newell, Alan F</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3617,10 +3788,30 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0-92</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>90-92</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/564526.564550,
+    author = "Gregor, Peter and Newell, Alan F",
+    title = "Designing for dynamic diversity: making accessible interfaces for older people",
+    year = "2001",
+    isbn = "158113424X",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/564526.564550",
+    doi = "10.1145/564526.564550",
+    abstract = {In this paper, we describe why designers need to look beyond the twin aims of designing for the 'typical' user and designing "prostheses." Making accessible interfaces for older people is a unique but many faceted challenge. Effective applications and interface design needs to address the dynamic diversity of the human species. We introduce a new design paradigm, Design for Dynamic Diversity, and a methodology to assist its achievement, User Sensitive Inclusive Design.},
+    booktitle = "Proceedings of the 2001 EC/NSF Workshop on Universal Accessibility of Ubiquitous Computing: Providing for the Elderly",
+    pages = "90-92",
+    numpages = "3",
+    keywords = "user sensitive inclusive design, usability engineering, universal accessibility, design for dynamic diversity, design for all, HCI",
+    location = "Alc\'{a}cer do Sal, Portugal",
+    series = "WUAUC'01"
+}</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -3639,7 +3830,7 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a new design paradigm, Design for Dynamic Diversity,</t>
+          <t>a new design paradigm, Design for Dynamic Diversity,</t>
         </is>
       </c>
       <c r="R30" t="n">
@@ -3647,7 +3838,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -3656,7 +3847,11 @@
           <t>Designing for dynamic diversity - Making accessible interfaces for older people</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/564526.564550</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -3664,7 +3859,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -3685,12 +3880,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>In this paper, we discuss a strategy for the adaptation of the difficulty level in games intended to include motor planning during robotic rehabilitation. We consider concurrently the motivation of the user and his/her performance in a Pong game. User motivation is classified in three levels (not motivated, well motivated and overloaded). User performance is measured as a combination of knowledge of results-achieved goals and score points in the game and knowledge of performance joint displacement, speed, aiming, user work, etc. Initial results of a pilot test with unimpaired healthy young volunteers are also presented showing a tendency for individualization of the parameter values. © 2011 IEEE.</t>
+          <t>In this paper, we discuss a strategy for the adaptation of the difficulty level in games intended to include motor planning during robotic rehabilitation. We consider concurrently the motivation of the user and his/her performance in a Pong game. User motivation is classified in three levels (not motivated, well motivated and overloaded). User performance is measured as a combination of knowledge of results-achieved goals and score points in the game and knowledge of performance joint displacement, speed, aiming, user work, etc. Initial results of a pilot test with unimpaired healthy young volunteers are also presented showing a tendency for individualization of the parameter values.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Algorithms; Computer Graphics; Game Theory; Humans; Physical Therapy Modalities; Reward; Robotics; Therapy, Computer-Assisted; Video Games; Motivation; Robotics; Adaptive strategy; Motor planning; Multi-user; Pilot tests; Robotic rehabilitation; User motivation; User performance; algorithm; article; computer assisted therapy; computer graphics; game; human; methodology; physiotherapy; recreation; reward; robotics; Robot programming</t>
+          <t>Algorithms; Computer Graphics; Game Theory; Humans; Physical Therapy Modalities; Reward; Robotics; Therapy;  Computer-Assisted; Video Games; Motivation; Robotics; Adaptive strategy; Motor planning; Multi-user; Pilot tests; Robotic rehabilitation; User motivation; User performance; algorithm; article; computer assisted therapy; computer graphics; game; human; methodology; physiotherapy; recreation; reward; robotics; Robot programming</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3708,24 +3903,28 @@
           <t>https://doi.org/10.1109/IEMBS.2011.6090328</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.E. L. Miller, L. Murray, L. Richards, R. D. Zorowitz, T. Bakas, P. Clarck, and S. A. Billinger, "The Comprehensive Overview of Nursing and Interdisciplinary Rehabilitation Care of the Stroke Patient: A Scientific Statement from the American Heart Association," Stroke, vol. 41, pp. 2402-2448, 2010. CrossRef  Google Scholar; 2.Dept of Veterans Affairs, Dept of Defense, American Heart Association, American Stroke Association. VA/DoD clinical practice guideline for the management of stroke rehabilitation. The Office of Quality and Performance, VA, Washington, DC &amp; Quality Management Division, United States Army MEDCOM. 2010 (Version 3.0). Full guideline available at: http://www.healthquality.va.gov or, http://www.qmo.amedd.army.mil Google Scholar; 3.H. I. Krebs, B. T. Volpe, M. Ferraro, K. Rannekleiv, L. Dipietro, J. Palazzo, J. Krol, N. Hogan, "Rehabilitation Robotics: Performance-Based Progressive Robot-Assisted Therapy" Autonomous Robots Springer Netherlands, Issn: 0929-5593, pp: 7-20 Volume: 15, Issue: 1, July 2003. CrossRef  Google Scholar; 4.S. J. Kim, H. I. Krebs, "MIT-Skywalker: Preliminary Insights on Performance-Based Locomotor Training," The 3rd Annual Dynamic Systems and Control Conference, Cambridge, MA, October 2010. CrossRef  Google Scholar; 5.P. Rego, P. M. Moreira, L. P. Reis, "Serious Games for Rehabilitation-A Survey and a Classification Towards a Taxonomy", Information Systems and Technologies (CISTI), 5th Iberian Conference on , vol., no., pp.1-6, 16-19 June 2010 View Article  Google Scholar; 6.H. I. Krebs, B. T. Volpe, M. Ferraro, S. Fasoli, J. Palazzo, B. Rohrer, L. Edelstein, N. Hogan, "Robot-Aided Neurorehabilitation: From Evidence-Based to Science-Based Rehabilitationn", Topics in Stroke Rehabilitation, Winter 2002, pp. 54 - 70. CrossRef  Google Scholar; 7.J. W. Burke, M. D. J. McNeil, D. K. Charles, P. J. Morrow, J. H. M. Crosbie, S. M. McDonough, "Optimizing engagement for stroke rehabilitation using serious games", published online: August 2009 Springer-Verlag 2009 Google Scholar; 8.F. Bellotti, R. Berta, A. de Gloria, L. Primavera, "Adaptive Experience Engine for Serious Games", IEEE Transactions on Computational Intelligence and AI in Games, vol. 1, no. 4, December 2009, pp. 264-280. View Article  Google Scholar; 9.A. C. Lo, P. Guarino, H. I. Krebs, B.T. Volpe, C. T. Bever, P. W. Duncan, R. J. Ringer, T. H. Wagner, L. G. Richards, D. M. Bravata, J. K. Haselkorn, G. F. Wittenberg, D. G. Federman, B. H. Corn, A. D. Malfucci, P. Peduzzi, "Multicenter Randomized Trial of Robot-Assisted Rehabilitation for Chronic Stroke: Methods and Entry Characteristics for VA Robotics, Neurorehab Neural Repair; 23:8:775-783 (2009). CrossRef  Google Scholar; 10.C. Liu, P. Agrawal, N. Sarkar, S. Chen, Dynamic difficulty Adjustment in Computer Games Through Real Time Anxiety-Based Affective Feedback, International Journal of Computer Interaction, 25:6, 509-529, 2009 CrossRef  Google Scholar; 11.S. Hesse, G. Schulte-Tigges, M.Konrad, A. Bardeleben, C. Wernwe, (2003). Robot-Assisted Arm Trainer for the Passive and Active Practice of Bilateral Forearm and Wrist Movements in Hemiparetic Subjects Arch Phys Med Rehabil, Vol 84, June, 2003. CrossRef  Google Scholar; 12.J. Stein, K. Narendran, J. Mcbean, H.I. Krebs, R. Hughes, (2007). Electromyography-controlled exoskeletal upper-limb-powered orthosis for exercise training after stroke. Am J Phys Med Rehabil., Apr; 86(4):255-61, 2007. CrossRef  Google Scholar; 13.A. Roy, H. I. Krebs, D. Williams, C.T. Bever, L.W. Forrester, R.M. Macko, N. Hogan, "Robot-Aided Neurorehabilitation: A Robot for Ankle Rehabilitation," IEEE - Transaction Robotics, 25:3:569-582 (2009). View Article  Google Scholar; 14.L. Masia, H. I. Krebs, P. Cappa, N. Hogan, "Design and Characterization of Hand Module for Whole-Arm Rehabilitation Following Stroke," IEEE/ASME Trans on Mechatronics 12:4:399-407 (2007). View Article  Google Scholar; 15.H. I. Krebs, B. T. Volpe, D. Williams, J. Celestino, S. K. Charles, D. Lynch, N. Hogan, "Robot-Aided Neurorehabilitation: A Robot for Wrist Rehabilitation," IEEE Transaction Neural Systems and Rehabilitation Engineering 15(3)327-335 (2007). View Article  Google Scholar; 16.H. I. Krebs, M. Ferraro, S. P. Buerger, M.J. Newbery, A. Makiyama, M. Sandmann, D. Lynch, B.T. Volpe, N. Hogan; "Rehabilitation Robotics: Pilot Trial of a Spatial Extension for MIT-Manus," Journal of NeuroEngineering and Rehabilitation, Biomedcentral, 1:5 (2004). CrossRef  Google Scholar; 17.K. O. Andrade, B. Jardim, R.C. Joaquim, G.G. Ito, A.A.G. Siqueira, G.A.P. Caurin, L.M.S. Amaral. A Game-Based Framework for Robotic Rehabilitation. In: Proceedings of the XIV International Symposium on Dynamic Problems of Mechanics (DINAME 2011), Sao Sebastiao, SP, Brazil, March 13th - March 18th, 2011. Google Scholar; 18.E. Flores, G. Tobon, E. Cavallaro, F. I. Cavallaro, J. C. Perry, T. Keller, "Improving Patient Motivation in Game Development for Motor Deficit Rehabilitation" - Advances in Computer Entertaiment Tecnology, 2008, Yokohama, Japan CrossRef  Google Scholar; 19.H.I. Krebs, N. Hogan, M.L. Aisen, B.T. Volpe. (1998). Robot-aided neurorehabilitation. IEEE Trans Rehabil Eng.;6:75-87, 1998. View Article  Google Scholar; 20.A. Gupta, M.K. O'malley, V. Pataglu, C. Burgar, (2008). Design, Control and Performance of RiceWrist: A Force Feedback Wrist Exoskeleton for Rehabilitation and Training. The International Journal of Robotics Research February, vol. 27, no. 2 233-251, 2008. CrossRef  Google Scholar; 21.T. Nef, M. Mihelj, R. Rienner, (2007). ARMin: a robot for patientcooperative arm therapy. Med Biol Eng Comput., Sep;45(9):887-900, Aug 3, 2007. CrossRef  Google Scholar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1395 – 1398</t>
+          <t>1395 - 1398</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Caurin20111395,
+          <t>@CONFERENCE{Caurin20111395,
     author = "Caurin, Glauco A. P. and Siqueira, Adriano. A. G. and Andrade, Kleber O. and Joaquim, Ricardo C. and Krebs, Hermano I.",
     title = "Adaptive strategy for multi-user robotic rehabilitation games",
     year = "2011",
     journal = "Proceedings of the Annual International Conference of the IEEE Engineering in Medicine and Biology Society, EMBS",
-    pages = "1395 – 1398",
+    pages = "1395 - 1398",
     doi = "10.1109/IEMBS.2011.6090328",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84862263188\&amp;doi=10.1109\%2fIEMBS.2011.6090328\&amp;partnerID=40\&amp;md5=84ad0e6f049e0bd5441a3c728ec94e67",
-    affiliations = "Department of Mechanical Engineering, University of so Paulo at so Carlos, São Carlos, SP, Brazil; Massachusetts Institute of Technology, Mechanical Engineering Department, Cambridge, MA 02139, United States",
-    abstract = "In this paper, we discuss a strategy for the adaptation of the difficulty level in games intended to include motor planning during robotic rehabilitation. We consider concurrently the motivation of the user and his/her performance in a Pong game. User motivation is classified in three levels (not motivated, well motivated and overloaded). User performance is measured as a combination of knowledge of results-achieved goals and score points in the game and knowledge of performance joint displacement, speed, aiming, user work, etc. Initial results of a pilot test with unimpaired healthy young volunteers are also presented showing a tendency for individualization of the parameter values. © 2011 IEEE.",
+    affiliations = "Department of Mechanical Engineering, University of so Paulo at so Carlos, Sao Carlos, SP, Brazil; Massachusetts Institute of Technology, Mechanical Engineering Department, Cambridge, MA 02139, United States",
+    abstract = "In this paper, we discuss a strategy for the adaptation of the difficulty level in games intended to include motor planning during robotic rehabilitation. We consider concurrently the motivation of the user and his/her performance in a Pong game. User motivation is classified in three levels (not motivated, well motivated and overloaded). User performance is measured as a combination of knowledge of results-achieved goals and score points in the game and knowledge of performance joint displacement, speed, aiming, user work, etc. Initial results of a pilot test with unimpaired healthy young volunteers are also presented showing a tendency for individualization of the parameter values. (c) 2011 IEEE.",
     keywords = "Algorithms; Computer Graphics; Game Theory; Humans; Physical Therapy Modalities; Reward; Robotics; Therapy, Computer-Assisted; Video Games; Motivation; Robotics; Adaptive strategy; Motor planning; Multi-user; Pilot tests; Robotic rehabilitation; User motivation; User performance; algorithm; article; computer assisted therapy; computer graphics; game; human; methodology; physiotherapy; recreation; reward; robotics; Robot programming",
     correspondence_address = "H.I. Krebs; Massachusetts Institute of Technology, Mechanical Engineering Department, Cambridge, MA 02139, United States; email: hikrebs@mit.edu",
     publisher = "Institute of Electrical and Electronics Engineers Inc.",
@@ -3738,8 +3937,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 28; Conference name: 33rd Annual International Conference of the IEEE Engineering in Medicine and Biology Society, EMBS 2011; Conference date: 30 August 2011 through 3 September 2011; Conference code: 87843"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3764,7 +3962,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -3775,19 +3973,15 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84862263188&amp;doi=10.1109%2fIEMBS.2011.6090328&amp;partnerID=40&amp;md5=84ad0e6f049e0bd5441a3c728ec94e67</t>
+          <t>https://ieeexplore.ieee.org/document/6090328</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+          <t>Institute of Electrical and Electronics Engineers Inc</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3816,7 +4010,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sorelle Audrey Kamkuimo K.ORCID:orcid.org/0000-0002-5731-035512,; Benoît Girard13&amp;; Bob-Antoine J. MenelasORCID:orcid.org/0000-0001-9027-435212</t>
+          <t>Sorelle Audrey Kamkuimo K.ORCID:orcid.org/---; Benoit Girard; Bob-Antoine J. MenelasORCID:orcid.org/---</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3832,7 +4026,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>pp 102–111</t>
+          <t>pp 102-111</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -3872,7 +4066,11 @@
           <t>Dynamic difficulty adjustment of rehabilitation tasks throughreal-time emotion feedback and performance</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-63464-3_10</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr">
         <is>
           <t>Springer, Cham</t>
@@ -3904,22 +4102,30 @@
           <t>We propose a safe design of squat exergame to maintain lower extremity strength that includes Dynamic Difficulty Adjustment (DDA). This is to optimise the game difficulty according to a Knee Shakiness (KS) parameter. We modulated two parameters to implement DDA namely, movement speed and Pneumatic Gel Muscle (PGM)-based assistance. The movement speed of the user relates to the frequency of squatting, and the PGM-based assistance was provided by pneumatic actuators called PGMs attached on the hip and knee joints of the lower extremity. We provided variable PGM-based assistance during the onset phase of the squat and a fixed PGM-based resistance during the end phase of the squat. We used collectible spherical objects in the exergame to maintain a good squat posture. The squat posture parameters, knee distance and squat depth showed improvement through the proposed design. Introducing DDA could also significantly reduce KS during the squats.</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Squat-exergame; Squat posture; Dynamic Difficulty Adjustment (DDA); Virtual Reality (VR); Lower extremity; Pneumatic Gel Muscles (PGMs)</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PriyankaRamasamy; SwagataDas; YuichiKurita</t>
+          <t>Priyanka Ramasamy; Swagata Das; Yuichi Kurita</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Universal Access in Human-Computer Interaction. Access to Media, Learning and Assistive Environments:15th International Conference, UAHCI 2021, Held as Part of the 23rd HCI International Conference, HCII 2021, Virtual Event, July 24–29, 2021, Proceedings, Part II</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>Universal Access in Human-Computer Interaction. Access to Media, Learning and Assistive Environments:15th International Conference, UAHCI 2021, Held as Part of the 23rd HCI International Conference, HCII 2021, Virtual Event, July 24-29, 2021, Proceedings, Part II</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-78095-1_33</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>49-467</t>
+          <t>449-467</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -3958,7 +4164,11 @@
           <t>Ski for squat: A squat exergame with pneumatic gel muscle-based dynamic difficulty adjustment</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-78095-1_33</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr">
         <is>
           <t>Springer-Verlag</t>
@@ -3966,7 +4176,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; DOI; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -3990,10 +4200,14 @@
           <t>Generally, the difficulty level of a therapeutic game is regulated manually by a therapist. However, home-based rehabilitation games require a technique for automatic difficulty adjustment. This paper proposes a personalized difficulty adjustment technique for a rehabilitation game that automatically regulates difficulty settings based on a patient's skills in real-time. To this end, ideas from reinforcement learning are used to dynamically adjust the difficulty of a game. We show that difficulty adjustment is a multiple-objective problem, in which some objectives might be evaluated at different periods. To address this problem, we propose and use Multiple-Periodic Reinforcement Learning (MPRL) that makes it possible to evaluate different objectives of difficulty adjustment in separate periods. The results of experiments show that MPRL outperforms traditional Multiple-Objective Reinforcement Learning (MORL) in terms of user satisfaction parameters as well as improving the movement skills of patients.</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Biological cells;Silicon</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Yoones A. Sekhavat</t>
+          <t>Sekhavat, Yoones A.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4011,8 +4225,29 @@
           <t>1.N. Hocine, A. Gouaich and S. A. Cerri, "Dynamic Difficulty Adaptation in Serious Games for Motor Rehabilitation", International Conference on Serious Games, pp. 115-128, 2014, April. CrossRef  Google Scholar; 2.K. D. O. Andrade, T. B. Pasqual, G. A. Caurin and M. K. Crocomo, "Dynamic difficulty adjustment with Evolutionary Algorithm in games for rehabilitation robotics", Serious Games and Applications for Health (SeGAH) 2016 IEEE International Conference on, pp. 1-8, 2016, May. CrossRef  Google Scholar; 3.M. C. Cirstea and M. F. Levin, "Improvement of arm movement patterns and endpoint control depends on type of feedback during practice in stroke survivors", Neurorehabilitation and neural repair, 2007. CrossRef  Google Scholar; 4.B. H. Dobkin, "Rehabilitation after stroke", New England Journal of Medicine, vol. 352, no. 16, pp. 1677-1684, 2005. CrossRef  Google Scholar; 5.N. Hocine and A. Gouach, "Therapeutic games' difficulty adaptation: An approach based on player's ability and motivation", Computer Games (CGAMES) 2011 16th International Conference on, pp. 257-261, 2011, July. View Article  Google Scholar; 6.D. Afergan, E. M. Peck, E. T. Solovey, A. Jenkins, S. W. Hincks, E. T. Brown, et al., "Dynamic difficulty using brain metrics of workload", Proceedings of the 32nd annual ACM conference on Human factors in computing systems, pp. 3797-3806, 2014, April. CrossRef  Google Scholar; 7.Y. A. Sekhavat, "Nowcasting Mobile Games Ranking Using Web Search Query Data", International Journal of Computer Games Technology, 2016. CrossRef  Google Scholar; 8.Y. A. Sekhavat, "KioskAR: An Augmented Reality Game as a New Business Model to Present Artworks", International Journal of Computer Games Technology, 2016. CrossRef  Google Scholar; 9.Y. A. Sekhavat, "Privacy Preserving Cloth Try-On Using Mobile Augmented Reality", IEEE Transactionson Multimedia, 2016. Google Scholar; 10.L. F. Lucca, "Virtual reality and motor rehabilitation of the upper limb after stroke: a generation of progress?", Journal of rehabilitation medicine, vol. 41, no. 12, pp. 1003-1006, 2009. CrossRef  Google Scholar; 11.A. Gouach, N. Hocine, L. Van Dokkum and D. Mottet, "Digital-pheromone based difficulty adaptation in post-stroke therapeutic games", Proceedings of the 2nd ACM SIGHIT International Health Informatics Symposium, pp. 5-12, 2012, January. CrossRef  Google Scholar; 12.A. Heuser, H. Kourtev, S. Winter, D. Fensterheim, G. Burdea, V. Hentz, et al., "Telerehabilitation using the Rutgers Master II glove following carpal tunnel release surgery: proof-of-concept", IEEE Transactions on Neural Systems and Rehabilitation Engineering, vol. 15, no. 1, pp. 43-49, 2007. View Article  Google Scholar; 13.C. Liu, X. Xu and D. Hu, "Multiobjective reinforcement learning: A comprehensive overview", IEEE Transactions on Systems Man and Cybernetics: Systems, vol. 45, no. 3, pp. 385-398, 2015. View Article  Google Scholar; 14.S. Natkin, C. Yan, S. Jumpertz and B. Market, "Creating multiplayer ubiquitous fames using an adaptive narration model based on a users model", Digital Games Research Association International Conference (DiGRA 2007), 2007, January. Google Scholar; 15.G. N. Yannakakis and J. Hallam, "Real-time adaptation of augmented-reality games for optimizing player satisfaction", 2008 IEEE Symposium On Computational Intelligence and Games, pp. 103-110, 2008, December. View Article  Google Scholar; 16.R. Hunicke and V. Chapman, "AI for dynamic difficulty adjustment in games", Proceedings of the Challenges in Game AI Workshop Nineteenth National Conference on Artificial Intelligence, 2004. Google Scholar; 17.P. Spronck, I. Sprinkhuizen-Kuyper and E. Postma, "Difficulty scaling of game AI", Proceedings of the 5th International Conference on Intelligent Games and Simulation (GAME-ON 2004), pp. 33-37, 2004. Google Scholar; 18.S. Prabhakaran, E. Zarahn, C. Riley, A. Speizer, J. Y. Chong, R. M. Lazar, et al., "Inter-individual variability in the capacity for motor recovery after ischemic stroke", Neurorehabilitation and neural repair, 2007. CrossRef  Google Scholar; 19.M. Csikszentmhalyi, Flow: The Psychology of Optimal Experience, NY, NY:Harper Collins Berkely, California: Osborne/McGraw-Hill, 1990. Google Scholar; 20.C. H. Tan, K. C. Tan and A. Tay, "Dynamic game difficulty scaling using adaptive behavior-based AI", IEEE Transactions on Computational Intelligence and AI in Games, vol. 3, no. 4, pp. 289-301, 2011. View Article  Google Scholar; 21.M. S. Cameiro, S. B. Badia, E. D. Oller and P. F. Verschure, "Neurorehabilitation using the virtual reality based Rehabilitation Gaming System: methodology design psychometrics usability and validation", Journal of neuroengineering and rehabilitation, vol. 7, no. 1, 2010. CrossRef  Google Scholar; 22.G. Andrade, G. Ramalho, H. Santana and V. Corruble, "Extending reinforcement learning to provide dynamic game balancing", Proceedings of the Workshop on Reasoning Representation and Learning in Computer Games 19th International Joint Conference on Artificial Intelligence (IJCAI), pp. 7-12, 2005, August. Google Scholar; 23.A. Gouach, N. Hocine, L. Van Dokkum and D. Mottet, "Digital-pheromone based difficulty adaptation in post-stroke therapeutic games", Proceedings of the 2nd ACM SIGHIT International Health Informatics Symposium, pp. 5-12, 2012, January. CrossRef  Google Scholar; 24.Y. Chen, W. Xu, H. Sundaram, T. Rikakis and S. M. Liu, "A dynamic decision network framework for online media adaptation in stroke rehabilitation", ACM Transactions on Multimedia Computing Communications and Applications (TOMM), vol. 5, no. 1, 2008. CrossRef  Google Scholar; 25.H. Wang, Y. Gao and X. Chen, "R1-dot: A reinforcement learning npc team for playing domination games", IEEE Transactions on Computational intelligence and AI in Games, vol. 2, no. 1, pp. 17-26, 2010. View Article  Google Scholar; 26.R. S. Sutton and A. G. Barto, Reinforcement learning: An introduction, Cambridge:MIT press, vol. 1, no. 1, 1998. Google Scholar; 27.M. Buro and T. Furtak, "RTS games as test-bed for real-time AI research", Proceedings of the 7th Joint Conference on Information Science (JCIS 2003), pp. 481-484, 2003. Google Scholar; 28.B. Scott, "The illusion of intelligence", AI game programming wisdom, vol. 1, pp. 16-20, 2002. Google Scholar; 29.T. W. Malone, "What makes things fun to learn? Heuristics for designing instructional computer games", Proceedings of the 3rd ACM SIGSMALL symposium and the first SIGPC symposium on Small systems, pp. 162-169, 1980, September. CrossRef  Google Scholar; 30.J. Hagelback and S. J. Johansson, "Measuring player experience on runtime dynamic difficulty scaling in an RTS game", 2009 IEEE Symposium on Computational Intelligence and Games, pp. 46-52, 2009, September. View Article  Google Scholar</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1-7</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{7939260,
+    author = "Sekhavat, Yoones A.",
+    booktitle = "2017 IEEE 5th International Conference on Serious Games and Applications for Health (SeGAH)",
+    title = "MPRL: Multiple-Periodic Reinforcement Learning for difficulty adjustment in rehabilitation games",
+    year = "2017",
+    volume = "",
+    number = "",
+    pages = "1-7",
+    abstract = "Generally, the difficulty level of a therapeutic game is regulated manually by a therapist. However, home-based rehabilitation games require a technique for automatic difficulty adjustment. This paper proposes a personalized difficulty adjustment technique for a rehabilitation game that automatically regulates difficulty settings based on a patient's skills in real-time. To this end, ideas from reinforcement learning are used to dynamically adjust the difficulty of a game. We show that difficulty adjustment is a multiple-objective problem, in which some objectives might be evaluated at different periods. To address this problem, we propose and use Multiple-Periodic Reinforcement Learning (MPRL) that makes it possible to evaluate different objectives of difficulty adjustment in separate periods. The results of experiments show that MPRL outperforms traditional Multiple-Objective Reinforcement Learning (MORL) in terms of user satisfaction parameters as well as improving the movement skills of patients.",
+    keywords = "Biological cells;Silicon",
+    doi = "10.1109/SeGAH.2017.7939260",
+    ISSN = "",
+    month = "April"
+}</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>Included</t>
@@ -4035,7 +4270,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -4044,17 +4279,17 @@
           <t>MPRL: Multiple-Periodic Reinforcement Learning for difficulty adjustment in rehabilitation games</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/7939260</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4073,17 +4308,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>One of the principal problems of rehabilitation is that therapy sessions can be boring due the repetition of exercises. Serious games, and in particular exergames in rehabilitation, can motivate, engage and increase patients’ adherence to their treatment. Also, the automatic personalization of exercises to each patient can help therapists. Thus, the main objective of this work is to build an intelligent exergame-based rehabilitation system consisting of a platform with an exergame player and a designer tool. The intelligent platform includes a recommender system which analyzes user interactions, along with the user's history, to select new gamified exercises for the user. The main contributions of this paper focus, first, on defining a recommender system based on different difficulty levels and user skills. The recommender system offers the ability to provide the user with a personalized game mode based on his own history and preferences. The results of a triple validation with experts, users and rehabilitation center professionals reveal a positive impact on gestural interaction and rehabilitation uses. Also, different methods are presented for testing the rehabilitation recommender system. © 2019 Elsevier Inc.</t>
+          <t>One of the principal problems of rehabilitation is that therapy sessions can be boring due the repetition of exercises. Serious games, and in particular exergames in rehabilitation, can motivate, engage and increase patients' adherence to their treatment. Also, the automatic personalization of exercises to each patient can help therapists. Thus, the main objective of this work is to build an intelligent exergame-based rehabilitation system consisting of a platform with an exergame player and a designer tool. The intelligent platform includes a recommender system which analyzes user interactions, along with the user's history, to select new gamified exercises for the user. The main contributions of this paper focus, first, on defining a recommender system based on different difficulty levels and user skills. The recommender system offers the ability to provide the user with a personalized game mode based on his own history and preferences. The results of a triple validation with experts, users and rehabilitation center professionals reveal a positive impact on gestural interaction and rehabilitation uses. Also, different methods are presented for testing the rehabilitation recommender system.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Computational Biology; Exercise Therapy; Games, Recreational; Gestures; Humans; Motivation; Rehabilitation; User-Computer Interface; Virtual Reality; Patient treatment; Recommender systems; Serious games; Exergames; Gamification; Gestural interaction; Intelligent platform; Mode-based; Personalizations; Rehabilitation System; User interaction; article; exercise; human; male; rehabilitation center; skill; validation process; biology; computer interface; gesture; kinesiotherapy; motivation; procedures; recreational game; rehabilitation; virtual reality; Patient rehabilitation</t>
+          <t>Computational Biology; Exercise Therapy; Games;  Recreational; Gestures; Humans; Motivation; Rehabilitation; User-Computer Interface; Virtual Reality; Patient treatment; Recommender systems; Serious games; Exergames; Gamification; Gestural interaction; Intelligent platform; Mode-based; Personalizations; Rehabilitation System; User interaction; article; exercise; human; male; rehabilitation center; skill; validation process; biology; computer interface; gesture; kinesiotherapy; motivation; procedures; recreational game; rehabilitation; virtual reality; Patient rehabilitation</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>González-González, Carina S.; Toledo-Delgado, Pedro A.; Muñoz-Cruz, Vanesa; Torres-Carrion, Pablo V.</t>
+          <t>Gonzalez-Gonzalez, Carina S.; Toledo-Delgado, Pedro A.; Munoz-Cruz, Vanesa; Torres-Carrion, Pablo V.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4097,11 +4332,15 @@
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>me 97,September 2019, 103266</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{González-González2019,
-    author = "González-González, Carina S. and Toledo-Delgado, Pedro A. and Muñoz-Cruz, Vanesa and Torres-Carrion, Pablo V.",
+          <t>@ARTICLE{Gonzalez-Gonzalez2019,
+    author = "Gonzalez-Gonzalez, Carina S. and Toledo-Delgado, Pedro A. and Munoz-Cruz, Vanesa and Torres-Carrion, Pablo V.",
     title = "Serious games for rehabilitation: Gestural interaction in personalized gamified exercises through a recommender system",
     year = "2019",
     journal = "Journal of Biomedical Informatics",
@@ -4109,10 +4348,10 @@
     doi = "10.1016/j.jbi.2019.103266",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85070615514\&amp;doi=10.1016\%2fj.jbi.2019.103266\&amp;partnerID=40\&amp;md5=722cad207d76c8963a9a6d2118cbe6e4",
     affiliations = "ITED Research Group, Department of Computer Science and Engineering, Universidad de La Laguna, Spain; Inclusive Human Computer Interaction, Department of Computer Science and Electronics, Private Technical University of Loja, Ecuador",
-    abstract = "One of the principal problems of rehabilitation is that therapy sessions can be boring due the repetition of exercises. Serious games, and in particular exergames in rehabilitation, can motivate, engage and increase patients’ adherence to their treatment. Also, the automatic personalization of exercises to each patient can help therapists. Thus, the main objective of this work is to build an intelligent exergame-based rehabilitation system consisting of a platform with an exergame player and a designer tool. The intelligent platform includes a recommender system which analyzes user interactions, along with the user's history, to select new gamified exercises for the user. The main contributions of this paper focus, first, on defining a recommender system based on different difficulty levels and user skills. The recommender system offers the ability to provide the user with a personalized game mode based on his own history and preferences. The results of a triple validation with experts, users and rehabilitation center professionals reveal a positive impact on gestural interaction and rehabilitation uses. Also, different methods are presented for testing the rehabilitation recommender system. © 2019 Elsevier Inc.",
+    abstract = "One of the principal problems of rehabilitation is that therapy sessions can be boring due the repetition of exercises. Serious games, and in particular exergames in rehabilitation, can motivate, engage and increase patients' adherence to their treatment. Also, the automatic personalization of exercises to each patient can help therapists. Thus, the main objective of this work is to build an intelligent exergame-based rehabilitation system consisting of a platform with an exergame player and a designer tool. The intelligent platform includes a recommender system which analyzes user interactions, along with the user's history, to select new gamified exercises for the user. The main contributions of this paper focus, first, on defining a recommender system based on different difficulty levels and user skills. The recommender system offers the ability to provide the user with a personalized game mode based on his own history and preferences. The results of a triple validation with experts, users and rehabilitation center professionals reveal a positive impact on gestural interaction and rehabilitation uses. Also, different methods are presented for testing the rehabilitation recommender system. (c) 2019 Elsevier Inc.",
     author_keywords = "Exergames; Gamification; Recommender systems; Rehabilitation; Serious games",
     keywords = "Computational Biology; Exercise Therapy; Games, Recreational; Gestures; Humans; Motivation; Rehabilitation; User-Computer Interface; Virtual Reality; Patient treatment; Recommender systems; Serious games; Exergames; Gamification; Gestural interaction; Intelligent platform; Mode-based; Personalizations; Rehabilitation System; User interaction; article; exercise; human; male; rehabilitation center; skill; validation process; biology; computer interface; gesture; kinesiotherapy; motivation; procedures; recreational game; rehabilitation; virtual reality; Patient rehabilitation",
-    correspondence_address = "C.S. González-González; ITED Research Group, Department of Computer Science and Engineering, Universidad de La Laguna, Spain; email: cjgonza@ull.edu.es",
+    correspondence_address = "C.S. Gonzalez-Gonzalez; ITED Research Group, Department of Computer Science and Engineering, Universidad de La Laguna, Spain; email: cjgonza@ull.edu.es",
     publisher = "Academic Press Inc.",
     issn = "15320464",
     coden = "JBIOB",
@@ -4123,8 +4362,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 54; All Open Access, Bronze Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4153,7 +4391,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -4164,17 +4402,17 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85070615514&amp;doi=10.1016%2fj.jbi.2019.103266&amp;partnerID=40&amp;md5=722cad207d76c8963a9a6d2118cbe6e4</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85070615514&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=63f49dc2ffb34eb05c7fe2b7a65c7e80&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28serious+games+for+rehabilitation+gestural+interaction+in+personalized+gamified+exercises+through+a+recommender+system%29&amp;sl=132&amp;sessionSearchId=63f49dc2ffb34eb05c7fe2b7a65c7e80&amp;relpos=0</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Academic Press Inc.</t>
+          <t>Academic Press Inc</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4433,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Currently, there is less attention to the prevention of patients with type 2 diabetes mellitus and hypertension from cardiovascular complication, although it is the significant cause of death for these patients worldwide. To be prevented from this complication, these patients should develop their self-monitoring skills along with their healthcare journey. Consequently, this paper aims to provide an efficient mobile-based self-monitoring that can encourage patients with type 2 diabetes mellitus and hypertension to improve their health status. The distinctive point of the proposed mobile application is the trend progression module for demonstrating the progression of four health statuses for the patients. This trend progression is modeled with a fuzzy logic-based method. The rules are generated based on clinical data, lifestyle data, and experience of healthcare professionals. There are eleven healthcare professionals involved in this paper. The experiment with one hundred twenty-one patients shows that the proposed mobile application provides 92% trend progression accuracy compared with healthcare professionals’ decisions. The developed mobile application obtains the function satisfaction and performance satisfaction in the “strongly satisfied” level. Besides, the developed mobile application can encourage 85% of patients to improve their health statuses. It can be seen that this paper is a new aspect of encouraging patients to concern more about the improvement of their health statuses anywhere and anytime. © 2020, Springer Science+Business Media, LLC, part of Springer Nature.</t>
+          <t>Currently, there is less attention to the prevention of patients with type 2 diabetes mellitus and hypertension from cardiovascular complication, although it is the significant cause of death for these patients worldwide. To be prevented from this complication, these patients should develop their self-monitoring skills along with their healthcare journey. Consequently, this paper aims to provide an efficient mobile-based self-monitoring that can encourage patients with type 2 diabetes mellitus and hypertension to improve their health status. The distinctive point of the proposed mobile application is the trend progression module for demonstrating the progression of four health statuses for the patients. This trend progression is modeled with a fuzzy logic-based method. The rules are generated based on clinical data, lifestyle data, and experience of healthcare professionals. There are eleven healthcare professionals involved in this paper. The experiment with one hundred twenty-one patients shows that the proposed mobile application provides 92% trend progression accuracy compared with healthcare professionals' decisions. The developed mobile application obtains the function satisfaction and performance satisfaction in the "strongly satisfied" level. Besides, the developed mobile application can encourage 85% of patients to improve their health statuses. It can be seen that this paper is a new aspect of encouraging patients to concern more about the improvement of their health statuses anywhere and anytime.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4218,26 +4456,38 @@
           <t>https://doi.org/10.1007/s11277-020-07440-w</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>World Health Organization. (2017). Noncommunicable diseases. Retrieved January, 2018, from 
+                  http://www.who.int//mediacentre/factsheets/fs355/en/
+                .; citation_title=Global atlas on cardiovascular disease prevention and control; citation_publication_date=2011; citation_id=CR2; citation_author=S Mendis; citation_author=P Puska; citation_author=B Norrving; citation_publisher=World Health Organization; citation_journal_title=Hypertension; citation_title=Diabetes, hypertension, and cardiovascular disease an update; citation_author=JR Sowers, M Epstein, ED Frohlich; citation_volume=37; citation_issue=4; citation_publication_date=2001; citation_pages=1053-1059; citation_doi=10.1161/01.HYP.37.4.1053; citation_id=CR3; citation_journal_title=Canadian Family Physician; citation_title=Hypertension in people with type 2 diabetes update on pharmacologic management; citation_author=NR Campbell, RE Gilbert, LA Leiter, P Larochelle, S Tobe, A Chockalingam, R Ward, D Morris, RT Tsuyuki, SB Harris; citation_volume=57; citation_issue=9; citation_publication_date=2011; citation_pages=997-1002; citation_id=CR4; citation_journal_title=Patient Education and Counseling; citation_title=The health education impact questionnaire (heiQ): An outcomes and evaluation measure for patient education and self-management interventions for people with chronic conditions; citation_author=RH Osborne, GR Elsworth, K Whitfield; citation_volume=66; citation_issue=2; citation_publication_date=2007; citation_pages=192-201; citation_doi=10.1016/j.pec.2006.12.002; citation_id=CR5; Nikolic-Popovic, J., &amp; Goubran, R. (2011). Measuring heart rate, breathing rate and skin conductance during exercise. In 2011 IEEE international symposium on medical measurements and applications (pp. 507-511). IEEE.; Puke, S., Suzuki, T., Nakayama, K., Tanaka, H., &amp; Minami, S. (2013). Blood pressure estimation from pulse wave velocity measured on the chest. In 35th annual international conference of the IEEE engineering in medicine and biology society (EMBC) (pp. 6107-6110). IEEE.; Luo, N., Ding, J., Zhao, N., Leung, B. H., &amp; Poon, C. C. (2014). Mobile health: Design of flexible and stretchable electrophysiological sensors for wearable healthcare systems. In 11th international conference on wearable and implantable body sensor networks (pp. 87-91). IEEE.; Dexcom, I. (2017). Dexcom G4 platinum. Retrieved November, 2018, from 
+                  http://www.dexcom.com/pt-PT
+                .; Dias, D., Ferreira, N., &amp; Cunha, J. P. S. (2017). VitalLogger: An adaptable wearable physiology and body-area ambiance data logger for mobile applications. In 14th international conference on wearable and implantable body sensor networks (BSN) (pp. 71-74). IEEE.; citation_journal_title=Sensors; citation_title=Wearable health devices--vital sign monitoring, systems and technologies; citation_author=D Dias, J Paulo Silva Cunha; citation_volume=18; citation_issue=8; citation_publication_date=2018; citation_pages=2414; citation_doi=10.3390/s18082414; citation_id=CR11; Leijdekkers, P., &amp; Gay, V. (2008). A self-test to detect a heart attack using a mobile phone and wearable sensors. In 21st IEEE international symposium on computer-based medical systems, 2008. CBMS'08 (pp. 93-98).; Mohan, P., Marin, D., Sultan, S., &amp; Deen, A. (2008). MediNet: Personalizing the self-care process for patients with diabetes and cardiovascular disease using mobile telephony. In Engineering in medicine and biology society, 2008. EMBS 2008. 30th annual international conference of the IEEE (pp. 755-758). IEEE.; Instituto Carlos Slim de la Salud Voxiva. (2011). CardioNet. Retrieved January, 2018, from 
+                  http://www.voxiva.com/cardionet/index.html
+                .; citation_journal_title=Patient Education and Counseling; citation_title=A text messaging intervention to promote medication adherence for patients with coronary heart disease: A randomized controlled trial; citation_author=LG Park, J Howie-Esquivel, ML Chung, K Dracup; citation_volume=94; citation_issue=2; citation_publication_date=2014; citation_pages=261-268; citation_doi=10.1016/j.pec.2013.10.027; citation_id=CR15; citation_journal_title=International Journal of Medical Informatics; citation_title=Cellular phone and internet-based individual intervention on blood pressure and obesity in obese patients with hypertension; citation_author=MJ Park, HS Kim, KS Kim; citation_volume=78; citation_issue=10; citation_publication_date=2009; citation_pages=704-710; citation_doi=10.1016/j.ijmedinf.2009.06.004; citation_id=CR16; citation_journal_title=British Medical Journal Open; citation_title=Design and rationale of the tobacco, exercise and diet messages (TEXT ME) trial of a text message-based intervention for ongoing prevention of cardiovascular disease in people with coronary disease: A randomised controlled trial protocol; citation_author=CK Chow, J Redfern, A Thiagalingam, S Jan, R Whittaker, M Hackett, N Graves, J Mooney, GS Hillis; citation_volume=2; citation_publication_date=2012; citation_pages=e000606; citation_id=CR17; Sritara, P., Tatsanavivat, P., Tulyadachanon, S., Sangwatanaroj, S., Yamwong, S., &amp; Vathesatogkit, P. (2015). To estimate cardio-vascular risk of Thai. Retrieved January, 2018, from 
+                  http://med.mahidol.ac.th/cardio_vascular_risk/thai_cv_risk_score/tcvrs_en.html
+                .; Rachata, N., &amp; Temdee, P. (2016). Trend predictive model of cardiovascular complication for type 2 diabetes mellitus with hypertension patients. In Proceedings of global wireless summit (GWS) (pp. 219-223).; citation_title=Fuzzy expert systems for disease diagnosis; citation_publication_date=2014; citation_id=CR20; citation_author=AV Kumar; citation_publisher=IGI Global; citation_title=Applying fuzzy logic to risk assessment and decision-making; citation_publication_date=2013; citation_id=CR21; citation_author=K Shang; citation_author=Z Hossen; citation_publisher=Casualty Actuarial Society, Canadian Institute of Actuaries, Society of Actuaries; Adeli, A., &amp; Neshat, M. (2010). A fuzzy expert system for heart disease diagnosis. In Proceedings of international multi conference of engineers and computer scientists, Hong Kong (pp. 134-139).; citation_journal_title=International Journal of Computer Science and Information Technology and Security (IJCSITS); citation_title=A fuzzy logic based personalized recommender system; citation_author=BA Ojokoh, MO Omisore, OW Samuel, TO Ogunniyi; citation_volume=2; citation_publication_date=2012; citation_pages=1008-1015; citation_id=CR23; citation_journal_title=European Journal of Applied Sciences; citation_title=A fuzzy logic based model for life insurance underwriting when insurer is diabetic; citation_author=S Kumar, H Jain; citation_volume=4; citation_issue=5; citation_publication_date=2012; citation_pages=196-202; citation_id=CR24; Kulkarni, G. H., &amp; Waingankar, P. G. (2007). Fuzzy logic based traffic light controller. In International conference on industrial and information systems, 2007. ICIIS 2007 (pp. 107-110). IEEE.; citation_journal_title=Acta Physica Polonica B; citation_title=Fuzzy analysis of the cancer risk factor; citation_author=G Dudek, A Strzelewicz, M Krasowska, A Rybak, R Turczyn; citation_volume=43; citation_issue=5; citation_publication_date=2012; citation_pages=947-960; citation_doi=10.5506/APhysPolB.43.947; citation_id=CR26; citation_journal_title=IFAC Proceedings Volumes; citation_title=Fuzzy logic assisted diagnosis for atherogenesis risk; citation_author=AL Alonso, OA Rosas-Jaimes, JA Suarez-Cuenca; citation_volume=46; citation_issue=31; citation_publication_date=2013; citation_pages=244-248; citation_doi=10.3182/20131216-3-IN-2044.00031; citation_id=CR27; citation_journal_title=Global Journal of Computer Science and Technology; citation_title=A fuzzy rule based approach to predict risk level of heart disease; citation_author=KK Oad, X DeZhi, PK Butt; citation_volume=14; citation_issue=3-C; citation_publication_date=2014; citation_pages=17; citation_id=CR28; citation_journal_title=International Journal; citation_title=Hybrid prediction model for the risk of cardiovascular disease in type-2 diabetic patients; citation_author=P Radha, B Srinvasan; citation_volume=2; citation_issue=10; citation_publication_date=2014; citation_pages=52-63; citation_id=CR29; citation_journal_title=Healthcare Informatics Research; citation_title=Data-mining-based coronary heart disease risk prediction model using fuzzy logic and decision tree; citation_author=J Kim, J Lee, Y Lee; citation_volume=21; citation_issue=3; citation_publication_date=2015; citation_pages=167-174; citation_doi=10.4258/hir.2015.21.3.167; citation_id=CR30; citation_journal_title=Circulation; citation_title=Prediction of coronary heart disease using risk factor categories; citation_author=PW Wilson, RB D'Agostino, D Levy, AM Belanger, H Silbershatz, WB Kannel; citation_volume=97; citation_issue=18; citation_publication_date=1998; citation_pages=1837-1847; citation_doi=10.1161/01.CIR.97.18.1837; citation_id=CR31; citation_title=Fuzzy logic with engineering applications; citation_publication_date=2009; citation_id=CR32; citation_author=TJ Ross; citation_publisher=Wiley</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>151 – 175</t>
+          <t>151 - 175</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Rachata2021151,
+          <t>@ARTICLE{Rachata2021151,
     author = "Rachata, Napa and Temdee, Punnarumol",
     title = "Mobile-Based Self-Monitoring for Preventing Patients with Type 2 Diabetes Mellitus and Hypertension from Cardiovascular Complication",
     year = "2021",
     journal = "Wireless Personal Communications",
     volume = "117",
     number = "1",
-    pages = "151 – 175",
+    pages = "151 - 175",
     doi = "10.1007/s11277-020-07440-w",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85085097921\&amp;doi=10.1007\%2fs11277-020-07440-w\&amp;partnerID=40\&amp;md5=fd285749aa68b3a22f4a2a109555a98b",
     affiliations = "Computer and Communication Engineering for Capacity Building Research Unit, School of Information Technology, Mae Fah Luang University, Chiang Rai, Thailand",
-    abstract = "Currently, there is less attention to the prevention of patients with type 2 diabetes mellitus and hypertension from cardiovascular complication, although it is the significant cause of death for these patients worldwide. To be prevented from this complication, these patients should develop their self-monitoring skills along with their healthcare journey. Consequently, this paper aims to provide an efficient mobile-based self-monitoring that can encourage patients with type 2 diabetes mellitus and hypertension to improve their health status. The distinctive point of the proposed mobile application is the trend progression module for demonstrating the progression of four health statuses for the patients. This trend progression is modeled with a fuzzy logic-based method. The rules are generated based on clinical data, lifestyle data, and experience of healthcare professionals. There are eleven healthcare professionals involved in this paper. The experiment with one hundred twenty-one patients shows that the proposed mobile application provides 92\% trend progression accuracy compared with healthcare professionals’ decisions. The developed mobile application obtains the function satisfaction and performance satisfaction in the “strongly satisfied” level. Besides, the developed mobile application can encourage 85\% of patients to improve their health statuses. It can be seen that this paper is a new aspect of encouraging patients to concern more about the improvement of their health statuses anywhere and anytime. © 2020, Springer Science+Business Media, LLC, part of Springer Nature.",
+    abstract = "Currently, there is less attention to the prevention of patients with type 2 diabetes mellitus and hypertension from cardiovascular complication, although it is the significant cause of death for these patients worldwide. To be prevented from this complication, these patients should develop their self-monitoring skills along with their healthcare journey. Consequently, this paper aims to provide an efficient mobile-based self-monitoring that can encourage patients with type 2 diabetes mellitus and hypertension to improve their health status. The distinctive point of the proposed mobile application is the trend progression module for demonstrating the progression of four health statuses for the patients. This trend progression is modeled with a fuzzy logic-based method. The rules are generated based on clinical data, lifestyle data, and experience of healthcare professionals. There are eleven healthcare professionals involved in this paper. The experiment with one hundred twenty-one patients shows that the proposed mobile application provides 92\% trend progression accuracy compared with healthcare professionals' decisions. The developed mobile application obtains the function satisfaction and performance satisfaction in the "strongly satisfied" level. Besides, the developed mobile application can encourage 85\% of patients to improve their health statuses. It can be seen that this paper is a new aspect of encouraging patients to concern more about the improvement of their health statuses anywhere and anytime. (c) 2020, Springer Science+Business Media, LLC, part of Springer Nature.",
     author_keywords = "Cardiovascular complication; Mobile application; Prevention; Self-monitoring; Trend progression; Type 2 diabetes mellitus and hypertension",
     keywords = "Fuzzy logic; Health care; Clinical data; Health care professionals; Health status; Lifestyle data; Mobile applications; Self-monitoring; Type 2 diabetes mellitus; Mobile computing",
     correspondence_address = "P. Temdee; Computer and Communication Engineering for Capacity Building Research Unit, School of Information Technology, Mae Fah Luang University, Chiang Rai, Thailand; email: punnarumol@mfu.ac.th",
@@ -4250,8 +4500,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4276,7 +4525,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -4287,7 +4536,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85085097921&amp;doi=10.1007%2fs11277-020-07440-w&amp;partnerID=40&amp;md5=fd285749aa68b3a22f4a2a109555a98b</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85085097921&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=e04fc48940b713006739f8fc19642fa1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28mobile+based+self+monitoring+for+preventing+patients+with+type+2+diabetes+mellitus+and+hypertension+from+cardiovascular+complication%29&amp;sl=147&amp;sessionSearchId=e04fc48940b713006739f8fc19642fa1&amp;relpos=0</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -4295,11 +4544,7 @@
           <t>Springer</t>
         </is>
       </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="X36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4318,7 +4563,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Background. Healthcare is a challenging, yet so demanding sector that developing countries are paying more attention to recently. Statistics show that rural areas are expected to develop a high rate of heart diseases, which is a leading cause of sudden mortality, in the future. Thus, providing solutions that can assist rural people in detecting the cardiac risks early will be vital for uncovering and even preventing the long-Term complications of cardiac diseases. Methodology. Mobile technology can be effectively utilized to limit the cardiac diseases' prevalence in rural Middle East. This paper proposes a smart mobile solution for early risk detection of hard coronary heart diseases that uses the Framingham scoring model. Results. Smart HeartCare+ mobile app estimates accurately coronary heart diseases' risk over 10 years based on clinical and nonclinical data and classifies the patient risk to low, moderate, or high. HeartCare+ also directs the patients to further treatment recommendations. Conclusion. This work attempts to investigate the effectiveness of the mobile technology in the early risk detection of coronary heart diseases. HeartCare+ app intensifies the communication channel between the lab workers and patients residing in rural areas and cardiologists and specialist residing in urban places. © 2017 Hoda Ahmed Galal Elsayed et al.</t>
+          <t>Background. Healthcare is a challenging, yet so demanding sector that developing countries are paying more attention to recently. Statistics show that rural areas are expected to develop a high rate of heart diseases, which is a leading cause of sudden mortality, in the future. Thus, providing solutions that can assist rural people in detecting the cardiac risks early will be vital for uncovering and even preventing the long-Term complications of cardiac diseases. Methodology. Mobile technology can be effectively utilized to limit the cardiac diseases' prevalence in rural Middle East. This paper proposes a smart mobile solution for early risk detection of hard coronary heart diseases that uses the Framingham scoring model. Results. Smart HeartCare+ mobile app estimates accurately coronary heart diseases' risk over 10 years based on clinical and nonclinical data and classifies the patient risk to low, moderate, or high. HeartCare+ also directs the patients to further treatment recommendations. Conclusion. This work attempts to investigate the effectiveness of the mobile technology in the early risk detection of coronary heart diseases. HeartCare+ app intensifies the communication channel between the lab workers and patients residing in rural areas and cardiologists and specialist residing in urban places.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4345,7 +4590,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Elsayed2017,
+          <t>@ARTICLE{Elsayed2017,
     author = "Elsayed, Hoda Ahmed Galal and Galal, Mariam Ahmed and Syed, Liyakathunisa",
     title = "HeartCare+: A Smart Heart Care Mobile Application for Framingham-Based Early Risk Prediction of Hard Coronary Heart Diseases in Middle East",
     year = "2017",
@@ -4354,7 +4599,7 @@
     doi = "10.1155/2017/9369532",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85031931809\&amp;doi=10.1155\%2f2017\%2f9369532\&amp;partnerID=40\&amp;md5=cba944404d3fb8c187eee63b8ec21641",
     affiliations = "Software Engineering, Prince Sultan University, Riyadh, Saudi Arabia; Alfaisal University, Riyadh, Saudi Arabia; CCIS, ACM, Prince Sultan University, Riyadh, Saudi Arabia",
-    abstract = "Background. Healthcare is a challenging, yet so demanding sector that developing countries are paying more attention to recently. Statistics show that rural areas are expected to develop a high rate of heart diseases, which is a leading cause of sudden mortality, in the future. Thus, providing solutions that can assist rural people in detecting the cardiac risks early will be vital for uncovering and even preventing the long-Term complications of cardiac diseases. Methodology. Mobile technology can be effectively utilized to limit the cardiac diseases' prevalence in rural Middle East. This paper proposes a smart mobile solution for early risk detection of hard coronary heart diseases that uses the Framingham scoring model. Results. Smart HeartCare+ mobile app estimates accurately coronary heart diseases' risk over 10 years based on clinical and nonclinical data and classifies the patient risk to low, moderate, or high. HeartCare+ also directs the patients to further treatment recommendations. Conclusion. This work attempts to investigate the effectiveness of the mobile technology in the early risk detection of coronary heart diseases. HeartCare+ app intensifies the communication channel between the lab workers and patients residing in rural areas and cardiologists and specialist residing in urban places. © 2017 Hoda Ahmed Galal Elsayed et al.",
+    abstract = "Background. Healthcare is a challenging, yet so demanding sector that developing countries are paying more attention to recently. Statistics show that rural areas are expected to develop a high rate of heart diseases, which is a leading cause of sudden mortality, in the future. Thus, providing solutions that can assist rural people in detecting the cardiac risks early will be vital for uncovering and even preventing the long-Term complications of cardiac diseases. Methodology. Mobile technology can be effectively utilized to limit the cardiac diseases' prevalence in rural Middle East. This paper proposes a smart mobile solution for early risk detection of hard coronary heart diseases that uses the Framingham scoring model. Results. Smart HeartCare+ mobile app estimates accurately coronary heart diseases' risk over 10 years based on clinical and nonclinical data and classifies the patient risk to low, moderate, or high. HeartCare+ also directs the patients to further treatment recommendations. Conclusion. This work attempts to investigate the effectiveness of the mobile technology in the early risk detection of coronary heart diseases. HeartCare+ app intensifies the communication channel between the lab workers and patients residing in rural areas and cardiologists and specialist residing in urban places. (c) 2017 Hoda Ahmed Galal Elsayed et al.",
     keywords = "Cardiology; Developing countries; Diseases; Patient treatment; Rural areas; Telecommunication equipment; Cardiac disease; Coronary heart disease; Further treatments; Mobile applications; Mobile solutions; Mobile Technology; Risk detections; Risk predictions; Heart",
     correspondence_address = "H.A.G. Elsayed; Software Engineering, Prince Sultan University, Riyadh, Saudi Arabia; email: helsayed1993@gmail.com",
     publisher = "Hindawi Limited",
@@ -4365,8 +4610,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4395,7 +4639,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -4406,7 +4650,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85031931809&amp;doi=10.1155%2f2017%2f9369532&amp;partnerID=40&amp;md5=cba944404d3fb8c187eee63b8ec21641</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85031931809&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=5d40bf7df61414ea6581f722b178c12e&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28heartcare%2B+a+smart+heart+care+mobile+application+for+framingham+based+early+risk+prediction+of+hard+coronary+heart+diseases+in+middle+east%29&amp;sl=153&amp;sessionSearchId=5d40bf7df61414ea6581f722b178c12e&amp;relpos=0</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -4437,12 +4681,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Background Type 1 diabetes (T1D) care requires multiple daily self-management behaviors (SMBs). Preliminary studies on SMBs rely mainly on self-reported survey and interview data. There is little information on adult T1D SMBs, along with corresponding compensation techniques (CTs), gathered in real-time. Objective The article aims to use a patient-centered approach to design iDECIDE, a smartphone application that gathers daily diabetes SMBs and CTs related to meal and alcohol intake and exercise in real-time, and contrast patients' actual behaviors against those self-reported with the app. Methods Two usability studies were used to improve iDECIDE's functionality. These were followed by a 30-day pilot test of the redesigned app. A survey designed to capture diabetes SMBs and CTs was administered prior to the 30-day pilot test. Survey results were compared against iDECIDE logs. Results Usability studies revealed that participants desired advanced features for self-tracking meals and alcohol intake. Thirteen participants recorded over 1,200 CTs for carbohydrates during the 30-day study. Participants also recorded 76 alcohol and 166 exercise CTs. Comparisons of survey responses and iDECIDE logs showed mean% (standard deviation) concordance of 77% (25) for SMBs related to meals, where concordance of 100% indicates a perfect match. There was low concordance of 35% (35) and 46% (41) for alcohol and exercise events, respectively. Conclusion The high variability found in SMBs and CTs highlights the need for real-time diabetes self-tracking mechanisms to better understand SMBs and CTs. Future work will use the developed app to collect SMBs and CTs and identify patient-specific diabetes adherence barriers that could be addressed with individualized education interventions. © 2018 Schattauer.</t>
+          <t>Background Type 1 diabetes (T1D) care requires multiple daily self-management behaviors (SMBs). Preliminary studies on SMBs rely mainly on self-reported survey and interview data. There is little information on adult T1D SMBs, along with corresponding compensation techniques (CTs), gathered in real-time. Objective The article aims to use a patient-centered approach to design iDECIDE, a smartphone application that gathers daily diabetes SMBs and CTs related to meal and alcohol intake and exercise in real-time, and contrast patients' actual behaviors against those self-reported with the app. Methods Two usability studies were used to improve iDECIDE's functionality. These were followed by a 30-day pilot test of the redesigned app. A survey designed to capture diabetes SMBs and CTs was administered prior to the 30-day pilot test. Survey results were compared against iDECIDE logs. Results Usability studies revealed that participants desired advanced features for self-tracking meals and alcohol intake. Thirteen participants recorded over 1,200 CTs for carbohydrates during the 30-day study. Participants also recorded 76 alcohol and 166 exercise CTs. Comparisons of survey responses and iDECIDE logs showed mean% (standard deviation) concordance of 77% (25) for SMBs related to meals, where concordance of 100% indicates a perfect match. There was low concordance of 35% (35) and 46% (41) for alcohol and exercise events, respectively. Conclusion The high variability found in SMBs and CTs highlights the need for real-time diabetes self-tracking mechanisms to better understand SMBs and CTs. Future work will use the developed app to collect SMBs and CTs and identify patient-specific diabetes adherence barriers that could be addressed with individualized education interventions.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Alcohol Drinking; Diabetes Mellitus, Type 1; Diet; Exercise; Humans; Mobile Applications; Self-Management; Smartphone; Time Factors; diet; drinking behavior; exercise; human; insulin dependent diabetes mellitus; mobile application; self care; smartphone; statistics and numerical data; time factor</t>
+          <t>Alcohol Drinking; Diabetes Mellitus;  Type 1; Diet; Exercise; Humans; Mobile Applications; Self-Management; Smartphone; Time Factors; diet; drinking behavior; exercise; human; insulin dependent diabetes mellitus; mobile application; self care; smartphone; statistics and numerical data; time factor</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4463,23 +4707,23 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>440 – 449</t>
+          <t>440 - 449</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Groat2018440,
+          <t>@ARTICLE{Groat2018440,
     author = "Groat, Danielle and Soni, Hiral and Grando, Maria Adela and Thompson, Bithika and Kaufman, David and Cook, Curtiss B.",
     title = "Design and Testing of a Smartphone Application for Real-Time Self-Tracking Diabetes Self-Management Behaviors",
     year = "2018",
     journal = "Applied Clinical Informatics",
     volume = "9",
     number = "2",
-    pages = "440 – 449",
+    pages = "440 - 449",
     doi = "10.1055/s-0038-1660438",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85056142137\&amp;doi=10.1055\%2fs-0038-1660438\&amp;partnerID=40\&amp;md5=56173a3d76f4b19422df9f2137e7a9c6",
     affiliations = "Department of Biomedical Informatics, University of Utah, Salt Lake City, UT, United States; Department of Biomedical Informatics, Arizona State University, Scottsdale, AZ, United States; Division of Endocrinology, Mayo Clinic Arizona, Scottsdale, AZ, United States",
-    abstract = "Background Type 1 diabetes (T1D) care requires multiple daily self-management behaviors (SMBs). Preliminary studies on SMBs rely mainly on self-reported survey and interview data. There is little information on adult T1D SMBs, along with corresponding compensation techniques (CTs), gathered in real-time. Objective The article aims to use a patient-centered approach to design iDECIDE, a smartphone application that gathers daily diabetes SMBs and CTs related to meal and alcohol intake and exercise in real-time, and contrast patients' actual behaviors against those self-reported with the app. Methods Two usability studies were used to improve iDECIDE's functionality. These were followed by a 30-day pilot test of the redesigned app. A survey designed to capture diabetes SMBs and CTs was administered prior to the 30-day pilot test. Survey results were compared against iDECIDE logs. Results Usability studies revealed that participants desired advanced features for self-tracking meals and alcohol intake. Thirteen participants recorded over 1,200 CTs for carbohydrates during the 30-day study. Participants also recorded 76 alcohol and 166 exercise CTs. Comparisons of survey responses and iDECIDE logs showed mean\% (standard deviation) concordance of 77\% (25) for SMBs related to meals, where concordance of 100\% indicates a perfect match. There was low concordance of 35\% (35) and 46\% (41) for alcohol and exercise events, respectively. Conclusion The high variability found in SMBs and CTs highlights the need for real-time diabetes self-tracking mechanisms to better understand SMBs and CTs. Future work will use the developed app to collect SMBs and CTs and identify patient-specific diabetes adherence barriers that could be addressed with individualized education interventions. © 2018 Schattauer.",
+    abstract = "Background Type 1 diabetes (T1D) care requires multiple daily self-management behaviors (SMBs). Preliminary studies on SMBs rely mainly on self-reported survey and interview data. There is little information on adult T1D SMBs, along with corresponding compensation techniques (CTs), gathered in real-time. Objective The article aims to use a patient-centered approach to design iDECIDE, a smartphone application that gathers daily diabetes SMBs and CTs related to meal and alcohol intake and exercise in real-time, and contrast patients' actual behaviors against those self-reported with the app. Methods Two usability studies were used to improve iDECIDE's functionality. These were followed by a 30-day pilot test of the redesigned app. A survey designed to capture diabetes SMBs and CTs was administered prior to the 30-day pilot test. Survey results were compared against iDECIDE logs. Results Usability studies revealed that participants desired advanced features for self-tracking meals and alcohol intake. Thirteen participants recorded over 1,200 CTs for carbohydrates during the 30-day study. Participants also recorded 76 alcohol and 166 exercise CTs. Comparisons of survey responses and iDECIDE logs showed mean\% (standard deviation) concordance of 77\% (25) for SMBs related to meals, where concordance of 100\% indicates a perfect match. There was low concordance of 35\% (35) and 46\% (41) for alcohol and exercise events, respectively. Conclusion The high variability found in SMBs and CTs highlights the need for real-time diabetes self-tracking mechanisms to better understand SMBs and CTs. Future work will use the developed app to collect SMBs and CTs and identify patient-specific diabetes adherence barriers that could be addressed with individualized education interventions. (c) 2018 Schattauer.",
     author_keywords = "diabetes; patient self-care; smartphone; survey; usability testing",
     keywords = "Alcohol Drinking; Diabetes Mellitus, Type 1; Diet; Exercise; Humans; Mobile Applications; Self-Management; Smartphone; Time Factors; diet; drinking behavior; exercise; human; insulin dependent diabetes mellitus; mobile application; self care; smartphone; statistics and numerical data; time factor",
     correspondence_address = "M.A. Grando; Department of Biomedical Informatics, Arizona State University, Scottsdale, United States; email: agrando@asu.edu",
@@ -4492,8 +4736,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 12; All Open Access, Bronze Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4522,7 +4765,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -4533,7 +4776,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85056142137&amp;doi=10.1055%2fs-0038-1660438&amp;partnerID=40&amp;md5=56173a3d76f4b19422df9f2137e7a9c6</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85056142137&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=3c5dae1276ce0e598f6903eee452df3b&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28design+and+testing+of+a+smartphone+application+for+real+time+self+tracking+diabetes+self+management+behaviors%29&amp;sl=124&amp;sessionSearchId=3c5dae1276ce0e598f6903eee452df3b&amp;relpos=0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -4595,7 +4838,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Stinson2010e30,
+          <t>@ARTICLE{Stinson2010e30,
     author = "Stinson, Jennifer and McGrath, Patrick and Hodnett, Ellen and Feldman, Brian and Duffy, Ciaran and Huber, Adam and Tucker, Lori and Hetherington, Ross and Tse, Shirley and Spiegel, Lynn and Campillo, Sarah and Gill, Navreet and White, Meghan",
     title = "Usability testing of an online self-management program for Adolescents with Juvenile Idiopathic Arthritis",
     year = "2010",
@@ -4619,8 +4862,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 101; All Open Access, Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4649,7 +4891,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -4660,12 +4902,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-77957596650&amp;doi=10.2196%2fjmir.1349&amp;partnerID=40&amp;md5=bf11214eaf91707c9e449aeb94424640</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-77957596650&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=f311dc3f100821aa18cf6448dfb18856&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28usability+testing+of+an+online+self+management+program+for+adolescents+with+juvenile+idiopathic+arthritis%29&amp;sl=120&amp;sessionSearchId=f311dc3f100821aa18cf6448dfb18856&amp;relpos=0</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -4691,7 +4933,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Background: Promotion of physical activity, healthy eating, adequate sleep, and reduced sedentary behavior in adolescents is a major priority globally given the current increase in population health challenges of noncommunicable diseases and risk factors such as obesity. Adolescents are highly engaged with mobile technology, but the challenge is to engage them with mobile health (mHealth) technology. Recent innovations in mobile technology provide opportunities to promote a healthy lifestyle in adolescents. An increasingly utilized approach to facilitate increased engagement with mHealth technology is to involve potential users in the creation of the technology. Objective: This study aimed to describe the process of and findings from co-designing and prototyping components of the PEGASO Fit for Future (F4F) mHealth intervention for adolescents from different cultural backgrounds. Methods: A total of 74 adolescents aged 13 to 16 years from Spain, Italy, and the United Kingdom participated in the co-design of the PEGASO F4F technology. In 3 iterative cycles over 12 months, participants were involved in the co-design, refinement, and feasibility testing of a system consisting of diverse mobile apps with a variety of functions and facilities to encourage healthy weight-promoting behaviors. In the first iteration, participants attended a single workshop session and were presented with mock-ups or early-version prototypes of different apps for user requirements assessment and review. During the second iteration, prototypes of all apps were tested by participants for 1 week at home or school. In the third iteration, further developed prototypes were tested for 2 weeks. Participants' user experience feedback and development ideas were collected through focus groups and completion of questionnaires. Results: For the PEGASO F4F technology to be motivating and engaging, participants suggested that it should (1) allow personalization of the interface, (2) have age-appropriate and easy-to-understand language (of icons, labels, instructions, and notifications), (3) provide easily accessible tutorials on how to use the app or navigate through a game, (4) present a clear purpose and end goal, (5) have an appealing and self-explanatory reward system, (6) offer variation in gamified activities within apps and the serious game, and (7) allow to seek peer support and connect with peers for competitive activities within the technology. Conclusions: Incorporating adolescents' preferences, the PEGASO F4F technology combines the functions of a self-monitoring, entertainment, advisory, and social support tool. This was the first study demonstrating that it is possible to develop a complex mobile phone-based technological system applying the principles of co-design to mHealth technology with adolescents across 3 countries. The findings from this study informed the development of an mHealth system for healthy weight promotion to be tested in a controlled multinational pilot trial. © Anne Martin, Maurizio Caon, Fulvio Adorni, Giuseppe Andreoni, Antonio Ascolese, Sarah Atkinson, Kim Bul, Carme Carrion, Conxa Castell, Valentina Ciociola, Laura Condon, Mireia Espallargues, Janet Hanley, Nithiya Jesuthasan, Claudio L Lafortuna, Alexandra Lang, Federica Prinelli, Elisa Puidomenech Puig, Sarah A Tabozzi, Brian McKinstry. Originally published in JMIR mHealth and uHealth (http://mhealth.jmir.org), 02.03.2020. This is an open-access article distributed under the terms of the Creative Commons Attribution License (https://creativecommons.org/licenses/by/4.0/), which permits unrestricted use, distribution, and reproduction in any medium, provided the original work, first published in JMIR mHealth and uHealth, is properly cited. The complete bibliographic information, a link to the original publication on http://mhealth.jmir.org/, as well as this copyright and license information must be included.</t>
+          <t>Background: Promotion of physical activity, healthy eating, adequate sleep, and reduced sedentary behavior in adolescents is a major priority globally given the current increase in population health challenges of noncommunicable diseases and risk factors such as obesity. Adolescents are highly engaged with mobile technology, but the challenge is to engage them with mobile health (mHealth) technology. Recent innovations in mobile technology provide opportunities to promote a healthy lifestyle in adolescents. An increasingly utilized approach to facilitate increased engagement with mHealth technology is to involve potential users in the creation of the technology. Objective: This study aimed to describe the process of and findings from co-designing and prototyping components of the PEGASO Fit for Future (F4F) mHealth intervention for adolescents from different cultural backgrounds. Methods: A total of 74 adolescents aged 13 to 16 years from Spain, Italy, and the United Kingdom participated in the co-design of the PEGASO F4F technology. In 3 iterative cycles over 12 months, participants were involved in the co-design, refinement, and feasibility testing of a system consisting of diverse mobile apps with a variety of functions and facilities to encourage healthy weight-promoting behaviors. In the first iteration, participants attended a single workshop session and were presented with mock-ups or early-version prototypes of different apps for user requirements assessment and review. During the second iteration, prototypes of all apps were tested by participants for 1 week at home or school. In the third iteration, further developed prototypes were tested for 2 weeks. Participants' user experience feedback and development ideas were collected through focus groups and completion of questionnaires. Results: For the PEGASO F4F technology to be motivating and engaging, participants suggested that it should (1) allow personalization of the interface, (2) have age-appropriate and easy-to-understand language (of icons, labels, instructions, and notifications), (3) provide easily accessible tutorials on how to use the app or navigate through a game, (4) present a clear purpose and end goal, (5) have an appealing and self-explanatory reward system, (6) offer variation in gamified activities within apps and the serious game, and (7) allow to seek peer support and connect with peers for competitive activities within the technology. Conclusions: Incorporating adolescents' preferences, the PEGASO F4F technology combines the functions of a self-monitoring, entertainment, advisory, and social support tool. This was the first study demonstrating that it is possible to develop a complex mobile phone-based technological system applying the principles of co-design to mHealth technology with adolescents across 3 countries. The findings from this study informed the development of an mHealth system for healthy weight promotion to be tested in a controlled multinational pilot trial.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4718,7 +4960,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Martin2020,
+          <t>@ARTICLE{Martin2020,
     author = "Martin, Anne and Caon, Maurizio and Adorni, Fulvio and Andreoni, Giuseppe and Ascolese, Antonio and Atkinson, Sarah and Bul, Kim and Carrion, Carme and Castell, Conxa and Ciociola, Valentina and Condon, Laura and Espallargues, Mireia and Hanley, Janet and Jesuthasan, Nithiya and Lafortuna, Claudio L. and Lang, Alexandra and Prinelli, Federica and Puidomenech Puig, Elisa and Tabozzi, Sarah A. and McKinstry, Brian",
     title = "A mobile phone intervention to improve obesity-related health behaviors of adolescents across Europe: Iterative co-design and feasibility study",
     year = "2020",
@@ -4727,8 +4969,8 @@
     number = "3",
     doi = "10.2196/14118",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85081042814\&amp;doi=10.2196\%2f14118\&amp;partnerID=40\&amp;md5=5c794b29cb1fedcf1d7ae80adc163acc",
-    affiliations = "UK Medical Research Council, Chief Scientist Office Social and Public Health Sciences Unit, University of Glasgow, Glasgow, United Kingdom; Haute Ecole de Gestion and Haute Ecole d'Ingénierie et d'Architecture, University of Applied Sciences and Arts of Western Switzerland, Fribourg, Switzerland; Institute of Biomedical Technologies, National Research Council, Milan, Italy; Design Department, Politecnico di Milano, Milan, Italy; Imaginary srl, Milan, Italy; Human Factors Research Group, University of Nottingham, Nottingham, United Kingdom; Centre for Innovative Research Across the Life Course, Coventry University, Coventry, United Kingdom; eHealth Lab Research eGroup, Universitat Oberta de Catalunya, Barcelona, Spain; Public Health Agency of Catalonia, Barcelona, Spain; Division of Primary Care, University of Nottingham, Nottingham, United Kingdom; Catalan Agency for Health Information, Assessment and Quality, Barcelona, Spain; Health Services Research on Chronic Patients Network, Barcelona, Spain; School of Health and Social Care, Edinburgh Napier University, Edinburgh, United Kingdom; Institute of Molecular Bioimaging and Physiology, National Research Council, Milan, Italy; Usher Institute for Population Health Sciences, University of Edinburgh, Edinburgh, United Kingdom; PEGASO Fit For Future Consortium",
-    abstract = "Background: Promotion of physical activity, healthy eating, adequate sleep, and reduced sedentary behavior in adolescents is a major priority globally given the current increase in population health challenges of noncommunicable diseases and risk factors such as obesity. Adolescents are highly engaged with mobile technology, but the challenge is to engage them with mobile health (mHealth) technology. Recent innovations in mobile technology provide opportunities to promote a healthy lifestyle in adolescents. An increasingly utilized approach to facilitate increased engagement with mHealth technology is to involve potential users in the creation of the technology. Objective: This study aimed to describe the process of and findings from co-designing and prototyping components of the PEGASO Fit for Future (F4F) mHealth intervention for adolescents from different cultural backgrounds. Methods: A total of 74 adolescents aged 13 to 16 years from Spain, Italy, and the United Kingdom participated in the co-design of the PEGASO F4F technology. In 3 iterative cycles over 12 months, participants were involved in the co-design, refinement, and feasibility testing of a system consisting of diverse mobile apps with a variety of functions and facilities to encourage healthy weight-promoting behaviors. In the first iteration, participants attended a single workshop session and were presented with mock-ups or early-version prototypes of different apps for user requirements assessment and review. During the second iteration, prototypes of all apps were tested by participants for 1 week at home or school. In the third iteration, further developed prototypes were tested for 2 weeks. Participants' user experience feedback and development ideas were collected through focus groups and completion of questionnaires. Results: For the PEGASO F4F technology to be motivating and engaging, participants suggested that it should (1) allow personalization of the interface, (2) have age-appropriate and easy-to-understand language (of icons, labels, instructions, and notifications), (3) provide easily accessible tutorials on how to use the app or navigate through a game, (4) present a clear purpose and end goal, (5) have an appealing and self-explanatory reward system, (6) offer variation in gamified activities within apps and the serious game, and (7) allow to seek peer support and connect with peers for competitive activities within the technology. Conclusions: Incorporating adolescents' preferences, the PEGASO F4F technology combines the functions of a self-monitoring, entertainment, advisory, and social support tool. This was the first study demonstrating that it is possible to develop a complex mobile phone-based technological system applying the principles of co-design to mHealth technology with adolescents across 3 countries. The findings from this study informed the development of an mHealth system for healthy weight promotion to be tested in a controlled multinational pilot trial. © Anne Martin, Maurizio Caon, Fulvio Adorni, Giuseppe Andreoni, Antonio Ascolese, Sarah Atkinson, Kim Bul, Carme Carrion, Conxa Castell, Valentina Ciociola, Laura Condon, Mireia Espallargues, Janet Hanley, Nithiya Jesuthasan, Claudio L Lafortuna, Alexandra Lang, Federica Prinelli, Elisa Puidomenech Puig, Sarah A Tabozzi, Brian McKinstry. Originally published in JMIR mHealth and uHealth (http://mhealth.jmir.org), 02.03.2020. This is an open-access article distributed under the terms of the Creative Commons Attribution License (https://creativecommons.org/licenses/by/4.0/), which permits unrestricted use, distribution, and reproduction in any medium, provided the original work, first published in JMIR mHealth and uHealth, is properly cited. The complete bibliographic information, a link to the original publication on http://mhealth.jmir.org/, as well as this copyright and license information must be included.",
+    affiliations = "UK Medical Research Council, Chief Scientist Office Social and Public Health Sciences Unit, University of Glasgow, Glasgow, United Kingdom; Haute Ecole de Gestion and Haute Ecole d'Ingenierie et d'Architecture, University of Applied Sciences and Arts of Western Switzerland, Fribourg, Switzerland; Institute of Biomedical Technologies, National Research Council, Milan, Italy; Design Department, Politecnico di Milano, Milan, Italy; Imaginary srl, Milan, Italy; Human Factors Research Group, University of Nottingham, Nottingham, United Kingdom; Centre for Innovative Research Across the Life Course, Coventry University, Coventry, United Kingdom; eHealth Lab Research eGroup, Universitat Oberta de Catalunya, Barcelona, Spain; Public Health Agency of Catalonia, Barcelona, Spain; Division of Primary Care, University of Nottingham, Nottingham, United Kingdom; Catalan Agency for Health Information, Assessment and Quality, Barcelona, Spain; Health Services Research on Chronic Patients Network, Barcelona, Spain; School of Health and Social Care, Edinburgh Napier University, Edinburgh, United Kingdom; Institute of Molecular Bioimaging and Physiology, National Research Council, Milan, Italy; Usher Institute for Population Health Sciences, University of Edinburgh, Edinburgh, United Kingdom; PEGASO Fit For Future Consortium",
+    abstract = "Background: Promotion of physical activity, healthy eating, adequate sleep, and reduced sedentary behavior in adolescents is a major priority globally given the current increase in population health challenges of noncommunicable diseases and risk factors such as obesity. Adolescents are highly engaged with mobile technology, but the challenge is to engage them with mobile health (mHealth) technology. Recent innovations in mobile technology provide opportunities to promote a healthy lifestyle in adolescents. An increasingly utilized approach to facilitate increased engagement with mHealth technology is to involve potential users in the creation of the technology. Objective: This study aimed to describe the process of and findings from co-designing and prototyping components of the PEGASO Fit for Future (F4F) mHealth intervention for adolescents from different cultural backgrounds. Methods: A total of 74 adolescents aged 13 to 16 years from Spain, Italy, and the United Kingdom participated in the co-design of the PEGASO F4F technology. In 3 iterative cycles over 12 months, participants were involved in the co-design, refinement, and feasibility testing of a system consisting of diverse mobile apps with a variety of functions and facilities to encourage healthy weight-promoting behaviors. In the first iteration, participants attended a single workshop session and were presented with mock-ups or early-version prototypes of different apps for user requirements assessment and review. During the second iteration, prototypes of all apps were tested by participants for 1 week at home or school. In the third iteration, further developed prototypes were tested for 2 weeks. Participants' user experience feedback and development ideas were collected through focus groups and completion of questionnaires. Results: For the PEGASO F4F technology to be motivating and engaging, participants suggested that it should (1) allow personalization of the interface, (2) have age-appropriate and easy-to-understand language (of icons, labels, instructions, and notifications), (3) provide easily accessible tutorials on how to use the app or navigate through a game, (4) present a clear purpose and end goal, (5) have an appealing and self-explanatory reward system, (6) offer variation in gamified activities within apps and the serious game, and (7) allow to seek peer support and connect with peers for competitive activities within the technology. Conclusions: Incorporating adolescents' preferences, the PEGASO F4F technology combines the functions of a self-monitoring, entertainment, advisory, and social support tool. This was the first study demonstrating that it is possible to develop a complex mobile phone-based technological system applying the principles of co-design to mHealth technology with adolescents across 3 countries. The findings from this study informed the development of an mHealth system for healthy weight promotion to be tested in a controlled multinational pilot trial. (c) Anne Martin, Maurizio Caon, Fulvio Adorni, Giuseppe Andreoni, Antonio Ascolese, Sarah Atkinson, Kim Bul, Carme Carrion, Conxa Castell, Valentina Ciociola, Laura Condon, Mireia Espallargues, Janet Hanley, Nithiya Jesuthasan, Claudio L Lafortuna, Alexandra Lang, Federica Prinelli, Elisa Puidomenech Puig, Sarah A Tabozzi, Brian McKinstry. Originally published in JMIR mHealth and uHealth (http://mhealth.jmir.org), 02.03.2020. This is an open-access article distributed under the terms of the Creative Commons Attribution License (https://creativecommons.org/licenses/by/4.0/), which permits unrestricted use, distribution, and reproduction in any medium, provided the original work, first published in JMIR mHealth and uHealth, is properly cited. The complete bibliographic information, a link to the original publication on http://mhealth.jmir.org/, as well as this copyright and license information must be included.",
     author_keywords = "Adolescents; Co-design; Focus groups; Health behavior; MHealth; Mobile app; Mobile phone; Obesity; Youth",
     keywords = "Adolescent; Cell Phone; Europe; Feasibility Studies; Female; Health Behavior; Humans; Italy; Male; Pediatric Obesity; Pilot Projects; Retrospective Studies; Spain; United Kingdom; adolescent; childhood obesity; Europe; feasibility study; female; health behavior; human; Italy; male; mobile phone; pilot study; retrospective study; Spain; United Kingdom",
     correspondence_address = "A. Martin; UK Medical Research Council, Chief Scientist Office Social and Public Health Sciences Unit, University of Glasgow, Glasgow, 200 Renfield Street, G2 3AX, United Kingdom; email: Anne.Martin@glasgow.ac.uk",
@@ -4741,8 +4983,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 31; All Open Access, Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4767,7 +5008,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -4778,12 +5019,12 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85081042814&amp;doi=10.2196%2f14118&amp;partnerID=40&amp;md5=5c794b29cb1fedcf1d7ae80adc163acc</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85081042814&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=bade1913c2628429ccb76bfe7c6f9e97&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28a+mobile+phone+intervention+to+improve+obesity+related+health+behaviors+of+adolescents+across+europe+iterative+co+design+and+feasibility+study%29&amp;sl=157&amp;sessionSearchId=bade1913c2628429ccb76bfe7c6f9e97&amp;relpos=0</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -4804,18 +5045,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Development and validation of a smartphone educational game regarding healthy lifestyle habits for adolescents; [Elaboração e validação de jogo educativo para smartphone sobre hábitos de vida saudáveis para adolescentes]; [Desarrollo y validación de un juego educativo smartphone sobre estilo de vida saludable para adolescentes]</t>
+          <t>Development and validation of a smartphone educational game regarding healthy lifestyle habits for adolescents; [Elaboracao e validacao de jogo educativo para smartphone sobre habitos de vida saudaveis para adolescentes]; [Desarrollo y validacion de un juego educativo smartphone sobre estilo de vida saludable para adolescentes]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Objective: to elaborate and validate the content and appearance of an educational game regarding healthy lifestyle habits for adolescents Method: methodological study carried, in 2016 out in Picos (Brazil). In order to develop the initial version of the game, a survey gathered scientific information and the content. In the end, the game was divided into: home screen and the living room, kitchen and the square scene, where the sports scene was inserted. To validate the instrument, 15 experts were selected, who evaluated the content, didactics and appearance of the game. Ten adolescents evaluated the appearance and usability. In addition, one questionnaire was used for the specialists and another for the adolescents. The Content Validation Index was used to validate the game, which considered the instrument and the items as validated when an index = 0.78 was obtained. Results: the room scene had access to the kitchen and the square. The sport scene was designed for physical activity and the purchase of food, which would be consumed in the kitchen scene. The experts gave the game a Content Validation Index of 0.88 for the item “objectives”, 0.87 for “structure and presentation” and 0.99 for “relevance”, reaching a overall Content Validation Index of 0.89. For adolescents, the item “appearance” reached the index 0.97 and for the other items, 1.0 and overal index of 0.99. Conclusion: the game was validated in terms of content and appearance and could be validated clinically with adolescents as an incentive to adopt protective behaviors for their health. © 2019, Universidade Federal de Santa Catarina. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>Objective: to elaborate and validate the content and appearance of an educational game regarding healthy lifestyle habits for adolescents Method: methodological study carried, in 2016 out in Picos (Brazil). In order to develop the initial version of the game, a survey gathered scientific information and the content. In the end, the game was divided into: home screen and the living room, kitchen and the square scene, where the sports scene was inserted. To validate the instrument, 15 experts were selected, who evaluated the content, didactics and appearance of the game. Ten adolescents evaluated the appearance and usability. In addition, one questionnaire was used for the specialists and another for the adolescents. The Content Validation Index was used to validate the game, which considered the instrument and the items as validated when an index = 0.78 was obtained. Results: the room scene had access to the kitchen and the square. The sport scene was designed for physical activity and the purchase of food, which would be consumed in the kitchen scene. The experts gave the game a Content Validation Index of 0.88 for the item "objectives", 0.87 for "structure and presentation" and 0.99 for "relevance", reaching a overall Content Validation Index of 0.89. For adolescents, the item "appearance" reached the index 0.97 and for the other items, 1.0 and overal index of 0.99. Conclusion: the game was validated in terms of content and appearance and could be validated clinically with adolescents as an incentive to adopt protective behaviors for their health.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Adolescent;; Educational technology;; Healthy lifestyle;; Technology in health;; Validation studies</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Moura, Thais Norberta Bezerra De; Moreira, Thereza Maria Magalhães; Sousa, Alcilene Dalília De; Neto, Antonino Calisto Dos Santos; Sousa, Renan Xavier E.; Lima, Luisa Helena de Oliveira</t>
+          <t>Moura, Thais Norberta Bezerra De; Moreira, Thereza Maria Magalhaes; Sousa, Alcilene Dalilia De; Neto, Antonino Calisto Dos Santos; Sousa, Renan Xavier E.; Lima, Luisa Helena de Oliveira</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4832,18 +5077,18 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Moura2019,
-    author = "Moura, Thais Norberta Bezerra De and Moreira, Thereza Maria Magalhães and Sousa, Alcilene Dalília De and Neto, Antonino Calisto Dos Santos and Sousa, Renan Xavier E. and Lima, Luisa Helena de Oliveira",
-    title = "Development and validation of a smartphone educational game regarding healthy lifestyle habits for adolescents; [Elaboração e validação de jogo educativo para smartphone sobre hábitos de vida saudáveis para adolescentes]; [Desarrollo y validación de un juego educativo smartphone sobre estilo de vida saludable para adolescentes]",
+          <t>@ARTICLE{Moura2019,
+    author = "Moura, Thais Norberta Bezerra De and Moreira, Thereza Maria Magalhaes and Sousa, Alcilene Dalilia De and Neto, Antonino Calisto Dos Santos and Sousa, Renan Xavier E. and Lima, Luisa Helena de Oliveira",
+    title = "Development and validation of a smartphone educational game regarding healthy lifestyle habits for adolescents; [Elaboracao e validacao de jogo educativo para smartphone sobre habitos de vida saudaveis para adolescentes]; [Desarrollo y validacion de un juego educativo smartphone sobre estilo de vida saludable para adolescentes]",
     year = "2019",
     journal = "Texto e Contexto Enfermagem",
     volume = "28",
     doi = "10.1590/1980-265X-TCE-2018-0252",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85075677334\&amp;doi=10.1590\%2f1980-265X-TCE-2018-0252\&amp;partnerID=40\&amp;md5=9383bb5f54daaf9672dd274ece8fd4d3",
-    affiliations = "Universidade Federal do Piauí, Teresina, Piauí, Brazil; Universidade Estadual do Ceará, Fortaleza, Ceará, Brazil; Universidade Federal do Maranhão, São Luís, Maranhão, Brazil",
-    abstract = "Objective: to elaborate and validate the content and appearance of an educational game regarding healthy lifestyle habits for adolescents Method: methodological study carried, in 2016 out in Picos (Brazil). In order to develop the initial version of the game, a survey gathered scientific information and the content. In the end, the game was divided into: home screen and the living room, kitchen and the square scene, where the sports scene was inserted. To validate the instrument, 15 experts were selected, who evaluated the content, didactics and appearance of the game. Ten adolescents evaluated the appearance and usability. In addition, one questionnaire was used for the specialists and another for the adolescents. The Content Validation Index was used to validate the game, which considered the instrument and the items as validated when an index = 0.78 was obtained. Results: the room scene had access to the kitchen and the square. The sport scene was designed for physical activity and the purchase of food, which would be consumed in the kitchen scene. The experts gave the game a Content Validation Index of 0.88 for the item “objectives”, 0.87 for “structure and presentation” and 0.99 for “relevance”, reaching a overall Content Validation Index of 0.89. For adolescents, the item “appearance” reached the index 0.97 and for the other items, 1.0 and overal index of 0.99. Conclusion: the game was validated in terms of content and appearance and could be validated clinically with adolescents as an incentive to adopt protective behaviors for their health. © 2019, Universidade Federal de Santa Catarina. All rights reserved.",
+    affiliations = "Universidade Federal do Piaui, Teresina, Piaui, Brazil; Universidade Estadual do Ceara, Fortaleza, Ceara, Brazil; Universidade Federal do Maranhao, Sao Luis, Maranhao, Brazil",
+    abstract = "Objective: to elaborate and validate the content and appearance of an educational game regarding healthy lifestyle habits for adolescents Method: methodological study carried, in 2016 out in Picos (Brazil). In order to develop the initial version of the game, a survey gathered scientific information and the content. In the end, the game was divided into: home screen and the living room, kitchen and the square scene, where the sports scene was inserted. To validate the instrument, 15 experts were selected, who evaluated the content, didactics and appearance of the game. Ten adolescents evaluated the appearance and usability. In addition, one questionnaire was used for the specialists and another for the adolescents. The Content Validation Index was used to validate the game, which considered the instrument and the items as validated when an index = 0.78 was obtained. Results: the room scene had access to the kitchen and the square. The sport scene was designed for physical activity and the purchase of food, which would be consumed in the kitchen scene. The experts gave the game a Content Validation Index of 0.88 for the item "objectives", 0.87 for "structure and presentation" and 0.99 for "relevance", reaching a overall Content Validation Index of 0.89. For adolescents, the item "appearance" reached the index 0.97 and for the other items, 1.0 and overal index of 0.99. Conclusion: the game was validated in terms of content and appearance and could be validated clinically with adolescents as an incentive to adopt protective behaviors for their health. (c) 2019, Universidade Federal de Santa Catarina. All rights reserved.",
     author_keywords = "Adolescent; Educational technology; Healthy lifestyle; Technology in health; Validation studies",
-    correspondence_address = "T.N.B. Moura; Universidade Federal do Piauí, Teresina, Brazil; email: thaisinha\_moura@hotmail.com",
+    correspondence_address = "T.N.B. Moura; Universidade Federal do Piaui, Teresina, Brazil; email: thaisinha\_moura@hotmail.com",
     publisher = "Universidade Federal de Santa Catarina",
     issn = "01040707",
     language = "English",
@@ -4852,8 +5097,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5; All Open Access, Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4878,7 +5122,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -4889,7 +5133,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85075677334&amp;doi=10.1590%2f1980-265X-TCE-2018-0252&amp;partnerID=40&amp;md5=9383bb5f54daaf9672dd274ece8fd4d3</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85075677334&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=8edd6b7a812ca88fa059be0111d95f8f&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28development+and+validation+of+a+smartphone+educational+game+regarding+healthy+lifestyle+habits+for+adolescents%29&amp;sl=125&amp;sessionSearchId=8edd6b7a812ca88fa059be0111d95f8f&amp;relpos=0</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -4899,7 +5143,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -4920,12 +5164,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Background: People with chronic obstructive pulmonary disease (PwCOPD) often experience breathlessness and fatigue, making physical activity challenging. Although many persuasive technologies (such as mobile phone apps) have been designed to support physical activity among members of the general population, current technologies aimed at PwCOPD are underdeveloped and only use a limited range of persuasive technology design principles. Objective: The aim of this study was to explore how acceptable different persuasive technology design principles were considered to be in supporting and encouraging physical activity among PwCOPD. Methods: Three prototypes for mobile apps using different persuasive technology design principles as defined by the persuasive systems design (PSD) model-namely, dialogue support, primary task support, and social support-were developed. Opinions of these prototypes were explored through 28 interviews with PwCOPD, carers, and the health care professionals (HCPs) involved in their care and questionnaires completed by 87 PwCOPD. Participants also ranked how likely individual techniques (eg, competition) would be to convince them to use a technology designed to support physical activity. Data were analyzed using framework analysis, Friedman tests, and Wilcoxon signed rank tests and a convergent mixed methods design was used to integrate findings. Results: The prototypes for mobile apps were received positively by participants. The prototype that used a dialogue support approach was identified as the most likely to be used or recommended by those interviewed, and was perceived as more persuasive than both of the other prototypes (Z=-3.06, P=.002; Z=-5.50, P&lt;.001) by those who completed the questionnaire. PwCOPD identified dialogue support and primary task support techniques as more likely to convince them to use a technology than social support techniques (Z=-5.00, P&lt;.001; Z=-4.92, P&lt;.001, respectively). Opinions of social support techniques such as competition and collaboration were divided. Conclusions: Dialogue support and primary task support approaches are considered to be both acceptable and likely to be persuasive by PwCOPD, carers, and HCPs. In the future, these approaches should be considered when designing apps to encourage physical activity by PwCOPD. © Yvonne Kiera Bartlett, Thomas L Webb, Mark S Hawley.</t>
+          <t>Background: People with chronic obstructive pulmonary disease (PwCOPD) often experience breathlessness and fatigue, making physical activity challenging. Although many persuasive technologies (such as mobile phone apps) have been designed to support physical activity among members of the general population, current technologies aimed at PwCOPD are underdeveloped and only use a limited range of persuasive technology design principles. Objective: The aim of this study was to explore how acceptable different persuasive technology design principles were considered to be in supporting and encouraging physical activity among PwCOPD. Methods: Three prototypes for mobile apps using different persuasive technology design principles as defined by the persuasive systems design (PSD) model-namely, dialogue support, primary task support, and social support-were developed. Opinions of these prototypes were explored through 28 interviews with PwCOPD, carers, and the health care professionals (HCPs) involved in their care and questionnaires completed by 87 PwCOPD. Participants also ranked how likely individual techniques (eg, competition) would be to convince them to use a technology designed to support physical activity. Data were analyzed using framework analysis, Friedman tests, and Wilcoxon signed rank tests and a convergent mixed methods design was used to integrate findings. Results: The prototypes for mobile apps were received positively by participants. The prototype that used a dialogue support approach was identified as the most likely to be used or recommended by those interviewed, and was perceived as more persuasive than both of the other prototypes (Z=-3.06, P=.002; Z=-5.50, P&lt;.001) by those who completed the questionnaire. PwCOPD identified dialogue support and primary task support techniques as more likely to convince them to use a technology than social support techniques (Z=-5.00, P&lt;.001; Z=-4.92, P&lt;.001, respectively). Opinions of social support techniques such as competition and collaboration were divided. Conclusions: Dialogue support and primary task support approaches are considered to be both acceptable and likely to be persuasive by PwCOPD, carers, and HCPs. In the future, these approaches should be considered when designing apps to encourage physical activity by PwCOPD.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Aged; Exercise; Female; Humans; Male; Mobile Applications; Persuasive Communication; Pulmonary Disease, Chronic Obstructive; Social Support; Telemedicine; Walking; aged; exercise; female; human; male; mobile application; persuasive communication; physiology; procedures; Pulmonary Disease, Chronic Obstructive; social support; telemedicine; walking</t>
+          <t>Aged; Exercise; Female; Humans; Male; Mobile Applications; Persuasive Communication; Pulmonary Disease;  Chronic Obstructive; Social Support; Telemedicine; Walking; aged; exercise; female; human; male; mobile application; persuasive communication; physiology; procedures; Pulmonary Disease;  Chronic Obstructive; social support; telemedicine; walking</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4947,7 +5191,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Bartlett2017,
+          <t>@ARTICLE{Bartlett2017,
     author = "Bartlett, Yvonne Kiera and Webb, Thomas L. and Hawley, Mark S.",
     title = "Using persuasive technology to increase physical activity in people with chronic obstructive pulmonary disease by encouraging regular walking: A mixed-methods study exploring opinions and preferences",
     year = "2017",
@@ -4957,7 +5201,7 @@
     doi = "10.2196/jmir.6616",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85018791210\&amp;doi=10.2196\%2fjmir.6616\&amp;partnerID=40\&amp;md5=e4772db87a4e767177887103deb94b6e",
     affiliations = "Manchester Centre for Health Psychology, Manchester Academic Health Science Centre, School of Health Sciences, University of Manchester, Coupland 1 Building, Oxford Road, Manchester, M139PL, United Kingdom; Department of Psychology, University of Sheffield, Sheffield, United Kingdom; Centre for Assistive Technology and Connected Healthcare, School of Health and Related Research, University of Sheffield, Sheffield, United Kingdom",
-    abstract = "Background: People with chronic obstructive pulmonary disease (PwCOPD) often experience breathlessness and fatigue, making physical activity challenging. Although many persuasive technologies (such as mobile phone apps) have been designed to support physical activity among members of the general population, current technologies aimed at PwCOPD are underdeveloped and only use a limited range of persuasive technology design principles. Objective: The aim of this study was to explore how acceptable different persuasive technology design principles were considered to be in supporting and encouraging physical activity among PwCOPD. Methods: Three prototypes for mobile apps using different persuasive technology design principles as defined by the persuasive systems design (PSD) model-namely, dialogue support, primary task support, and social support-were developed. Opinions of these prototypes were explored through 28 interviews with PwCOPD, carers, and the health care professionals (HCPs) involved in their care and questionnaires completed by 87 PwCOPD. Participants also ranked how likely individual techniques (eg, competition) would be to convince them to use a technology designed to support physical activity. Data were analyzed using framework analysis, Friedman tests, and Wilcoxon signed rank tests and a convergent mixed methods design was used to integrate findings. Results: The prototypes for mobile apps were received positively by participants. The prototype that used a dialogue support approach was identified as the most likely to be used or recommended by those interviewed, and was perceived as more persuasive than both of the other prototypes (Z=-3.06, P=.002; Z=-5.50, P&lt;.001) by those who completed the questionnaire. PwCOPD identified dialogue support and primary task support techniques as more likely to convince them to use a technology than social support techniques (Z=-5.00, P&lt;.001; Z=-4.92, P&lt;.001, respectively). Opinions of social support techniques such as competition and collaboration were divided. Conclusions: Dialogue support and primary task support approaches are considered to be both acceptable and likely to be persuasive by PwCOPD, carers, and HCPs. In the future, these approaches should be considered when designing apps to encourage physical activity by PwCOPD. © Yvonne Kiera Bartlett, Thomas L Webb, Mark S Hawley.",
+    abstract = "Background: People with chronic obstructive pulmonary disease (PwCOPD) often experience breathlessness and fatigue, making physical activity challenging. Although many persuasive technologies (such as mobile phone apps) have been designed to support physical activity among members of the general population, current technologies aimed at PwCOPD are underdeveloped and only use a limited range of persuasive technology design principles. Objective: The aim of this study was to explore how acceptable different persuasive technology design principles were considered to be in supporting and encouraging physical activity among PwCOPD. Methods: Three prototypes for mobile apps using different persuasive technology design principles as defined by the persuasive systems design (PSD) model-namely, dialogue support, primary task support, and social support-were developed. Opinions of these prototypes were explored through 28 interviews with PwCOPD, carers, and the health care professionals (HCPs) involved in their care and questionnaires completed by 87 PwCOPD. Participants also ranked how likely individual techniques (eg, competition) would be to convince them to use a technology designed to support physical activity. Data were analyzed using framework analysis, Friedman tests, and Wilcoxon signed rank tests and a convergent mixed methods design was used to integrate findings. Results: The prototypes for mobile apps were received positively by participants. The prototype that used a dialogue support approach was identified as the most likely to be used or recommended by those interviewed, and was perceived as more persuasive than both of the other prototypes (Z=-3.06, P=.002; Z=-5.50, P&lt;.001) by those who completed the questionnaire. PwCOPD identified dialogue support and primary task support techniques as more likely to convince them to use a technology than social support techniques (Z=-5.00, P&lt;.001; Z=-4.92, P&lt;.001, respectively). Opinions of social support techniques such as competition and collaboration were divided. Conclusions: Dialogue support and primary task support approaches are considered to be both acceptable and likely to be persuasive by PwCOPD, carers, and HCPs. In the future, these approaches should be considered when designing apps to encourage physical activity by PwCOPD. (c) Yvonne Kiera Bartlett, Thomas L Webb, Mark S Hawley.",
     author_keywords = "Chronic obstructive pulmonary disease; mHealth; Mobile apps; Persuasive technology; Physical activity; Walking",
     keywords = "Aged; Exercise; Female; Humans; Male; Mobile Applications; Persuasive Communication; Pulmonary Disease, Chronic Obstructive; Social Support; Telemedicine; Walking; aged; exercise; female; human; male; mobile application; persuasive communication; physiology; procedures; Pulmonary Disease, Chronic Obstructive; social support; telemedicine; walking",
     correspondence_address = "Y.K. Bartlett; Manchester Centre for Health Psychology, Manchester Academic Health Science Centre, School of Health Sciences, University of Manchester, Coupland 1 Building, Manchester, Oxford Road, M139PL, United Kingdom; email: kiera.bartlett@manchester.ac.uk",
@@ -4970,8 +5214,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 43; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4996,7 +5239,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -5007,12 +5250,12 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85018791210&amp;doi=10.2196%2fjmir.6616&amp;partnerID=40&amp;md5=e4772db87a4e767177887103deb94b6e</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85018791210&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=877a40c0c47663260968d0ebc0a2dd9b&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28using+persuasive+technology+to+increase+physical+activity+in+people+with+chronic+obstructive+pulmonary+disease+by+encouraging+regular+walking+a+mixed+methods+study+exploring+opinions+and+preferences%29&amp;sl=213&amp;sessionSearchId=877a40c0c47663260968d0ebc0a2dd9b&amp;relpos=0</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -5038,7 +5281,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Throughout the last decade, there has been an alarming de- crease in daily physical activity among both children and adults. Medical experts agree that physical activity is crit- ical to maintaining fitness, reducing weight and improving health. Yet so many people have dificulty increasing and maintaining physical activity in everyday life. We have cre- ated a solution calledMove2Play, which encourages a health- ier lifestyle and motivates to participate in regular physical activity. We have integrated four essential parts that form the basis for long-term progress and sustainability - Activity Recommendation, Tracking, Evaluation and Motivation. In order to recognize and assess physical activity, we have developed a system for mobile phones that collects data from various sensors, such as accelerometer, GPS and GSM. We provide personalization, i.e. we have proposed and realized activity recommendation for an individual user to ensure that the users engage in regular exercise, as opposed to oc- casional outbursts of activity, which are unhealthy and even harmful. We discuss our proposed mechanisms of activity recommendation and the concept of motivation, which rep- resent a key element for any system that fights the sedentary lifestyle of the modern generation. Copyright © 2012 ACM.</t>
+          <t>Throughout the last decade, there has been an alarming de- crease in daily physical activity among both children and adults. Medical experts agree that physical activity is crit- ical to maintaining fitness, reducing weight and improving health. Yet so many people have dificulty increasing and maintaining physical activity in everyday life. We have cre- ated a solution calledMove2Play, which encourages a health- ier lifestyle and motivates to participate in regular physical activity. We have integrated four essential parts that form the basis for long-term progress and sustainability - Activity Recommendation, Tracking, Evaluation and Motivation. In order to recognize and assess physical activity, we have developed a system for mobile phones that collects data from various sensors, such as accelerometer, GPS and GSM. We provide personalization, i.e. we have proposed and realized activity recommendation for an individual user to ensure that the users engage in regular exercise, as opposed to oc- casional outbursts of activity, which are unhealthy and even harmful. We discuss our proposed mechanisms of activity recommendation and the concept of motivation, which rep- resent a key element for any system that fights the sedentary lifestyle of the modern generation.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5048,7 +5291,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bielik, Pavol; Tomlein, Michal; Krátky, Peter; Mitrík, Štefan; Barla, Michal; Bieliková, Mária</t>
+          <t>Bielik, Pavol; Tomlein, Michal; Kratky, Peter; Mitrik, Stefan; Barla, Michal; Bielikova, Maria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5064,24 +5307,24 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>61 – 70</t>
+          <t>61 - 70</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Bielik201261,
-    author = "Bielik, Pavol and Tomlein, Michal and Krátky, Peter and Mitrík, Štefan and Barla, Michal and Bieliková, Mária",
+          <t>@CONFERENCE{Bielik201261,
+    author = "Bielik, Pavol and Tomlein, Michal and Kratky, Peter and Mitrik, Stefan and Barla, Michal and Bielikova, Maria",
     title = "Move2Play: An innovative approach to encouraging people to be more physically active",
     year = "2012",
     journal = "IHI'12 - Proceedings of the 2nd ACM SIGHIT International Health Informatics Symposium",
-    pages = "61 – 70",
+    pages = "61 - 70",
     doi = "10.1145/2110363.2110374",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84857777732\&amp;doi=10.1145\%2f2110363.2110374\&amp;partnerID=40\&amp;md5=2f2f058e0bb384620fa2c1dba53936a4",
-    affiliations = "Institute of Informatics and Software Engineering, Faculty of Informatics and Information Technologies, Slovak University of Technology in Bratislava, 842 16 Bratislava, Ilkovičova 3, Slovakia",
-    abstract = "Throughout the last decade, there has been an alarming de- crease in daily physical activity among both children and adults. Medical experts agree that physical activity is crit- ical to maintaining fitness, reducing weight and improving health. Yet so many people have dificulty increasing and maintaining physical activity in everyday life. We have cre- ated a solution calledMove2Play, which encourages a health- ier lifestyle and motivates to participate in regular physical activity. We have integrated four essential parts that form the basis for long-term progress and sustainability - Activity Recommendation, Tracking, Evaluation and Motivation. In order to recognize and assess physical activity, we have developed a system for mobile phones that collects data from various sensors, such as accelerometer, GPS and GSM. We provide personalization, i.e. we have proposed and realized activity recommendation for an individual user to ensure that the users engage in regular exercise, as opposed to oc- casional outbursts of activity, which are unhealthy and even harmful. We discuss our proposed mechanisms of activity recommendation and the concept of motivation, which rep- resent a key element for any system that fights the sedentary lifestyle of the modern generation. Copyright © 2012 ACM.",
+    affiliations = "Institute of Informatics and Software Engineering, Faculty of Informatics and Information Technologies, Slovak University of Technology in Bratislava, 842 16 Bratislava, Ilkovicova 3, Slovakia",
+    abstract = "Throughout the last decade, there has been an alarming de- crease in daily physical activity among both children and adults. Medical experts agree that physical activity is crit- ical to maintaining fitness, reducing weight and improving health. Yet so many people have dificulty increasing and maintaining physical activity in everyday life. We have cre- ated a solution calledMove2Play, which encourages a health- ier lifestyle and motivates to participate in regular physical activity. We have integrated four essential parts that form the basis for long-term progress and sustainability - Activity Recommendation, Tracking, Evaluation and Motivation. In order to recognize and assess physical activity, we have developed a system for mobile phones that collects data from various sensors, such as accelerometer, GPS and GSM. We provide personalization, i.e. we have proposed and realized activity recommendation for an individual user to ensure that the users engage in regular exercise, as opposed to oc- casional outbursts of activity, which are unhealthy and even harmful. We discuss our proposed mechanisms of activity recommendation and the concept of motivation, which rep- resent a key element for any system that fights the sedentary lifestyle of the modern generation. Copyright (c) 2012 ACM.",
     author_keywords = "Design; Experimentation",
     keywords = "Accelerometers; Design; Motivation; Experimentation; Innovative approaches; Key elements; Medical experts; Personalizations; Physical activity; Health",
-    correspondence_address = "P. Bielik; Institute of Informatics and Software Engineering, Faculty of Informatics and Information Technologies, Slovak University of Technology in Bratislava, 842 16 Bratislava, Ilkovičova 3, Slovakia; email: pbielik@acm.org",
+    correspondence_address = "P. Bielik; Institute of Informatics and Software Engineering, Faculty of Informatics and Information Technologies, Slovak University of Technology in Bratislava, 842 16 Bratislava, Ilkovicova 3, Slovakia; email: pbielik@acm.org",
     isbn = "978-145030781-9",
     language = "English",
     abbrev_source_title = "IHI - Proc. ACM SIGHIT Int. Health Informatics Symp.",
@@ -5089,8 +5332,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 52; Conference name: 2nd ACM SIGHIT International Health Informatics Symposium, IHI'12; Conference date: 28 January 2012 through 30 January 2012; Conference code: 88772"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -5115,7 +5357,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -5126,13 +5368,17 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84857777732&amp;doi=10.1145%2f2110363.2110374&amp;partnerID=40&amp;md5=2f2f058e0bb384620fa2c1dba53936a4</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>https://dl.acm.org/doi/10.1145/2110363.2110374</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5394,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bounce:Designing a Physical Activity Intervention for Breast Cancer Survivors</t>
+          <t>Bounce: Designing a Physical Activity Intervention for Breast Cancer Survivors</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5156,10 +5402,14 @@
           <t>The pervasive use of personal mobile devices provides an advantage for the delivery of a behavioral intervention anywhere and anytime. However, behavioral outcomes are dependent on adoption and sustained use of mobile-based interventions. Design approaches for engagement and feasibility of use in everyday life have been studied among the general population, especially to promote physical activity. In this paper, we discuss a design process that addresses additional barriers to adoption when the target population has symptoms, limitations, or needs resulting from a specific health condition. We designed a smartphone-based physical activity intervention for breast cancer survivors by combining behavior change theory with empirical evidence. In a preliminary evaluation, participants found the application engaging and useful, and continued to use the application briefly after the evaluation ended. We illustrate how our design process was used, and could be applied to other specific health conditions.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>physical activity;  breast cancer survivors;  Behavioral intervention technology</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>GabrielaMarcu; AnjaliMisra; KarinaCaro; MeghanPlank; AmyLeader; AndreaBarsevick</t>
+          <t>Marcu, Gabriela; Misra, Anjali; Caro, Karina; Plank, Meghan; Leader, Amy; Barsevick, Andrea</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -5175,10 +5425,30 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>5-34</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/3240925.3240927,
+    author = "Marcu, Gabriela and Misra, Anjali and Caro, Karina and Plank, Meghan and Leader, Amy and Barsevick, Andrea",
+    title = "Bounce: Designing a Physical Activity Intervention for Breast Cancer Survivors",
+    year = "2018",
+    isbn = "9781450364508",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/3240925.3240927",
+    doi = "10.1145/3240925.3240927",
+    abstract = "The pervasive use of personal mobile devices provides an advantage for the delivery of a behavioral intervention anywhere and anytime. However, behavioral outcomes are dependent on adoption and sustained use of mobile-based interventions. Design approaches for engagement and feasibility of use in everyday life have been studied among the general population, especially to promote physical activity. In this paper, we discuss a design process that addresses additional barriers to adoption when the target population has symptoms, limitations, or needs resulting from a specific health condition. We designed a smartphone-based physical activity intervention for breast cancer survivors by combining behavior change theory with empirical evidence. In a preliminary evaluation, participants found the application engaging and useful, and continued to use the application briefly after the evaluation ended. We illustrate how our design process was used, and could be applied to other specific health conditions.",
+    booktitle = "Proceedings of the 12th EAI International Conference on Pervasive Computing Technologies for Healthcare",
+    pages = "25-34",
+    numpages = "10",
+    keywords = "physical activity, breast cancer survivors, Behavioral intervention technology",
+    location = "New York, NY, USA",
+    series = "PervasiveHealth '18"
+}</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
           <t>Included</t>
@@ -5205,7 +5475,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -5214,7 +5484,11 @@
           <t>Bounce: Designing a physical activity intervention for breast cancer survivors</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3240925.3240927</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -5222,7 +5496,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -5243,7 +5517,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Breast cancer incidence and mortality rates vary geographically reflecting factors including regional and cultural differences in diet and lifestyle. There are numerous successful commercial mobile apps to help people control their diet and manage weight. However, such products are not suitable for people with special medical conditions that may require targeted dietary as well as motivational support. The paper presents a user centered approach of developing a Mobile Web App that focuses on breast cancer patients looking at their specific dietary, physical and mental requirements depending on the stage of their medical treatment. The paper explores the effect of incorporating gamification and social media as motivational drive to engage and motivate people to achieve their goals of adopting healthier eating habits while increasing physical activity in order ensure lasting lifestyle behavioural change. The design of PhytoCloud is being described, a gamified Mobile Web App that enables users to record their dietary habits and physical activity and motivate their consumption of food with oestrogen-like properties (phytoestrogens) which are linked to the prevention of reappearance of breast cancer. The paper concludes with a discussion of future directions and adaptations to the current design to suite a Mobile Native Application design. © 2017 IEEE.</t>
+          <t>Breast cancer incidence and mortality rates vary geographically reflecting factors including regional and cultural differences in diet and lifestyle. There are numerous successful commercial mobile apps to help people control their diet and manage weight. However, such products are not suitable for people with special medical conditions that may require targeted dietary as well as motivational support. The paper presents a user centered approach of developing a Mobile Web App that focuses on breast cancer patients looking at their specific dietary, physical and mental requirements depending on the stage of their medical treatment. The paper explores the effect of incorporating gamification and social media as motivational drive to engage and motivate people to achieve their goals of adopting healthier eating habits while increasing physical activity in order ensure lasting lifestyle behavioural change. The design of PhytoCloud is being described, a gamified Mobile Web App that enables users to record their dietary habits and physical activity and motivate their consumption of food with oestrogen-like properties (phytoestrogens) which are linked to the prevention of reappearance of breast cancer. The paper concludes with a discussion of future directions and adaptations to the current design to suite a Mobile Native Application design.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5266,26 +5540,30 @@
           <t>https://doi.org/10.1109/CBMS.2017.164</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.N. J. Davies, L. Batehup and R. Thomas, "The role of diet and physical activity in breast colorectal and prostate cancer survivorship: a review of the literature", British Journal of Cancer, vol. 105, pp. S52-S73, 2011. CrossRef  Google Scholar; 2.R. Swann, K. A. Perkins, S. Brennan, L. Velentzis, J. Woodside, M. Cantwell, et al., "The DietCompLyf Study: influences on quality of life following breast cancer diagnosis", The European Organisation for Research and Treatment of Cancer (EORTC) EORTC QOL Conference, October 2012. Google Scholar; 3.A. Perkins, R. Swann, J. Woodside, C. Robertson, S. Dutton, M. Keshtgar, et al., "DietCompLyf Study-a multi-centre UK study on Breast Cancer. What are the dietary and lifestyle changes following diagnosis? European Association of Cancer Research", Proc. 22nd Biennial EACR Congress in Barcelona Spain, vol. 48, no. 5, pp. 7-10, July 2012. Google Scholar; 4.World Cancer Research Fund International/American Institute for Cancer Research Continuous Update Project Report: Diet Nutrition Physical Activity and Breast Cancer Survivors, 2014,  [online]  Available: www.wcrf.org/sites/default/files/Breast-Cancer-Survivors-2014-Report.pdf. Google Scholar; 5.R. Swann, K. A. Perkins, L. S. Velentzis, C. Ciria, S. J. Dutton, A. A. Mulligan, et al., "The DietCompLyf study: a prospective cohort study of breast cancer survival and phytoestrogen consumption", Maturitas, vol. 75, no. 3, pp. 232-40, 2013. CrossRef  Google Scholar; 6.L. S. Velentzis, M. R. Keshtgar, J. V. Woodside, A. J. Leathem, A. Titcomb, K. A. Perkins, et al., "Significant changes in dietary intake and supplement use after breast cancer diagnosis in a UK multicentre study", Breast Cancer Res Treat, vol. 128, no. 2, pp. 473-82, Jul 2011. CrossRef  Google Scholar; 7.M. Keshtgar, C. Robertson and M. V. Dwek, "The Breast Cancer Cookbook", Quadrille London, 2015, ISBN 9781849495561. Google Scholar; 8.M. Kirwan, M. J. Duncan, C. Vandelanotte and W. K., "Mummery Using Smartphone Technology to Monitor Physical Activity in the 10 000 Steps Program: A Matched Case-Control Trial", Journal of Medical Internet Research, vol. 14, no. 2, pp. e55, Mar-Apr. 2012. CrossRef  Google Scholar; 9.J. Gilliland, R. Sadler, A. Clark, C. O'Connor, M. Milczarek and S. Doherty, "Using a Smartphone Application to Promote Healthy Dietary Behaviours and Local Food Consumption", BioMed Research International, vol. 2015, no. 11, 2015. CrossRef  Google Scholar; 10.E. Helander, K. Kaipainen, I. Korhonen and B. J. Wansink, "Factors related to sustained use of a free mobile app for dietary self-monitoring with photography and peer feedback: Retrospective cohort study", J Med Internet Res, vol. 16, no. 4, pp. e109, 2014. CrossRef  Google Scholar; 11.E. Castro-Sanchez, Y. Kyratsis, M. Iwami, T. Rawson and A. H. Holmes, "Serious electronic games as behavioural change interventions in healthcare-associated infections and infection prevention and control: a scoping review of the literature and future directions", Antimicrobial Resistance &amp; Infection Control, vol. 5, no. 34, 2016. CrossRef  Google Scholar; 12.P. Pereira, E. Duarte, F. Rebelo and P. Noriega, "A Review of Gamification for Health-Related Contexts. In: Marcus A. (eds) Design User Experience and Usability. User Experience Design for Diverse Interaction Platforms and Environments" in DUXU 2014. Lecture Notes in Computer Science, Springer, Cham, vol. 8518. CrossRef  Google Scholar; 13.R. Swann, M. V. Dwek and C. Robertson, "The influence of breast cancer treatment on post-diagnosis weight gain. Results from the DietCompLyf study", Society for Academic and Research Surgery Robinson College Cambridge, January 2014. Google Scholar; 14.NUTRITICS,  [online]  Available: https://www.nutritics.com/p/home. Google Scholar; 15."Public Health England (2015) McCance and Widdowson's The Composition of Foods Integrated Dataset 2015 User guide", PHE publications gateway number, pp. 2014822. Google Scholar; 16.NHS Physical activity guidelines for adults,  [online]  Available: http://www.nhs.uk/Livewell/fitness/pages/physical-activity-guidelines-for-adults.aspx. Google Scholar</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>684 – 689</t>
+          <t>684 - 689</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Economou2017684,
+          <t>@CONFERENCE{Economou2017684,
     author = "Economou, Daphne and Dwek, Miriam and Roberston, Claire and Elliott, Bradley and Kounenis, Thanos and Azimi, Tayebeh and Ramezanian, Mohammad and Bell, Nathan",
     editor = "P.D., Bamidis and S.Th., Konstantinidis and P.P., Rodrigues",
     title = "PhytoCloud: A Gamified Mobile Web Application to Modulate Diet and Physical Activity of Women with Breast Cancer",
     year = "2017",
     journal = "Proceedings - IEEE Symposium on Computer-Based Medical Systems",
     volume = "2017-June",
-    pages = "684 – 689",
+    pages = "684 - 689",
     doi = "10.1109/CBMS.2017.164",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85040359499\&amp;doi=10.1109\%2fCBMS.2017.164\&amp;partnerID=40\&amp;md5=70a8801e9bb69ccefcfbb00462e83eca",
     affiliations = "Dept. of Computer Science, University of Westminster, London, United Kingdom; Dept. of Biomedical Sciences, University of Westminster, London, United Kingdom; Dept. of Food, Nutrition and Public Health, University of Westminster, London, United Kingdom",
-    abstract = "Breast cancer incidence and mortality rates vary geographically reflecting factors including regional and cultural differences in diet and lifestyle. There are numerous successful commercial mobile apps to help people control their diet and manage weight. However, such products are not suitable for people with special medical conditions that may require targeted dietary as well as motivational support. The paper presents a user centered approach of developing a Mobile Web App that focuses on breast cancer patients looking at their specific dietary, physical and mental requirements depending on the stage of their medical treatment. The paper explores the effect of incorporating gamification and social media as motivational drive to engage and motivate people to achieve their goals of adopting healthier eating habits while increasing physical activity in order ensure lasting lifestyle behavioural change. The design of PhytoCloud is being described, a gamified Mobile Web App that enables users to record their dietary habits and physical activity and motivate their consumption of food with oestrogen-like properties (phytoestrogens) which are linked to the prevention of reappearance of breast cancer. The paper concludes with a discussion of future directions and adaptations to the current design to suite a Mobile Native Application design. © 2017 IEEE.",
+    abstract = "Breast cancer incidence and mortality rates vary geographically reflecting factors including regional and cultural differences in diet and lifestyle. There are numerous successful commercial mobile apps to help people control their diet and manage weight. However, such products are not suitable for people with special medical conditions that may require targeted dietary as well as motivational support. The paper presents a user centered approach of developing a Mobile Web App that focuses on breast cancer patients looking at their specific dietary, physical and mental requirements depending on the stage of their medical treatment. The paper explores the effect of incorporating gamification and social media as motivational drive to engage and motivate people to achieve their goals of adopting healthier eating habits while increasing physical activity in order ensure lasting lifestyle behavioural change. The design of PhytoCloud is being described, a gamified Mobile Web App that enables users to record their dietary habits and physical activity and motivate their consumption of food with oestrogen-like properties (phytoestrogens) which are linked to the prevention of reappearance of breast cancer. The paper concludes with a discussion of future directions and adaptations to the current design to suite a Mobile Native Application design. (c) 2017 IEEE.",
     author_keywords = "breast cancer; Diet Mobile Web App; gamification; lifestyle behavioural change; phytoestrogens",
     keywords = "Patient treatment; Behavioural changes; Breast Cancer; Gamification; Mobile web; Phytoestrogens; Diseases",
     publisher = "Institute of Electrical and Electronics Engineers Inc.",
@@ -5297,8 +5575,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7; Conference name: 30th IEEE International Symposium on Computer-Based Medical Systems, CBMS 2017; Conference date: 22 June 2017 through 24 June 2017; Conference code: 132222; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -5331,7 +5608,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -5342,19 +5619,15 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85040359499&amp;doi=10.1109%2fCBMS.2017.164&amp;partnerID=40&amp;md5=70a8801e9bb69ccefcfbb00462e83eca</t>
+          <t>https://ieeexplore.ieee.org/document/8104280</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+          <t>Institute of Electrical and Electronics Engineers Inc</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5373,7 +5646,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MyHealthAvatar (MHA) is built on the latest information and communications technology with the aim of collecting lifestyle and health data to promote citizen’s wellbeing. According to the collected data, MHA offers visual analytics of lifestyle data, contributes to individualised disease prediction and prevention, and supports healthy lifestyles and independent living. The iManageCancer project aims to empower patients and strengthen self-management in cancer diseases. Therefore, MHA has contributed to the iManageCancer scenario and provides functionality to the iManageCancer platform in terms of its support of lifestyle management of cancer patients by providing them with services to help their cancer management. This paper presents two different MHA-based Android applications for breast and prostate cancer patients. The components in these apps facilitate health and lifestyle data presentation and analysis, including weight control, activity, mood and sleep data collection, promotion of physical exercise after surgery, questionnaires and helpful information. These components can be used cooperatively to achieve flexible visual analysis of spatiotemporal lifestyle and health data and can also help patients discover information about their disease and its management. © the authors.</t>
+          <t>MyHealthAvatar (MHA) is built on the latest information and communications technology with the aim of collecting lifestyle and health data to promote citizen's wellbeing. According to the collected data, MHA offers visual analytics of lifestyle data, contributes to individualised disease prediction and prevention, and supports healthy lifestyles and independent living. The iManageCancer project aims to empower patients and strengthen self-management in cancer diseases. Therefore, MHA has contributed to the iManageCancer scenario and provides functionality to the iManageCancer platform in terms of its support of lifestyle management of cancer patients by providing them with services to help their cancer management. This paper presents two different MHA-based Android applications for breast and prostate cancer patients. The components in these apps facilitate health and lifestyle data presentation and analysis, including weight control, activity, mood and sleep data collection, promotion of physical exercise after surgery, questionnaires and helpful information. These components can be used cooperatively to achieve flexible visual analysis of spatiotemporal lifestyle and health data and can also help patients discover information about their disease and its management.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5400,7 +5673,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Zhang2018,
+          <t>@ARTICLE{Zhang2018,
     author = "Zhang, Xu and Deng, Zhikun and Parvinzamir, Farzad and Dong, Feng",
     title = "MyHealthAvatar lifestyle management support for cancer patients",
     year = "2018",
@@ -5408,8 +5681,8 @@
     volume = "12",
     doi = "10.3332/ecancer.2018.849",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85052014825\&amp;doi=10.3332\%2fecancer.2018.849\&amp;partnerID=40\&amp;md5=36dfb2be10f9e9d04d7934fa92a57ab1",
-    affiliations = "Centre for Visualisation and Data Analytics, University of Bedfordshire, Luton, LU1 3JU, United Kingdom; School of Psychology, Queen’s University Belfast, Belfast, BT7 1NN, United Kingdom",
-    abstract = "MyHealthAvatar (MHA) is built on the latest information and communications technology with the aim of collecting lifestyle and health data to promote citizen’s wellbeing. According to the collected data, MHA offers visual analytics of lifestyle data, contributes to individualised disease prediction and prevention, and supports healthy lifestyles and independent living. The iManageCancer project aims to empower patients and strengthen self-management in cancer diseases. Therefore, MHA has contributed to the iManageCancer scenario and provides functionality to the iManageCancer platform in terms of its support of lifestyle management of cancer patients by providing them with services to help their cancer management. This paper presents two different MHA-based Android applications for breast and prostate cancer patients. The components in these apps facilitate health and lifestyle data presentation and analysis, including weight control, activity, mood and sleep data collection, promotion of physical exercise after surgery, questionnaires and helpful information. These components can be used cooperatively to achieve flexible visual analysis of spatiotemporal lifestyle and health data and can also help patients discover information about their disease and its management. © the authors.",
+    affiliations = "Centre for Visualisation and Data Analytics, University of Bedfordshire, Luton, LU1 3JU, United Kingdom; School of Psychology, Queen's University Belfast, Belfast, BT7 1NN, United Kingdom",
+    abstract = "MyHealthAvatar (MHA) is built on the latest information and communications technology with the aim of collecting lifestyle and health data to promote citizen's wellbeing. According to the collected data, MHA offers visual analytics of lifestyle data, contributes to individualised disease prediction and prevention, and supports healthy lifestyles and independent living. The iManageCancer project aims to empower patients and strengthen self-management in cancer diseases. Therefore, MHA has contributed to the iManageCancer scenario and provides functionality to the iManageCancer platform in terms of its support of lifestyle management of cancer patients by providing them with services to help their cancer management. This paper presents two different MHA-based Android applications for breast and prostate cancer patients. The components in these apps facilitate health and lifestyle data presentation and analysis, including weight control, activity, mood and sleep data collection, promotion of physical exercise after surgery, questionnaires and helpful information. These components can be used cooperatively to achieve flexible visual analysis of spatiotemporal lifestyle and health data and can also help patients discover information about their disease and its management. (c) the authors.",
     author_keywords = "App; Breast cancer; Lifestyle management; Mobile; Prostate cancer",
     keywords = "access to information; Article; body weight control; breast cancer; cancer patient; cancer surgery; data analysis; data processing; empowerment; exercise; health program; health promotion; human; information dissemination; information processing; knowledge; lifestyle modification; medical informatics; mobile application; mood; patient care; patient monitoring; personalized medicine; physical activity; prediction; prostate cancer; questionnaire; self care; sitting; sleep parameters; weight loss program; wellbeing",
     correspondence_address = "X. Zhang; Centre for Visualisation and Data Analytics, University of Bedfordshire, Luton, LU1 3JU, United Kingdom; email: xu.zhang@beds.ac.uk",
@@ -5421,8 +5694,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 11; All Open Access, Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -5451,7 +5723,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -5462,7 +5734,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85052014825&amp;doi=10.3332%2fecancer.2018.849&amp;partnerID=40&amp;md5=36dfb2be10f9e9d04d7934fa92a57ab1</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85052014825&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=69fc7bfbe2f1795f134dc09bfd04023a&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28myhealthavatar+lifestyle+management+support+for+cancer+patients%29&amp;sl=78&amp;sessionSearchId=69fc7bfbe2f1795f134dc09bfd04023a&amp;relpos=0</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -5493,7 +5765,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Behavior change theories are often applied to the design of technologies for improving health and wellness. However, researchers commonly apply these theories too narrowly or too broadly, resulting in a design process that does not account for the complexities of behavior change. To address this limitation in prior research, we developed a methodological framework that blends abstract theory with contextual relevance. Based on this framework, we developed a set of design guidelines for Bounce - a smartphone application aiming to increase the physical activity of breast cancer survivors. © 2016 Authors.</t>
+          <t>Behavior change theories are often applied to the design of technologies for improving health and wellness. However, researchers commonly apply these theories too narrowly or too broadly, resulting in a design process that does not account for the complexities of behavior change. To address this limitation in prior research, we developed a methodological framework that blends abstract theory with contextual relevance. Based on this framework, we developed a set of design guidelines for Bounce - a smartphone application aiming to increase the physical activity of breast cancer survivors.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5519,22 +5791,22 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>98 – 103</t>
+          <t>98 - 103</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Plank201698,
+          <t>@CONFERENCE{Plank201698,
     author = "Plank, Meghan M. and Dalal, Nishtha H.",
     title = "Bounce: An intervention to increase physical activity in breast cancer survivors",
     year = "2016",
     journal = "Conference on Human Factors in Computing Systems - Proceedings",
     volume = "07-12-May-2016",
-    pages = "98 – 103",
+    pages = "98 - 103",
     doi = "10.1145/2851581.2890383",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85014694375\&amp;doi=10.1145\%2f2851581.2890383\&amp;partnerID=40\&amp;md5=5e2a1425fe2dd8bdbe2f1add4d1f47b7",
     affiliations = "Drexel University, Philadelphia, 19104, PA, United States",
-    abstract = "Behavior change theories are often applied to the design of technologies for improving health and wellness. However, researchers commonly apply these theories too narrowly or too broadly, resulting in a design process that does not account for the complexities of behavior change. To address this limitation in prior research, we developed a methodological framework that blends abstract theory with contextual relevance. Based on this framework, we developed a set of design guidelines for Bounce - a smartphone application aiming to increase the physical activity of breast cancer survivors. © 2016 Authors.",
+    abstract = "Behavior change theories are often applied to the design of technologies for improving health and wellness. However, researchers commonly apply these theories too narrowly or too broadly, resulting in a design process that does not account for the complexities of behavior change. To address this limitation in prior research, we developed a methodological framework that blends abstract theory with contextual relevance. Based on this framework, we developed a set of design guidelines for Bounce - a smartphone application aiming to increase the physical activity of breast cancer survivors. (c) 2016 Authors.",
     author_keywords = "Behavioral intervention technologies; Conceptual framework; Participatory design; Thematic analysis",
     keywords = "Computation theory; Diseases; Human computer interaction; Human engineering; Behavioral intervention technology; Behavioral interventions; Behaviour changes; Breast Cancer; Change theory; Conceptual frameworks; Health and wellness; Participatory design; Physical activity; Thematic analysis; Design",
     publisher = "Association for Computing Machinery",
@@ -5545,8 +5817,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 2; Conference name: 34th Annual CHI Conference on Human Factors in Computing Systems, CHI EA 2016; Conference date: 7 May 2016 through 12 May 2016; Conference code: 125618"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -5575,7 +5846,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -5586,7 +5857,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85014694375&amp;doi=10.1145%2f2851581.2890383&amp;partnerID=40&amp;md5=5e2a1425fe2dd8bdbe2f1add4d1f47b7</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85014694375&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=9602ad663c50c7892c29403edb684f69&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28bounce+an+intervention+to+increase+physical+activity+in+breast+cancer+survivors%29&amp;sl=94&amp;sessionSearchId=9602ad663c50c7892c29403edb684f69&amp;relpos=0</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -5617,13 +5888,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Background: Physical activity is an important aspect in the treatment of patients with chronic obstructive pulmonary disease or type-2 diabetes. A monitoring and feedback tool combined with guidance by a primary care provider might be a successful method to enhance the level of physical activity in these patients. As a prerequisite for useful technology, it is important to involve the end-users in the design process from an early stage. Objective: The aim of this study was to investigate the user requirements for a tool to stimulate physical activity, embedded in primary care practice. The leading principle of this tool is to change behavior by self-monitoring, goal-setting, and feedback. Methods: The research team collected qualitative data among 15 patients, 16 care professionals, and several experts. A prototype was developed in three stages. In stage 1, the literature was searched to identify end-users and context. In stage 2, the literature, experts and patient representatives were consulted to set up a use case with the general idea of the innovation. In stage 3, individual interviews and focus groups were held to identify the end-user requirements. Based on these requirements a prototype was built by the engineering team. Results: The development process has led to a tool that generally meets the requirements of the end-users. A tri-axial activity sensor, worn on the hip, is connected by Bluetooth to a smartphone. In an app, quantitative feedback is given about the amount of activity and goals reached by means of graphical visualization, and an image shows a sun when the goal is reached. Overviews about activity per half an hour, per day, week, and month are provided. In the menu of the app and on a secured website, patients can enter information in individual sessions or read feedback messages generated by the system. The practice nurse can see the results of all patients on a secure webpage and can then discuss the results and set personalized goals in consultation with the patient. Conclusions: This study demonstrates that a user-centered approach brings in valuable details (such as the requirements for feedback in activity minutes per day) to improve the fit between the user, technology, and the organization of care, which is important for the usability and acceptability of the tool. The tool embedded in primary care will be evaluated in a randomized controlled trial. © 2013 JMIR Publications. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>Background: Physical activity is an important aspect in the treatment of patients with chronic obstructive pulmonary disease or type-2 diabetes. A monitoring and feedback tool combined with guidance by a primary care provider might be a successful method to enhance the level of physical activity in these patients. As a prerequisite for useful technology, it is important to involve the end-users in the design process from an early stage. Objective: The aim of this study was to investigate the user requirements for a tool to stimulate physical activity, embedded in primary care practice. The leading principle of this tool is to change behavior by self-monitoring, goal-setting, and feedback. Methods: The research team collected qualitative data among 15 patients, 16 care professionals, and several experts. A prototype was developed in three stages. In stage 1, the literature was searched to identify end-users and context. In stage 2, the literature, experts and patient representatives were consulted to set up a use case with the general idea of the innovation. In stage 3, individual interviews and focus groups were held to identify the end-user requirements. Based on these requirements a prototype was built by the engineering team. Results: The development process has led to a tool that generally meets the requirements of the end-users. A tri-axial activity sensor, worn on the hip, is connected by Bluetooth to a smartphone. In an app, quantitative feedback is given about the amount of activity and goals reached by means of graphical visualization, and an image shows a sun when the goal is reached. Overviews about activity per half an hour, per day, week, and month are provided. In the menu of the app and on a secured website, patients can enter information in individual sessions or read feedback messages generated by the system. The practice nurse can see the results of all patients on a secure webpage and can then discuss the results and set personalized goals in consultation with the patient. Conclusions: This study demonstrates that a user-centered approach brings in valuable details (such as the requirements for feedback in activity minutes per day) to improve the fit between the user, technology, and the organization of care, which is important for the usability and acceptability of the tool. The tool embedded in primary care will be evaluated in a randomized controlled trial.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Accelerometry;; Physical activity;; Primary health care;; Remote sensing technology;; Self-management;; User-centered design</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Van Der Weegen, Sanne; Verwey, Renée; Spreeuwenberg, Marieke; Tange, Huibert; Van Der Weijden, Trudy; De Witte, Luc</t>
+          <t>Van Der Weegen, Sanne; Verwey, Renee; Spreeuwenberg, Marieke; Tange, Huibert; Van Der Weijden, Trudy; De Witte, Luc</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5637,11 +5912,15 @@
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>e8</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{VanDerWeegen2013,
-    author = "Van Der Weegen, Sanne and Verwey, Renée and Spreeuwenberg, Marieke and Tange, Huibert and Van Der Weijden, Trudy and De Witte, Luc",
+          <t>@ARTICLE{VanDerWeegen2013,
+    author = "Van Der Weegen, Sanne and Verwey, Renee and Spreeuwenberg, Marieke and Tange, Huibert and Van Der Weijden, Trudy and De Witte, Luc",
     title = "The development of a mobile monitoring and feedback tool to stimulate physical activity of people with a chronic disease in primary care: A user-centered design",
     year = "2013",
     journal = "JMIR mHealth and uHealth",
@@ -5650,7 +5929,7 @@
     doi = "10.2196/mhealth.2526",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85077306629\&amp;doi=10.2196\%2fmhealth.2526\&amp;partnerID=40\&amp;md5=29249b149226ca0c3ef11e84753cc20c",
     affiliations = "CAPHRI School for Public Health and Primary Care, Department of Health Services Research, Maastricht University, Maastricht, Netherlands; Research Centre Technology in Care, Zuyd University of Applied Sciences, Heerlen, Netherlands; CAPHRI School for Public Health and Primary Care, Department of General Practice, Maastricht University, Maastricht, Netherlands",
-    abstract = "Background: Physical activity is an important aspect in the treatment of patients with chronic obstructive pulmonary disease or type-2 diabetes. A monitoring and feedback tool combined with guidance by a primary care provider might be a successful method to enhance the level of physical activity in these patients. As a prerequisite for useful technology, it is important to involve the end-users in the design process from an early stage. Objective: The aim of this study was to investigate the user requirements for a tool to stimulate physical activity, embedded in primary care practice. The leading principle of this tool is to change behavior by self-monitoring, goal-setting, and feedback. Methods: The research team collected qualitative data among 15 patients, 16 care professionals, and several experts. A prototype was developed in three stages. In stage 1, the literature was searched to identify end-users and context. In stage 2, the literature, experts and patient representatives were consulted to set up a use case with the general idea of the innovation. In stage 3, individual interviews and focus groups were held to identify the end-user requirements. Based on these requirements a prototype was built by the engineering team. Results: The development process has led to a tool that generally meets the requirements of the end-users. A tri-axial activity sensor, worn on the hip, is connected by Bluetooth to a smartphone. In an app, quantitative feedback is given about the amount of activity and goals reached by means of graphical visualization, and an image shows a sun when the goal is reached. Overviews about activity per half an hour, per day, week, and month are provided. In the menu of the app and on a secured website, patients can enter information in individual sessions or read feedback messages generated by the system. The practice nurse can see the results of all patients on a secure webpage and can then discuss the results and set personalized goals in consultation with the patient. Conclusions: This study demonstrates that a user-centered approach brings in valuable details (such as the requirements for feedback in activity minutes per day) to improve the fit between the user, technology, and the organization of care, which is important for the usability and acceptability of the tool. The tool embedded in primary care will be evaluated in a randomized controlled trial. © 2013 JMIR Publications. All rights reserved.",
+    abstract = "Background: Physical activity is an important aspect in the treatment of patients with chronic obstructive pulmonary disease or type-2 diabetes. A monitoring and feedback tool combined with guidance by a primary care provider might be a successful method to enhance the level of physical activity in these patients. As a prerequisite for useful technology, it is important to involve the end-users in the design process from an early stage. Objective: The aim of this study was to investigate the user requirements for a tool to stimulate physical activity, embedded in primary care practice. The leading principle of this tool is to change behavior by self-monitoring, goal-setting, and feedback. Methods: The research team collected qualitative data among 15 patients, 16 care professionals, and several experts. A prototype was developed in three stages. In stage 1, the literature was searched to identify end-users and context. In stage 2, the literature, experts and patient representatives were consulted to set up a use case with the general idea of the innovation. In stage 3, individual interviews and focus groups were held to identify the end-user requirements. Based on these requirements a prototype was built by the engineering team. Results: The development process has led to a tool that generally meets the requirements of the end-users. A tri-axial activity sensor, worn on the hip, is connected by Bluetooth to a smartphone. In an app, quantitative feedback is given about the amount of activity and goals reached by means of graphical visualization, and an image shows a sun when the goal is reached. Overviews about activity per half an hour, per day, week, and month are provided. In the menu of the app and on a secured website, patients can enter information in individual sessions or read feedback messages generated by the system. The practice nurse can see the results of all patients on a secure webpage and can then discuss the results and set personalized goals in consultation with the patient. Conclusions: This study demonstrates that a user-centered approach brings in valuable details (such as the requirements for feedback in activity minutes per day) to improve the fit between the user, technology, and the organization of care, which is important for the usability and acceptability of the tool. The tool embedded in primary care will be evaluated in a randomized controlled trial. (c) 2013 JMIR Publications. All rights reserved.",
     author_keywords = "Accelerometry; Physical activity; Primary health care; Remote sensing technology; Self-management; User-centered design",
     correspondence_address = "S. van der Weegen; CAPHRI School for Public Health and Primary Care, Department of Health Services Research, Maastricht University, Maastricht, PO Box 616, 6200 MD, Netherlands; email: s.vanderweegen@maastrichtuniversity.nl",
     publisher = "JMIR Publications Inc.",
@@ -5661,8 +5940,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 95; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -5691,7 +5969,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -5702,17 +5980,17 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85077306629&amp;doi=10.2196%2fmhealth.2526&amp;partnerID=40&amp;md5=29249b149226ca0c3ef11e84753cc20c</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85077306629&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=c2c3497d048a0de0d2ffa43afdaede33&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28the+development+of+a+mobile+monitoring+and+feedback+tool+to+stimulate+physical+activity+of+people+with+a+chronic+disease+in+primary+care+a+user+centered+design%29&amp;sl=174&amp;sessionSearchId=c2c3497d048a0de0d2ffa43afdaede33&amp;relpos=0</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -5733,7 +6011,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Introduction: A monitoring and feedback tool to stimulate physical activity, consisting of an activity sensor, smartphone application (app), and website for patients and their practice nurses, has been developed: the 'It's LiFe!' tool. In this study the usability of the tool was evaluated by technology experts and end users (people with chronic obstructive pulmonary disease or type 2 diabetes, with ages from 40-70 years), to improve the user interfaces and content of the tool. Patients and methods: The study had four phases: 1) a heuristic evaluation with six technology experts; 2) a usability test in a laboratory by five patients; 3) a pilot in real life wherein 20 patients used the tool for 3 months; and 4) a final lab test by five patients. In both lab tests (phases 2 and 4) qualitative data were collected through a thinking-aloud procedure and video recordings, and quantitative data through questions about task complexity, text comprehensiveness, and readability. In addition, the post-study system usability questionnaire (PSSUQ) was completed for the app and the website. In the pilot test (phase 3), all patients were interviewed three times and the Software Usability Measurement Inventory (SUMI) was completed. Results: After each phase, improvements were made, mainly to the layout and text. The main improvement was a refresh button for active data synchronization between activity sensor, app, and server, implemented after connectivity problems in the pilot test. The mean score on the PSSUQ for the website improved from 5.6 (standard deviation [SD] 1.3) to 6.5 (SD 0.5), and for the app from 5.4 (SD 1.5) to 6.2 (SD 1.1). Satisfaction in the pilot was not very high according to the SUMI. Discussion: The use of laboratory versus real-life tests and expert-based versus user-based tests revealed a wide range of usability issues. The usability of the It's LiFe! tool improved considerably during the study. © 2014 van der Weegen et al. This work is published by Dove Medical Press Limited.</t>
+          <t>Introduction: A monitoring and feedback tool to stimulate physical activity, consisting of an activity sensor, smartphone application (app), and website for patients and their practice nurses, has been developed: the 'It's LiFe!' tool. In this study the usability of the tool was evaluated by technology experts and end users (people with chronic obstructive pulmonary disease or type 2 diabetes, with ages from 40-70 years), to improve the user interfaces and content of the tool. Patients and methods: The study had four phases: 1) a heuristic evaluation with six technology experts; 2) a usability test in a laboratory by five patients; 3) a pilot in real life wherein 20 patients used the tool for 3 months; and 4) a final lab test by five patients. In both lab tests (phases 2 and 4) qualitative data were collected through a thinking-aloud procedure and video recordings, and quantitative data through questions about task complexity, text comprehensiveness, and readability. In addition, the post-study system usability questionnaire (PSSUQ) was completed for the app and the website. In the pilot test (phase 3), all patients were interviewed three times and the Software Usability Measurement Inventory (SUMI) was completed. Results: After each phase, improvements were made, mainly to the layout and text. The main improvement was a refresh button for active data synchronization between activity sensor, app, and server, implemented after connectivity problems in the pilot test. The mean score on the PSSUQ for the website improved from 5.6 (standard deviation [SD] 1.3) to 6.5 (SD 0.5), and for the app from 5.4 (SD 1.5) to 6.2 (SD 1.1). Satisfaction in the pilot was not very high according to the SUMI. Discussion: The use of laboratory versus real-life tests and expert-based versus user-based tests revealed a wide range of usability issues. The usability of the It's LiFe! tool improved considerably during the study.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5743,7 +6021,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>van der Weegen, Sanne; Verwey, Renée; Tange, Huibert J.; Spreeuwenberg, Marieke D.; de Witte, Luc P.</t>
+          <t>van der Weegen, Sanne; Verwey, Renee; Tange, Huibert J.; Spreeuwenberg, Marieke D.; de Witte, Luc P.</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5759,22 +6037,22 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>311 – 322</t>
+          <t>311 - 322</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{vanderWeegen2014311,
-    author = "van der Weegen, Sanne and Verwey, Renée and Tange, Huibert J. and Spreeuwenberg, Marieke D. and de Witte, Luc P.",
+          <t>@ARTICLE{vanderWeegen2014311,
+    author = "van der Weegen, Sanne and Verwey, Renee and Tange, Huibert J. and Spreeuwenberg, Marieke D. and de Witte, Luc P.",
     title = "Usability testing of a monitoring and feedback tool to stimulate physical activity",
     year = "2014",
     journal = "Patient Preference and Adherence",
     volume = "8",
-    pages = "311 – 322",
+    pages = "311 - 322",
     doi = "10.2147/PPA.S57961",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84897904311\&amp;doi=10.2147\%2fPPA.S57961\&amp;partnerID=40\&amp;md5=91f94260f6e19b46adf20fb069885f25",
     affiliations = "Department of Health Services Research, CAPHRI School for Public Health and Primary Care, Maastricht University, Netherlands; Research Centre Technology in Care, Zuyd University of Applied Sciences, Heerlen, Netherlands; Department of General Practice, CAPHRI School for Public Health and Primary Care, Maastricht University, Netherlands",
-    abstract = "Introduction: A monitoring and feedback tool to stimulate physical activity, consisting of an activity sensor, smartphone application (app), and website for patients and their practice nurses, has been developed: the 'It's LiFe!' tool. In this study the usability of the tool was evaluated by technology experts and end users (people with chronic obstructive pulmonary disease or type 2 diabetes, with ages from 40-70 years), to improve the user interfaces and content of the tool. Patients and methods: The study had four phases: 1) a heuristic evaluation with six technology experts; 2) a usability test in a laboratory by five patients; 3) a pilot in real life wherein 20 patients used the tool for 3 months; and 4) a final lab test by five patients. In both lab tests (phases 2 and 4) qualitative data were collected through a thinking-aloud procedure and video recordings, and quantitative data through questions about task complexity, text comprehensiveness, and readability. In addition, the post-study system usability questionnaire (PSSUQ) was completed for the app and the website. In the pilot test (phase 3), all patients were interviewed three times and the Software Usability Measurement Inventory (SUMI) was completed. Results: After each phase, improvements were made, mainly to the layout and text. The main improvement was a refresh button for active data synchronization between activity sensor, app, and server, implemented after connectivity problems in the pilot test. The mean score on the PSSUQ for the website improved from 5.6 (standard deviation [SD] 1.3) to 6.5 (SD 0.5), and for the app from 5.4 (SD 1.5) to 6.2 (SD 1.1). Satisfaction in the pilot was not very high according to the SUMI. Discussion: The use of laboratory versus real-life tests and expert-based versus user-based tests revealed a wide range of usability issues. The usability of the It's LiFe! tool improved considerably during the study. © 2014 van der Weegen et al. This work is published by Dove Medical Press Limited.",
+    abstract = "Introduction: A monitoring and feedback tool to stimulate physical activity, consisting of an activity sensor, smartphone application (app), and website for patients and their practice nurses, has been developed: the 'It's LiFe!' tool. In this study the usability of the tool was evaluated by technology experts and end users (people with chronic obstructive pulmonary disease or type 2 diabetes, with ages from 40-70 years), to improve the user interfaces and content of the tool. Patients and methods: The study had four phases: 1) a heuristic evaluation with six technology experts; 2) a usability test in a laboratory by five patients; 3) a pilot in real life wherein 20 patients used the tool for 3 months; and 4) a final lab test by five patients. In both lab tests (phases 2 and 4) qualitative data were collected through a thinking-aloud procedure and video recordings, and quantitative data through questions about task complexity, text comprehensiveness, and readability. In addition, the post-study system usability questionnaire (PSSUQ) was completed for the app and the website. In the pilot test (phase 3), all patients were interviewed three times and the Software Usability Measurement Inventory (SUMI) was completed. Results: After each phase, improvements were made, mainly to the layout and text. The main improvement was a refresh button for active data synchronization between activity sensor, app, and server, implemented after connectivity problems in the pilot test. The mean score on the PSSUQ for the website improved from 5.6 (standard deviation [SD] 1.3) to 6.5 (SD 0.5), and for the app from 5.4 (SD 1.5) to 6.2 (SD 1.1). Satisfaction in the pilot was not very high according to the SUMI. Discussion: The use of laboratory versus real-life tests and expert-based versus user-based tests revealed a wide range of usability issues. The usability of the It's LiFe! tool improved considerably during the study. (c) 2014 van der Weegen et al. This work is published by Dove Medical Press Limited.",
     author_keywords = "Accelerometry; Chronic obstructive pulmonary disease; Diabetes mellitus type 2; Heuristic evaluation; Telemonitoring; Thinking aloud",
     keywords = "adult; aged; article; biosensor; chronic obstructive lung disease; client server application; clinical article; computer interface; computer program; feedback system; female; human; male; mobile phone; monitoring; non insulin dependent diabetes mellitus; patient satisfaction; physical activity; pilot study",
     correspondence_address = "S. van der Weegen; School for Public Health and Primary Care (CAPHRI), Maastricht University, 6200 Maastricht, MD, PO Box 616, Netherlands; email: s.vanderweegen@maastrichtuniversity.nl",
@@ -5786,8 +6064,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 28; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -5816,7 +6093,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -5827,12 +6104,12 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84897904311&amp;doi=10.2147%2fPPA.S57961&amp;partnerID=40&amp;md5=91f94260f6e19b46adf20fb069885f25</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84897904311&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=7bde41614ddde96da2c17bd7412fa671&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28usability+testing+of+a+monitoring+and+feedback+tool+to+stimulate+physical+activity%29&amp;sl=97&amp;sessionSearchId=7bde41614ddde96da2c17bd7412fa671&amp;relpos=0</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>DOVE Medical Press Ltd.</t>
+          <t>DOVE Medical Press Ltd</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -5858,10 +6135,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Background: Most older cancer survivors (OCS) do not engage in regular physical activity (PA) despite well-known health benefits. With the increased use of mobile technologies among older adults, mobile tools may be an effective method to deliver PA promotion programs for OCS. Objective: To document the process of designing an OCS-friendly mobile-enabled Web application of PA promotion program. Methods: Mixed methods encompassing group discussions, individual interviews, and brief surveys with community leaders, OCS, cancer care providers, and software professionals were used in this formative research. Results: The varied stakeholders welcomed the idea of developing an online tool to promote PA in OCS. Our formative research revealed several major barriers to regular PA including limited access to senior-friendly PA resources, lack of motivation and social support, and insufficient knowledge and skills on building safe and appropriate workout plans. This feedback was incorporated into the development of iCanFit, a mobile-enabled Web application, designed specifically for OCS. The iCanFit online tools allow users to locate PA resources, set and track goals for PA, network with peer OCS in a secure online space, and receive practical and evidence-informed healthy tips. Conclusions: Our mixed-method formative research led to the design of iCanFit protocol to promote PA and well-being of OCS. The involvement of stakeholders is critical in the planning and design of the mobile application in order to enhance program relevance, appeal, and match with the needs of target users. © 2013 JMIR Human Factors. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>Background: Most older cancer survivors (OCS) do not engage in regular physical activity (PA) despite well-known health benefits. With the increased use of mobile technologies among older adults, mobile tools may be an effective method to deliver PA promotion programs for OCS. Objective: To document the process of designing an OCS-friendly mobile-enabled Web application of PA promotion program. Methods: Mixed methods encompassing group discussions, individual interviews, and brief surveys with community leaders, OCS, cancer care providers, and software professionals were used in this formative research. Results: The varied stakeholders welcomed the idea of developing an online tool to promote PA in OCS. Our formative research revealed several major barriers to regular PA including limited access to senior-friendly PA resources, lack of motivation and social support, and insufficient knowledge and skills on building safe and appropriate workout plans. This feedback was incorporated into the development of iCanFit, a mobile-enabled Web application, designed specifically for OCS. The iCanFit online tools allow users to locate PA resources, set and track goals for PA, network with peer OCS in a secure online space, and receive practical and evidence-informed healthy tips. Conclusions: Our mixed-method formative research led to the design of iCanFit protocol to promote PA and well-being of OCS. The involvement of stakeholders is critical in the planning and design of the mobile application in order to enhance program relevance, appeal, and match with the needs of target users.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Formative research;; Older cancer survivors;; Physical activity, survivorship, mHealth, website design;; Protocol development;; User-computer interface</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>Hong, Yan; Dahlke, Deborah Vollmer; Ory, Marcia; Hochhalter, Angela; Reynolds, Jana; Purcell, Ninfa Pena; Talwar, Divya; Eugene, Nola</t>
@@ -5881,7 +6162,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Hong2013,
+          <t>@ARTICLE{Hong2013,
     author = "Hong, Yan and Dahlke, Deborah Vollmer and Ory, Marcia and Hochhalter, Angela and Reynolds, Jana and Purcell, Ninfa Pena and Talwar, Divya and Eugene, Nola",
     title = "Designing icanfit: A mobile-enabled web application to promote physical activity for older cancer survivors",
     year = "2013",
@@ -5891,7 +6172,7 @@
     doi = "10.2196/resprot.2440",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85055697560\&amp;doi=10.2196\%2fresprot.2440\&amp;partnerID=40\&amp;md5=6dca72a9eb2bec43fd2897f451f3271a",
     affiliations = "Department of Health Promotion and Community Health Science, School of Rural Public Health, Texas AandM Health Science Center, College Station, TX, United States; Texas Life Science Foundation, Austin, TX, United States; Scott and White Healthcare, Temple, TX, United States; Texas AgriLife Extension Agency, Texas A and M University System, College Station, TX, United States",
-    abstract = "Background: Most older cancer survivors (OCS) do not engage in regular physical activity (PA) despite well-known health benefits. With the increased use of mobile technologies among older adults, mobile tools may be an effective method to deliver PA promotion programs for OCS. Objective: To document the process of designing an OCS-friendly mobile-enabled Web application of PA promotion program. Methods: Mixed methods encompassing group discussions, individual interviews, and brief surveys with community leaders, OCS, cancer care providers, and software professionals were used in this formative research. Results: The varied stakeholders welcomed the idea of developing an online tool to promote PA in OCS. Our formative research revealed several major barriers to regular PA including limited access to senior-friendly PA resources, lack of motivation and social support, and insufficient knowledge and skills on building safe and appropriate workout plans. This feedback was incorporated into the development of iCanFit, a mobile-enabled Web application, designed specifically for OCS. The iCanFit online tools allow users to locate PA resources, set and track goals for PA, network with peer OCS in a secure online space, and receive practical and evidence-informed healthy tips. Conclusions: Our mixed-method formative research led to the design of iCanFit protocol to promote PA and well-being of OCS. The involvement of stakeholders is critical in the planning and design of the mobile application in order to enhance program relevance, appeal, and match with the needs of target users. © 2013 JMIR Human Factors. All rights reserved.",
+    abstract = "Background: Most older cancer survivors (OCS) do not engage in regular physical activity (PA) despite well-known health benefits. With the increased use of mobile technologies among older adults, mobile tools may be an effective method to deliver PA promotion programs for OCS. Objective: To document the process of designing an OCS-friendly mobile-enabled Web application of PA promotion program. Methods: Mixed methods encompassing group discussions, individual interviews, and brief surveys with community leaders, OCS, cancer care providers, and software professionals were used in this formative research. Results: The varied stakeholders welcomed the idea of developing an online tool to promote PA in OCS. Our formative research revealed several major barriers to regular PA including limited access to senior-friendly PA resources, lack of motivation and social support, and insufficient knowledge and skills on building safe and appropriate workout plans. This feedback was incorporated into the development of iCanFit, a mobile-enabled Web application, designed specifically for OCS. The iCanFit online tools allow users to locate PA resources, set and track goals for PA, network with peer OCS in a secure online space, and receive practical and evidence-informed healthy tips. Conclusions: Our mixed-method formative research led to the design of iCanFit protocol to promote PA and well-being of OCS. The involvement of stakeholders is critical in the planning and design of the mobile application in order to enhance program relevance, appeal, and match with the needs of target users. (c) 2013 JMIR Human Factors. All rights reserved.",
     author_keywords = "Formative research; Older cancer survivors; Physical activity, survivorship, mHealth, website design; Protocol development; User-computer interface",
     correspondence_address = "Y. Hong; Department of Health Promotion and Community Health Science, School of Rural Public Health, Texas A and M Health Science Center, College Station, 1266 TAMU, 77843, United States; email: yhong@srph.tamhsc.edu",
     publisher = "JMIR Publications Inc.",
@@ -5902,8 +6183,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 31; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -5932,7 +6212,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -5943,17 +6223,17 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85055697560&amp;doi=10.2196%2fresprot.2440&amp;partnerID=40&amp;md5=6dca72a9eb2bec43fd2897f451f3271a</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85055697560&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=88fcb3d950c3137eb7bf530850c26a0a&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28designing+icanfit+a+mobile+enabled+web+application+to+promote+physical+activity+for+older+cancer+survivors%29&amp;sl=121&amp;sessionSearchId=88fcb3d950c3137eb7bf530850c26a0a&amp;relpos=0</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -5974,13 +6254,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Background: Exercise has proven to reduce pain and increase quality of life among people living with osteoarthritis (OA). However, one major challenge is adherence to exercise once supervision ends. Objective: This study aimed to identify mental and physical barriers and motivational and social aspects of training at home, and to test or further develop an exercise app. Methods: The study was inspired from participatory design, engaging users in the research process. Data were collected through focus groups and workshops, and analyzed by systematic text condensation. Results: Three main themes were found: competition as motivation, training together, and barriers. The results revealed that the participants wanted to do their training and had knowledge on exercise and pain but found it hard to motivate themselves. They missed the observation, comments, and encouragement by the supervising physiotherapist as well as their peers. Ways to optimize the training app were identified during the workshops as participants shared their experience. Conclusions: This study concludes that the long-term continuation of exercising for patients with OA could be improved with the use of a technology tailored to users’ needs, including motivational and other behavioral factors. © Dorthe Boe Danbjørg, Allan Villadsen, Ester Gill, Mette Juel Rothmann, Jane Clemensen.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>Background: Exercise has proven to reduce pain and increase quality of life among people living with osteoarthritis (OA). However, one major challenge is adherence to exercise once supervision ends. Objective: This study aimed to identify mental and physical barriers and motivational and social aspects of training at home, and to test or further develop an exercise app. Methods: The study was inspired from participatory design, engaging users in the research process. Data were collected through focus groups and workshops, and analyzed by systematic text condensation. Results: Three main themes were found: competition as motivation, training together, and barriers. The results revealed that the participants wanted to do their training and had knowledge on exercise and pain but found it hard to motivate themselves. They missed the observation, comments, and encouragement by the supervising physiotherapist as well as their peers. Ways to optimize the training app were identified during the workshops as participants shared their experience. Conclusions: This study concludes that the long-term continuation of exercising for patients with OA could be improved with the use of a technology tailored to users' needs, including motivational and other behavioral factors.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Arthritis;; Rehabilitation;; Telemedicine</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Danbjørg, Dorthe Boe; Villadsen, Allan; Gill, Ester; Rothmann, Mette Juel; Clemensen, Jane</t>
+          <t>Danbjorg, Dorthe Boe; Villadsen, Allan; Gill, Ester; Rothmann, Mette Juel; Clemensen, Jane</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5997,8 +6281,8 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Danbjørg2018,
-    author = "Danbjørg, Dorthe Boe and Villadsen, Allan and Gill, Ester and Rothmann, Mette Juel and Clemensen, Jane",
+          <t>@ARTICLE{Danbjorg2018,
+    author = "Danbjorg, Dorthe Boe and Villadsen, Allan and Gill, Ester and Rothmann, Mette Juel and Clemensen, Jane",
     title = "Usage of an exercise app in the care for people with osteoarthritis: User-driven exploratory study",
     year = "2018",
     journal = "JMIR mHealth and uHealth",
@@ -6007,9 +6291,9 @@
     doi = "10.2196/mhealth.7734",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85060479742\&amp;doi=10.2196\%2fmhealth.7734\&amp;partnerID=40\&amp;md5=30cfeb656a671612fbb27a9db8e3974d",
     affiliations = "Centre for Innovative Medical Technology, Department of Clinical Research, University of Southern Denmark, Odense University Hospital, Odense, Denmark; Quality of Life Research Center, Department of Haematology, Odense University Hospital, Odense, Denmark; Orthopaedic Research Unit, Department of Orthopaedic Surgery and Traumatology, University of Southern Denmark, Odense University Hospital, Odense, Denmark; Department of Clinical Research, University of Southern Denmark, Odense, Denmark; Research Unit of Medical Endocrinology, Department of Endocrinology, University of Southern Denmark, Odense University Hospital, Odense, Denmark; Research Unit of Rheumatology, Department of Rheumatology, University of Southern Denmark, Odense University Hospital, Odense, Denmark; Research Unit of Paediatrics, Hans Christian Andersen Children's Hospital, University of Southern Denmark, Odense University Hospital, Odense, Denmark",
-    abstract = "Background: Exercise has proven to reduce pain and increase quality of life among people living with osteoarthritis (OA). However, one major challenge is adherence to exercise once supervision ends. Objective: This study aimed to identify mental and physical barriers and motivational and social aspects of training at home, and to test or further develop an exercise app. Methods: The study was inspired from participatory design, engaging users in the research process. Data were collected through focus groups and workshops, and analyzed by systematic text condensation. Results: Three main themes were found: competition as motivation, training together, and barriers. The results revealed that the participants wanted to do their training and had knowledge on exercise and pain but found it hard to motivate themselves. They missed the observation, comments, and encouragement by the supervising physiotherapist as well as their peers. Ways to optimize the training app were identified during the workshops as participants shared their experience. Conclusions: This study concludes that the long-term continuation of exercising for patients with OA could be improved with the use of a technology tailored to users’ needs, including motivational and other behavioral factors. © Dorthe Boe Danbjørg, Allan Villadsen, Ester Gill, Mette Juel Rothmann, Jane Clemensen.",
+    abstract = "Background: Exercise has proven to reduce pain and increase quality of life among people living with osteoarthritis (OA). However, one major challenge is adherence to exercise once supervision ends. Objective: This study aimed to identify mental and physical barriers and motivational and social aspects of training at home, and to test or further develop an exercise app. Methods: The study was inspired from participatory design, engaging users in the research process. Data were collected through focus groups and workshops, and analyzed by systematic text condensation. Results: Three main themes were found: competition as motivation, training together, and barriers. The results revealed that the participants wanted to do their training and had knowledge on exercise and pain but found it hard to motivate themselves. They missed the observation, comments, and encouragement by the supervising physiotherapist as well as their peers. Ways to optimize the training app were identified during the workshops as participants shared their experience. Conclusions: This study concludes that the long-term continuation of exercising for patients with OA could be improved with the use of a technology tailored to users' needs, including motivational and other behavioral factors. (c) Dorthe Boe Danbjorg, Allan Villadsen, Ester Gill, Mette Juel Rothmann, Jane Clemensen.",
     author_keywords = "Arthritis; Rehabilitation; Telemedicine",
-    correspondence_address = "D.B. Danbjørg; Centre for Innovative Medical Technology, Department of Clinical Research, University of Southern Denmark, Odense University Hospital, Odense, Sdr Boulevard 29, 5000, Denmark; email: dortheboe@gmail.com",
+    correspondence_address = "D.B. Danbjorg; Centre for Innovative Medical Technology, Department of Clinical Research, University of Southern Denmark, Odense University Hospital, Odense, Sdr Boulevard 29, 5000, Denmark; email: dortheboe@gmail.com",
     publisher = "JMIR Publications Inc.",
     issn = "22915222",
     language = "English",
@@ -6018,8 +6302,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 19; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -6040,7 +6323,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Data were collected through focus groups and workshops, and analyzed by systematic text condensation.</t>
+          <t>Data were collected through focus groups and workshops, and analyzed by systematic text condensation.</t>
         </is>
       </c>
       <c r="R51" t="n">
@@ -6048,7 +6331,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -6059,17 +6342,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85060479742&amp;doi=10.2196%2fmhealth.7734&amp;partnerID=40&amp;md5=30cfeb656a671612fbb27a9db8e3974d</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85060479742&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=67aff53d647651ee8e4b651f1b980c5c&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28usage+of+an+exercise+app+in+the+care+for+people+with+osteoarthritis+user+driven+exploratory+study%29&amp;sl=112&amp;sessionSearchId=67aff53d647651ee8e4b651f1b980c5c&amp;relpos=0</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -6090,10 +6373,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Background: Mobile phones and tablets currently represent a significant presence in people's everyday lives. They enable access to different information and services independent of current place and time. Such widespread connectivity offers significant potential in different app areas including health care. Objective: Our goal was to evaluate the usability of the Connect Mobile app. The mobile app enables mobile access to the Connect system, an online system that supports cancer patients in managing health-related issues. Along with symptom management, the system promotes better patient-provider communication, collaboration, and shared decision making. The Connect Mobile app enables access to the Connect system over both mobile phones and tablets. Methods: The study consisted of usability tests of a high fidelity prototype with 7 cancer patients where the objectives were to identify existing design and functionality issues and to provide patients with a real look-and-feel of the mobile system. In addition, we conducted semistructured interviews to obtain participants' feedback about app usefulness, identify the need for new system features and design requirements, and measure the acceptance of the mobile app and its features within everyday health management. Results: The study revealed a total of 27 design issues (13 for mobile apps and 14 for tablet apps), which were mapped to source events (ie, errors, requests for help, participants' concurrent feedback, and moderator observation). We also applied usability heuristics to identify violations of usability principles. The majority of violations were related to enabling ease of input, screen readability, and glanceability (15 issues), as well as supporting an appropriate match between systems and the real world (7 issues) and consistent mapping of system functions and interactions (4 issues). Feedback from participants also showed the cancer patients' requirements for support systems and how these needs are influenced by different context-related factors, such as type of access terminal (eg, desktop computer, tablet, mobile phone) and phases of illness. Based on the observed results, we proposed design and functionality recommendations that can be used for the development of mobile apps for cancer patients to support their health management process. Conclusions: Understanding and addressing users' requirements is one of the main prerequisites for developing useful and effective technology-based health interventions. The results of this study outline different user requirements related to the design of the mobile patient support app for cancer patients. The results will be used in the iterative development of the Connect Mobile app and can also inform other developers and researchers in development, integration, and evaluation of mobile health apps and services that support cancer patients in managing their health-related issues. © Jelena Mirkovic, David R Kaufman, Cornelia M Ruland.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>Background: Mobile phones and tablets currently represent a significant presence in people's everyday lives. They enable access to different information and services independent of current place and time. Such widespread connectivity offers significant potential in different app areas including health care. Objective: Our goal was to evaluate the usability of the Connect Mobile app. The mobile app enables mobile access to the Connect system, an online system that supports cancer patients in managing health-related issues. Along with symptom management, the system promotes better patient-provider communication, collaboration, and shared decision making. The Connect Mobile app enables access to the Connect system over both mobile phones and tablets. Methods: The study consisted of usability tests of a high fidelity prototype with 7 cancer patients where the objectives were to identify existing design and functionality issues and to provide patients with a real look-and-feel of the mobile system. In addition, we conducted semistructured interviews to obtain participants' feedback about app usefulness, identify the need for new system features and design requirements, and measure the acceptance of the mobile app and its features within everyday health management. Results: The study revealed a total of 27 design issues (13 for mobile apps and 14 for tablet apps), which were mapped to source events (ie, errors, requests for help, participants' concurrent feedback, and moderator observation). We also applied usability heuristics to identify violations of usability principles. The majority of violations were related to enabling ease of input, screen readability, and glanceability (15 issues), as well as supporting an appropriate match between systems and the real world (7 issues) and consistent mapping of system functions and interactions (4 issues). Feedback from participants also showed the cancer patients' requirements for support systems and how these needs are influenced by different context-related factors, such as type of access terminal (eg, desktop computer, tablet, mobile phone) and phases of illness. Based on the observed results, we proposed design and functionality recommendations that can be used for the development of mobile apps for cancer patients to support their health management process. Conclusions: Understanding and addressing users' requirements is one of the main prerequisites for developing useful and effective technology-based health interventions. The results of this study outline different user requirements related to the design of the mobile patient support app for cancer patients. The results will be used in the iterative development of the Connect Mobile app and can also inform other developers and researchers in development, integration, and evaluation of mobile health apps and services that support cancer patients in managing their health-related issues.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Cell phone;; Mobile applications;; Patients;; Self-care;; Smartphone;; Symptom assessment;; User-computer interface</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>Mirkovic, Jelena; Kaufman, David R.; Ruland, Cornelia M.</t>
@@ -6113,7 +6400,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Mirkovic2014,
+          <t>@ARTICLE{Mirkovic2014,
     author = "Mirkovic, Jelena and Kaufman, David R. and Ruland, Cornelia M.",
     title = "Supporting cancer patients in illness management: Usability evaluation of a mobile app",
     year = "2014",
@@ -6123,7 +6410,7 @@
     doi = "10.2196/mhealth.3359",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85078663715\&amp;doi=10.2196\%2fmhealth.3359\&amp;partnerID=40\&amp;md5=4c5089349004e3b4f11bd2ba2e2f8fff",
     affiliations = "Center for Shared Decision Making and Collaborative Care Research, Oslo University Hospital, Oslo, Norway; Department of Biomedical Informatics, College of Health Solutions, Arizona State University, Scottsdale, AZ, United States",
-    abstract = "Background: Mobile phones and tablets currently represent a significant presence in people's everyday lives. They enable access to different information and services independent of current place and time. Such widespread connectivity offers significant potential in different app areas including health care. Objective: Our goal was to evaluate the usability of the Connect Mobile app. The mobile app enables mobile access to the Connect system, an online system that supports cancer patients in managing health-related issues. Along with symptom management, the system promotes better patient-provider communication, collaboration, and shared decision making. The Connect Mobile app enables access to the Connect system over both mobile phones and tablets. Methods: The study consisted of usability tests of a high fidelity prototype with 7 cancer patients where the objectives were to identify existing design and functionality issues and to provide patients with a real look-and-feel of the mobile system. In addition, we conducted semistructured interviews to obtain participants' feedback about app usefulness, identify the need for new system features and design requirements, and measure the acceptance of the mobile app and its features within everyday health management. Results: The study revealed a total of 27 design issues (13 for mobile apps and 14 for tablet apps), which were mapped to source events (ie, errors, requests for help, participants' concurrent feedback, and moderator observation). We also applied usability heuristics to identify violations of usability principles. The majority of violations were related to enabling ease of input, screen readability, and glanceability (15 issues), as well as supporting an appropriate match between systems and the real world (7 issues) and consistent mapping of system functions and interactions (4 issues). Feedback from participants also showed the cancer patients' requirements for support systems and how these needs are influenced by different context-related factors, such as type of access terminal (eg, desktop computer, tablet, mobile phone) and phases of illness. Based on the observed results, we proposed design and functionality recommendations that can be used for the development of mobile apps for cancer patients to support their health management process. Conclusions: Understanding and addressing users' requirements is one of the main prerequisites for developing useful and effective technology-based health interventions. The results of this study outline different user requirements related to the design of the mobile patient support app for cancer patients. The results will be used in the iterative development of the Connect Mobile app and can also inform other developers and researchers in development, integration, and evaluation of mobile health apps and services that support cancer patients in managing their health-related issues. © Jelena Mirkovic, David R Kaufman, Cornelia M Ruland.",
+    abstract = "Background: Mobile phones and tablets currently represent a significant presence in people's everyday lives. They enable access to different information and services independent of current place and time. Such widespread connectivity offers significant potential in different app areas including health care. Objective: Our goal was to evaluate the usability of the Connect Mobile app. The mobile app enables mobile access to the Connect system, an online system that supports cancer patients in managing health-related issues. Along with symptom management, the system promotes better patient-provider communication, collaboration, and shared decision making. The Connect Mobile app enables access to the Connect system over both mobile phones and tablets. Methods: The study consisted of usability tests of a high fidelity prototype with 7 cancer patients where the objectives were to identify existing design and functionality issues and to provide patients with a real look-and-feel of the mobile system. In addition, we conducted semistructured interviews to obtain participants' feedback about app usefulness, identify the need for new system features and design requirements, and measure the acceptance of the mobile app and its features within everyday health management. Results: The study revealed a total of 27 design issues (13 for mobile apps and 14 for tablet apps), which were mapped to source events (ie, errors, requests for help, participants' concurrent feedback, and moderator observation). We also applied usability heuristics to identify violations of usability principles. The majority of violations were related to enabling ease of input, screen readability, and glanceability (15 issues), as well as supporting an appropriate match between systems and the real world (7 issues) and consistent mapping of system functions and interactions (4 issues). Feedback from participants also showed the cancer patients' requirements for support systems and how these needs are influenced by different context-related factors, such as type of access terminal (eg, desktop computer, tablet, mobile phone) and phases of illness. Based on the observed results, we proposed design and functionality recommendations that can be used for the development of mobile apps for cancer patients to support their health management process. Conclusions: Understanding and addressing users' requirements is one of the main prerequisites for developing useful and effective technology-based health interventions. The results of this study outline different user requirements related to the design of the mobile patient support app for cancer patients. The results will be used in the iterative development of the Connect Mobile app and can also inform other developers and researchers in development, integration, and evaluation of mobile health apps and services that support cancer patients in managing their health-related issues. (c) Jelena Mirkovic, David R Kaufman, Cornelia M Ruland.",
     author_keywords = "Cell phone; Mobile applications; Patients; Self-care; Smartphone; Symptom assessment; User-computer interface",
     correspondence_address = "J. Mirkovic; Center for Shared Decision Making and Collaborative Care Research, Oslo University Hospital, Oslo, Forskningsveien 2b, 0373, Norway; email: Jelena.Mirkovic@rr-research.no",
     publisher = "JMIR Publications Inc.",
@@ -6134,8 +6421,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 100; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -6165,7 +6451,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -6176,17 +6462,17 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85078663715&amp;doi=10.2196%2fmhealth.3359&amp;partnerID=40&amp;md5=4c5089349004e3b4f11bd2ba2e2f8fff</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85078663715&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=bcff6165ea8e23fceea3e22a53ca5ce3&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28supporting+cancer+patients+in+illness+management+usability+evaluation+of+a+mobile+app%29&amp;sl=100&amp;sessionSearchId=bcff6165ea8e23fceea3e22a53ca5ce3&amp;relpos=0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6493,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Face-to-face health educational and intervention programs are helpful in addressing mental and physical illness challenges in focused groups. However, these programs are expensive, resource-intensive and struggle with scalability and reachability, leading to limited take-up and short-term impact. Digital Health Intervention (DHI) programs incorporate the use of technology - mobile, web, wearables, virtual and augmented reality - to address these limitations while being more cost-effective. DHIs have shown major success in improving physical and mental health outcomes for the general public as well as reducing adverse outcomes or high-risk groups. However, it is still very challenging and expensive to design and run high quality mobile-based DHI programs, in part due to the lack of technical skills of researchers in this field. Our proposed mobile eHealth Learning and Intervention Platform (eHeLP) aims to address these challenges with a novel approach that allows health researchers to focus on their studies, and participants to have access to multiple health programs that meet their needs. The platform caters for identified stakeholders in the DHI field and encourages the development of a new health-tech industry. We present our vision eHeLP, why this idea is worth further research, risks we perceive, and next steps. © 2018 ACM.</t>
+          <t>Face-to-face health educational and intervention programs are helpful in addressing mental and physical illness challenges in focused groups. However, these programs are expensive, resource-intensive and struggle with scalability and reachability, leading to limited take-up and short-term impact. Digital Health Intervention (DHI) programs incorporate the use of technology - mobile, web, wearables, virtual and augmented reality - to address these limitations while being more cost-effective. DHIs have shown major success in improving physical and mental health outcomes for the general public as well as reducing adverse outcomes or high-risk groups. However, it is still very challenging and expensive to design and run high quality mobile-based DHI programs, in part due to the lack of technical skills of researchers in this field. Our proposed mobile eHealth Learning and Intervention Platform (eHeLP) aims to address these challenges with a novel approach that allows health researchers to focus on their studies, and participants to have access to multiple health programs that meet their needs. The platform caters for identified stakeholders in the DHI field and encourages the development of a new health-tech industry. We present our vision eHeLP, why this idea is worth further research, risks we perceive, and next steps.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6233,21 +6519,21 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>252 – 256</t>
+          <t>252 - 256</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Abdelrazek2018252,
+          <t>@CONFERENCE{Abdelrazek2018252,
     author = "Abdelrazek, Mohamed and Ibrahim, Amani and Cain, Andrew and Grundy, John",
     title = "Vision: Mobile ehealth learning and intervention platform",
     year = "2018",
     journal = "Proceedings - International Conference on Software Engineering",
-    pages = "252 – 256",
+    pages = "252 - 256",
     doi = "10.1145/3197231.3197262",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85051654008\&amp;doi=10.1145\%2f3197231.3197262\&amp;partnerID=40\&amp;md5=ed7fc6c2790df2642d6f8179cfebe584",
     affiliations = "School of Information Technology, Deakin University, Melbourne, Australia; Faculty of Information Technology, Monash University, Melbourne, Australia",
-    abstract = "Face-to-face health educational and intervention programs are helpful in addressing mental and physical illness challenges in focused groups. However, these programs are expensive, resource-intensive and struggle with scalability and reachability, leading to limited take-up and short-term impact. Digital Health Intervention (DHI) programs incorporate the use of technology - mobile, web, wearables, virtual and augmented reality - to address these limitations while being more cost-effective. DHIs have shown major success in improving physical and mental health outcomes for the general public as well as reducing adverse outcomes or high-risk groups. However, it is still very challenging and expensive to design and run high quality mobile-based DHI programs, in part due to the lack of technical skills of researchers in this field. Our proposed mobile eHealth Learning and Intervention Platform (eHeLP) aims to address these challenges with a novel approach that allows health researchers to focus on their studies, and participants to have access to multiple health programs that meet their needs. The platform caters for identified stakeholders in the DHI field and encourages the development of a new health-tech industry. We present our vision eHeLP, why this idea is worth further research, risks we perceive, and next steps. © 2018 ACM.",
+    abstract = "Face-to-face health educational and intervention programs are helpful in addressing mental and physical illness challenges in focused groups. However, these programs are expensive, resource-intensive and struggle with scalability and reachability, leading to limited take-up and short-term impact. Digital Health Intervention (DHI) programs incorporate the use of technology - mobile, web, wearables, virtual and augmented reality - to address these limitations while being more cost-effective. DHIs have shown major success in improving physical and mental health outcomes for the general public as well as reducing adverse outcomes or high-risk groups. However, it is still very challenging and expensive to design and run high quality mobile-based DHI programs, in part due to the lack of technical skills of researchers in this field. Our proposed mobile eHealth Learning and Intervention Platform (eHeLP) aims to address these challenges with a novel approach that allows health researchers to focus on their studies, and participants to have access to multiple health programs that meet their needs. The platform caters for identified stakeholders in the DHI field and encourages the development of a new health-tech industry. We present our vision eHeLP, why this idea is worth further research, risks we perceive, and next steps. (c) 2018 ACM.",
     author_keywords = "Digital Health Intervention; eHealth Marketplace; Health Analytics; mHealth",
     keywords = "Augmented reality; Cost effectiveness; Health; mHealth; Software engineering; Virtual addresses; Wearable technology; Adverse outcomes; Cost effective; Digital healths; General publics; Health projects; Intervention programs; Technical skills; Virtual and augmented reality; Health risks",
     publisher = "IEEE Computer Society",
@@ -6260,8 +6546,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 4; Conference name: 5th ACM/IEEE 5th International Conference on Mobile Software Engineering and Systems, MOBILESoft 2018, collocated with the 40th International Conference on Software Engineering, ICSE 2018; Conference date: 27 May 2018 through 28 May 2018; Conference code: 138321; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -6290,7 +6575,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -6301,7 +6586,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85051654008&amp;doi=10.1145%2f3197231.3197262&amp;partnerID=40&amp;md5=ed7fc6c2790df2642d6f8179cfebe584</t>
+          <t>https://dl.acm.org/doi/10.1145/3197231.3197262</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -6327,12 +6612,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Scopus - Document details - Toward gamified pain management apps: mobile application rating scale⇓based quality assessment of pain-mentor⇔s first prototype through an expert study | Signed in</t>
+          <t>Toward gamified pain management apps: mobile application rating scale|based quality assessment of pain-mentor=s first prototype through an expert study</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>&lt;div class="Abstract-module__pTWiT"&gt;&lt;p class="Typography-module__lVnit Typography-module__ETlt8 Typography-module__GK8Sg"&gt;&lt;span class="Highlight-module__akO5D"&gt;Background: The use of health apps to support the treatment of chronic pain is gaining importance. Most available pain management apps are still lacking in content quality and quantity as their developers neither involve health experts to ensure target group suitability nor use gamification to engage and motivate the user. To close this gap, we aimed to develop a gamified pain management app, Pain-Mentor. Objective: To determine whether medical professionals would approve of Pain-Mentor’s concept and content, this study aimed to evaluate the quality of the app’s first prototype with experts from the field of chronic pain management and to discover necessary improvements. Methods: A total of 11 health professionals with a background in chronic pain treatment and 2 mobile health experts participated in this study. Each expert first received a detailed presentation of the app. Afterward, they tested Pain-Mentor and then rated its quality using the mobile application rating scale (MARS) in a semistructured interview. Results: The experts found the app to be of excellent general (mean 4.54, SD 0.55) and subjective quality (mean 4.57, SD 0.43). The app-specific section was rated as good (mean 4.38, SD 0.75). Overall, the experts approved of the app’s content, namely, pain and stress management techniques, behavior change techniques, and gamification. They believed that the use of gamification in Pain-Mentor positively influences the patients’ motivation and engagement and thus has the potential to promote the learning of pain management techniques. Moreover, applying the MARS in a semistructured interview provided in-depth insight into the ratings and concrete suggestions for improvement. Conclusions: The experts rated Pain-Mentor to be of excellent quality. It can be concluded that experts perceived the use of gamification in this pain management app in a positive manner. This showed that combining pain management with gamification did not negatively affect the app’s integrity. This study was therefore a promising first step in the development of Pain-Mentor. ©Alexandra Hoffmann, Corinna A Faust-Christmann, Gregor Zolynski, Gabriele Bleser.&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;</t>
+          <t>Background: The use of health apps to support the treatment of chronic pain is gaining importance. Most available pain management apps are still lacking in content quality and quantity as their developers neither involve health experts to ensure target group suitability nor use gamification to engage and motivate the user. To close this gap, we aimed to develop a gamified pain management app, Pain-Mentor. Objective: To determine whether medical professionals would approve of Pain-Mentor's concept and content, this study aimed to evaluate the quality of the app's first prototype with experts from the field of chronic pain management and to discover necessary improvements. Methods: A total of 11 health professionals with a background in chronic pain treatment and 2 mobile health experts participated in this study. Each expert first received a detailed presentation of the app. Afterward, they tested Pain-Mentor and then rated its quality using the mobile application rating scale (MARS) in a semistructured interview. Results: The experts found the app to be of excellent general (mean 4.54, SD 0.55) and subjective quality (mean 4.57, SD 0.43). The app-specific section was rated as good (mean 4.38, SD 0.75). Overall, the experts approved of the app's content, namely, pain and stress management techniques, behavior change techniques, and gamification. They believed that the use of gamification in Pain-Mentor positively influences the patients' motivation and engagement and thus has the potential to promote the learning of pain management techniques. Moreover, applying the MARS in a semistructured interview provided in-depth insight into the ratings and concrete suggestions for improvement. Conclusions: The experts rated Pain-Mentor to be of excellent quality. It can be concluded that experts perceived the use of gamification in this pain management app in a positive manner. This showed that combining pain management with gamification did not negatively affect the app's integrity. This study was therefore a promising first step in the development of Pain-Mentor.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6342,7 +6627,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. Hoffmann, C. A. Faust-Christmann, G. Zolynski, and G. Bleser, </t>
+          <t>A. Hoffmann, C. A. Faust-Christmann, G. Zolynski, and G. Bleser,</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -6352,11 +6637,7 @@
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JMIR </t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
@@ -6394,15 +6675,15 @@
           <t>Toward gamified pain management apps: mobile application rating scale⇓based quality assessment of pain-mentor⇔s first prototype through an expert study</t>
         </is>
       </c>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2196/13170</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>nan; Venue; Authors; References; Year; Bibtex; Link</t>
+          <t>nan; Venue; Authors; References; Pages; Year; Bibtex; Link; Publisher</t>
         </is>
       </c>
     </row>
@@ -6426,10 +6707,14 @@
           <t>While information and communication technologies are being widely used in healthcare domain to treat diseases, now it is also the time for applying those technologies to support preventative care for healthy populations. In this paper, we are going to share our experiences from the practice of building a behavior change application system called wellness diary system by using both Web and mobile technologies. The system targets at both healthy populations and healthcare professionals providing services. This paper not only aims for sharing the experiences, but also intends to discuss some foreseen challenges and opportunities that will have important impacts on the further of the system.</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Information technology;Communications technology;Medical services;Diseases;Public healthcare;Biomedical engineering;Design engineering;Protection;Data security;Information security</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Yaojin Yang</t>
+          <t>Yang, Yaojin</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6444,11 +6729,32 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.Verheijden, M. W. 2007. Behavior Change through ICT Use: Experiences from Relatively Healthy Populations. Web Mobile-Based Applications for Healthcare Management. IRM Press. 118-141. CrossRef  Google Scholar; 2.Abrams, D. B., Emmons, K. M., &amp; Linnan, L. A. 1997. Health behavior and health, education: The past, present, and future. In K. Glanz, F. M. Lewis, &amp; B. K. Rimer (Eds.), Health behavior and health education: Theory, research, and practice. San Francisco: Jossey-Bass. 453-478. Google Scholar; 3.Al-hakim, L. 2007. Preface. Web Mobile-Based Applications for Healthcare Management. IRM Press, x-xxiv; 4.Koskinen, E., Salminen, J. 2007. A customizable mobile tool for supporting health behavior interventions. In Proceedings of the 29th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC'2007), Lyon, France. View Article  Google Scholar; 5.Manila, E., Koskelo, J., Lappalainen, R., Salminen, J., Nyman, P., Lähteenmäki, J., Korhonen, I. 2007. A Concept for ICT-assisted Health Promotion in the Occupational Healthcare. In Proceedings of the 29th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC'2007), Lyon, France. Google Scholar; 6.Yang, Y., Ahtinen, A., Lähteenmäki, J., Nyman, P., Paajanen, H., Peltoniemi, T., Quiroz, C. 2007. A Service Platform Architecture Design towards a Light Integration, of Heterogeneous Systems in the Wellbeing Domain. In Proceedings of the 29th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC'2007), Lyon, France. View Article  Google Scholar; 7.Boutelle, K. N., Kirschenbaum, D. S., Baker, R. C., Mitchell, M. E. 1999. How can obese weight controllers minimize weight gain during the high risk holiday season? By Self-monitoring Very Consistently. Healthy Psychology, vol. 18, no 4. 364-368. CrossRef  Google Scholar; 8.McGuire, M. T., Wing, R. R., Klem ML, Hill JO. 1999. Behavioral strategies of individuals who have maintained long-term weight losses. Obesity Research, vol 7, no 4, 334-341. CrossRef  Google Scholar; 9.Lappalainen, R., Pulkkinen, P., Van Gils, M., Pärkkä, J., Korhonen, I. 2005. Long-term Self-monitoring of weight: a case study. Cognitive Behaviour Therapy, vol 34, no 2. 108-114. CrossRef  Google Scholar; 10.Linde, J, A., Jeffery, R. W., French, S. A., Pronk, N. P., Boyle, R. G. 2005. Self-weighing in weight gain prevention and weight loss trials. Annals of Behavioral Medicine, vol 30, no 3. 210-216. CrossRef  Google Scholar; 11.Jeffery, R. W. 2004. How can Health Behavior Theory be made more useful for intervention research. International Journal of Behavioral Nutrition and Physical Activi, vol 1, no 10. 10-19. CrossRef  Google Scholar; 12.http://www.s60.com/; 13.Pree, W. 1994. Meta Patterns - A Means for Capturing the Essentials of Reusable Object-Oriented Design, In Proceedings of ECOOP'94, Bologna, Italy. 150-162. CrossRef  Google Scholar; 14.http://www.springframework.org/; 15.http://acegisecur.ity.org/; 16.http://java.sun.corn/javaee/overview/faq/persistence.jsp; 17.Suomi, R., Serkkola, A. 2007. Rescheduling Dental care with GSM-BASED Text Messages. Web Mobile-Based Applications for Healthcare Management. IRM. Press. 335-353. CrossRef  Google Scholar; 18.Jones, V., Incardona, F., Tristram, C., Virtuoso, S., Lymberis, A. 2006. Future Challenges and Recommendations. Springer Science+Business Media, Lnc. 267-270. CrossRef  Google Scholar; 19.http://www.funambol.com/; 20.http://www.revolutionhealth.com/; 21.http://dailystrength.org/; 22.http://www.stickk.com/</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>1.Verheijden, M. W. 2007. Behavior Change through ICT Use: Experiences from Relatively Healthy Populations. Web Mobile-Based Applications for Healthcare Management. IRM Press. 118-141. CrossRef  Google Scholar; 2.Abrams, D. B., Emmons, K. M., &amp; Linnan, L. A. 1997. Health behavior and health, education: The past, present, and future. In K. Glanz, F. M. Lewis, &amp; B. K. Rimer (Eds.), Health behavior and health education: Theory, research, and practice. San Francisco: Jossey-Bass. 453-478. Google Scholar; 3.Al-hakim, L. 2007. Preface. Web Mobile-Based Applications for Healthcare Management. IRM Press, x-xxiv; 4.Koskinen, E., Salminen, J. 2007. A customizable mobile tool for supporting health behavior interventions. In Proceedings of the 29th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC'2007), Lyon, France. View Article  Google Scholar; 5.Manila, E., Koskelo, J., Lappalainen, R., Salminen, J., Nyman, P., Lahteenmaki, J., Korhonen, I. 2007. A Concept for ICT-assisted Health Promotion in the Occupational Healthcare. In Proceedings of the 29th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC'2007), Lyon, France. Google Scholar; 6.Yang, Y., Ahtinen, A., Lahteenmaki, J., Nyman, P., Paajanen, H., Peltoniemi, T., Quiroz, C. 2007. A Service Platform Architecture Design towards a Light Integration, of Heterogeneous Systems in the Wellbeing Domain. In Proceedings of the 29th Annual International Conference of the IEEE Engineering in Medicine and Biology Society (EMBC'2007), Lyon, France. View Article  Google Scholar; 7.Boutelle, K. N., Kirschenbaum, D. S., Baker, R. C., Mitchell, M. E. 1999. How can obese weight controllers minimize weight gain during the high risk holiday season? By Self-monitoring Very Consistently. Healthy Psychology, vol. 18, no 4. 364-368. CrossRef  Google Scholar; 8.McGuire, M. T., Wing, R. R., Klem ML, Hill JO. 1999. Behavioral strategies of individuals who have maintained long-term weight losses. Obesity Research, vol 7, no 4, 334-341. CrossRef  Google Scholar; 9.Lappalainen, R., Pulkkinen, P., Van Gils, M., Parkka, J., Korhonen, I. 2005. Long-term Self-monitoring of weight: a case study. Cognitive Behaviour Therapy, vol 34, no 2. 108-114. CrossRef  Google Scholar; 10.Linde, J, A., Jeffery, R. W., French, S. A., Pronk, N. P., Boyle, R. G. 2005. Self-weighing in weight gain prevention and weight loss trials. Annals of Behavioral Medicine, vol 30, no 3. 210-216. CrossRef  Google Scholar; 11.Jeffery, R. W. 2004. How can Health Behavior Theory be made more useful for intervention research. International Journal of Behavioral Nutrition and Physical Activi, vol 1, no 10. 10-19. CrossRef  Google Scholar; 12.http://www.s60.com/; 13.Pree, W. 1994. Meta Patterns - A Means for Capturing the Essentials of Reusable Object-Oriented Design, In Proceedings of ECOOP'94, Bologna, Italy. 150-162. CrossRef  Google Scholar; 14.http://www.springframework.org/; 15.http://acegisecur.ity.org/; 16.http://java.sun.corn/javaee/overview/faq/persistence.jsp; 17.Suomi, R., Serkkola, A. 2007. Rescheduling Dental care with GSM-BASED Text Messages. Web Mobile-Based Applications for Healthcare Management. IRM. Press. 335-353. CrossRef  Google Scholar; 18.Jones, V., Incardona, F., Tristram, C., Virtuoso, S., Lymberis, A. 2006. Future Challenges and Recommendations. Springer Science+Business Media, Lnc. 267-270. CrossRef  Google Scholar; 19.http://www.funambol.com/; 20.http://www.revolutionhealth.com/; 21.http://dailystrength.org/; 22.http://www.stickk.com/</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>491-494</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{4570573,
+    author = "Yang, Yaojin",
+    booktitle = "2008 International Conference on Information Technology and Applications in Biomedicine",
+    title = "The design and implementation of a web mobile-based behavior change application system",
+    year = "2008",
+    volume = "",
+    number = "",
+    pages = "491-494",
+    abstract = "While information and communication technologies are being widely used in healthcare domain to treat diseases, now it is also the time for applying those technologies to support preventative care for healthy populations. In this paper, we are going to share our experiences from the practice of building a behavior change application system called wellness diary system by using both Web and mobile technologies. The system targets at both healthy populations and healthcare professionals providing services. This paper not only aims for sharing the experiences, but also intends to discuss some foreseen challenges and opportunities that will have important impacts on the further of the system.",
+    keywords = "Information technology;Communications technology;Medical services;Diseases;Public healthcare;Biomedical engineering;Design engineering;Protection;Data security;Information security",
+    doi = "10.1109/ITAB.2008.4570573",
+    ISSN = "2168-2208",
+    month = "May"
+}</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -6467,7 +6773,7 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sharing the experiences,</t>
+          <t>sharing the experiences,</t>
         </is>
       </c>
       <c r="R55" t="n">
@@ -6475,7 +6781,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -6484,17 +6790,17 @@
           <t>The design and implementation of a Web mobile-based behavior change application system</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/4570573</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6513,13 +6819,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AbstractBackground:Interactive Health Communication Applications (IHCAs) are computer-based, usually web-based, information packages for patients that combine health information with at least one of social support, decision support, or behaviour change support. These are innovations in health care and their effects on health are uncertain.Objectives:To assess the effects of IHCAs for people with chronic disease.Search strategy:We designed a four-part search strategy. First, we searched electronic bibliographic databases for published work; second, we searched the grey literature; and third, we searched for ongoing and recently completed clinical trials in the appropriate databases. Finally, researchers of included studies were contacted, and reference lists from relevant primary and review articles were followed up. As IHCAs require relatively new technology, the search time period commenced at 1990, where possible, and ran until 31 December 2003.Selection criteria:Randomised controlled trials (RCTs) of IHCAs for adults and children with chronic disease.Data collection and analysis:One reviewer screened abstracts for relevance. Two reviewers screened all candidate studies to determine eligibility, apply quality criteria, and extract data from included studies. Authors of included RCTs were contacted for missing data. Results of RCTs were pooled using random-effects model with standardised mean differences (SMDs) for continuous outcomes and odds ratios for binary outcomes; heterogeneity was assessed using the I(2 )statistic.Main results:We identified 24 RCTs involving 3739 participants which were included in the review.IHCAs had a significant positive effect on knowledge (SMD 0.46; 95% confidence interval (CI) 0.22 to 0.69), social support (SMD 0.35; 95% CI 0.18 to 0.52) and clinical outcomes (SMD 0.18; 95% CI 0.01 to 0.35). Results suggest it is more likely than not that IHCAs have a positive effect on self-efficacy (a person's belief in their capacity to carry out a specific action) (SMD 0.24; 95% CI 0.00 to 0.48). IHCAs had a significant positive effect on continuous behavioural outcomes (SMD 0.20; 95% CI 0.01 to 0.40). Binary behavioural outcomes also showed a positive effect for IHCAs, although this result was not statistically significant (OR 1.66; 95% CI 0.71 to 3.87). It was not possible to determine the effects of IHCAs on emotional or economic outcomes.Authors' conclusions:IHCAs appear to have largely positive effects on users, in that users tend to become more knowledgeable, feel better socially supported, and may have improved behavioural and clinical outcomes compared to non-users. There is a need for more high quality studies with large sample sizes to confirm these preliminary findings, to determine the best type and best way to deliver IHCAs, and to establish how IHCAs have their effects for different groups of people with chronic illness.</t>
+          <t>Background:Interactive Health Communication Applications (IHCAs) are computer-based, usually web-based, information packages for patients that combine health information with at least one of social support, decision support, or behaviour change support. These are innovations in health care and their effects on health are uncertain.Objectives:To assess the effects of IHCAs for people with chronic disease.Search strategy:We designed a four-part search strategy. First, we searched electronic bibliographic databases for published work; second, we searched the grey literature; and third, we searched for ongoing and recently completed clinical trials in the appropriate databases. Finally, researchers of included studies were contacted, and reference lists from relevant primary and review articles were followed up. As IHCAs require relatively new technology, the search time period commenced at 1990, where possible, and ran until 31 December 2003.Selection criteria:Randomised controlled trials (RCTs) of IHCAs for adults and children with chronic disease.Data collection and analysis:One reviewer screened abstracts for relevance. Two reviewers screened all candidate studies to determine eligibility, apply quality criteria, and extract data from included studies. Authors of included RCTs were contacted for missing data. Results of RCTs were pooled using random-effects model with standardised mean differences (SMDs) for continuous outcomes and odds ratios for binary outcomes; heterogeneity was assessed using the I(2 )statistic.Main results:We identified 24 RCTs involving 3739 participants which were included in the review.IHCAs had a significant positive effect on knowledge (SMD 0.46; 95% confidence interval (CI) 0.22 to 0.69), social support (SMD 0.35; 95% CI 0.18 to 0.52) and clinical outcomes (SMD 0.18; 95% CI 0.01 to 0.35). Results suggest it is more likely than not that IHCAs have a positive effect on self-efficacy (a person's belief in their capacity to carry out a specific action) (SMD 0.24; 95% CI 0.00 to 0.48). IHCAs had a significant positive effect on continuous behavioural outcomes (SMD 0.20; 95% CI 0.01 to 0.40). Binary behavioural outcomes also showed a positive effect for IHCAs, although this result was not statistically significant (OR 1.66; 95% CI 0.71 to 3.87). It was not possible to determine the effects of IHCAs on emotional or economic outcomes.Authors' conclusions:IHCAs appear to have largely positive effects on users, in that users tend to become more knowledgeable, feel better socially supported, and may have improved behavioural and clinical outcomes compared to non-users. There is a need for more high quality studies with large sample sizes to confirm these preliminary findings, to determine the best type and best way to deliver IHCAs, and to establish how IHCAs have their effects for different groups of people with chronic illness.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>E Murray1,; J Burns,; Tai S See,; R Lai,; I Nazareth; E Murrayet al.; E Murray1,; J Burns,; Tai S See,; R Lai,; I Nazareth</t>
+          <t>E Murray; J Burns; Tai S See; R Lai; I Nazareth; E Murrayet al.; E Murray; J Burns; Tai S See; R Lai; I Nazareth</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -6535,7 +6841,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>:(4):CD004274</t>
+          <t>CD004274</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
@@ -6574,7 +6880,11 @@
           <t>Interactive health communication applications for people with chronic disease</t>
         </is>
       </c>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://doi.org/DOI:10.1002/14651858.CD004274.pub4</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
@@ -6599,12 +6909,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Background: Although there is a rise in the use of mobile health (mHealth) tools to support chronic disease management, evidence derived from theory-driven design is lacking. Objective: The objective of this study was to determine the impact of an mHealth app that incorporated theory-driven trigger messages. These messages took different forms following the Fogg behavior model (FBM) and targeted self-efficacy, knowledge, and self-care. We assess the feasibility of our app in modifying these behaviors in a pilot study involving individuals with diabetes. Methods: The pilot randomized unblinded study comprised two cohorts recruited as employees from within a health care system. In total, 20 patients with type 2 diabetes were recruited for the study and a within-subjects design was utilized. Each participant interacted with an app called capABILITY. capABILITY and its affiliated trigger (text) messages integrate components from social cognitive theory (SCT), FBM, and persuasive technology into the interactive health communications framework. In this within-subjects design, participants interacted with the capABILITY app and received (or did not receive) text messages in alternative blocks. The capABILITY app alone was the control condition along with trigger messages including spark and facilitator messages. A repeated-measures analysis of variance (ANOVA) was used to compare adherence with behavioral measures and engagement with the mobile app across conditions. A paired sample t test was utilized on each health outcome to determine changes related to capABILITY intervention, as well as participants' classified usage of capABILITY. Results: Pre- and postintervention results indicated statistical significance on 3 of the 7 health survey measures (general diet: P=.03; exercise: P=.005; and blood glucose: P=.02). When only analyzing the high and midusers (n=14) of capABILITY, we found a statistically significant difference in both self-efficacy (P=.008) and exercise (P=.01). Although the ANOVA did not reveal any statistically significant differences across groups, there is a trend among spark conditions to respond more quickly (ie, shorter log-in lag) following the receipt of the message. Conclusions: Our theory-driven mHealth app appears to be a feasible means of improving self-efficacy and health-related behaviors. Although our sample size is too small to draw conclusions about the differential impact of specific forms of trigger messages, our findings suggest that spark triggers may have the ability to cue engagement in mobile tools. This was demonstrated with the increased use of capABILITY at the beginning and conclusion of the study depending on spark timing. Our results suggest that theory-driven personalization of mobile tools is a viable form of intervention. © Scott Sittig, Jing Wang, Sriram Iyengar, Sahiti Myneni, Amy Franklin. Originally published in JMIR mHealth and uHealth (http://mhealth.jmir.org), 16.03.2020. This is an open-access article distributed under the terms of the Creative Commons Attribution License (https://creativecommons.org/licenses/by/4.0/), which permits unrestricted use, distribution, and reproduction in any medium, provided the original work, first published in JMIR mHealth and uHealth, is properly cited. The complete bibliographic information, a link to the original publication on http://mhealth.jmir.org/, as well as this copyright and license information must be included.</t>
+          <t>Background: Although there is a rise in the use of mobile health (mHealth) tools to support chronic disease management, evidence derived from theory-driven design is lacking. Objective: The objective of this study was to determine the impact of an mHealth app that incorporated theory-driven trigger messages. These messages took different forms following the Fogg behavior model (FBM) and targeted self-efficacy, knowledge, and self-care. We assess the feasibility of our app in modifying these behaviors in a pilot study involving individuals with diabetes. Methods: The pilot randomized unblinded study comprised two cohorts recruited as employees from within a health care system. In total, 20 patients with type 2 diabetes were recruited for the study and a within-subjects design was utilized. Each participant interacted with an app called capABILITY. capABILITY and its affiliated trigger (text) messages integrate components from social cognitive theory (SCT), FBM, and persuasive technology into the interactive health communications framework. In this within-subjects design, participants interacted with the capABILITY app and received (or did not receive) text messages in alternative blocks. The capABILITY app alone was the control condition along with trigger messages including spark and facilitator messages. A repeated-measures analysis of variance (ANOVA) was used to compare adherence with behavioral measures and engagement with the mobile app across conditions. A paired sample t test was utilized on each health outcome to determine changes related to capABILITY intervention, as well as participants' classified usage of capABILITY. Results: Pre- and postintervention results indicated statistical significance on 3 of the 7 health survey measures (general diet: P=.03; exercise: P=.005; and blood glucose: P=.02). When only analyzing the high and midusers (n=14) of capABILITY, we found a statistically significant difference in both self-efficacy (P=.008) and exercise (P=.01). Although the ANOVA did not reveal any statistically significant differences across groups, there is a trend among spark conditions to respond more quickly (ie, shorter log-in lag) following the receipt of the message. Conclusions: Our theory-driven mHealth app appears to be a feasible means of improving self-efficacy and health-related behaviors. Although our sample size is too small to draw conclusions about the differential impact of specific forms of trigger messages, our findings suggest that spark triggers may have the ability to cue engagement in mobile tools. This was demonstrated with the increased use of capABILITY at the beginning and conclusion of the study depending on spark timing. Our results suggest that theory-driven personalization of mobile tools is a viable form of intervention.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus, Type 2; Feasibility Studies; Humans; Mobile Applications; Pilot Projects; Telemedicine; controlled study; feasibility study; human; mobile application; non insulin dependent diabetes mellitus; pilot study; randomized controlled trial; telemedicine</t>
+          <t>Diabetes Mellitus;  Type 2; Feasibility Studies; Humans; Mobile Applications; Pilot Projects; Telemedicine; controlled study; feasibility study; human; mobile application; non insulin dependent diabetes mellitus; pilot study; randomized controlled trial; telemedicine</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6626,7 +6936,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Sittig2020,
+          <t>@ARTICLE{Sittig2020,
     author = "Sittig, Scott and Wang, Jing and Iyengar, Sriram and Myneni, Sahiti and Franklin, Amy",
     title = "Incorporating behavioral trigger messages into a mobile health app for chronic disease management: Randomized clinical feasibility trial in diabetes",
     year = "2020",
@@ -6636,7 +6946,7 @@
     doi = "10.2196/15927",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85081974214\&amp;doi=10.2196\%2f15927\&amp;partnerID=40\&amp;md5=887ec89722e8625743598c202c86c922",
     affiliations = "School of Computing, University of South Alabama, Mobile, AL, United States; School of Nursing, University of Texas Health Science Center at San Antonio, San Antonio, TX, United States; College of Medicine Phoenix, University of Arizona, Phoenix, AZ, United States; School of Biomedical Informatics, University of Texas Health Science Center Houston, Houston, TX, United States",
-    abstract = "Background: Although there is a rise in the use of mobile health (mHealth) tools to support chronic disease management, evidence derived from theory-driven design is lacking. Objective: The objective of this study was to determine the impact of an mHealth app that incorporated theory-driven trigger messages. These messages took different forms following the Fogg behavior model (FBM) and targeted self-efficacy, knowledge, and self-care. We assess the feasibility of our app in modifying these behaviors in a pilot study involving individuals with diabetes. Methods: The pilot randomized unblinded study comprised two cohorts recruited as employees from within a health care system. In total, 20 patients with type 2 diabetes were recruited for the study and a within-subjects design was utilized. Each participant interacted with an app called capABILITY. capABILITY and its affiliated trigger (text) messages integrate components from social cognitive theory (SCT), FBM, and persuasive technology into the interactive health communications framework. In this within-subjects design, participants interacted with the capABILITY app and received (or did not receive) text messages in alternative blocks. The capABILITY app alone was the control condition along with trigger messages including spark and facilitator messages. A repeated-measures analysis of variance (ANOVA) was used to compare adherence with behavioral measures and engagement with the mobile app across conditions. A paired sample t test was utilized on each health outcome to determine changes related to capABILITY intervention, as well as participants' classified usage of capABILITY. Results: Pre- and postintervention results indicated statistical significance on 3 of the 7 health survey measures (general diet: P=.03; exercise: P=.005; and blood glucose: P=.02). When only analyzing the high and midusers (n=14) of capABILITY, we found a statistically significant difference in both self-efficacy (P=.008) and exercise (P=.01). Although the ANOVA did not reveal any statistically significant differences across groups, there is a trend among spark conditions to respond more quickly (ie, shorter log-in lag) following the receipt of the message. Conclusions: Our theory-driven mHealth app appears to be a feasible means of improving self-efficacy and health-related behaviors. Although our sample size is too small to draw conclusions about the differential impact of specific forms of trigger messages, our findings suggest that spark triggers may have the ability to cue engagement in mobile tools. This was demonstrated with the increased use of capABILITY at the beginning and conclusion of the study depending on spark timing. Our results suggest that theory-driven personalization of mobile tools is a viable form of intervention. © Scott Sittig, Jing Wang, Sriram Iyengar, Sahiti Myneni, Amy Franklin. Originally published in JMIR mHealth and uHealth (http://mhealth.jmir.org), 16.03.2020. This is an open-access article distributed under the terms of the Creative Commons Attribution License (https://creativecommons.org/licenses/by/4.0/), which permits unrestricted use, distribution, and reproduction in any medium, provided the original work, first published in JMIR mHealth and uHealth, is properly cited. The complete bibliographic information, a link to the original publication on http://mhealth.jmir.org/, as well as this copyright and license information must be included.",
+    abstract = "Background: Although there is a rise in the use of mobile health (mHealth) tools to support chronic disease management, evidence derived from theory-driven design is lacking. Objective: The objective of this study was to determine the impact of an mHealth app that incorporated theory-driven trigger messages. These messages took different forms following the Fogg behavior model (FBM) and targeted self-efficacy, knowledge, and self-care. We assess the feasibility of our app in modifying these behaviors in a pilot study involving individuals with diabetes. Methods: The pilot randomized unblinded study comprised two cohorts recruited as employees from within a health care system. In total, 20 patients with type 2 diabetes were recruited for the study and a within-subjects design was utilized. Each participant interacted with an app called capABILITY. capABILITY and its affiliated trigger (text) messages integrate components from social cognitive theory (SCT), FBM, and persuasive technology into the interactive health communications framework. In this within-subjects design, participants interacted with the capABILITY app and received (or did not receive) text messages in alternative blocks. The capABILITY app alone was the control condition along with trigger messages including spark and facilitator messages. A repeated-measures analysis of variance (ANOVA) was used to compare adherence with behavioral measures and engagement with the mobile app across conditions. A paired sample t test was utilized on each health outcome to determine changes related to capABILITY intervention, as well as participants' classified usage of capABILITY. Results: Pre- and postintervention results indicated statistical significance on 3 of the 7 health survey measures (general diet: P=.03; exercise: P=.005; and blood glucose: P=.02). When only analyzing the high and midusers (n=14) of capABILITY, we found a statistically significant difference in both self-efficacy (P=.008) and exercise (P=.01). Although the ANOVA did not reveal any statistically significant differences across groups, there is a trend among spark conditions to respond more quickly (ie, shorter log-in lag) following the receipt of the message. Conclusions: Our theory-driven mHealth app appears to be a feasible means of improving self-efficacy and health-related behaviors. Although our sample size is too small to draw conclusions about the differential impact of specific forms of trigger messages, our findings suggest that spark triggers may have the ability to cue engagement in mobile tools. This was demonstrated with the increased use of capABILITY at the beginning and conclusion of the study depending on spark timing. Our results suggest that theory-driven personalization of mobile tools is a viable form of intervention. (c) Scott Sittig, Jing Wang, Sriram Iyengar, Sahiti Myneni, Amy Franklin. Originally published in JMIR mHealth and uHealth (http://mhealth.jmir.org), 16.03.2020. This is an open-access article distributed under the terms of the Creative Commons Attribution License (https://creativecommons.org/licenses/by/4.0/), which permits unrestricted use, distribution, and reproduction in any medium, provided the original work, first published in JMIR mHealth and uHealth, is properly cited. The complete bibliographic information, a link to the original publication on http://mhealth.jmir.org/, as well as this copyright and license information must be included.",
     author_keywords = "Fogg behavior model; Interactive health communication application; Knowledge; Messages; MHealth; Persuasive technology; Self-efficacy; Self-management; Social cognitive theory; Triggers",
     keywords = "Diabetes Mellitus, Type 2; Feasibility Studies; Humans; Mobile Applications; Pilot Projects; Telemedicine; controlled study; feasibility study; human; mobile application; non insulin dependent diabetes mellitus; pilot study; randomized controlled trial; telemedicine",
     correspondence_address = "S. Sittig; School of Computing, University of South Alabama, Mobile, 150 Jaguar Drive, 36688, United States; email: sittig@southalabama.edu",
@@ -6649,8 +6959,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 29; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -6671,7 +6980,7 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> theory-driven trigger messages.</t>
+          <t>theory-driven trigger messages.</t>
         </is>
       </c>
       <c r="R57" t="n">
@@ -6679,7 +6988,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -6690,12 +6999,12 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85081974214&amp;doi=10.2196%2f15927&amp;partnerID=40&amp;md5=887ec89722e8625743598c202c86c922</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85081974214&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=e0d388cb3bc2ff082ed2e01ffdd8040d&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28incorporating+behavioral+trigger+messages+into+a+mobile+health+app+for+chronic+disease+management+randomized+clinical+feasibility+trial+in+diabetes%29&amp;sl=162&amp;sessionSearchId=e0d388cb3bc2ff082ed2e01ffdd8040d&amp;relpos=0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
@@ -6721,12 +7030,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Background: Self-management skills are essential for patients with diabetes mellitus to minimise the risks of complications from their condition. The aim of this research was to develop a web-based application for self-management of type 1 diabetes, suitable for use by patients, their carers and physicians. Method: The study was comprised of two phases, the first being analysis of the kind of information and capabilities required by potential users of the system. Based on the results derived from the first phase of the study, the system prototype was designed and then evaluated using the ‘think aloud’ method and a standard questionnaire. The application was designed for use by patients, their carers and physicians. Patients could enter the level of blood glucose, insulin and activities on a daily basis, and physicians were able to supervise a patient’s health status from a distance. Results: Users were generally satisfied with the final version of the system. People with a wide range of literacy skills were able to use the system effectively. Conclusion: Patients or their carers could use the web-based application as a log book by entering the level of blood glucose and insulin doses on a regular basis, and as an educational resource to improve self-management skills. Physicians could use the system at any time convenient to them to support patients by giving medical advice. Further research is needed to report the effectiveness of the system in practice. © The Author(s) 2016.</t>
+          <t>Background: Self-management skills are essential for patients with diabetes mellitus to minimise the risks of complications from their condition. The aim of this research was to develop a web-based application for self-management of type 1 diabetes, suitable for use by patients, their carers and physicians. Method: The study was comprised of two phases, the first being analysis of the kind of information and capabilities required by potential users of the system. Based on the results derived from the first phase of the study, the system prototype was designed and then evaluated using the 'think aloud' method and a standard questionnaire. The application was designed for use by patients, their carers and physicians. Patients could enter the level of blood glucose, insulin and activities on a daily basis, and physicians were able to supervise a patient's health status from a distance. Results: Users were generally satisfied with the final version of the system. People with a wide range of literacy skills were able to use the system effectively. Conclusion: Patients or their carers could use the web-based application as a log book by entering the level of blood glucose and insulin doses on a regular basis, and as an educational resource to improve self-management skills. Physicians could use the system at any time convenient to them to support patients by giving medical advice. Further research is needed to report the effectiveness of the system in practice.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Diabetes Mellitus, Type 1; Humans; Internet; Self Care; Self-Management; Telemedicine; human; insulin dependent diabetes mellitus; Internet; self care; telemedicine</t>
+          <t>Diabetes Mellitus;  Type 1; Humans; Internet; Self Care; Self-Management; Telemedicine; human; insulin dependent diabetes mellitus; Internet; self care; telemedicine</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -6747,23 +7056,23 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>16 – 26</t>
+          <t>16 - 26</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Ayatollahi201616,
+          <t>@ARTICLE{Ayatollahi201616,
     author = "Ayatollahi, Haleh and Hasannezhad, Mostafa and Fard, Hedieh Saneei and Haghighi, Mehran Kamkar",
     title = "Type I diabetes self-management: Developing a web-based telemedicine application",
     year = "2016",
     journal = "Health Information Management Journal",
     volume = "45",
     number = "1",
-    pages = "16 – 26",
+    pages = "16 - 26",
     doi = "10.1177/1833358316639456",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84968611275\&amp;doi=10.1177\%2f1833358316639456\&amp;partnerID=40\&amp;md5=2c90474864e2725f50ab614b17a22add",
     affiliations = "Department of Health Information Management, Iran University of Medical Sciences, Tehran, Iran; Paediatric Endocrinology \&amp; Metabolism, Imam Hossein Hospital, Shahid Beheshti University of Medical Sciences, Tehran, Iran",
-    abstract = "Background: Self-management skills are essential for patients with diabetes mellitus to minimise the risks of complications from their condition. The aim of this research was to develop a web-based application for self-management of type 1 diabetes, suitable for use by patients, their carers and physicians. Method: The study was comprised of two phases, the first being analysis of the kind of information and capabilities required by potential users of the system. Based on the results derived from the first phase of the study, the system prototype was designed and then evaluated using the ‘think aloud’ method and a standard questionnaire. The application was designed for use by patients, their carers and physicians. Patients could enter the level of blood glucose, insulin and activities on a daily basis, and physicians were able to supervise a patient’s health status from a distance. Results: Users were generally satisfied with the final version of the system. People with a wide range of literacy skills were able to use the system effectively. Conclusion: Patients or their carers could use the web-based application as a log book by entering the level of blood glucose and insulin doses on a regular basis, and as an educational resource to improve self-management skills. Physicians could use the system at any time convenient to them to support patients by giving medical advice. Further research is needed to report the effectiveness of the system in practice. © The Author(s) 2016.",
+    abstract = "Background: Self-management skills are essential for patients with diabetes mellitus to minimise the risks of complications from their condition. The aim of this research was to develop a web-based application for self-management of type 1 diabetes, suitable for use by patients, their carers and physicians. Method: The study was comprised of two phases, the first being analysis of the kind of information and capabilities required by potential users of the system. Based on the results derived from the first phase of the study, the system prototype was designed and then evaluated using the 'think aloud' method and a standard questionnaire. The application was designed for use by patients, their carers and physicians. Patients could enter the level of blood glucose, insulin and activities on a daily basis, and physicians were able to supervise a patient's health status from a distance. Results: Users were generally satisfied with the final version of the system. People with a wide range of literacy skills were able to use the system effectively. Conclusion: Patients or their carers could use the web-based application as a log book by entering the level of blood glucose and insulin doses on a regular basis, and as an educational resource to improve self-management skills. Physicians could use the system at any time convenient to them to support patients by giving medical advice. Further research is needed to report the effectiveness of the system in practice. (c) The Author(s) 2016.",
     author_keywords = "Chronic disease; Disease management; Health information management; Iran; Self-management; Telemedicine; Type 1 diabetes mellitus",
     keywords = "Diabetes Mellitus, Type 1; Humans; Internet; Self Care; Self-Management; Telemedicine; human; insulin dependent diabetes mellitus; Internet; self care; telemedicine",
     correspondence_address = "H. Ayatollahi; Department of Health Information Management, Iran University of Medical Sciences, Tehran, Iran; email: ayatollahi.h@iums.ac.ir",
@@ -6776,8 +7085,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 26"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -6808,7 +7116,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -6819,7 +7127,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84968611275&amp;doi=10.1177%2f1833358316639456&amp;partnerID=40&amp;md5=2c90474864e2725f50ab614b17a22add</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84968611275&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=3692996af73a15826a90171b35f21a22&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28type+i+diabetes+self+management+developing+a+web+based+telemedicine+application%29&amp;sl=94&amp;sessionSearchId=3692996af73a15826a90171b35f21a22&amp;relpos=0</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -6850,17 +7158,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Background: The prevalence of chronic diseases such as type 2 diabetes and chronic low back pain is rising. Patient empowerment is a key strategy in the management of chronic diseases. Patient empowerment can be fostered by Web-based interactive health communication applications (IHCAs) that combine health information with decision support, social support, and/or behavioral change support. Tailoring the content and tone of IHCAs to the needs of individual patients might improve their effectiveness. Objective: The main objective was to test the effectiveness of a Web-based, tailored, fully automated IHCA for patients with type 2 diabetes or chronic low back pain against a standard website with identical content without tailoring (control condition) on patients' knowledge and empowerment. Methods: We performed a blinded randomized trial with a parallel design. In the intervention group, the content was delivered in dialogue form, tailored to relevant patient characteristics. In the control group, the sections of the text were presented in a content tree without any tailoring. Participants were recruited online and offline and were blinded to their group assignments. Measurements were taken at baseline (t0), directly after the first visit (t1), and at 3-month follow-up (t2). The primary hypothesis was that the tailored IHCA would have larger effects on knowledge and patient empowerment (primary outcomes) than the control website. The secondary outcomes were decisional conflict and preparation for decision making. All measurements were conducted by online self-report questionnaires. Intention-to-treat (ITT) and available cases (AC) analyses were performed for all outcomes. Results: A total of 561 users agreed to participate in the study. Of these, 179 (31.9%) had type 2 diabetes and 382 (68.1%) had chronic low back pain. Usage was significantly higher in the tailored system (mean 51.2 minutes) than in the control system (mean 37.6 minutes; P&lt;.001). Three months after system use, 52.4% of the sample was retained. There was no significant intervention effect in the ITT analysis. In the AC analysis, participants using the tailored system displayed significantly more knowledge at t1 (P=.02) and more emotional well-being (subscale of empowerment) at t2 (P=.009). The estimated mean difference between the groups was 3.9 (95% CI 0.5-7.3) points for knowledge and 25.4 (95% CI 6.3-44.5) points for emotional well-being on a 0-100 points scale. Conclusions: The primary analysis did not support the study hypothesis. However, content tailoring and interactivity may increase knowledge and reduce health-related negative effects in persons who use IHCAs. There were no main effects of the intervention on other dimensions of patient empowerment or decision-related outcomes. This might be due to our tailored IHCA being, at its core, an educational intervention offering health information in a personalized, empathic fashion that merely additionally provides decision support. Tailoring and interactivity may not make a difference with regard to these outcomes.Trial Registration: International Clinical Trials Registry: DRKS00003322; http://apps.who.int/trialsearch/Trial2.aspx?TrialID=DRKS00003322 (Archived by WebCite at http://www.webcitation.org/6WPO0lJwE). © Nina Weymann, Jörg Dirmaier, Alessa von Wolff, Levente Kriston, Martin Härter.</t>
+          <t>Background: The prevalence of chronic diseases such as type 2 diabetes and chronic low back pain is rising. Patient empowerment is a key strategy in the management of chronic diseases. Patient empowerment can be fostered by Web-based interactive health communication applications (IHCAs) that combine health information with decision support, social support, and/or behavioral change support. Tailoring the content and tone of IHCAs to the needs of individual patients might improve their effectiveness. Objective: The main objective was to test the effectiveness of a Web-based, tailored, fully automated IHCA for patients with type 2 diabetes or chronic low back pain against a standard website with identical content without tailoring (control condition) on patients' knowledge and empowerment. Methods: We performed a blinded randomized trial with a parallel design. In the intervention group, the content was delivered in dialogue form, tailored to relevant patient characteristics. In the control group, the sections of the text were presented in a content tree without any tailoring. Participants were recruited online and offline and were blinded to their group assignments. Measurements were taken at baseline (t0), directly after the first visit (t1), and at 3-month follow-up (t2). The primary hypothesis was that the tailored IHCA would have larger effects on knowledge and patient empowerment (primary outcomes) than the control website. The secondary outcomes were decisional conflict and preparation for decision making. All measurements were conducted by online self-report questionnaires. Intention-to-treat (ITT) and available cases (AC) analyses were performed for all outcomes. Results: A total of 561 users agreed to participate in the study. Of these, 179 (31.9%) had type 2 diabetes and 382 (68.1%) had chronic low back pain. Usage was significantly higher in the tailored system (mean 51.2 minutes) than in the control system (mean 37.6 minutes; P&lt;.001). Three months after system use, 52.4% of the sample was retained. There was no significant intervention effect in the ITT analysis. In the AC analysis, participants using the tailored system displayed significantly more knowledge at t1 (P=.02) and more emotional well-being (subscale of empowerment) at t2 (P=.009). The estimated mean difference between the groups was 3.9 (95% CI 0.5-7.3) points for knowledge and 25.4 (95% CI 6.3-44.5) points for emotional well-being on a 0-100 points scale. Conclusions: The primary analysis did not support the study hypothesis. However, content tailoring and interactivity may increase knowledge and reduce health-related negative effects in persons who use IHCAs. There were no main effects of the intervention on other dimensions of patient empowerment or decision-related outcomes. This might be due to our tailored IHCA being, at its core, an educational intervention offering health information in a personalized, empathic fashion that merely additionally provides decision support. Tailoring and interactivity may not make a difference with regard to these outcomes.Trial Registration: International Clinical Trials Registry: DRKS00003322; http://apps.who.int/trialsearch/Trial2.aspx?TrialID=DRKS00003322 (Archived by WebCite at http://www.webcitation.org/6WPO0lJwE).</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Adult; Diabetes Mellitus, Type 2; Female; Health Communication; Humans; Internet; Low Back Pain; Male; Middle Aged; Patient Education as Topic; Power (Psychology); Self Care; Single-Blind Method; Social Support; Surveys and Questionnaires; adult; behavior; controlled study; female; human; Internet; low back pain; male; medical information; middle aged; non insulin dependent diabetes mellitus; patient education; questionnaire; randomized controlled trial; self care; single blind procedure; social support</t>
+          <t>Adult; Diabetes Mellitus;  Type 2; Female; Health Communication; Humans; Internet; Low Back Pain; Male; Middle Aged; Patient Education as Topic; Power (Psychology); Self Care; Single-Blind Method; Social Support; Surveys and Questionnaires; adult; behavior; controlled study; female; human; Internet; low back pain; male; medical information; middle aged; non insulin dependent diabetes mellitus; patient education; questionnaire; randomized controlled trial; self care; single blind procedure; social support</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Weymann, Nina; Dirmaier, Jörg; Von Wolff, Alessa; Kriston, Levente; Härter, Martin</t>
+          <t>Weymann, Nina; Dirmaier, Jorg; Von Wolff, Alessa; Kriston, Levente; Harter, Martin</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -6877,8 +7185,8 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Weymann2015,
-    author = "Weymann, Nina and Dirmaier, Jörg and Von Wolff, Alessa and Kriston, Levente and Härter, Martin",
+          <t>@ARTICLE{Weymann2015,
+    author = "Weymann, Nina and Dirmaier, Jorg and Von Wolff, Alessa and Kriston, Levente and Harter, Martin",
     title = "Effectiveness of a Web-based tailored interactive health communication application for patients with type 2 diabetes or chronic low back pain: Randomized controlled trial",
     year = "2015",
     journal = "Journal of Medical Internet Research",
@@ -6887,7 +7195,7 @@
     doi = "10.2196/jmir.3904",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84929666200\&amp;doi=10.2196\%2fjmir.3904\&amp;partnerID=40\&amp;md5=fd3070627c70f6b0e0000e1d53e4b967",
     affiliations = "Department of Medical Psychology, Center for Psychosocial Medicine, University Medical Center Hamburg-Eppendorf, Hamburg, Germany",
-    abstract = "Background: The prevalence of chronic diseases such as type 2 diabetes and chronic low back pain is rising. Patient empowerment is a key strategy in the management of chronic diseases. Patient empowerment can be fostered by Web-based interactive health communication applications (IHCAs) that combine health information with decision support, social support, and/or behavioral change support. Tailoring the content and tone of IHCAs to the needs of individual patients might improve their effectiveness. Objective: The main objective was to test the effectiveness of a Web-based, tailored, fully automated IHCA for patients with type 2 diabetes or chronic low back pain against a standard website with identical content without tailoring (control condition) on patients' knowledge and empowerment. Methods: We performed a blinded randomized trial with a parallel design. In the intervention group, the content was delivered in dialogue form, tailored to relevant patient characteristics. In the control group, the sections of the text were presented in a content tree without any tailoring. Participants were recruited online and offline and were blinded to their group assignments. Measurements were taken at baseline (t0), directly after the first visit (t1), and at 3-month follow-up (t2). The primary hypothesis was that the tailored IHCA would have larger effects on knowledge and patient empowerment (primary outcomes) than the control website. The secondary outcomes were decisional conflict and preparation for decision making. All measurements were conducted by online self-report questionnaires. Intention-to-treat (ITT) and available cases (AC) analyses were performed for all outcomes. Results: A total of 561 users agreed to participate in the study. Of these, 179 (31.9\%) had type 2 diabetes and 382 (68.1\%) had chronic low back pain. Usage was significantly higher in the tailored system (mean 51.2 minutes) than in the control system (mean 37.6 minutes; P&lt;.001). Three months after system use, 52.4\% of the sample was retained. There was no significant intervention effect in the ITT analysis. In the AC analysis, participants using the tailored system displayed significantly more knowledge at t1 (P=.02) and more emotional well-being (subscale of empowerment) at t2 (P=.009). The estimated mean difference between the groups was 3.9 (95\% CI 0.5-7.3) points for knowledge and 25.4 (95\% CI 6.3-44.5) points for emotional well-being on a 0-100 points scale. Conclusions: The primary analysis did not support the study hypothesis. However, content tailoring and interactivity may increase knowledge and reduce health-related negative effects in persons who use IHCAs. There were no main effects of the intervention on other dimensions of patient empowerment or decision-related outcomes. This might be due to our tailored IHCA being, at its core, an educational intervention offering health information in a personalized, empathic fashion that merely additionally provides decision support. Tailoring and interactivity may not make a difference with regard to these outcomes.Trial Registration: International Clinical Trials Registry: DRKS00003322; http://apps.who.int/trialsearch/Trial2.aspx?TrialID=DRKS00003322 (Archived by WebCite at http://www.webcitation.org/6WPO0lJwE). © Nina Weymann, Jörg Dirmaier, Alessa von Wolff, Levente Kriston, Martin Härter.",
+    abstract = "Background: The prevalence of chronic diseases such as type 2 diabetes and chronic low back pain is rising. Patient empowerment is a key strategy in the management of chronic diseases. Patient empowerment can be fostered by Web-based interactive health communication applications (IHCAs) that combine health information with decision support, social support, and/or behavioral change support. Tailoring the content and tone of IHCAs to the needs of individual patients might improve their effectiveness. Objective: The main objective was to test the effectiveness of a Web-based, tailored, fully automated IHCA for patients with type 2 diabetes or chronic low back pain against a standard website with identical content without tailoring (control condition) on patients' knowledge and empowerment. Methods: We performed a blinded randomized trial with a parallel design. In the intervention group, the content was delivered in dialogue form, tailored to relevant patient characteristics. In the control group, the sections of the text were presented in a content tree without any tailoring. Participants were recruited online and offline and were blinded to their group assignments. Measurements were taken at baseline (t0), directly after the first visit (t1), and at 3-month follow-up (t2). The primary hypothesis was that the tailored IHCA would have larger effects on knowledge and patient empowerment (primary outcomes) than the control website. The secondary outcomes were decisional conflict and preparation for decision making. All measurements were conducted by online self-report questionnaires. Intention-to-treat (ITT) and available cases (AC) analyses were performed for all outcomes. Results: A total of 561 users agreed to participate in the study. Of these, 179 (31.9\%) had type 2 diabetes and 382 (68.1\%) had chronic low back pain. Usage was significantly higher in the tailored system (mean 51.2 minutes) than in the control system (mean 37.6 minutes; P&lt;.001). Three months after system use, 52.4\% of the sample was retained. There was no significant intervention effect in the ITT analysis. In the AC analysis, participants using the tailored system displayed significantly more knowledge at t1 (P=.02) and more emotional well-being (subscale of empowerment) at t2 (P=.009). The estimated mean difference between the groups was 3.9 (95\% CI 0.5-7.3) points for knowledge and 25.4 (95\% CI 6.3-44.5) points for emotional well-being on a 0-100 points scale. Conclusions: The primary analysis did not support the study hypothesis. However, content tailoring and interactivity may increase knowledge and reduce health-related negative effects in persons who use IHCAs. There were no main effects of the intervention on other dimensions of patient empowerment or decision-related outcomes. This might be due to our tailored IHCA being, at its core, an educational intervention offering health information in a personalized, empathic fashion that merely additionally provides decision support. Tailoring and interactivity may not make a difference with regard to these outcomes.Trial Registration: International Clinical Trials Registry: DRKS00003322; http://apps.who.int/trialsearch/Trial2.aspx?TrialID=DRKS00003322 (Archived by WebCite at http://www.webcitation.org/6WPO0lJwE). (c) Nina Weymann, Jorg Dirmaier, Alessa von Wolff, Levente Kriston, Martin Harter.",
     author_keywords = "Back pain; Health communication; Internet; Randomized controlled trial; Type 2 diabetes mellitus",
     keywords = "Adult; Diabetes Mellitus, Type 2; Female; Health Communication; Humans; Internet; Low Back Pain; Male; Middle Aged; Patient Education as Topic; Power (Psychology); Self Care; Single-Blind Method; Social Support; Surveys and Questionnaires; adult; behavior; controlled study; female; human; Internet; low back pain; male; medical information; middle aged; non insulin dependent diabetes mellitus; patient education; questionnaire; randomized controlled trial; self care; single blind procedure; social support",
     correspondence_address = "J. Dirmaier; Department of Medical Psychology, Center for Psychosocial Medicine, University Medical Center Hamburg-Eppendorf, Hamburg, Germany; email: dirmaier@uke.de",
@@ -6900,8 +7208,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 53; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -6922,8 +7229,7 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t xml:space="preserve">not have adaptive user interface
-</t>
+          <t>not have adaptive user interface</t>
         </is>
       </c>
       <c r="R59" t="n">
@@ -6931,7 +7237,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -6942,12 +7248,12 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84929666200&amp;doi=10.2196%2fjmir.3904&amp;partnerID=40&amp;md5=fd3070627c70f6b0e0000e1d53e4b967</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84929666200&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=9e8069d9766960992fbec4e183b28758&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28effectiveness+of+a+web+based+tailored+interactive+health+communication+application+for+patients+with+type+2+diabetes+or+chronic+low+back+pain+randomized+controlled+trial%29&amp;sl=184&amp;sessionSearchId=9e8069d9766960992fbec4e183b28758&amp;relpos=0</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -6973,7 +7279,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Patient involvement in diabetes treatment such as shared decision-making and patient self-management has significant effects on clinical parameters. As a prerequisite for active involvement, patients need to be informed in an adequate and preference-sensitive way. Interactive Health Communication Applications (IHCAs) that combine web-based health information for patients with additional support offer the opportunity to reach great numbers of patients at low cost and provide them with high-quality information and support at the time, place, and learning speed they prefer. Still, web-based interventions often suffer from high attrition. Tailoring the intervention to patients' needs and preferences might reduce attrition and should thereby increase effectiveness. The purpose of this study was to develop a tailored IHCA offering evidence-based, preference-sensitive content and treatment decision support to patients with type 2 diabetes. The content was developed based on a needs assessment and two evidence-based treatment guidelines. The delivery format is a dialogue-based, tunneled design tailoring the content and tone of the dialogue to relevant patient characteristics (health literacy, attitudes toward self-care, and psychological barriers to insulin treatment). Both content and tailoring were revised by an interdisciplinary advisory committee. Conclusion: The World Wide Web holds great potential for patient information and self-management interventions. With the development and evaluation of a tailored IHCA, we complement face-to-face consultations of patients with their health care practitioners and make them more efficient and satisfying for both sides. Effects of the application are currently being tested within a randomized controlled trial. © 2013 Weymann et al.</t>
+          <t>Patient involvement in diabetes treatment such as shared decision-making and patient self-management has significant effects on clinical parameters. As a prerequisite for active involvement, patients need to be informed in an adequate and preference-sensitive way. Interactive Health Communication Applications (IHCAs) that combine web-based health information for patients with additional support offer the opportunity to reach great numbers of patients at low cost and provide them with high-quality information and support at the time, place, and learning speed they prefer. Still, web-based interventions often suffer from high attrition. Tailoring the intervention to patients' needs and preferences might reduce attrition and should thereby increase effectiveness. The purpose of this study was to develop a tailored IHCA offering evidence-based, preference-sensitive content and treatment decision support to patients with type 2 diabetes. The content was developed based on a needs assessment and two evidence-based treatment guidelines. The delivery format is a dialogue-based, tunneled design tailoring the content and tone of the dialogue to relevant patient characteristics (health literacy, attitudes toward self-care, and psychological barriers to insulin treatment). Both content and tailoring were revised by an interdisciplinary advisory committee. Conclusion: The World Wide Web holds great potential for patient information and self-management interventions. With the development and evaluation of a tailored IHCA, we complement face-to-face consultations of patients with their health care practitioners and make them more efficient and satisfying for both sides. Effects of the application are currently being tested within a randomized controlled trial.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6983,7 +7289,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Weymann, Nina; Härter, Martin; Petrak, Frank; Dirmaier, Jörg</t>
+          <t>Weymann, Nina; Harter, Martin; Petrak, Frank; Dirmaier, Jorg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -6999,25 +7305,25 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1091 – 1099</t>
+          <t>1091 - 1099</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Weymann20131091,
-    author = "Weymann, Nina and Härter, Martin and Petrak, Frank and Dirmaier, Jörg",
+          <t>@ARTICLE{Weymann20131091,
+    author = "Weymann, Nina and Harter, Martin and Petrak, Frank and Dirmaier, Jorg",
     title = "Health information, behavior change, and decision support for patients with type 2 diabetes: Development of a tailored, preference-sensitive health communication application",
     year = "2013",
     journal = "Patient Preference and Adherence",
     volume = "7",
-    pages = "1091 – 1099",
+    pages = "1091 - 1099",
     doi = "10.2147/PPA.S46924",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84886619300\&amp;doi=10.2147\%2fPPA.S46924\&amp;partnerID=40\&amp;md5=a1e4e8b0318d9e10ffbc2fe35441d4c3",
     affiliations = "Department of Medical Psychology, University Medical Center Hamburg-Eppendorf, Hamburg, Germany; Clinic of Psychosomatic Medicine and Psychotherapy, LWL University Hospital, Ruhr-University Bochum, Bochum, Germany",
-    abstract = "Patient involvement in diabetes treatment such as shared decision-making and patient self-management has significant effects on clinical parameters. As a prerequisite for active involvement, patients need to be informed in an adequate and preference-sensitive way. Interactive Health Communication Applications (IHCAs) that combine web-based health information for patients with additional support offer the opportunity to reach great numbers of patients at low cost and provide them with high-quality information and support at the time, place, and learning speed they prefer. Still, web-based interventions often suffer from high attrition. Tailoring the intervention to patients' needs and preferences might reduce attrition and should thereby increase effectiveness. The purpose of this study was to develop a tailored IHCA offering evidence-based, preference-sensitive content and treatment decision support to patients with type 2 diabetes. The content was developed based on a needs assessment and two evidence-based treatment guidelines. The delivery format is a dialogue-based, tunneled design tailoring the content and tone of the dialogue to relevant patient characteristics (health literacy, attitudes toward self-care, and psychological barriers to insulin treatment). Both content and tailoring were revised by an interdisciplinary advisory committee. Conclusion: The World Wide Web holds great potential for patient information and self-management interventions. With the development and evaluation of a tailored IHCA, we complement face-to-face consultations of patients with their health care practitioners and make them more efficient and satisfying for both sides. Effects of the application are currently being tested within a randomized controlled trial. © 2013 Weymann et al.",
+    abstract = "Patient involvement in diabetes treatment such as shared decision-making and patient self-management has significant effects on clinical parameters. As a prerequisite for active involvement, patients need to be informed in an adequate and preference-sensitive way. Interactive Health Communication Applications (IHCAs) that combine web-based health information for patients with additional support offer the opportunity to reach great numbers of patients at low cost and provide them with high-quality information and support at the time, place, and learning speed they prefer. Still, web-based interventions often suffer from high attrition. Tailoring the intervention to patients' needs and preferences might reduce attrition and should thereby increase effectiveness. The purpose of this study was to develop a tailored IHCA offering evidence-based, preference-sensitive content and treatment decision support to patients with type 2 diabetes. The content was developed based on a needs assessment and two evidence-based treatment guidelines. The delivery format is a dialogue-based, tunneled design tailoring the content and tone of the dialogue to relevant patient characteristics (health literacy, attitudes toward self-care, and psychological barriers to insulin treatment). Both content and tailoring were revised by an interdisciplinary advisory committee. Conclusion: The World Wide Web holds great potential for patient information and self-management interventions. With the development and evaluation of a tailored IHCA, we complement face-to-face consultations of patients with their health care practitioners and make them more efficient and satisfying for both sides. Effects of the application are currently being tested within a randomized controlled trial. (c) 2013 Weymann et al.",
     author_keywords = "Development; Interactive health communication application; Internet; Type 2 diabetes",
     keywords = "insulin; application service provider; article; attitude to health; behavior change; clinical effectiveness; consultation; decision support system; diabetes control; diabetes education; evidence based medicine; fear; feedback system; health literacy; human; Internet; medical information; needs assessment; non insulin dependent diabetes mellitus; outcome assessment; patient education; patient information; patient satisfaction; personalized medicine; practice guideline; process development; questionnaire; self care; semi structured interview; social stigma",
-    correspondence_address = "N. Weymann; University Medical Center Hamburg-Eppendorf, Department of Medical Psychology (W 26), 20246 Hamburg, Martinistraße 52, Germany; email: n.weymann@uke.de",
+    correspondence_address = "N. Weymann; University Medical Center Hamburg-Eppendorf, Department of Medical Psychology (W 26), 20246 Hamburg, Martinistrasse 52, Germany; email: n.weymann@uke.de",
     issn = "1177889X",
     language = "English",
     abbrev_source_title = "Patient Preference Adherence",
@@ -7025,8 +7331,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 16; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -7055,7 +7360,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -7066,7 +7371,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84886619300&amp;doi=10.2147%2fPPA.S46924&amp;partnerID=40&amp;md5=a1e4e8b0318d9e10ffbc2fe35441d4c3</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84886619300&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=3bc66d8047904c74b222d7df248740dd&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28health+information+behavior+change+and+decision+support+for+patients+with+type+2+diabetes+development+of+a+tailored+preference+sensitive+health+communication+application%29&amp;sl=184&amp;sessionSearchId=3bc66d8047904c74b222d7df248740dd&amp;relpos=0</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -7093,17 +7398,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Background: Chronic low back pain is a common chronic condition whose treatment success can be improved by active involvement of patients. Patient involvement can be fostered by web-based applications combining health information with decision support or behaviour change support. These so-called Interactive Health Communication Applications (IHCAs) can reach great numbers of patients at low financial cost and provide information and support at the time, place and learning speed patients prefer. However, high attrition often seems to decrease the effects of web-based interventions. Tailoring content and tone of IHCAs to the individual patient s needs might improve usage and therefore effectiveness. This study aims to evaluate a tailored IHCA for people with chronic low back pain combining health information with decision support and behaviour change support. Methods/Design. The tailored IHCA will be tested regarding effectiveness and usage against a standard website with identical content in a single-blinded randomized trial with a parallel design. The IHCA contains information on chronic low back pain and its treatment options including health behaviour change recommendations. In the intervention group the content is delivered in dialogue form, tailored to relevant patient characteristics (health literacy, coping style). In the control group there is no tailoring, a standard web-page is used for presenting the content. Participants are unaware of group assignment. Eligibility criteria are age ≥ 18 years, self- reported chronic low back pain, and Internet access. To detect the expected small effect (Cohen's d = 0.2), the sample aims to include 414 patients, with assessments at baseline, directly after the first on-page visit, and at 3-month follow-up using online self-report questionnaires. It is expected that the tailored IHCA has larger effects on knowledge and patient empowerment (primary outcomes) compared to a standard website. Secondary outcomes are website usage, preparation for decision making, and decisional conflict. Discussion. IHCAs can be a suitable way to promote knowledge about chronic low back pain and self-management competencies. Results of the study can increase the knowledge on how to develop IHCAs which are more useful and effective for people suffering from chronic low back pain. Trial registration. International Clinical Trials Registry DRKS00003322. © 2013 Dirmaier et al.; licensee BioMed Central Ltd.</t>
+          <t>Background: Chronic low back pain is a common chronic condition whose treatment success can be improved by active involvement of patients. Patient involvement can be fostered by web-based applications combining health information with decision support or behaviour change support. These so-called Interactive Health Communication Applications (IHCAs) can reach great numbers of patients at low financial cost and provide information and support at the time, place and learning speed patients prefer. However, high attrition often seems to decrease the effects of web-based interventions. Tailoring content and tone of IHCAs to the individual patient s needs might improve usage and therefore effectiveness. This study aims to evaluate a tailored IHCA for people with chronic low back pain combining health information with decision support and behaviour change support. Methods/Design. The tailored IHCA will be tested regarding effectiveness and usage against a standard website with identical content in a single-blinded randomized trial with a parallel design. The IHCA contains information on chronic low back pain and its treatment options including health behaviour change recommendations. In the intervention group the content is delivered in dialogue form, tailored to relevant patient characteristics (health literacy, coping style). In the control group there is no tailoring, a standard web-page is used for presenting the content. Participants are unaware of group assignment. Eligibility criteria are age &gt;= 18 years, self- reported chronic low back pain, and Internet access. To detect the expected small effect (Cohen's d = 0.2), the sample aims to include 414 patients, with assessments at baseline, directly after the first on-page visit, and at 3-month follow-up using online self-report questionnaires. It is expected that the tailored IHCA has larger effects on knowledge and patient empowerment (primary outcomes) compared to a standard website. Secondary outcomes are website usage, preparation for decision making, and decisional conflict. Discussion. IHCAs can be a suitable way to promote knowledge about chronic low back pain and self-management competencies. Results of the study can increase the knowledge on how to develop IHCAs which are more useful and effective for people suffering from chronic low back pain. Trial registration. International Clinical Trials Registry DRKS00003322.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Chronic Pain; Decision Support Systems, Clinical; Female; Humans; Internet; Low Back Pain; Male; Pain Management; Self Efficacy; analgesia; article; chronic pain; controlled clinical trial; controlled study; decision support system; female; human; Internet; low back pain; male; psychological aspect; randomized controlled trial; self concept</t>
+          <t>Chronic Pain; Decision Support Systems;  Clinical; Female; Humans; Internet; Low Back Pain; Male; Pain Management; Self Efficacy; analgesia; article; chronic pain; controlled clinical trial; controlled study; decision support system; female; human; Internet; low back pain; male; psychological aspect; randomized controlled trial; self concept</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dirmaier, Jörg; Härter, Martin; Weymann, Nina</t>
+          <t>Dirmaier, Jorg; Harter, Martin; Weymann, Nina</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7120,8 +7425,8 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Dirmaier2013,
-    author = "Dirmaier, Jörg and Härter, Martin and Weymann, Nina",
+          <t>@ARTICLE{Dirmaier2013,
+    author = "Dirmaier, Jorg and Harter, Martin and Weymann, Nina",
     title = "A tailored, dialogue-based health communication application for patients with chronic low back pain: Study protocol of a randomised controlled trial",
     year = "2013",
     journal = "BMC Medical Informatics and Decision Making",
@@ -7130,7 +7435,7 @@
     doi = "10.1186/1472-6947-13-66",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84878893677\&amp;doi=10.1186\%2f1472-6947-13-66\&amp;partnerID=40\&amp;md5=f2ee98a7378f4597b479839a63aa1237",
     affiliations = "Department of Medical Psychology (W 26), University Medical Center Hamburg-Eppendorf, Hamburg 20246, Martinistr. 52, Germany",
-    abstract = "Background: Chronic low back pain is a common chronic condition whose treatment success can be improved by active involvement of patients. Patient involvement can be fostered by web-based applications combining health information with decision support or behaviour change support. These so-called Interactive Health Communication Applications (IHCAs) can reach great numbers of patients at low financial cost and provide information and support at the time, place and learning speed patients prefer. However, high attrition often seems to decrease the effects of web-based interventions. Tailoring content and tone of IHCAs to the individual patient s needs might improve usage and therefore effectiveness. This study aims to evaluate a tailored IHCA for people with chronic low back pain combining health information with decision support and behaviour change support. Methods/Design. The tailored IHCA will be tested regarding effectiveness and usage against a standard website with identical content in a single-blinded randomized trial with a parallel design. The IHCA contains information on chronic low back pain and its treatment options including health behaviour change recommendations. In the intervention group the content is delivered in dialogue form, tailored to relevant patient characteristics (health literacy, coping style). In the control group there is no tailoring, a standard web-page is used for presenting the content. Participants are unaware of group assignment. Eligibility criteria are age ≥ 18 years, self- reported chronic low back pain, and Internet access. To detect the expected small effect (Cohen's d = 0.2), the sample aims to include 414 patients, with assessments at baseline, directly after the first on-page visit, and at 3-month follow-up using online self-report questionnaires. It is expected that the tailored IHCA has larger effects on knowledge and patient empowerment (primary outcomes) compared to a standard website. Secondary outcomes are website usage, preparation for decision making, and decisional conflict. Discussion. IHCAs can be a suitable way to promote knowledge about chronic low back pain and self-management competencies. Results of the study can increase the knowledge on how to develop IHCAs which are more useful and effective for people suffering from chronic low back pain. Trial registration. International Clinical Trials Registry DRKS00003322. © 2013 Dirmaier et al.; licensee BioMed Central Ltd.",
+    abstract = "Background: Chronic low back pain is a common chronic condition whose treatment success can be improved by active involvement of patients. Patient involvement can be fostered by web-based applications combining health information with decision support or behaviour change support. These so-called Interactive Health Communication Applications (IHCAs) can reach great numbers of patients at low financial cost and provide information and support at the time, place and learning speed patients prefer. However, high attrition often seems to decrease the effects of web-based interventions. Tailoring content and tone of IHCAs to the individual patient s needs might improve usage and therefore effectiveness. This study aims to evaluate a tailored IHCA for people with chronic low back pain combining health information with decision support and behaviour change support. Methods/Design. The tailored IHCA will be tested regarding effectiveness and usage against a standard website with identical content in a single-blinded randomized trial with a parallel design. The IHCA contains information on chronic low back pain and its treatment options including health behaviour change recommendations. In the intervention group the content is delivered in dialogue form, tailored to relevant patient characteristics (health literacy, coping style). In the control group there is no tailoring, a standard web-page is used for presenting the content. Participants are unaware of group assignment. Eligibility criteria are age &gt;= 18 years, self- reported chronic low back pain, and Internet access. To detect the expected small effect (Cohen's d = 0.2), the sample aims to include 414 patients, with assessments at baseline, directly after the first on-page visit, and at 3-month follow-up using online self-report questionnaires. It is expected that the tailored IHCA has larger effects on knowledge and patient empowerment (primary outcomes) compared to a standard website. Secondary outcomes are website usage, preparation for decision making, and decisional conflict. Discussion. IHCAs can be a suitable way to promote knowledge about chronic low back pain and self-management competencies. Results of the study can increase the knowledge on how to develop IHCAs which are more useful and effective for people suffering from chronic low back pain. Trial registration. International Clinical Trials Registry DRKS00003322. (c) 2013 Dirmaier et al.; licensee BioMed Central Ltd.",
     author_keywords = "Chronic low back pain; Patient information; Randomized controlled trial; Study protocol; Web",
     keywords = "Chronic Pain; Decision Support Systems, Clinical; Female; Humans; Internet; Low Back Pain; Male; Pain Management; Self Efficacy; analgesia; article; chronic pain; controlled clinical trial; controlled study; decision support system; female; human; Internet; low back pain; male; psychological aspect; randomized controlled trial; self concept",
     correspondence_address = "J. Dirmaier; Department of Medical Psychology (W 26), University Medical Center Hamburg-Eppendorf, Hamburg 20246, Martinistr. 52, Germany; email: dirmaier@uke.de",
@@ -7143,8 +7448,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 13; All Open Access, Gold Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -7173,7 +7477,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -7184,7 +7488,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84878893677&amp;doi=10.1186%2f1472-6947-13-66&amp;partnerID=40&amp;md5=f2ee98a7378f4597b479839a63aa1237</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84878893677&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=2dbcfba2397fdb491a11d1324206e694&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28a+tailored+dialogue+based+health+communication+application+for+patients+with+chronic+low+back+pain+study+protocol+of+a+randomised+controlled+trial%29&amp;sl=161&amp;sessionSearchId=2dbcfba2397fdb491a11d1324206e694&amp;relpos=0</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -7220,7 +7524,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Depression, Postpartum; Feasibility Studies; Female; Humans; Infant; Internet; Iowa; Male; Self Efficacy; Victoria; postpartum depression; Web-based intervention; article; Australia; feasibility study; female; human; infant; Internet; male; puerperal depression; self concept; United States; Web-based intervention</t>
+          <t>Depression;  Postpartum; Feasibility Studies; Female; Humans; Infant; Internet; Iowa; Male; Self Efficacy; Victoria; postpartum depression; Web-based intervention; article; Australia; feasibility study; female; human; infant; Internet; male; puerperal depression; self concept; United States; Web-based intervention</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -7242,7 +7546,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Danaher2013,
+          <t>@ARTICLE{Danaher2013,
     author = "Danaher, Brian G and Milgrom, Jeannette and Seeley, John R and Stuart, Scott and Schembri, Charlene and Tyler, Milagra S and Ericksen, Jennifer and Lester, Whitney and Gemmill, Alan W and Kosty, Derek B and Lewinsohn, Peter",
     title = "MomMoodBooster web-based intervention for postpartum depression: Feasibility trial results",
     year = "2013",
@@ -7265,8 +7569,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 96; All Open Access, Gold Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -7295,7 +7598,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -7306,12 +7609,12 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84887870047&amp;doi=10.2196%2fjmir.2876&amp;partnerID=40&amp;md5=19b22f91739306bef85c32e9e4224d6a</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84887870047&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=9d594f3b5b737cc6120895061440bc37&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28mommoodbooster+web+based+intervention+for+postpartum+depression+feasibility+trial+results%29&amp;sl=104&amp;sessionSearchId=9d594f3b5b737cc6120895061440bc37&amp;relpos=0</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>JMIR Publications Inc.</t>
+          <t>JMIR Publications Inc</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -7337,7 +7640,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Background: Interventions that target cancer patients and their caregivers have been shown to improve patient-caregiver communication, support, and emotional well-being. Objective: To adapt an in-person communication intervention for cancer patients and caregivers to a web-based format, and to examine the usability and acceptability of the web-based program among representative users. Methods: A tailored, interactive web-based communication program for cancer patients and their family caregivers was developed based on an existing in-person, nurse-delivered intervention. The development process involved: (1) building a multidisciplinary team of content and web design experts, (2) combining key components of the in-person intervention with the unique tailoring and interactive features of a web-based platform, and (3) conducting focus groups and usability testing to obtain feedback from representative program users at multiple time points. Results: Four focus groups with 2-3 patient-caregiver pairs per group (n = 22 total participants) and two iterations of usability testing with four patient-caregiver pairs per session (n = 16 total participants) were conducted. Response to the program's structure, design, and content was favorable, even among users who were older or had limited computer and Internet experience. The program received high ratings for ease of use and overall usability (mean System Usability Score of 89.5 out of 100). Conclusions: Many elements of a nurse-delivered patient-caregiver intervention can be successfully adapted to a web-based format. A multidisciplinary design team and an iterative evaluation process with representative users were instrumental in the development of a usable and well-received web-based program. Copyright © 2011 John Wiley &amp; Sons, Ltd. Copyright © 2011 John Wiley &amp; Sons, Ltd.</t>
+          <t>Background: Interventions that target cancer patients and their caregivers have been shown to improve patient-caregiver communication, support, and emotional well-being. Objective: To adapt an in-person communication intervention for cancer patients and caregivers to a web-based format, and to examine the usability and acceptability of the web-based program among representative users. Methods: A tailored, interactive web-based communication program for cancer patients and their family caregivers was developed based on an existing in-person, nurse-delivered intervention. The development process involved: (1) building a multidisciplinary team of content and web design experts, (2) combining key components of the in-person intervention with the unique tailoring and interactive features of a web-based platform, and (3) conducting focus groups and usability testing to obtain feedback from representative program users at multiple time points. Results: Four focus groups with 2-3 patient-caregiver pairs per group (n = 22 total participants) and two iterations of usability testing with four patient-caregiver pairs per session (n = 16 total participants) were conducted. Response to the program's structure, design, and content was favorable, even among users who were older or had limited computer and Internet experience. The program received high ratings for ease of use and overall usability (mean System Usability Score of 89.5 out of 100). Conclusions: Many elements of a nurse-delivered patient-caregiver intervention can be successfully adapted to a web-based format. A multidisciplinary design team and an iterative evaluation process with representative users were instrumental in the development of a usable and well-received web-based program.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7363,23 +7666,23 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>336 – 341</t>
+          <t>336 - 341</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Zulman2012336,
+          <t>@ARTICLE{Zulman2012336,
     author = "Zulman, Donna M. and Schafenacker, Ann and Barr, Kathryn L. C. and Moore, Ian T. and Fisher, Jake and McCurdy, Kathryn and Derry, Holly A. and Saunders, Edward W. and An, Lawrence C. and Northouse, Laurel",
     title = "Adapting an in-person patient-caregiver communication intervention to a tailored web-based format",
     year = "2012",
     journal = "Psycho-Oncology",
     volume = "21",
     number = "3",
-    pages = "336 – 341",
+    pages = "336 - 341",
     doi = "10.1002/pon.1900",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84858077551\&amp;doi=10.1002\%2fpon.1900\&amp;partnerID=40\&amp;md5=39fff7283c395f5a273894a83c8bd5b9",
     affiliations = "Robert Wood Johnson Foundation Clinical Scholars Program, University of Michigan, 6312 Medical Science Building i, Ann Arbor, MI 48109-5604, 1150 W. Medical Center Drive, United States; Department of Internal Medicine, University of Michigan, Ann Arbor, MI, United States; Department of Veterans Affairs, Health Services Research and Development Center of Excellence, Ann Arbor, MI, United States; School of Nursing, University of Michigan, Ann Arbor, MI, United States; Center for Health Communications Research, University of Michigan, Ann Arbor, MI, United States; School of Information, University of Michigan, Ann Arbor, MI, United States",
-    abstract = "Background: Interventions that target cancer patients and their caregivers have been shown to improve patient-caregiver communication, support, and emotional well-being. Objective: To adapt an in-person communication intervention for cancer patients and caregivers to a web-based format, and to examine the usability and acceptability of the web-based program among representative users. Methods: A tailored, interactive web-based communication program for cancer patients and their family caregivers was developed based on an existing in-person, nurse-delivered intervention. The development process involved: (1) building a multidisciplinary team of content and web design experts, (2) combining key components of the in-person intervention with the unique tailoring and interactive features of a web-based platform, and (3) conducting focus groups and usability testing to obtain feedback from representative program users at multiple time points. Results: Four focus groups with 2-3 patient-caregiver pairs per group (n = 22 total participants) and two iterations of usability testing with four patient-caregiver pairs per session (n = 16 total participants) were conducted. Response to the program's structure, design, and content was favorable, even among users who were older or had limited computer and Internet experience. The program received high ratings for ease of use and overall usability (mean System Usability Score of 89.5 out of 100). Conclusions: Many elements of a nurse-delivered patient-caregiver intervention can be successfully adapted to a web-based format. A multidisciplinary design team and an iterative evaluation process with representative users were instrumental in the development of a usable and well-received web-based program. Copyright © 2011 John Wiley \&amp; Sons, Ltd. Copyright © 2011 John Wiley \&amp; Sons, Ltd.",
+    abstract = "Background: Interventions that target cancer patients and their caregivers have been shown to improve patient-caregiver communication, support, and emotional well-being. Objective: To adapt an in-person communication intervention for cancer patients and caregivers to a web-based format, and to examine the usability and acceptability of the web-based program among representative users. Methods: A tailored, interactive web-based communication program for cancer patients and their family caregivers was developed based on an existing in-person, nurse-delivered intervention. The development process involved: (1) building a multidisciplinary team of content and web design experts, (2) combining key components of the in-person intervention with the unique tailoring and interactive features of a web-based platform, and (3) conducting focus groups and usability testing to obtain feedback from representative program users at multiple time points. Results: Four focus groups with 2-3 patient-caregiver pairs per group (n = 22 total participants) and two iterations of usability testing with four patient-caregiver pairs per session (n = 16 total participants) were conducted. Response to the program's structure, design, and content was favorable, even among users who were older or had limited computer and Internet experience. The program received high ratings for ease of use and overall usability (mean System Usability Score of 89.5 out of 100). Conclusions: Many elements of a nurse-delivered patient-caregiver intervention can be successfully adapted to a web-based format. A multidisciplinary design team and an iterative evaluation process with representative users were instrumental in the development of a usable and well-received web-based program. Copyright (c) 2011 John Wiley \&amp; Sons, Ltd. Copyright (c) 2011 John Wiley \&amp; Sons, Ltd.",
     author_keywords = "cancer; caregiving; communication; oncology; social support; technology assessment",
     keywords = "Adult; Aged; Caregivers; Communication; Computers; Emotions; Female; Focus Groups; Humans; Internet; Male; Middle Aged; Neoplasms; adult; article; cancer patient; caregiver; computer program; emotion; family; female; human; Internet; interpersonal communication; male; nurse; wellbeing",
     correspondence_address = "D.M. Zulman; Robert Wood Johnson Foundation Clinical Scholars Program, University of Michigan, 6312 Medical Science Building i, Ann Arbor, MI 48109-5604, 1150 W. Medical Center Drive, United States; email: dzulman@umich.edu",
@@ -7392,8 +7695,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 46; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -7422,7 +7724,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -7433,7 +7735,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84858077551&amp;doi=10.1002%2fpon.1900&amp;partnerID=40&amp;md5=39fff7283c395f5a273894a83c8bd5b9</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84858077551&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=7162013bf99e508160e17c4ae4b87583&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28adapting+an+in+person+patient+caregiver+communication+intervention+to+a+tailored+web+based+format%29&amp;sl=112&amp;sessionSearchId=7162013bf99e508160e17c4ae4b87583&amp;relpos=0</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -7460,12 +7762,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Educating patients is a primary responsibility of all nurses; however, because of time constraints and staff shortages, pediatric oncology nurses are often unable to adequately prepare patients for cancer treatment. Instead, patients frequently rely on the Internet as a source of information about cancer, some of which can be outdated and inaccurate. Adolescents regard the Internet as a valuable source of health information as it is easily accessible, less threatening, and confidential. Considering the need for accurate, readily available information for adolescents with cancer, the purpose of this study was to develop and validate an innovative, interactive Web-based educational program to prepare early and middle adolescents for cancer treatment. Titled "Coping With Cancer," this program was developed by the investigator after conducting in-depth interviews of adolescent cancer survivors and their parents. Based on the transactional model of coping, the program focuses on enhancing the adolescent's knowledge of cancer, cancer treatment, and healthy coping strategies. Coping With Cancer can be an effective resource for pediatric oncology nurses in providing ongoing education for adolescents with cancer. © 2009 by Association of Pediatric Hematology/Oncology Nurses.</t>
+          <t>Educating patients is a primary responsibility of all nurses; however, because of time constraints and staff shortages, pediatric oncology nurses are often unable to adequately prepare patients for cancer treatment. Instead, patients frequently rely on the Internet as a source of information about cancer, some of which can be outdated and inaccurate. Adolescents regard the Internet as a valuable source of health information as it is easily accessible, less threatening, and confidential. Considering the need for accurate, readily available information for adolescents with cancer, the purpose of this study was to develop and validate an innovative, interactive Web-based educational program to prepare early and middle adolescents for cancer treatment. Titled "Coping With Cancer," this program was developed by the investigator after conducting in-depth interviews of adolescent cancer survivors and their parents. Based on the transactional model of coping, the program focuses on enhancing the adolescent's knowledge of cancer, cancer treatment, and healthy coping strategies. Coping With Cancer can be an effective resource for pediatric oncology nurses in providing ongoing education for adolescents with cancer.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Adaptation, Psychological; Adolescent; Adolescent Psychology; Child Psychology; Humans; Internet; Interviews as Topic; Neoplasms; Patient Education as Topic; adaptive behavior; adolescent; article; child psychology; human; Internet; interview; neoplasm; nursing; patient education; psychological aspect</t>
+          <t>Adaptation;  Psychological; Adolescent; Adolescent Psychology; Child Psychology; Humans; Internet; Interviews as Topic; Neoplasms; Patient Education as Topic; adaptive behavior; adolescent; article; child psychology; human; Internet; interview; neoplasm; nursing; patient education; psychological aspect</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -7483,26 +7785,30 @@
           <t>https://doi.org/10.1177/1043454209334417</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>(2001)The Assessment and Management of Acute Pain in Infants, Children, and Adolescents.Cited 7 times.American Academy of Pediatrics, (a Position Statement from the Committee on Psychosocial Aspects of Child and Family Health, 2000-2001), Elk Grove Village, IL: Author; (2005)Cancer Facts and Figures.Cited 1368 times.American Cancer Society, Atlanta, GA: Author; (2005)Guideline for the Management of Cancer Pain in Adults and Children, (3).American Pain Society, (APS Clinical Practice Guidelines Series), Glenview, IL: Author; (2007)Pediatric Oncology Nursing: Scope and Standards of Practice.Cited 3 times.Association of Pediatric Hematology/Oncology Nurses, Glenview, IL: Author; Beranova, E., Sykes, C.; Borzekowski, D.L.G., Rickert, V.I.; Brillhart, B.; Cassano, J., Nagel, K., O'Mara, L.; Collins, J., Weisman, S.Management of pain in childhood cancer(2003)Pain in Infants, Children, and Adolescents, pp. 517-538.Cited 23 times.In N. Schechter, C. Berde, &amp; M. Yaster. (Eds.), Philadelphia: Lippincott Williams &amp; Wilkins; Conte, P.M., Walco, G.A., Sterling, C.M., Engel, R.G., Kuppenheimer, W.G.; (2008)Our Research: Highest Incidence Age GroupsRetrieved August 15, from, CureSearchhttp://www.curesearch.org; Decker, C., Phillips, C.R., Haase, J.E.; Docherty, S.L., Sandelowski, M., Preisser, J.S.; Earle, E.A., Eiser, C.; Folkman, S., Moskowitz, J.T.; Gray, N.J., Klein, J.D., Noyce, P.R., Sesselberg, T.S., Cantrill, J.A.; Haase, J.E., Phillips, C.R.; Hare, M.L.; Hinds, P.S.; Hinds, P., Haase, J.Quality of life in children and adolescents with cancer(2003)Quality of Life from Nursing and Patient Perspectives, pp. 143-168.Cited 10 times.In C. King &amp; P. Hinds (Eds.), Boston: Jones &amp; Bartlett; Hockenberry, M., Hooke, M.C.; Hooke, C., Hellsten, M.B., Stutzer, C., Forte, K.; Hymovich, D.P.; (2005)When Children Die: Improving Palliative and End-of-Life Care for Children and Their Families.Cited 743 times.Institute of Medicine, Washington, DC: National Academies Press; Keene, N., Hobbie, W., Ruccione, K.(2007)Childhood Cancer Survivors: a Practical Guide to Your Future.Cited 45 times.Sebastopol, CA: O'Reilly Media; Kind, T., Wheeler, K.L., Robinson, B., Cabana, M.D.; Kleiber, C., Harper, D.C.; Krippendorff, K.(2004)Content Analysis: an Introduction to Its Methodology.Cited 22669 times.Thousand Oaks, CA: Sage; Kyngas, H.; Kyngas, H., Mikkonen, R., Nousiainen, E.-M., Rytilahti, M., Seppanen, P., Vaattovaara, R., Jamsa, T.; Landolt, M.A., Vollrath, M., Ribi, K.; Lazarus, R., Folkman, S.(1984)Stress, Appraisal, and Coping.Cited 33356 times.New York: Springer; Lewis, D.; Lewis, D., Gundwardena, S., El Saadawi, G.; Linder, L.A.; Liossi, C.(2002)Procedure-Related Cancer Pain in Children.Cited 26 times.Oxon, UK: Radcliffe Press; Ljungman, G., Gordh, T., Sorensen, S., Kreuger, A.; McGrath, P.A., Hillier, L.Modifying the psychologic factors that intensify children's pain and prolong disability(2003)Pain in Infants, Children, and Adolescents, pp. 85-104.Cited 35 times.In N. Schechter, C. Berde, &amp; M. Yaster (Eds.), Philadelphia: Lippincott Williams &amp; Wilkins; McGrath, P.J., Watters, C., Moon, E.; Palermo, T., Valenzuela, D.Use of pain diaries to assess recurrent and chronic pain in children(2003)The Suffering Child, 3, pp. 1-14.Cited 12 times.; Ries, L.Childhood cancer mortality(1999)Cancer Incidence and Survival among Children and Adolescents: United States SEER Program 1975-1995., pp. 165-169.Cited 23 times.In L. Ries, M. Smith, J. Gurney, M. Linet, T. Tamra, J. Young, et al. (Eds.), National Cancer Institute, SEER Program. NIH Publication No. 99-4649, Bethesda, MD: National Institutes of Health; Santacroce, S.J., Lee, Y.-L.; Santrock, J.(2007)Adolescence.Cited 427 times.New York: McGraw-Hill; Schave, D., Schave, B.(1989)Early Adolescence and the Search for Self.Cited 33 times.New York: Praeger; Sentivany-Collins, S.Treatment of pain(2002)Nursing Care of Children and Adolescents with Cancer, pp. 319-333.Cited 4 times.In C. Baggott, K. Kelly, D. Fochtman, &amp; G. Foley (Eds.), Philadelphia: W. B. Saunders; Smith, M., Hare, M.L.; Stinson, J.N., Petroz, G.C., Tait, G., Feldman, B.M., Streiner, D., McGrath, P.J., Stevens, B.J.; Suzuki, L.K., Kato, P.M.; Tracy-Mitchell, D.; Walker, L.S., Sorrells, S.C.; Walker, C., Wells, L., Heiney, S., Hymovich, D.Familycentered psychosocial care(2002)Nursing Care of Children and Adolescents with Cancer, pp. 365-390.Cited 2 times.In C. Baggott, K. Kelly, D. Fochtman, &amp; G. Foley (Eds.), Philadelphia: W. B. Saunders; Wantland, D.J., Portillo, C.J., Holzemer, W.L., Slaughter, R., McGhee, E.M.; Woodgate, R.L., Degner, L.F.; Zebrack, B.J., Zeltzer, L.K., Whitton, J., Mertens, A.C., Odom, L., Berkow, R., Robison, L.L.</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>230 – 241</t>
+          <t>230 - 241</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{O'Conner-Von2009230,
+          <t>@ARTICLE{O'Conner-Von2009230,
     author = "O'Conner-Von, Susan",
     title = "Coping with cancer: A web-based educational program for early and middle adolescents",
     year = "2009",
     journal = "Journal of Pediatric Oncology Nursing",
     volume = "26",
     number = "4",
-    pages = "230 – 241",
+    pages = "230 - 241",
     doi = "10.1177/1043454209334417",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-70349332358\&amp;doi=10.1177\%2f1043454209334417\&amp;partnerID=40\&amp;md5=5ee8e1fb59f49489f914f878cf88fb86",
     affiliations = "Center for Children with Special Health Care Needs, School of Nursing, University of Minnesota, United States",
-    abstract = {Educating patients is a primary responsibility of all nurses; however, because of time constraints and staff shortages, pediatric oncology nurses are often unable to adequately prepare patients for cancer treatment. Instead, patients frequently rely on the Internet as a source of information about cancer, some of which can be outdated and inaccurate. Adolescents regard the Internet as a valuable source of health information as it is easily accessible, less threatening, and confidential. Considering the need for accurate, readily available information for adolescents with cancer, the purpose of this study was to develop and validate an innovative, interactive Web-based educational program to prepare early and middle adolescents for cancer treatment. Titled "Coping With Cancer," this program was developed by the investigator after conducting in-depth interviews of adolescent cancer survivors and their parents. Based on the transactional model of coping, the program focuses on enhancing the adolescent's knowledge of cancer, cancer treatment, and healthy coping strategies. Coping With Cancer can be an effective resource for pediatric oncology nurses in providing ongoing education for adolescents with cancer. © 2009 by Association of Pediatric Hematology/Oncology Nurses.},
+    abstract = {Educating patients is a primary responsibility of all nurses; however, because of time constraints and staff shortages, pediatric oncology nurses are often unable to adequately prepare patients for cancer treatment. Instead, patients frequently rely on the Internet as a source of information about cancer, some of which can be outdated and inaccurate. Adolescents regard the Internet as a valuable source of health information as it is easily accessible, less threatening, and confidential. Considering the need for accurate, readily available information for adolescents with cancer, the purpose of this study was to develop and validate an innovative, interactive Web-based educational program to prepare early and middle adolescents for cancer treatment. Titled "Coping With Cancer," this program was developed by the investigator after conducting in-depth interviews of adolescent cancer survivors and their parents. Based on the transactional model of coping, the program focuses on enhancing the adolescent's knowledge of cancer, cancer treatment, and healthy coping strategies. Coping With Cancer can be an effective resource for pediatric oncology nurses in providing ongoing education for adolescents with cancer. (c) 2009 by Association of Pediatric Hematology/Oncology Nurses.},
     author_keywords = "Adolescents; Cancer; Internet technology; Web-based education",
     keywords = "Adaptation, Psychological; Adolescent; Adolescent Psychology; Child Psychology; Humans; Internet; Interviews as Topic; Neoplasms; Patient Education as Topic; adaptive behavior; adolescent; article; child psychology; human; Internet; interview; neoplasm; nursing; patient education; psychological aspect",
     correspondence_address = "S. O'Conner-Von; Center for Children with Special Health Care Needs, School of Nursing, University of Minnesota, Minneapolis, MN 55455, 5-140 Weaver-Densford Hall, 308 Harvard Street SE, United States; email: ocon0025@umn.edu",
@@ -7515,8 +7821,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 26; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -7545,7 +7850,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -7556,13 +7861,13 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-70349332358&amp;doi=10.1177%2f1043454209334417&amp;partnerID=40&amp;md5=5ee8e1fb59f49489f914f878cf88fb86</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-70349332358&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=8909328b7bb0d382de71952ddd0108fe&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28coping+with+cancer+a+web+based+educational+program+for+early+and+middle+adolescents%29&amp;sl=98&amp;sessionSearchId=8909328b7bb0d382de71952ddd0108fe&amp;relpos=0</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; Publisher</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7894,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">L. Northouse et al., </t>
+          <t>L. Northouse et al.,</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -7636,7 +7941,11 @@
           <t>A tailored web-based psychoeducational intervention for cancer patients and their family caregivers</t>
         </is>
       </c>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://doi.org/doi:10.1097/NCC.0000000000000159</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
@@ -7661,12 +7970,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Background: Hypoglycemia and hypoglycemia unawareness are common in long-standing type 1 diabetes (T1D). This pilot study examined the real-world use of a smartphone application (app), which receives meter readings and logs hypoglycemic symptoms, causes, and treatments to reduce hypoglycemia. Methods: Adults with T1D and recent hypoglycemia synchronized their glucose meter to their smartphone and used the Joslin HypoMap™ app powered by Glooko to track hypoglycemic events. At baseline, and after 6 and 12 weeks of using the app, a blinded continuous glucose monitor (CGM; Dexcom G4) was used for 2 weeks and surveys administered. Results: Participants (n = 22) at baseline had mean (SD) age 43 (14) years, duration of diabetes 26 (13) years, A1c 8.0% (0.87) and 21/22 had reduced hypoglycemia awareness per Clarke Hypoglycemia Unawareness survey scores; 13 (59%) were “CGM completers” (CGM data available at baseline and follow-up). Most noncompletion related to time required/difficulties using the mobile app. After 6 weeks, 8/13 completers (62% of CGM completers, 36% of total participants) had reduced daytime minutes with glucose &lt;54 mg/dL (mean ↓331 minutes) and 10/13 (77% of CGM completers; 45% of total participants) had reduced time ≤ 70 mg/dL (mean ↓449 minutes). This was not sustained at 12 weeks, at which time half of the completers had less time (“improved”). Five participants reported improved hypoglycemia awareness; 9 stated the app helped them better recognize hypoglycemia. Conclusions: Use of this phone app has the potential to help reduce daytime hypoglycemia in a subset of T1D adults with reduce hypoglycemia awareness; larger studies are needed. © 2018 Diabetes Technology Society.</t>
+          <t>Background: Hypoglycemia and hypoglycemia unawareness are common in long-standing type 1 diabetes (T1D). This pilot study examined the real-world use of a smartphone application (app), which receives meter readings and logs hypoglycemic symptoms, causes, and treatments to reduce hypoglycemia. Methods: Adults with T1D and recent hypoglycemia synchronized their glucose meter to their smartphone and used the Joslin HypoMap(tm) app powered by Glooko to track hypoglycemic events. At baseline, and after 6 and 12 weeks of using the app, a blinded continuous glucose monitor (CGM; Dexcom G4) was used for 2 weeks and surveys administered. Results: Participants (n = 22) at baseline had mean (SD) age 43 (14) years, duration of diabetes 26 (13) years, A1c 8.0% (0.87) and 21/22 had reduced hypoglycemia awareness per Clarke Hypoglycemia Unawareness survey scores; 13 (59%) were "CGM completers" (CGM data available at baseline and follow-up). Most noncompletion related to time required/difficulties using the mobile app. After 6 weeks, 8/13 completers (62% of CGM completers, 36% of total participants) had reduced daytime minutes with glucose &lt;54 mg/dL (mean |331 minutes) and 10/13 (77% of CGM completers; 45% of total participants) had reduced time &lt;= 70 mg/dL (mean |449 minutes). This was not sustained at 12 weeks, at which time half of the completers had less time ("improved"). Five participants reported improved hypoglycemia awareness; 9 stated the app helped them better recognize hypoglycemia. Conclusions: Use of this phone app has the potential to help reduce daytime hypoglycemia in a subset of T1D adults with reduce hypoglycemia awareness; larger studies are needed.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Adolescent; Adult; Awareness; Blood Glucose; Blood Glucose Self-Monitoring; Diabetes Mellitus, Type 1; Feasibility Studies; Female; Humans; Hypoglycemia; Hypoglycemic Agents; Male; Middle Aged; Mobile Applications; Patient Satisfaction; Pilot Projects; Self Care; Self Concept; Smartphone; Young Adult; glucose; hemoglobin A1c; antidiabetic agent; adult; Article; awareness; blood glucose monitoring; female; follow up; glucose blood level; glycemic control; health survey; human; hypoglycemia; insulin dependent diabetes mellitus; male; middle aged; patient satisfaction; pilot study; prevalence; questionnaire; adolescent; blood; clinical trial; devices; drug effect; feasibility study; hypoglycemia; insulin dependent diabetes mellitus; mobile application; procedures; self care; self concept; smartphone; young adult</t>
+          <t>Adolescent; Adult; Awareness; Blood Glucose; Blood Glucose Self-Monitoring; Diabetes Mellitus;  Type 1; Feasibility Studies; Female; Humans; Hypoglycemia; Hypoglycemic Agents; Male; Middle Aged; Mobile Applications; Patient Satisfaction; Pilot Projects; Self Care; Self Concept; Smartphone; Young Adult; glucose; hemoglobin A1c; antidiabetic agent; adult; Article; awareness; blood glucose monitoring; female; follow up; glucose blood level; glycemic control; health survey; human; hypoglycemia; insulin dependent diabetes mellitus; male; middle aged; patient satisfaction; pilot study; prevalence; questionnaire; adolescent; blood; clinical trial; devices; drug effect; feasibility study; hypoglycemia; insulin dependent diabetes mellitus; mobile application; procedures; self care; self concept; smartphone; young adult</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -7687,23 +7996,23 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1192 – 1199</t>
+          <t>1192 - 1199</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Feuerstein-Simon20181192,
+          <t>@ARTICLE{Feuerstein-Simon20181192,
     author = "Feuerstein-Simon, Carly and Bzdick, Suzan and Padmanabhuni, Amitha and Bains, Puneetpal and Roe, Cheryl and Weinstock, Ruth S.",
     title = "Use of a Smartphone Application to Reduce Hypoglycemia in Type 1 Diabetes: A Pilot Study",
     year = "2018",
     journal = "Journal of Diabetes Science and Technology",
     volume = "12",
     number = "6",
-    pages = "1192 – 1199",
+    pages = "1192 - 1199",
     doi = "10.1177/1932296817749859",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85055633620\&amp;doi=10.1177\%2f1932296817749859\&amp;partnerID=40\&amp;md5=323ffa428049cb864b3ac002fa49d443",
     affiliations = "SUNY Upstate Medical University, Syracuse, NY, United States",
-    abstract = "Background: Hypoglycemia and hypoglycemia unawareness are common in long-standing type 1 diabetes (T1D). This pilot study examined the real-world use of a smartphone application (app), which receives meter readings and logs hypoglycemic symptoms, causes, and treatments to reduce hypoglycemia. Methods: Adults with T1D and recent hypoglycemia synchronized their glucose meter to their smartphone and used the Joslin HypoMap™ app powered by Glooko to track hypoglycemic events. At baseline, and after 6 and 12 weeks of using the app, a blinded continuous glucose monitor (CGM; Dexcom G4) was used for 2 weeks and surveys administered. Results: Participants (n = 22) at baseline had mean (SD) age 43 (14) years, duration of diabetes 26 (13) years, A1c 8.0\% (0.87) and 21/22 had reduced hypoglycemia awareness per Clarke Hypoglycemia Unawareness survey scores; 13 (59\%) were “CGM completers” (CGM data available at baseline and follow-up). Most noncompletion related to time required/difficulties using the mobile app. After 6 weeks, 8/13 completers (62\% of CGM completers, 36\% of total participants) had reduced daytime minutes with glucose &lt;54 mg/dL (mean ↓331 minutes) and 10/13 (77\% of CGM completers; 45\% of total participants) had reduced time ≤ 70 mg/dL (mean ↓449 minutes). This was not sustained at 12 weeks, at which time half of the completers had less time (“improved”). Five participants reported improved hypoglycemia awareness; 9 stated the app helped them better recognize hypoglycemia. Conclusions: Use of this phone app has the potential to help reduce daytime hypoglycemia in a subset of T1D adults with reduce hypoglycemia awareness; larger studies are needed. © 2018 Diabetes Technology Society.",
+    abstract = "Background: Hypoglycemia and hypoglycemia unawareness are common in long-standing type 1 diabetes (T1D). This pilot study examined the real-world use of a smartphone application (app), which receives meter readings and logs hypoglycemic symptoms, causes, and treatments to reduce hypoglycemia. Methods: Adults with T1D and recent hypoglycemia synchronized their glucose meter to their smartphone and used the Joslin HypoMap(tm) app powered by Glooko to track hypoglycemic events. At baseline, and after 6 and 12 weeks of using the app, a blinded continuous glucose monitor (CGM; Dexcom G4) was used for 2 weeks and surveys administered. Results: Participants (n = 22) at baseline had mean (SD) age 43 (14) years, duration of diabetes 26 (13) years, A1c 8.0\% (0.87) and 21/22 had reduced hypoglycemia awareness per Clarke Hypoglycemia Unawareness survey scores; 13 (59\%) were "CGM completers" (CGM data available at baseline and follow-up). Most noncompletion related to time required/difficulties using the mobile app. After 6 weeks, 8/13 completers (62\% of CGM completers, 36\% of total participants) had reduced daytime minutes with glucose &lt;54 mg/dL (mean |331 minutes) and 10/13 (77\% of CGM completers; 45\% of total participants) had reduced time &lt;= 70 mg/dL (mean |449 minutes). This was not sustained at 12 weeks, at which time half of the completers had less time ("improved"). Five participants reported improved hypoglycemia awareness; 9 stated the app helped them better recognize hypoglycemia. Conclusions: Use of this phone app has the potential to help reduce daytime hypoglycemia in a subset of T1D adults with reduce hypoglycemia awareness; larger studies are needed. (c) 2018 Diabetes Technology Society.",
     author_keywords = "apps; hypoglycemia; hypoglycemia awareness; mobile; type 1 diabetes",
     keywords = "Adolescent; Adult; Awareness; Blood Glucose; Blood Glucose Self-Monitoring; Diabetes Mellitus, Type 1; Feasibility Studies; Female; Humans; Hypoglycemia; Hypoglycemic Agents; Male; Middle Aged; Mobile Applications; Patient Satisfaction; Pilot Projects; Self Care; Self Concept; Smartphone; Young Adult; glucose; hemoglobin A1c; antidiabetic agent; adult; Article; awareness; blood glucose monitoring; female; follow up; glucose blood level; glycemic control; health survey; human; hypoglycemia; insulin dependent diabetes mellitus; male; middle aged; patient satisfaction; pilot study; prevalence; questionnaire; adolescent; blood; clinical trial; devices; drug effect; feasibility study; hypoglycemia; insulin dependent diabetes mellitus; mobile application; procedures; self care; self concept; smartphone; young adult",
     correspondence_address = "R.S. Weinstock; SUNY Upstate Medical University, Syracuse, 750 E Adams St (CWB 353), 13210, United States; email: weinstor@upstate.edu",
@@ -7716,8 +8025,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 14; All Open Access, Bronze Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -7738,7 +8046,7 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> receives meter readings and logs hypoglycemic symptoms, causes, and treatments to reduce hypoglycemia.</t>
+          <t>receives meter readings and logs hypoglycemic symptoms, causes, and treatments to reduce hypoglycemia.</t>
         </is>
       </c>
       <c r="R66" t="n">
@@ -7746,7 +8054,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -7757,12 +8065,12 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85055633620&amp;doi=10.1177%2f1932296817749859&amp;partnerID=40&amp;md5=323ffa428049cb864b3ac002fa49d443</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85055633620&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=f4591f6fac6a084ec94fd72d82442bdd&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28use+of+a+smartphone+application+to+reduce+hypoglycemia+in+type+1+diabetes+a+pilot+study%29&amp;sl=102&amp;sessionSearchId=f4591f6fac6a084ec94fd72d82442bdd&amp;relpos=0</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>SAGE Publications Inc.</t>
+          <t>SAGE Publications Inc</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
@@ -7783,7 +8091,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Pain buddy: A novel use of m-health in the management of children’s cancer pain</t>
+          <t>Pain buddy: A novel use of m-health in the management of children's cancer pain</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7794,7 +8102,7 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">M. A. Fortier, W. W. Chung, A. Martinez, S. Gago-Masague, and L. Sender, </t>
+          <t>M. A. Fortier, W. W. Chung, A. Martinez, S. Gago-Masague, and L. Sender,</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
@@ -7841,7 +8149,11 @@
           <t>Pain buddy: A novel use of m-health in the management of children’s cancer pain</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://doi.org/doi:10.1016/j.compbiomed.2016.07.012</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
@@ -7866,7 +8178,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>This chapter deals with the communication of persuasion. Only a small percentage of communication involves words: as the old saying goes, “it’s not what you say, it’s how you say it”. While this likely underestimates the importance of good verbal persuasion techniques, it is accurate in underlining the critical role of non-verbal behaviour during face-to-face communication. In this chapter we restrict the discussion to body language. We also consider embodied virtual agents. As is the case with humans, there are a number of fundamental factors to be considered when constructing persuasive agents. In particular, one who wishes to persuade must appear credible, trustworthy, confident, and non-threatening. Knowing how not to behave is also a vital basis for effective persuasion. This includes resolving task constraints or other factors with the social perception considerations. These social virtual agents face many of the same problems as humans have in controlling and expressing themselves in an appropriate manner so as to establish and maintain persuasive interaction. All along the chapter, much of our discussion will handle concepts applicable both to agent and to human behaviour.</t>
+          <t>This chapter deals with the communication of persuasion. Only a small percentage of communication involves words: as the old saying goes, "it's not what you say, it's how you say it". While this likely underestimates the importance of good verbal persuasion techniques, it is accurate in underlining the critical role of non-verbal behaviour during face-to-face communication. In this chapter we restrict the discussion to body language. We also consider embodied virtual agents. As is the case with humans, there are a number of fundamental factors to be considered when constructing persuasive agents. In particular, one who wishes to persuade must appear credible, trustworthy, confident, and non-threatening. Knowing how not to behave is also a vital basis for effective persuasion. This includes resolving task constraints or other factors with the social perception considerations. These social virtual agents face many of the same problems as humans have in controlling and expressing themselves in an appropriate manner so as to establish and maintain persuasive interaction. All along the chapter, much of our discussion will handle concepts applicable both to agent and to human behaviour.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7876,7 +8188,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Elisabeth André4,; Elisabetta Bevacqua5,; Dirk Heylen6,; Radoslaw Niewiadomski7,; Catherine Pelachaud8,; Christopher Peters9,; Isabella Poggi10&amp;; Matthias Rehm11</t>
+          <t>Elisabeth Andre; Elisabetta Bevacqua; Dirk Heylen; Radoslaw Niewiadomski; Catherine Pelachaud; Christopher Peters; Isabella Poggi; Matthias Rehm</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -7892,7 +8204,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>pp 585–608</t>
+          <t>pp 585-608</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -7931,7 +8243,11 @@
           <t>Non-verbal persuasion and communication in an affective agent</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-15184-2_30</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
@@ -7955,7 +8271,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SOPRANO – An Ambient Assisted Living System for Supporting Older People at Home</t>
+          <t>SOPRANO - An Ambient Assisted Living System for Supporting Older People at Home</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7970,7 +8286,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Andrew Sixsmith20,; Sonja Meuller20,; Felicitas Lull20,; Michael Klein20,; Ilse Bierhoff20,; Sarah Delaney20&amp;; Robert Savage20</t>
+          <t>Andrew Sixsmith; Sonja Meuller; Felicitas Lull; Michael Klein; Ilse Bierhoff; Sarah Delaney; Robert Savage</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -7986,7 +8302,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>pp 233–236</t>
+          <t>pp 233-236</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -8025,7 +8341,11 @@
           <t>SOPRANO - An ambient assisted living system for supporting older people at home</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-02868-7_30</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
@@ -8054,12 +8374,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Objective: An automated health counselor agent was designed to promote both physical activity and fruit and vegetable consumption through a series of simulated conversations with users on their home computers. Methods: The agent was evaluated in a 4-arm randomized trial of a two-month daily contact intervention comparing: (a) physical activity; (b) fruit and vegetable consumption; (c) both interventions; and (d) a non-intervention control. Physical activity was assessed using daily pedometer steps. Daily servings of fruit and vegetables were assessed using the NIH/NCI self-report Fruit and Vegetable Scan. Results: Participants in the physical activity intervention increased their walking on average compared to the control group, while those in the fruit and vegetable intervention and combined intervention decreased walking. Participants in the fruit and vegetable intervention group consumed significantly more servings per day compared to those in the control group, and those in the combined intervention reported consuming more compared to those in the control group. Conclusion: Automated health intervention software designed for efficient re-use is effective at changing health behavior. Practice implications: Automated health behavior change interventions can be designed to facilitate translation and adaptation across multiple behaviors. © 2013 Elsevier Ireland Ltd.</t>
+          <t>Objective: An automated health counselor agent was designed to promote both physical activity and fruit and vegetable consumption through a series of simulated conversations with users on their home computers. Methods: The agent was evaluated in a 4-arm randomized trial of a two-month daily contact intervention comparing: (a) physical activity; (b) fruit and vegetable consumption;</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Adult; Aged; Artificial Intelligence; Computer-Assisted Instruction; Female; Food Habits; Fruit; Health Behavior; Health Promotion; Humans; Intervention Studies; Interviews as Topic; Male; Motor Activity; Outcome and Process Assessment (Health Care); Qualitative Research; Questionnaires; Vegetables; Walking; Behavioral informatics; Dialog system; Diet promotion; Embodied conversational agent; Fruit and vegetable consumption promotion; Health behavior change intervention; Ontology; Physical activity promotion; Relational agent; Walking promotion; adult; article; artificial intelligence; automation; behavior change; computer; computer interface; computer program; controlled study; conversation; feeding behavior; female; food intake; fruit; Fruit and Vegetable Scan; health behavior; health education; health promotion; human; human experiment; International Physical Activity Questionnaire; male; named inventories, questionnaires and rating scales; normal human; pedometer; physical activity; portion size; priority journal; randomized controlled trial; self report; simulation; vegetable; walking; weight change</t>
+          <t>Adult; Aged; Artificial Intelligence; Computer-Assisted Instruction; Female; Food Habits; Fruit; Health Behavior; Health Promotion; Humans; Intervention Studies; Interviews as Topic; Male; Motor Activity; Outcome and Process Assessment (Health Care); Qualitative Research; Questionnaires; Vegetables; Walking; Behavioral informatics; Dialog system; Diet promotion; Embodied conversational agent; Fruit and vegetable consumption promotion; Health behavior change intervention; Ontology; Physical activity promotion; Relational agent; Walking promotion; adult; article; artificial intelligence; automation; behavior change; computer; computer interface; computer program; controlled study; conversation; feeding behavior; female; food intake; fruit; Fruit and Vegetable Scan; health behavior; health education; health promotion; human; human experiment; International Physical Activity Questionnaire; male; named inventories;  questionnaires and rating scales; normal human; pedometer; physical activity; portion size; priority journal; randomized controlled trial; self report; simulation; vegetable; walking; weight change</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -8080,23 +8400,23 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>142 – 148</t>
+          <t>142 - 148</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Bickmore2013142,
+          <t>@ARTICLE{Bickmore2013142,
     author = "Bickmore, Timothy W. and Schulman, Daniel and Sidner, Candace",
     title = "Automated interventions for multiple health behaviors using conversational agents",
     year = "2013",
     journal = "Patient Education and Counseling",
     volume = "92",
     number = "2",
-    pages = "142 – 148",
+    pages = "142 - 148",
     doi = "10.1016/j.pec.2013.05.011",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84880329815\&amp;doi=10.1016\%2fj.pec.2013.05.011\&amp;partnerID=40\&amp;md5=f95f289aaba03c31e60fecb099ca2bc0",
     affiliations = "College of Computer and Information Science, Northeastern University, Boston, United States; Worcester Polytechnic Institute, Department of Computer Science, Worcester, United States",
-    abstract = "Objective: An automated health counselor agent was designed to promote both physical activity and fruit and vegetable consumption through a series of simulated conversations with users on their home computers. Methods: The agent was evaluated in a 4-arm randomized trial of a two-month daily contact intervention comparing: (a) physical activity; (b) fruit and vegetable consumption; (c) both interventions; and (d) a non-intervention control. Physical activity was assessed using daily pedometer steps. Daily servings of fruit and vegetables were assessed using the NIH/NCI self-report Fruit and Vegetable Scan. Results: Participants in the physical activity intervention increased their walking on average compared to the control group, while those in the fruit and vegetable intervention and combined intervention decreased walking. Participants in the fruit and vegetable intervention group consumed significantly more servings per day compared to those in the control group, and those in the combined intervention reported consuming more compared to those in the control group. Conclusion: Automated health intervention software designed for efficient re-use is effective at changing health behavior. Practice implications: Automated health behavior change interventions can be designed to facilitate translation and adaptation across multiple behaviors. © 2013 Elsevier Ireland Ltd.",
+    abstract = "Objective: An automated health counselor agent was designed to promote both physical activity and fruit and vegetable consumption through a series of simulated conversations with users on their home computers. Methods: The agent was evaluated in a 4-arm randomized trial of a two-month daily contact intervention comparing: (a) physical activity; (b) fruit and vegetable consumption; (c) both interventions; and (d) a non-intervention control. Physical activity was assessed using daily pedometer steps. Daily servings of fruit and vegetables were assessed using the NIH/NCI self-report Fruit and Vegetable Scan. Results: Participants in the physical activity intervention increased their walking on average compared to the control group, while those in the fruit and vegetable intervention and combined intervention decreased walking. Participants in the fruit and vegetable intervention group consumed significantly more servings per day compared to those in the control group, and those in the combined intervention reported consuming more compared to those in the control group. Conclusion: Automated health intervention software designed for efficient re-use is effective at changing health behavior. Practice implications: Automated health behavior change interventions can be designed to facilitate translation and adaptation across multiple behaviors. (c) 2013 Elsevier Ireland Ltd.",
     author_keywords = "Behavioral informatics; Dialog system; Diet promotion; Embodied conversational agent; Fruit and vegetable consumption promotion; Health behavior change intervention; Ontology; Physical activity promotion; Relational agent; Walking promotion",
     keywords = "Adult; Aged; Artificial Intelligence; Computer-Assisted Instruction; Female; Food Habits; Fruit; Health Behavior; Health Promotion; Humans; Intervention Studies; Interviews as Topic; Male; Motor Activity; Outcome and Process Assessment (Health Care); Qualitative Research; Questionnaires; Vegetables; Walking; Behavioral informatics; Dialog system; Diet promotion; Embodied conversational agent; Fruit and vegetable consumption promotion; Health behavior change intervention; Ontology; Physical activity promotion; Relational agent; Walking promotion; adult; article; artificial intelligence; automation; behavior change; computer; computer interface; computer program; controlled study; conversation; feeding behavior; female; food intake; fruit; Fruit and Vegetable Scan; health behavior; health education; health promotion; human; human experiment; International Physical Activity Questionnaire; male; named inventories, questionnaires and rating scales; normal human; pedometer; physical activity; portion size; priority journal; randomized controlled trial; self report; simulation; vegetable; walking; weight change",
     correspondence_address = "T.W. Bickmore; College of Computer and Information Science, Northeastern University, Boston, MA 02115, 360 Huntington Avenue, WVH202, United States; email: bickmore@ccs.neu.edu",
@@ -8109,8 +8429,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 132; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -8139,7 +8458,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -8150,13 +8469,17 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84880329815&amp;doi=10.1016%2fj.pec.2013.05.011&amp;partnerID=40&amp;md5=f95f289aaba03c31e60fecb099ca2bc0</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84880329815&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=917d782f22f79d4ef9af6bdd7a5b86c3&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28automated+interventions+for+multiple+health+behaviors+using+conversational+agents%29&amp;sl=96&amp;sessionSearchId=917d782f22f79d4ef9af6bdd7a5b86c3&amp;relpos=0</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Science Direct</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8500,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Assisting elderly people in emergency situations is very important to improve their quality of life. This assistance can be done with the help of volunteers using technology and in particular pervasive and mobile computing. We propose in this paper Assist-Me, a smart system aimed at assisting elderly people in case of emergency. The goal is to enhance elderly people daily life independence and autonomy, in indoor and outdoor environments, by offering flexible and faster assistance in emergency situations via social intervention offered by volunteers. We believe that our solution can alleviate the unnecessary intervention of emergency center, provide a flexible volunteering intervention and better serve elderly people in needs. Assist-Me includes two smartphone applications: one for elderly people that require emergency assistance and the second for volunteers who receive the request. Assist-Me manages emergency situations by automatically selecting appropriate volunteers based on fuzzy-logic engine. The implementation of the engine is also presented in this paper. © 2015 IEEE.</t>
+          <t>Assisting elderly people in emergency situations is very important to improve their quality of life. This assistance can be done with the help of volunteers using technology and in particular pervasive and mobile computing. We propose in this paper Assist-Me, a smart system aimed at assisting elderly people in case of emergency. The goal is to enhance elderly people daily life independence and autonomy, in indoor and outdoor environments, by offering flexible and faster assistance in emergency situations via social intervention offered by volunteers. We believe that our solution can alleviate the unnecessary intervention of emergency center, provide a flexible volunteering intervention and better serve elderly people in needs. Assist-Me includes two smartphone applications: one for elderly people that require emergency assistance and the second for volunteers who receive the request. Assist-Me manages emergency situations by automatically selecting appropriate volunteers based on fuzzy-logic engine. The implementation of the engine is also presented in this paper.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8200,25 +8523,29 @@
           <t>https://doi.org/10.1109/CIT/IUCC/DASC/PICOM.2015.351</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>1.B. Abdulrazak, Y. Malik, F. Arab and S. Reid, PhonAge: Adapted SmartPhone for Aging Population, pp. 27-35, 2013. Google Scholar; 2.B. Abdulrazak, P. Roy, C. Gouin-Vallerand, Y. Belala and S. Giroux, "Micro Context-Awareness for Autonomic Pervasive Computing", International Journal of Business Data Communications and Networking (IJBDCN), vol. 7, no. 2, pp. 49-69, 2011. CrossRef  Google Scholar; 3.B. Abdulrazak, R. Yared, T. Tessier and P. Mabilleau, "Toward pervasive computing system to enhance safety of ageing people in smart kitchen", Int. Conference of Information and Communication Technologies for Ageing Well and e-Health, 2015. CrossRef  Google Scholar; 4.G. Acampora, D.J. Cook, P. Rashidi and A.V. Vasilakos, "A Survey on Ambient Intelligence in Health Care", Proc. IEEE. Inst. Electr. Electron. Eng., vol. 101, no. 12, pp. 2470-2494, 2013. Google Scholar; 5.B.S. Beauvais, V. Rialle and J. Sablier, MyVigi: An Android Application to Detect Fall and Wandering. (c), pp. 156-160, 2012. Google Scholar; 6.M. Bilandzic, C. Menkens, J. Sussmann, D. Kleine-Albers, E. Bittner, A. Golpaygani, et al., "SociCare: Towards a context aware mobile community emergency system", Lect. Notes Inst. Comput. Sci. Soc. Telecommun. Eng. 48 LNICST, pp. 338-352, 2010. CrossRef  Google Scholar; 7.D. Bottazzi, A. Corradi and R. Montanari, "Context-aware middleware solutions for anytime and anywhere emergency assistance to elderly people", IEEE Commun. Mag., vol. 44, no. 4, pp. 82-90, 2006. View Article  Google Scholar; 8.Cloud Messaging.; 9.C. Doukas, V. Metsis, E. Becker, Z. Le, F. Makedon and I. Maglogiannis, "Digital cities of the future: Extending @home assistive technologies for the elderly and the disabled", Telemat. Informatics, vol. 28, no. 3, pp. 176-190, 2011. CrossRef  Google Scholar; 10.J. Elsner, P. Meisen, S. Thelen, D. Schilberg and S. Jeschke, "Emurgency-A basic concept for an AI driven volunteer notification system for integrating laypersons into emergency medical services", Int. J. Adv. Life Sci., vol. 5, no. 3-4, pp. 223-236, 2013. Google Scholar; 11.Fuzzylite,  [online]  Available: http://www.fuzzylite.com. Google Scholar; 12.Google Maps Directions API,  [online]  Available: https://developers.google.com/maps/documentation/directions/. Google Scholar; 13.C. Gouin-Vallerand, B. Abdulrazak, S. Giroux and M. Mokhtari, "A software self-organizing middleware for smart spaces based on fuzzy logic", Proc. 2010 12th IEEE Int. Conf. High Perform. Comput. Commun. HPCC 2010, pp. 138-145, 2010. CrossRef  Google Scholar; 14.A. Helal, M. Mokhtari and B. Abdulrazak, The engineering handbook of smart technology for aging disability and independence Wiley Online Library, 2008. CrossRef  Google Scholar; 15.Mallat Khaddaj, H. Yared, R. Abdulrazak and B. Assistive, "Technology for Risks Affecting Elderly People in Outdoor Environment", International Conference on Information and Communication Technologies for Ageing Well and e-Health, 2015. Google Scholar; 16.P. Klasnja and W. Pratt, "Healthcare in the pocket: mapping the space of mobile-phone health interventions", J. Biomed. Inform., vol. 45, no. 1, pp. 184-98, 2012. CrossRef  Google Scholar; 17.Q. Lin, D. Zhang, H. Ni, X. Zhou and Z. Yu, "An Integrated Service Platform for Pervasive Elderly Care", 2012 IEEE Asia-Pacific Serv. Comput. Conf., pp. 165-172, 2012. CrossRef  Google Scholar; 18.A. Ogorevc and B. Loncarevic, iHELP emergency care network, pp. 252-255, May 2014. Google Scholar; 19.L. Plouffe and A. Kalache, "Towards global age-friendly cities: determining urban features that promote active aging", J. Urban Heal., vol. 87, no. 5, pp. 733-739, 2010. CrossRef  Google Scholar; 20.P. Rashidi and A. Mihailidis, "A Survey on Ambient-Assisted Living Tools for Older Adults", IEEE J. Biomed. Heal. Informatics, vol. 17, no. 3, pp. 579-590, 2013. View Article  Google Scholar; 21.T.J. Ross, FUZZY LOGIC WITH ENGINEERING, 2004. Google Scholar; 22.Smartphone ownership demographics, 2014. Google Scholar; 23.F. Sposaro, J. Danielson and G. Tyson, "iWander: An Android application for dementia patients", Conf. Proc. Annu. Int. Conf. IEEE Eng. Med. Biol. Soc. IEEE Eng. Med. Biol. Soc. Annu. Conf. 2010, pp. 3875-8, 2010. View Article  Google Scholar; 24.F. Sposaro and G. Tyson, "iFall: an Android application for fall monitoring and response", Conf. Proc. Annu. Int. Conf. IEEE Eng. Med. Biol. Soc. IEEE Eng. Med. Biol. Soc. Annu. Conf. 2009, pp. 6119-22, 2009. CrossRef  Google Scholar; 25.T. Taleb, D. Bottazzi, M. Guizani and H. Nait-Charif, "Angelah: a framework for assisting elders at home", IEEE J. Sel. Areas Commun., vol. 27, no. 4, pp. 480-494, 2009. CrossRef  Google Scholar; 26.T. Taleb, Z.M. Fadlullah, D. Bottazzi, N. Nasser and Y. Chen, "A Context-Aware Middleware-Level Solution towards a Ubiquitous Healthcare System", 2009 IEEE Int. Conf. Wirel. Mob. Comput. Netw. Commun., pp. 61-66, 2009. CrossRef  Google Scholar; 27. [online]  Available: https://www.twilio.com/.; 28.2012,  [online]  Available: http://www.who.int/ageing/about/facts/en/.; 29.R. Yared and B. Abdulrazak, "Toward Context-Aware Smart Oven to Prevent Cooking Risks in Kitchen of Elderly People" in Communications in Computer and Information Science (CCIS), Springer, 2015. CrossRef  Google Scholar; 30.R. Yared, Khaddaj, H. Mallat and B. Abdulrazak, "Ambient Technology to Support Elderly People in Outdoor Risk Situations" in Communications in Computer and Information Science (CCIS), Springer, 2015. CrossRef  Google Scholar</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2373 – 2380</t>
+          <t>2373 - 2380</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Mallat20152373,
+          <t>@CONFERENCE{Mallat20152373,
     author = "Mallat, Hady Khaddaj and Abdulrazak, Bessam",
     editor = "L., Atzori and X., Jin and S., Jarvis and L., Liu and R.A., Calvo and J., Hu and G., Min and N., Georgalas and Y., Wu",
     title = "Assist-Me, a volunteer mobile emergency system to assist elderly people",
     year = "2015",
     journal = "Proceedings - 15th IEEE International Conference on Computer and Information Technology, CIT 2015, 14th IEEE International Conference on Ubiquitous Computing and Communications, IUCC 2015, 13th IEEE International Conference on Dependable, Autonomic and Secure Computing, DASC 2015 and 13th IEEE International Conference on Pervasive Intelligence and Computing, PICom 2015",
-    pages = "2373 – 2380",
+    pages = "2373 - 2380",
     doi = "10.1109/CIT/IUCC/DASC/PICOM.2015.351",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84964222442\&amp;doi=10.1109\%2fCIT\%2fIUCC\%2fDASC\%2fPICOM.2015.351\&amp;partnerID=40\&amp;md5=760abed66147376daae25db08eba179e",
-    affiliations = "Département d'Informatique, Université de Sherbrooke, Sherbrooke, Canada",
-    abstract = "Assisting elderly people in emergency situations is very important to improve their quality of life. This assistance can be done with the help of volunteers using technology and in particular pervasive and mobile computing. We propose in this paper Assist-Me, a smart system aimed at assisting elderly people in case of emergency. The goal is to enhance elderly people daily life independence and autonomy, in indoor and outdoor environments, by offering flexible and faster assistance in emergency situations via social intervention offered by volunteers. We believe that our solution can alleviate the unnecessary intervention of emergency center, provide a flexible volunteering intervention and better serve elderly people in needs. Assist-Me includes two smartphone applications: one for elderly people that require emergency assistance and the second for volunteers who receive the request. Assist-Me manages emergency situations by automatically selecting appropriate volunteers based on fuzzy-logic engine. The implementation of the engine is also presented in this paper. © 2015 IEEE.",
+    affiliations = "Departement d'Informatique, Universite de Sherbrooke, Sherbrooke, Canada",
+    abstract = "Assisting elderly people in emergency situations is very important to improve their quality of life. This assistance can be done with the help of volunteers using technology and in particular pervasive and mobile computing. We propose in this paper Assist-Me, a smart system aimed at assisting elderly people in case of emergency. The goal is to enhance elderly people daily life independence and autonomy, in indoor and outdoor environments, by offering flexible and faster assistance in emergency situations via social intervention offered by volunteers. We believe that our solution can alleviate the unnecessary intervention of emergency center, provide a flexible volunteering intervention and better serve elderly people in needs. Assist-Me includes two smartphone applications: one for elderly people that require emergency assistance and the second for volunteers who receive the request. Assist-Me manages emergency situations by automatically selecting appropriate volunteers based on fuzzy-logic engine. The implementation of the engine is also presented in this paper. (c) 2015 IEEE.",
     author_keywords = "Assistance; Assistive technology; Elderly people; Emergency; Fuzzy logic; Smartphone; Ubiquitous; Volunteer",
     keywords = "Computation theory; Engines; Fuzzy logic; Reconfigurable hardware; Signal encoding; Smartphones; Ubiquitous computing; Assistance; Assistive technology; Elderly people; Emergency; Ubiquitous; Volunteer; Computer circuits",
     publisher = "Institute of Electrical and Electronics Engineers Inc.",
@@ -8229,8 +8556,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7; Conference name: 15th IEEE International Conference on Computer and Information Technology, CIT 2015, 14th IEEE International Conference on Ubiquitous Computing and Communications, IUCC 2015, 13th IEEE International Conference on Dependable, Autonomic and Secure Computing, DASC 2015 and 13th IEEE International Conference on Pervasive Intelligence and Computing, PICom 2015; Conference date: 26 October 2015 through 28 October 2015; Conference code: 118896"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -8259,7 +8585,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -8270,19 +8596,15 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84964222442&amp;doi=10.1109%2fCIT%2fIUCC%2fDASC%2fPICOM.2015.351&amp;partnerID=40&amp;md5=760abed66147376daae25db08eba179e</t>
+          <t>https://ieeexplore.ieee.org/document/7363397</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+          <t>Institute of Electrical and Electronics Engineers Inc</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8296,12 +8618,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CogniWin – a virtual assistance system for older adults at work</t>
+          <t>CogniWin - a virtual assistance system for older adults at work</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>This paper presents an innovative virtual assistant system, which aims to address older adults’ needs in a professional environment by proposing promising and innovative virtual assistance mechanisms. The system, named CogniWin, is expected to alleviate eventual age related memory degradation and gradual decrease of other cognitive capabilities (i.e. speed of processing new information, concentration level) and at the same time assist older adults to increase their learning abilities through personalized learning assistance and well-being guidance. In this paper we describe the overall system concept, the technological approach, the methodology used in the elicitation of user needs, and describe the first pre-trials’ evaluation. © Springer International Publishing Switzerland 2015.</t>
+          <t>This paper presents an innovative virtual assistant system, which aims to address older adults' needs in a professional environment by proposing promising and innovative virtual assistance mechanisms. The system, named CogniWin, is expected to alleviate eventual age related memory degradation and gradual decrease of other cognitive capabilities (i.e. speed of processing new information, concentration level) and at the same time assist older adults to increase their learning abilities through personalized learning assistance and well-being guidance. In this paper we describe the overall system concept, the technological approach, the methodology used in the elicitation of user needs, and describe the first pre-trials' evaluation.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8311,7 +8633,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hanke, Sten; Meinedo, Hugo; Portugal, David; Belk, Marios; Quintas, João; Christodoulou, Eleni; Sili, Miroslav; Dias, Miguel Sales; Samaras, George</t>
+          <t>Hanke, Sten; Meinedo, Hugo; Portugal, David; Belk, Marios; Quintas, Joao; Christodoulou, Eleni; Sili, Miroslav; Dias, Miguel Sales; Samaras, George</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -8327,23 +8649,23 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>257 – 268</t>
+          <t>257 - 268</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Hanke2015257,
-    author = "Hanke, Sten and Meinedo, Hugo and Portugal, David and Belk, Marios and Quintas, João and Christodoulou, Eleni and Sili, Miroslav and Dias, Miguel Sales and Samaras, George",
+          <t>@ARTICLE{Hanke2015257,
+    author = "Hanke, Sten and Meinedo, Hugo and Portugal, David and Belk, Marios and Quintas, Joao and Christodoulou, Eleni and Sili, Miroslav and Dias, Miguel Sales and Samaras, George",
     editor = "G., Salvendy and J., Zhou and G., Salvendy",
-    title = "CogniWin – a virtual assistance system for older adults at work",
+    title = "CogniWin - a virtual assistance system for older adults at work",
     year = "2015",
     journal = "Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)",
     volume = "9194",
-    pages = "257 – 268",
+    pages = "257 - 268",
     doi = "10.1007/978-3-319-20913-5\_24",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84949845450\&amp;doi=10.1007\%2f978-3-319-20913-5\_24\&amp;partnerID=40\&amp;md5=f09954e8ca4a681f31746ed1ab7427ce",
     affiliations = "Health and Environment Department, Biomedical Systems, AIT Austrian Institute of Technology GmbH, Vienna, Austria; Microsoft Language Development Center, Lisboa, Portugal; Citard Services Ltd, Nicosia, Cyprus; Department of Computer Science, University of Cyprus, Nicosia, Cyprus; Instituto Pedro Nunes, Coimbra, Portugal; University of Geneva, Computer Science Centre (CUI)/Institute of Information Service Science, Geneva, Switzerland",
-    abstract = "This paper presents an innovative virtual assistant system, which aims to address older adults’ needs in a professional environment by proposing promising and innovative virtual assistance mechanisms. The system, named CogniWin, is expected to alleviate eventual age related memory degradation and gradual decrease of other cognitive capabilities (i.e. speed of processing new information, concentration level) and at the same time assist older adults to increase their learning abilities through personalized learning assistance and well-being guidance. In this paper we describe the overall system concept, the technological approach, the methodology used in the elicitation of user needs, and describe the first pre-trials’ evaluation. © Springer International Publishing Switzerland 2015.",
+    abstract = "This paper presents an innovative virtual assistant system, which aims to address older adults' needs in a professional environment by proposing promising and innovative virtual assistance mechanisms. The system, named CogniWin, is expected to alleviate eventual age related memory degradation and gradual decrease of other cognitive capabilities (i.e. speed of processing new information, concentration level) and at the same time assist older adults to increase their learning abilities through personalized learning assistance and well-being guidance. In this paper we describe the overall system concept, the technological approach, the methodology used in the elicitation of user needs, and describe the first pre-trials' evaluation. (c) Springer International Publishing Switzerland 2015.",
     keywords = "Virtual addresses; Assistance mechanisms; Assistance system; Cognitive capability; Concentration levels; Learning abilities; Personalized learning; Professional environments; Virtual assistants; Human computer interaction",
     correspondence_address = "S. Hanke; Health and Environment Department, Biomedical Systems, AIT Austrian Institute of Technology GmbH, Vienna, Austria; email: sten.hanke@ait.ac.at",
     publisher = "Springer Verlag",
@@ -8355,8 +8677,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 8; Conference name: 1st International Conference on Human Aspects of IT for the Aged Population, ITAP 2015 Held as Part of 17th International Conference on Human-Computer Interaction, HCI International 2015; Conference date: 2 August 2015 through 7 August 2015; Conference code: 122469; All Open Access, Bronze Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -8387,7 +8708,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -8398,7 +8719,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84949845450&amp;doi=10.1007%2f978-3-319-20913-5_24&amp;partnerID=40&amp;md5=f09954e8ca4a681f31746ed1ab7427ce</t>
+          <t>https://doi.org/10.1007/978-3-319-20913-5_24</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -8408,7 +8729,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>nan; References</t>
+          <t>nan; References; Link</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8750,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Adaptive user interfaces can make technology more accessible. Quite a number of conceptual and technical approaches have been proposed for adaptations to diverse user needs, multiple devices or multiple environments. Little work, however, has been directed at integrating all the essential aspects of adaptive user interfaces for accessibility in one system. In this paper, we present our generic MyUI infrastructure for increased accessibility through automatically generated adaptive user interfaces. The multimodal design patterns repository serves as the basis for a modular approach to individualized user interfaces. This open and extensible pattern repository makes the adaptation rules transparent for designers and developers who can contribute to the repository by sharing their knowledge about accessible design. The adaptation architecture and procedures enable user interface generation and dynamic adaptations during run-time. For the specification of an abstract user interface model, a novel statecharts-based notation has been developed. A development tool supports the interactive creation of the graphical user interface model. Copyright 2012 ACM.</t>
+          <t>Adaptive user interfaces can make technology more accessible. Quite a number of conceptual and technical approaches have been proposed for adaptations to diverse user needs, multiple devices or multiple environments. Little work, however, has been directed at integrating all the essential aspects of adaptive user interfaces for accessibility in one system. In this paper, we present our generic MyUI infrastructure for increased accessibility through automatically generated adaptive user interfaces. The multimodal design patterns repository serves as the basis for a modular approach to individualized user interfaces. This open and extensible pattern repository makes the adaptation rules transparent for designers and developers who can contribute to the repository by sharing their knowledge about accessible design. The adaptation architecture and procedures enable user interface generation and dynamic adaptations during run-time. For the specification of an abstract user interface model, a novel statecharts-based notation has been developed. A development tool supports the interactive creation of the graphical user interface model.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8439,7 +8760,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Peissner, Matthias; Häbe, Dagmar; Janssen, Doris; Sellner, Thomas</t>
+          <t>Peissner, Matthias; Habe, Dagmar; Janssen, Doris; Sellner, Thomas</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -8455,17 +8776,17 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>81 – 90</t>
+          <t>81 - 90</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Peissner201281,
-    author = "Peissner, Matthias and Häbe, Dagmar and Janssen, Doris and Sellner, Thomas",
+          <t>@CONFERENCE{Peissner201281,
+    author = "Peissner, Matthias and Habe, Dagmar and Janssen, Doris and Sellner, Thomas",
     title = "MyUI: Generating accessible user interfaces from multimodal design patterns",
     year = "2012",
     journal = "EICS'12 - Proceedings of the 2012 ACM SIGCHI Symposium on Engineering Interactive Computing Systems",
-    pages = "81 – 90",
+    pages = "81 - 90",
     doi = "10.1145/2305484.2305500",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84864065461\&amp;doi=10.1145\%2f2305484.2305500\&amp;partnerID=40\&amp;md5=a15a5058c0465ff5320e4502a8046cc1",
     affiliations = "Fraunhofer Institute for Industrial Engineering IAO, 70569 Stuttgart, Nobelstr. 12, Germany",
@@ -8480,8 +8801,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 78; Conference name: 4th ACM SIGCHI Symposium on Engineering Interactive Computing Systems, EICS'12; Conference date: 25 June 2012 through 26 June 2012; Conference code: 91302"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -8502,9 +8822,8 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t xml:space="preserve">use
-generic MyUI infrastructure
-</t>
+          <t>use
+generic MyUI infrastructure</t>
         </is>
       </c>
       <c r="R73" t="n">
@@ -8512,7 +8831,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
@@ -8523,13 +8842,17 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84864065461&amp;doi=10.1145%2f2305484.2305500&amp;partnerID=40&amp;md5=a15a5058c0465ff5320e4502a8046cc1</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
+          <t>https://dl.acm.org/doi/10.1145/2305484.2305500</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8868,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Age Differences in Menu Item Selection for Smartphone:The Effects of Icon Background Colors and Icon Symbols</t>
+          <t>Age Differences in Menu Item Selection for Smartphone: The Effects of Icon Background Colors and Icon Symbols</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -8553,10 +8876,14 @@
           <t>Previous research found that icon background colors and symbols influenced menu selection time. However, the previous research did not consider non-generic users; especially, children and older adult users that have gathered momentum. Literature highlights the age-related differences in various dimensions, and how they are related to technology use. The purpose of the present study is to extend the previous research on the influence of icon background colors and symbols [1], by examining the age-related difference in smartphone menu item selection task, with the manipulation of icon background colors and icon symbols. A three-way ANOVA indicated that there are significant main effects of age group, background colors, and icon symbols, as well as high-order effects of the three variables.</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>visual search;  senior;  mobile;  menu;  icon;  elderly;  children;  background color;  age difference;  Smartphone</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>LumpapunPunchoojit; NutttanontHongwarittorrn</t>
+          <t>Punchoojit, Lumpapun; Hongwarittorrn, Nutttanont</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8572,10 +8899,30 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>5-64</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/3328243.3328251,
+    author = "Punchoojit, Lumpapun and Hongwarittorrn, Nutttanont",
+    title = "Age Differences in Menu Item Selection for Smartphone: The Effects of Icon Background Colors and Icon Symbols",
+    year = "2019",
+    isbn = "9781450361873",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/3328243.3328251",
+    doi = "10.1145/3328243.3328251",
+    abstract = "Previous research found that icon background colors and symbols influenced menu selection time. However, the previous research did not consider non-generic users; especially, children and older adult users that have gathered momentum. Literature highlights the age-related differences in various dimensions, and how they are related to technology use. The purpose of the present study is to extend the previous research on the influence of icon background colors and symbols [1], by examining the age-related difference in smartphone menu item selection task, with the manipulation of icon background colors and icon symbols. A three-way ANOVA indicated that there are significant main effects of age group, background colors, and icon symbols, as well as high-order effects of the three variables.",
+    booktitle = "Proceedings of the 5th International ACM In-Cooperation HCI and UX Conference",
+    pages = "55-64",
+    numpages = "10",
+    keywords = "visual search, senior, mobile, menu, icon, elderly, children, background color, age difference, Smartphone",
+    location = "Jakarta, Surabaya, Bali, Indonesia",
+    series = "CHIuXiD'19"
+}</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -8602,7 +8949,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -8611,7 +8958,11 @@
           <t>Age differences in menu item selection for smartphone: The effects of icon background colors and icon symbols</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3328243.3328251</t>
+        </is>
+      </c>
       <c r="W74" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -8619,7 +8970,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -8640,13 +8991,13 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>&lt;div class="abstract author-highlights" id="ab005" lang="en"&gt;&lt;h2 class="section-title u-h4 u-margin-l-top u-margin-xs-bottom"&gt;Highlights&lt;/h2&gt;&lt;div id="as005"&gt;&lt;p id="sp0005"&gt;&lt;/p&gt;&lt;ul class="list"&gt;&lt;li class="react-xocs-list-item"&gt;&lt;span class="list-label"&gt;•&lt;/span&gt;&lt;span&gt;&lt;p id="p0005"&gt;Growing age introduces several severe impairments in older adults.&lt;/p&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="react-xocs-list-item"&gt;&lt;span class="list-label"&gt;•&lt;/span&gt;&lt;span&gt;&lt;p id="p0010"&gt;Need permanent caregiver or overly expensive assisted or nursing facility.&lt;/p&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="react-xocs-list-item"&gt;&lt;span class="list-label"&gt;•&lt;/span&gt;&lt;span&gt;&lt;p id="p0015"&gt;&lt;a class="topic-link" href="/topics/engineering/smart-home" title="Learn more about Smart home from ScienceDirect's AI-generated Topic Pages"&gt;Smart home&lt;/a&gt; technology to assist them in independent daily living.&lt;/p&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="react-xocs-list-item"&gt;&lt;span class="list-label"&gt;•&lt;/span&gt;&lt;span&gt;&lt;p id="p0020"&gt;Smart home interfaces need human-centered design to minimize their stress.&lt;/p&gt;&lt;/span&gt;&lt;/li&gt;&lt;li class="react-xocs-list-item"&gt;&lt;span class="list-label"&gt;•&lt;/span&gt;&lt;span&gt;&lt;p id="p0025"&gt;We design and develop one such &lt;a class="topic-link" href="/topics/computer-science/graphical-interface" title="Learn more about graphical interface from ScienceDirect's AI-generated Topic Pages"&gt;graphical interface&lt;/a&gt;.&lt;/p&gt;&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+          <t>Highlights*Growing age introduces several severe impairments in older adults.*Need permanent caregiver or overly expensive assisted or nursing facility.*Smart hometechnology to assist them in independent daily living.*Smart home interfaces need human-centered design to minimize their stress.*We design and develop one suchgraphical interface.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">S. Sharma and J. Wong, </t>
+          <t>S. Sharma and J. Wong,</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8662,7 +9013,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Volum</t>
+          <t>me 149,January 2020, 106923</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -8701,7 +9052,11 @@
           <t>Three-button gateway smart home interface (TrueSmartface) for elderly: Design, development and deployment</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.measurement.2019.106923</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr">
         <is>
           <t>Science Direct</t>
@@ -8730,7 +9085,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>&lt;div class="abstract author" id="abs0005"&gt;&lt;h2 class="section-title u-h4 u-margin-l-top u-margin-xs-bottom"&gt;Abstract&lt;/h2&gt;&lt;div id="abst0005"&gt;&lt;p id="spar0005"&gt;The elderly remain excluded from technology, since they regard traditional computer interfaces as overly technical and difficult to use. However, the older users consider other forms of interaction easier to use – like touch and gesture recognition interfaces. Regarding the touch interfaces, we focused on text-entry tasks and developed and tested 5 virtual QWERTY keyboard variants in order to improve text entry speed and accuracy on tablet devices. Preliminary user tests with young adults revealed that soft keyboards without visual changes remain the fastest method for text entry, and allowed us to rule out the least promising variants. Regarding gesture recognition, we developed regular gestures as well as alternative functionalities based on the motion sensing device: user and ambient sensing. These features allow to create a more intelligent system that reacts to the user and environment without explicit interaction. In the near future, we will perform tests for both interaction modalities with older adults.&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</t>
+          <t>AbstractThe elderly remain excluded from technology, since they regard traditional computer interfaces as overly technical and difficult to use. However, the older users consider other forms of interaction easier to use - like touch and gesture recognition interfaces. Regarding the touch interfaces, we focused on text-entry tasks and developed and tested 5 virtual QWERTY keyboard variants in order to improve text entry speed and accuracy on tablet devices. Preliminary user tests with young adults revealed that soft keyboards without visual changes remain the fastest method for text entry, and allowed us to rule out the least promising variants. Regarding gesture recognition, we developed regular gestures as well as alternative functionalities based on the motion sensing device: user and ambient sensing. These features allow to create a more intelligent system that reacts to the user and environment without explicit interaction. In the near future, we will perform tests for both interaction modalities with older adults.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8740,7 +9095,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">É. Rodrigues, M. Carreira, and D. Gonçalves, </t>
+          <t>É. Rodrigues, M. Carreira, and D. Gonçalves,</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -8756,7 +9111,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volume 27,2014, Pages </t>
+          <t>359-368</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -8795,7 +9150,11 @@
           <t>Developing a multimodal interface for the elderly</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.procs.2014.02.040</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr">
         <is>
           <t>Science Direct</t>
@@ -8824,20 +9183,63 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>People with Alzheimer’s Disease (AD) experience progressive degeneration of cognitive skills and the cumulative loss of short-term memory function. This severely impairs their ability to communicate with relatives and caregivers. The ‘dehumanizing’ effect that is engendered by the loss of communication skills, and the subsequent psychological and emotional distress experienced by people with AD and their caregivers are perhaps the most significant and detrimental psycho-social characteristics of AD. This paper demonstrates how our multidisciplinary, user-centred approach to design for computer-based assistive tools for people with AD can support progressive, nonpharmacological intervention and promote improved quality of life in dementia care environments.,” vol. 10, no. 1, pp. 12–23, 2007, doi: 10.2752/146069207789318018.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>People with Alzheimer's Disease (AD) experience progressive degeneration of cognitive skills and the cumulative loss of short-term memory function. This severely impairs their ability to communicate with relatives and caregivers. The 'dehumanizing' effect that is engendered by the loss of communication skills, and the subsequent psychological and emotional distress experienced by people with AD and their caregivers are perhaps the most significant and detrimental psycho-social characteristics of AD. This paper demonstrates how our multidisciplinary, user-centred approach to design for computer-based assistive tools for people with AD can support progressive, nonpharmacological intervention and promote improved quality of life in dementia care environments.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>communication; computer program; disease; psychology</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">G. Gowans, R. Dye, N. Alm, P. Vaughan, A. Astell, and M. Ellis, </t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+          <t>Gowans, Gary; Dye, Richard; Alm, Norman; Vaughan, Phillip; Astell, Arlene; Ellis, Maggie</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Design Journal</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2752/146069207789318018</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>12 - 23</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>@ARTICLE{Gowans200712,
+    author = "Gowans, Gary and Dye, Richard and Alm, Norman and Vaughan, Phillip and Astell, Arlene and Ellis, Maggie",
+    title = "Designing the interface between dementia patients, caregivers and computer-based intervention",
+    year = "2007",
+    journal = "Design Journal",
+    volume = "10",
+    number = "1",
+    pages = "12 - 23",
+    doi = "10.2752/146069207789318018",
+    url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-34548628065\&amp;doi=10.2752\%2f146069207789318018\&amp;partnerID=40\&amp;md5=66ed240ab98ba4abd287f2fd915f34a1",
+    affiliations = "University of Dundee, United Kingdom; University of St Andrews, United Kingdom; School of Design, Duncan of Jordanstone College of Art and Design, University of Dundee, Dundee DD1 4HT, Perth Road, United Kingdom; School of Computing, University of Dundee, Dundee DD1 4HT, Perth Road, United Kingdom; St Mary's College, University of St Andrews, St Andrews, Fife KY16 9JP, South Street, United Kingdom; School of Psychology, University of St Andrews, St Andrews, Fife K16 9JU, United Kingdom",
+    abstract = "People with Alzheimer's Disease (AD) experience progressive degeneration of cognitive skills and the cumulative loss of short-term memory function. This severely impairs their ability to communicate with relatives and caregivers. The 'dehumanizing' effect that is engendered by the loss of communication skills, and the subsequent psychological and emotional distress experienced by people with AD and their caregivers are perhaps the most significant and detrimental psycho-social characteristics of AD. This paper demonstrates how our multidisciplinary, user-centred approach to design for computer-based assistive tools for people with AD can support progressive, nonpharmacological intervention and promote improved quality of life in dementia care environments.",
+    author_keywords = "Alzheimer's, therapy; Interactivity; Interface; Multi-disciplinary; Multimedia; Reminiscence",
+    keywords = "communication; computer program; disease; psychology",
+    correspondence_address = "G. Gowans; School of Design, Duncan of Jordanstone College of Art and Design, University of Dundee, Dundee DD1 4HT, Perth Road, United Kingdom; email: g.m.gowans@dundee.ac.uk",
+    publisher = "Ashgate Publishing Ltd.",
+    issn = "14606925",
+    language = "English",
+    abbrev_source_title = "Des. J.",
+    type = "Article",
+    publication_stage = "Final",
+    source = "Scopus",
+    note = "Cited by: 22"
+}</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr">
         <is>
           <t>Included</t>
@@ -8862,12 +9264,32 @@
       <c r="R77" t="n">
         <v>2</v>
       </c>
-      <c r="S77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Scopus Signed In</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Designing the interface between dementia patients, caregivers and computer-based intervention</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2752/146069207789318018</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Ashgate Publishing Ltd</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>nan; References; Link</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8889,10 +9311,14 @@
           <t>With the continuous ageing of the population, the demand for different healthcare services is increasing at a fast pace. At the same time, the number of caregivers is limited and the cost of well-being is increasing. Therefore, there is a recognized need for technologies that assist elderly people in their daily activities and ensure their safety along with their social integration while maintaining a higher degree of independence. One important aspect in the development of such technologies is their easy acceptance by elderly users. Traditional human-machine interfaces have always represented a barrier for the acceptance of new devices by non-technical people in general and by elderly or people with special needs in particular. In this paper, we propose a multimodal interface designed to match the requirements of Ambient Assisted Living (AAL) systems and to fulfill the needs of elderly people who are the main users of this interface. The interface is multilingual, it supports two languages (English and Romanian) and it can process both speech and gesture commands. The interface is developed using HTML5, JavaScript, CSS3 and integrates Google Speech Service along with other services. It is able to adapt itself to any screen size and to work flawlessly across different platforms. The interface was developed and tested within the "Artificial intelligent ecosystem for self-management and sustainable quality of life in AAL" (CAMI) project. Both the interface and the results of laboratory tests are presented in this paper.</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Senior citizens;Speech;Monitoring;Speech recognition;Biomedical monitoring;Ecosystems;Aging;Multimodal Interface;Elderly People;Speech Recognition;Gesture Recognition</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Imad Alex Awada; Irina Mocanu; Adina Magda Florea; Bogdan Cramariuc</t>
+          <t>Awada, Imad Alex; Mocanu, Irina; Florea, Adina Magda; Cramariuc, Bogdan</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8907,11 +9333,32 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.United Nations Department of Economic and Social Affairs Population Division - World Population Ageing 2015 (ST/ESA/SER.A/390) - New York, 2015. Google Scholar; 2.Suzana Loshkovska and Saso Koceski, "ICT innovations 2015: Emerging technologies for better living", Advances in Intelligent Systems and Computing, vol. 399, 2016. CrossRef  Google Scholar; 3.A. Sorici, I. A. Awada, A. Kunnappilly, I. Mocanu, O. Cramariuc, L. Malicki, et al., "CAMI - An Integrated Architecture Solution for Improving Quality of Life of the Elderly", International Conference on IoT Technologies for HealthCare, pp. 141-144, 2016. CrossRef  Google Scholar; 4.Active and Assisted Living Program: CAMI (AAL-2014-1-087),  [online]  Available: www.camiproject.eu. Google Scholar; 5.Dumas Bruno, Lalanne Denis and L. Oviatt Sharon, "Multimodal Interfaces: A Survey of Principles Models and Frameworks", Human Machine Interaction, vol. 5440, pp. 3-26, 2009. CrossRef  Google Scholar; 6.J. Coutaz, L. Nigay, D. Salber, A. Blandford, J. May and R. Young, "Four easy pieces for assessing the usability of multimodal interaction: the CARE properties", Proceedings of INTERACT95 Lillehammer, June 1995. Google Scholar; 7.Alexey Karpov, Sebastien Carbini, Andrey Ronzhin and Jean Emmanuel Viallet, "Two Similar Different Speech and Gestures Multimodal Interfaces", Multimodal User Interfaces, pp. 155-184, 2008. CrossRef  Google Scholar; 8.M. L. Bourguet, "A Toolkit for Creating and Testing Multimodal Interface Designs", Companion Proceedings of UIST02, pp. 29-30, October 2002. Google Scholar; 9.N. Krahnstoever, S. Kettebekov, M. Yeasin and R. Sharma, "A real-time framework for natural multimodal interaction with large screen displays", Proceedings of ICMI02, October 2002. View Article  Google Scholar; 10.F. Flippo, A. Krebs and I. Marsic, "A Framework for Rapid Development of Multimodal Interfaces", Proceedings of ICMI03, pp. 109-116, November 2003. CrossRef  Google Scholar; 11.Kuntal Saroha, Sheela Sharma and Gurpreet Bhatia, "Human Computer Interaction: An intellectual approach", International Journal of Computer Science and Management Studies, vol. 11, pp. 147-154, 2011. Google Scholar; 12.Sanya Harneja, Kunal Pahuja and Jatin Malhotra, "Human Computer Interaction: Smarter way of Communication", International Journal of Engineering and Technical Research, vol. 2, pp. 201-205, April 2014. Google Scholar; 13.Matthew Turk, "Multimodal interaction: A review", Journalof Pattern Recognition Letters, vol. 36, pp. 139-195, January 2014. CrossRef  Google Scholar; 14.R Glass James, "Challenges for spoken dialogue systems", IEEE Automatic Speech Recognition and Understanding Workshop, 1999. Google Scholar; 15.Cheongjae Lee, Sangkeun Jung, Kyungduk Kim, Donghyeon Lee, Gg Gary and Geunbae Lee, "Recent approaches to dialog management for spoken dialog systems", Journal of Computing Science and Engineering, vol. 4, no. 1, pp. 1-22, 2010. CrossRef  Google Scholar; 16.Pierre Lison, "A hybrid approach to dialogue management based on probabilistic rules", Computer Speech  Language, vol. 34, no. 1, pp. 232-255, 2015. CrossRef  Google Scholar; 17.Elvio Rodrigues, Micael Carreira and Daniel Gonçalves, "Developing a Multimodal Interface for the Elderly", Procedia Computer Science, vol. 27, pp. 359-368, 2014. CrossRef  Google Scholar; 18.S. Celebi, A. S. Aydin, T. T. Temiz and T. Arici, "Gesture Recognition using Skeleton Data with Weighted Dynamic Time Warping", VISAPP 2013, vol. 14, pp. 620-625, 2013. Google Scholar; 19.Available on Microsoft MSDN,  [online]  Available: https://msdn.microsoft.com/en-us/library/microsoft.kinect.skeletonstream.aspx. Google Scholar; 20.J. Shotton, A. Fitzgibbon, M. Cook, T. Sharp, M. Finocchio and R. Moore, "Real-time Human Pose Recognition in Parts From Single Depth Images", Communications of the ACM, vol. 56, pp. 116-124, 2013. CrossRef  Google Scholar; 21.Alba Ribó, Dawid Warchol and Mariusz Oszust, "An Approach to Gesture Recognition with Skeletal Data Using Dynamic Time Warping and Nearest Neighbour Classifier", I.J. Intelligent Systems and Applications, vol. 6, pp. 1-8, 2016. CrossRef  Google Scholar; 22.Serban Radu and Valentin Lungu, "An Adaptive Multi-Agent Model for Automated Negotiation", 19th International Conference on Control Systems and Computer Science, pp. 167-174, 2013. View Article  Google Scholar</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+          <t>1.United Nations Department of Economic and Social Affairs Population Division - World Population Ageing 2015 (ST/ESA/SER.A/390) - New York, 2015. Google Scholar; 2.Suzana Loshkovska and Saso Koceski, "ICT innovations 2015: Emerging technologies for better living", Advances in Intelligent Systems and Computing, vol. 399, 2016. CrossRef  Google Scholar; 3.A. Sorici, I. A. Awada, A. Kunnappilly, I. Mocanu, O. Cramariuc, L. Malicki, et al., "CAMI - An Integrated Architecture Solution for Improving Quality of Life of the Elderly", International Conference on IoT Technologies for HealthCare, pp. 141-144, 2016. CrossRef  Google Scholar; 4.Active and Assisted Living Program: CAMI (AAL-2014-1-087),  [online]  Available: www.camiproject.eu. Google Scholar; 5.Dumas Bruno, Lalanne Denis and L. Oviatt Sharon, "Multimodal Interfaces: A Survey of Principles Models and Frameworks", Human Machine Interaction, vol. 5440, pp. 3-26, 2009. CrossRef  Google Scholar; 6.J. Coutaz, L. Nigay, D. Salber, A. Blandford, J. May and R. Young, "Four easy pieces for assessing the usability of multimodal interaction: the CARE properties", Proceedings of INTERACT95 Lillehammer, June 1995. Google Scholar; 7.Alexey Karpov, Sebastien Carbini, Andrey Ronzhin and Jean Emmanuel Viallet, "Two Similar Different Speech and Gestures Multimodal Interfaces", Multimodal User Interfaces, pp. 155-184, 2008. CrossRef  Google Scholar; 8.M. L. Bourguet, "A Toolkit for Creating and Testing Multimodal Interface Designs", Companion Proceedings of UIST02, pp. 29-30, October 2002. Google Scholar; 9.N. Krahnstoever, S. Kettebekov, M. Yeasin and R. Sharma, "A real-time framework for natural multimodal interaction with large screen displays", Proceedings of ICMI02, October 2002. View Article  Google Scholar; 10.F. Flippo, A. Krebs and I. Marsic, "A Framework for Rapid Development of Multimodal Interfaces", Proceedings of ICMI03, pp. 109-116, November 2003. CrossRef  Google Scholar; 11.Kuntal Saroha, Sheela Sharma and Gurpreet Bhatia, "Human Computer Interaction: An intellectual approach", International Journal of Computer Science and Management Studies, vol. 11, pp. 147-154, 2011. Google Scholar; 12.Sanya Harneja, Kunal Pahuja and Jatin Malhotra, "Human Computer Interaction: Smarter way of Communication", International Journal of Engineering and Technical Research, vol. 2, pp. 201-205, April 2014. Google Scholar; 13.Matthew Turk, "Multimodal interaction: A review", Journalof Pattern Recognition Letters, vol. 36, pp. 139-195, January 2014. CrossRef  Google Scholar; 14.R Glass James, "Challenges for spoken dialogue systems", IEEE Automatic Speech Recognition and Understanding Workshop, 1999. Google Scholar; 15.Cheongjae Lee, Sangkeun Jung, Kyungduk Kim, Donghyeon Lee, Gg Gary and Geunbae Lee, "Recent approaches to dialog management for spoken dialog systems", Journal of Computing Science and Engineering, vol. 4, no. 1, pp. 1-22, 2010. CrossRef  Google Scholar; 16.Pierre Lison, "A hybrid approach to dialogue management based on probabilistic rules", Computer Speech  Language, vol. 34, no. 1, pp. 232-255, 2015. CrossRef  Google Scholar; 17.Elvio Rodrigues, Micael Carreira and Daniel Goncalves, "Developing a Multimodal Interface for the Elderly", Procedia Computer Science, vol. 27, pp. 359-368, 2014. CrossRef  Google Scholar; 18.S. Celebi, A. S. Aydin, T. T. Temiz and T. Arici, "Gesture Recognition using Skeleton Data with Weighted Dynamic Time Warping", VISAPP 2013, vol. 14, pp. 620-625, 2013. Google Scholar; 19.Available on Microsoft MSDN,  [online]  Available: https://msdn.microsoft.com/en-us/library/microsoft.kinect.skeletonstream.aspx. Google Scholar; 20.J. Shotton, A. Fitzgibbon, M. Cook, T. Sharp, M. Finocchio and R. Moore, "Real-time Human Pose Recognition in Parts From Single Depth Images", Communications of the ACM, vol. 56, pp. 116-124, 2013. CrossRef  Google Scholar; 21.Alba Ribo, Dawid Warchol and Mariusz Oszust, "An Approach to Gesture Recognition with Skeletal Data Using Dynamic Time Warping and Nearest Neighbour Classifier", I.J. Intelligent Systems and Applications, vol. 6, pp. 1-8, 2016. CrossRef  Google Scholar; 22.Serban Radu and Valentin Lungu, "An Adaptive Multi-Agent Model for Automated Negotiation", 19th International Conference on Control Systems and Computer Science, pp. 167-174, 2013. View Article  Google Scholar</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>536-541</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{7968610,
+    author = "Awada, Imad Alex and Mocanu, Irina and Florea, Adina Magda and Cramariuc, Bogdan",
+    booktitle = "2017 21st International Conference on Control Systems and Computer Science (CSCS)",
+    title = "Multimodal Interface for Elderly People",
+    year = "2017",
+    volume = "",
+    number = "",
+    pages = "536-541",
+    abstract = {With the continuous ageing of the population, the demand for different healthcare services is increasing at a fast pace. At the same time, the number of caregivers is limited and the cost of well-being is increasing. Therefore, there is a recognized need for technologies that assist elderly people in their daily activities and ensure their safety along with their social integration while maintaining a higher degree of independence. One important aspect in the development of such technologies is their easy acceptance by elderly users. Traditional human-machine interfaces have always represented a barrier for the acceptance of new devices by non-technical people in general and by elderly or people with special needs in particular. In this paper, we propose a multimodal interface designed to match the requirements of Ambient Assisted Living (AAL) systems and to fulfill the needs of elderly people who are the main users of this interface. The interface is multilingual, it supports two languages (English and Romanian) and it can process both speech and gesture commands. The interface is developed using HTML5, JavaScript, CSS3 and integrates Google Speech Service along with other services. It is able to adapt itself to any screen size and to work flawlessly across different platforms. The interface was developed and tested within the "Artificial intelligent ecosystem for self-management and sustainable quality of life in AAL" (CAMI) project. Both the interface and the results of laboratory tests are presented in this paper.},
+    keywords = "Senior citizens;Speech;Monitoring;Speech recognition;Biomedical monitoring;Ecosystems;Aging;Multimodal Interface;Elderly People;Speech Recognition;Gesture Recognition",
+    doi = "10.1109/CSCS.2017.82",
+    ISSN = "2379-0482",
+    month = "May"
+}</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
           <t>Included</t>
@@ -8938,7 +9385,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T78" t="inlineStr"/>
@@ -8947,17 +9394,17 @@
           <t>Multimodal Interface for Elderly People</t>
         </is>
       </c>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/7968610</t>
+        </is>
+      </c>
       <c r="W78" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8982,7 +9429,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">N. A. M. Hassan, A. Baharum, Z. H. A. Sani, K. Chau, and N. A. M. Noor, </t>
+          <t>N. A. M. Hassan, A. Baharum, Z. H. A. Sani, K. Chau, and N. A. M. Noor,</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -9048,7 +9495,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Matthijs Jan Zwinderman17,; Azadeh Shirzad17,; Xinyu Ma17,; Prina Bajracharya17,; Hans Sandberg17&amp;; Maurits Clemens Kaptein17</t>
+          <t>Matthijs Jan Zwinderman; Azadeh Shirzad; Xinyu Ma; Prina Bajracharya; Hans Sandberg; Maurits Clemens Kaptein</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -9064,7 +9511,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>pp 55–66</t>
+          <t>pp 55-66</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -9103,7 +9550,11 @@
           <t>Phone row: A smartphone game designed to persuade people to engage in moderate-intensity physical activity</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-31037-9_5</t>
+        </is>
+      </c>
       <c r="W80" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
@@ -9135,10 +9586,14 @@
           <t>We present the tests results of the first phase of a multi-phase study to combat deteriorating adolescent fitness, reflected in the growth in adolescent obesity rates, by creating a fitness game deployed on mobile devices. The objective of this first phase was to test an initial mobile fitness prototype's efficacy in generating positive attitudinal changes towards fitness activity using strong socialization components within the game. The basic premise being that game play with a strong social aspect is an attractive support mechanism for sustained interest and providing positive reinforcement to users within our fitness application. Such sustained interest and positive reinforcement is vital for producing long-term fitness improvements. Our mobile fitness game prototype included 13 exercises with functionality to socialize with friends regarding exercise progress and collaboration. A subject pool of 12 adolescents aged 15 to 17 used the prototype for a six week period. Results indicate that the application's socialization features were able to improve subjects' views on fitness activities. Increasing online social networking tendency correlated with improving views on the fitness exercises that were most often engaged in with the application.</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Games;Mobile communication;Obesity;Social network services;Prototypes;Correlation;Portable media players</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fletcher Lu; Kei Turner</t>
+          <t>Lu, Fletcher; Turner, Kei</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -9156,8 +9611,29 @@
           <t>1.F. Sassi, M. Devaux, M. Cecchini, and E. Rusticelli, The Obesity Epidemic: Analysis of Past and Projected Future Trends in Selected OECD Countries, ch. 3. No. 45, OECD Publishing, 2009. CrossRef  Google Scholar; 2.G. Rao, "Childhood obesity: Highlights of ama expert committee recommendations," American Family Physician, pp. 56-63, 2008. Google Scholar; 3.Pew Internet &amp; American Life Project, "Teens, video games and civics," tech. rep., Washington D.C., 2008. Google Scholar; 4.L. Graves, G. Stratton, N. D. Ridgers, and N. T. Cable, "Energy expenditure in adolescents playing new generation computer games," British Journal of Sports Medicine, vol. 42, pp. 592-594, 2008. Google Scholar; 5.L. Leininger, Comparing perception of exertion and enjoyment between exergaming and treadmill exercise. Fresno, California: California State University, 2007. Google Scholar; 6.J. Yim and T. Graham, "Using games to increase exercise motivation," in Proceedings of the 2007 conference on Future Play, ACM, 2007. CrossRef  Google Scholar; 7.D. L. Graf, L. V. Pratt, C. N. Hester, and K. R. Short, "Playing active video games increases energy expenditure in children," Pediatrics, vol. 124, no. 2, pp. 534-540, 2009. CrossRef  Google Scholar; 8.L. Gorgu, G. O'Hare, and M. O'Grady, "Towards mobile collaborative exergaming," in Advances in Human-oriented and Personalized Mechanisms, Technologies, and Services, 2009. CENTRIC'09. Second International Conference on, pp. 61-64, IEEE, 2009. View Article  Google Scholar; 9.S. Conner, R. Rhodes, B. Morris, R. McEachan, and R. Lawton, "Changing exercise through targeting affective or cognitive attitudes," Psychology and Health, vol. 26, pp. 133-149, 2011. CrossRef  Google Scholar; 10.C. G. Wylie and P. Coulton, "Mobile persuasive exergaming," in Games Innovations Conference, 2009. ICE-GIC 2009. International IEEE Consumer Electronics S ociety's, pp. 126 -130, August 2009. View Article  Google Scholar; 11.F. Buttussi and L. Chittaro, "Smarter phones for healthier lifestyles: An adaptive fitness game," Pervasive Computing, IEEE, vol. 9, no. 4, pp. 51-57, 2010. View Article  Google Scholar; 12.F. Lu and J. Welton, "Towards combating youth obesity with a mobile fitness application," in Proceedings of IEEE 7th International Conference on Wireless, Mobile and Ubiquitous Technology in Education, IEEE, 2012. View Article  Google Scholar; 13.Chitika Inc, "Mobile manufacturer market share, november 2012 update," tech. rep., 2012. Google Scholar; 14.J. Yarow, "Apple misses on earnings, hits on revenue, iphone crushes it, and ipad is weak." http://www.businessinsider.com/apple-q4-earnings- 2012-10, October 2012. Google Scholar; 15.M. Klauser, L. E. Nacke, and P. Prescod, "Social player analytics in a facebook health game." 2012. Google Scholar; 16.Centers for Disease Control and Prevention, "Healthy weight - it's not a diet, it's a lifestyle!." http://www.cdc.gov/healthyweight/assessing/ bmi/childrens bmi/about childrens bmi.html, September 2011. Google Scholar</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>148-151</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{6659162,
+    author = "Lu, Fletcher and Turner, Kei",
+    booktitle = "2013 IEEE International Games Innovation Conference (IGIC)",
+    title = "Improving adolescent fitness attitudes with a mobile fitness game to combat obesity in youth",
+    year = "2013",
+    volume = "",
+    number = "",
+    pages = "148-151",
+    abstract = "We present the tests results of the first phase of a multi-phase study to combat deteriorating adolescent fitness, reflected in the growth in adolescent obesity rates, by creating a fitness game deployed on mobile devices. The objective of this first phase was to test an initial mobile fitness prototype's efficacy in generating positive attitudinal changes towards fitness activity using strong socialization components within the game. The basic premise being that game play with a strong social aspect is an attractive support mechanism for sustained interest and providing positive reinforcement to users within our fitness application. Such sustained interest and positive reinforcement is vital for producing long-term fitness improvements. Our mobile fitness game prototype included 13 exercises with functionality to socialize with friends regarding exercise progress and collaboration. A subject pool of 12 adolescents aged 15 to 17 used the prototype for a six week period. Results indicate that the application's socialization features were able to improve subjects' views on fitness activities. Increasing online social networking tendency correlated with improving views on the fitness exercises that were most often engaged in with the application.",
+    keywords = "Games;Mobile communication;Obesity;Social network services;Prototypes;Correlation;Portable media players",
+    doi = "10.1109/IGIC.2013.6659162",
+    ISSN = "2166-675X",
+    month = "Sep."
+}</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
           <t>Included</t>
@@ -9184,7 +9660,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
@@ -9193,17 +9669,17 @@
           <t>Improving adolescent fitness attitudes with a mobile fitness game to combat obesity in youth</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/6659162</t>
+        </is>
+      </c>
       <c r="W81" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9225,10 +9701,14 @@
           <t>Exergames combine exercising with game play by requiring the users to perform some kind of physical activity (and exercise) in order to score points in the game. In this paper, we present a novel mobile exergaming framework, which requires the users to physically move and jump in order to score points in a game that is played on a smartphone. Our system uses a custom designed Exercising Pad (called ExerPad) in order to track the user's physical movement, and then automatically updates the corresponding game character's position on the screen. The ExerPad contains different shaped images, which are captured from the smartphone's inbuilt camera, and are automatically detected by our shape detection algorithm. We also use the smartphone's inbuilt accelerometer and gyroscope to detect other physical movements from the user such as jumping, turning etc. The experimental results show that the proposed mobile exergames helps its users to burn calories and have fun at the same time.</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Games;Mobile communication;Gyroscopes;Accelerometers;Cameras;Shape;Conferences</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Pradeep Buddharaju; Naga Siva Chandra Prasad Pamidi</t>
+          <t>Buddharaju, Pradeep; Pamidi, Naga Siva Chandra Prasad</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9246,8 +9726,29 @@
           <t>1.B. W. Bailey and K. McInnis. Energy cost of exergaming: a comparison of the energy cost of 6 forms of exergaming. Archives of Pediatrics and Adolescent Medicine, 165(7):597-602, 2011. 1 CrossRef  Google Scholar; 2.S. Guy, A. Ratzki-Leewing, and F. Gwadry-Sridhar. Moving beyond the stigma: Systematic review of video games and their potential to combat obesity. International Journal of Hypertension, 1(1):1-13, 2011. 1 CrossRef  Google Scholar; 3.A. Koivisto, S. Merilampi, and K. Kiili. Mobile exergames for preventing diseases related to childhood obesity. In Proceedings of the 4th International Symposium on Applied Sciences in Biomedical and Communication Technologies, Barcelona, Spain, October 2011. 1 CrossRef  Google Scholar; 4.C. G. Wylie. Mobile persuasive exergaming. In Proceedings of the 2009 International IEEE Consumer Electronics Society's Games Innovations Conference, Lancaster, UK, August 2009. 1 View Article  Google Scholar</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>50-51</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{6595851,
+    author = "Buddharaju, Pradeep and Pamidi, Naga Siva Chandra Prasad",
+    booktitle = "2013 IEEE Conference on Computer Vision and Pattern Recognition Workshops",
+    title = "Mobile Exergames - Burn Calories While Playing Games on a Smartphone",
+    year = "2013",
+    volume = "",
+    number = "",
+    pages = "50-51",
+    abstract = "Exergames combine exercising with game play by requiring the users to perform some kind of physical activity (and exercise) in order to score points in the game. In this paper, we present a novel mobile exergaming framework, which requires the users to physically move and jump in order to score points in a game that is played on a smartphone. Our system uses a custom designed Exercising Pad (called ExerPad) in order to track the user's physical movement, and then automatically updates the corresponding game character's position on the screen. The ExerPad contains different shaped images, which are captured from the smartphone's inbuilt camera, and are automatically detected by our shape detection algorithm. We also use the smartphone's inbuilt accelerometer and gyroscope to detect other physical movements from the user such as jumping, turning etc. The experimental results show that the proposed mobile exergames helps its users to burn calories and have fun at the same time.",
+    keywords = "Games;Mobile communication;Gyroscopes;Accelerometers;Cameras;Shape;Conferences",
+    doi = "10.1109/CVPRW.2013.13",
+    ISSN = "2160-7516",
+    month = "June"
+}</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
           <t>Included</t>
@@ -9275,7 +9776,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T82" t="inlineStr"/>
@@ -9284,17 +9785,17 @@
           <t>Mobile exergames-Burn calories while playing games on a smartphone</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/6595851</t>
+        </is>
+      </c>
       <c r="W82" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9316,10 +9817,14 @@
           <t>The purpose of the proposed project is to create an expression recognition game to encourage positive emotional development of children with autism spectrum disorders (ASDs). Video games are emerging as forms of computer-aided interventions for the treatment of autism, however many do not monitor the progression of the child within the game. By learning from existing approaches in ASD games and consolidating guidelines for designing user interfaces for children with autism, this project aims to create a fun and engaging game for children with ASDs that makes use of a touch device camera as a way of classifying facial expressions in order to improve the children's emotional understanding.</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>user interface;  human computer interaction;  computer-aided interventions;  autism spectrum disorders</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>NatalieHarrold; Chek TienTan; DanielRosser</t>
+          <t>Harrold, Natalie; Tan, Chek Tien; Rosser, Daniel</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9335,10 +9840,30 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3-37</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>33-37</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/2425296.2425302,
+    author = "Harrold, Natalie and Tan, Chek Tien and Rosser, Daniel",
+    title = "Towards an expression recognition game to assist the emotional development of children with autism spectrum disorders",
+    year = "2012",
+    isbn = "9781450318358",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/2425296.2425302",
+    doi = "10.1145/2425296.2425302",
+    abstract = "The purpose of the proposed project is to create an expression recognition game to encourage positive emotional development of children with autism spectrum disorders (ASDs). Video games are emerging as forms of computer-aided interventions for the treatment of autism, however many do not monitor the progression of the child within the game. By learning from existing approaches in ASD games and consolidating guidelines for designing user interfaces for children with autism, this project aims to create a fun and engaging game for children with ASDs that makes use of a touch device camera as a way of classifying facial expressions in order to improve the children's emotional understanding.",
+    booktitle = "Proceedings of the Workshop at SIGGRAPH Asia",
+    pages = "33-37",
+    numpages = "5",
+    keywords = "user interface, human computer interaction, computer-aided interventions, autism spectrum disorders",
+    location = "Singapore, Singapore",
+    series = "WASA '12"
+}</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
           <t>Included</t>
@@ -9366,7 +9891,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T83" t="inlineStr"/>
@@ -9375,7 +9900,11 @@
           <t>Towards an expression recognition game to assist the emotional development of children with autism spectrum disorders</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/2425296.2425302</t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -9383,7 +9912,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9933,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Emotional development is an important aspect in the early years of growth in young children, especially those with psychological disorders like autism spectrum disorders (ASDs), whereby emotional development becomes crucial. However, traditional paper-based interventions for emotional development are mostly laborious and difficult to employ for carers and parents, whilst current computer-aided interventions feel too much like obvious assistive tools and lack timely feedback to inform and aid progress. This paper hence describes the design of CopyMe, a touch-based tablet application that uses game design concepts and state-of-the-art computer vision techniques to provide an engaging experience as well as real-time feedback on the children's progress. © 2013 ACM.</t>
+          <t>Emotional development is an important aspect in the early years of growth in young children, especially those with psychological disorders like autism spectrum disorders (ASDs), whereby emotional development becomes crucial. However, traditional paper-based interventions for emotional development are mostly laborious and difficult to employ for carers and parents, whilst current computer-aided interventions feel too much like obvious assistive tools and lack timely feedback to inform and aid progress. This paper hence describes the design of CopyMe, a touch-based tablet application that uses game design concepts and state-of-the-art computer vision techniques to provide an engaging experience as well as real-time feedback on the children's progress.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9428,10 +9957,14 @@
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Tan2013,
+          <t>@CONFERENCE{Tan2013,
     author = "Tan, Chek Tien and Harrold, Natalie and Rosser, Daniel",
     title = "Can you CopyMe?: An expression mimicking serious game",
     year = "2013",
@@ -9439,7 +9972,7 @@
     doi = "10.1145/2543651.2543657",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84897369766\&amp;doi=10.1145\%2f2543651.2543657\&amp;partnerID=40\&amp;md5=94e7c0b38e490b832fd8a1bc94a60e37",
     affiliations = "Games Studio, University of Technology, Sydney, Australia",
-    abstract = "Emotional development is an important aspect in the early years of growth in young children, especially those with psychological disorders like autism spectrum disorders (ASDs), whereby emotional development becomes crucial. However, traditional paper-based interventions for emotional development are mostly laborious and difficult to employ for carers and parents, whilst current computer-aided interventions feel too much like obvious assistive tools and lack timely feedback to inform and aid progress. This paper hence describes the design of CopyMe, a touch-based tablet application that uses game design concepts and state-of-the-art computer vision techniques to provide an engaging experience as well as real-time feedback on the children's progress. © 2013 ACM.",
+    abstract = "Emotional development is an important aspect in the early years of growth in young children, especially those with psychological disorders like autism spectrum disorders (ASDs), whereby emotional development becomes crucial. However, traditional paper-based interventions for emotional development are mostly laborious and difficult to employ for carers and parents, whilst current computer-aided interventions feel too much like obvious assistive tools and lack timely feedback to inform and aid progress. This paper hence describes the design of CopyMe, a touch-based tablet application that uses game design concepts and state-of-the-art computer vision techniques to provide an engaging experience as well as real-time feedback on the children's progress. (c) 2013 ACM.",
     author_keywords = "emotional development; facial expression recognition; serious games",
     keywords = "Gesture recognition; Interactive computer graphics; Autism spectrum disorders; Computer vision techniques; emotional development; Expression mimicking; Facial expression recognition; Psychological disorders; Serious games; Tablet applications; Interactive devices",
     publisher = "Association for Computing Machinery",
@@ -9450,8 +9983,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 21; Conference name: SIGGRAPH Asia 2013 Symposium on Mobile Graphics and Interactive Applications, SA 2013; Conference date: 19 November 2013 through 22 November 2013; Conference code: 101543"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -9481,7 +10013,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T84" t="inlineStr"/>
@@ -9492,7 +10024,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84897369766&amp;doi=10.1145%2f2543651.2543657&amp;partnerID=40&amp;md5=94e7c0b38e490b832fd8a1bc94a60e37</t>
+          <t>https://dl.acm.org/doi/10.1145/2543651.2543687</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
@@ -9502,7 +10034,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -9523,13 +10055,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Stroke is the leading cause of long term disability among adults in industrialized nations. The partial paralysis that stroke patients often experience can make independent living difficult or impossible. Research suggests that many of these patients could recover by performing hundreds of daily repetitions of motions with their affected limbs. Yet, only 31% of patients perform the exercises recommended by their therapists. Home-based stroke rehabilitation games may help motivate stroke patients to perform the necessary exercises to recover. In this paper, we describe a formative study in which we designed and user tested stroke rehabilitation games with both stroke patients and therapists. We describe the lessons we learned about what makes games useful from a therapeutic point of view.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>Stroke is the leading cause of long term disability among adults in industrialized nations. The partial paralysis that stroke patients often experience can make independent living difficult or impossible. Research suggests that many of these patients could recover by performing hundreds of daily repetitions of motions with their affected limbs. Yet, only 31\% of patients perform the exercises recommended by their therapists. Home-based stroke rehabilitation games may help motivate stroke patients to perform the necessary exercises to recover. In this paper, we describe a formative study in which we designed and user tested stroke rehabilitation games with both stroke patients and therapists. We describe the lessons we learned about what makes games useful from a therapeutic point of view.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>video games;  stroke rehabilitation;  design</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>GazihanAlankus; AmandaLazar; MattMay; CaitlinKelleher</t>
+          <t>Alankus, Gazihan; Lazar, Amanda; May, Matt; Kelleher, Caitlin</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -9545,10 +10081,30 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>113-2122</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
+          <t>2113-2122</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/1753326.1753649,
+    author = "Alankus, Gazihan and Lazar, Amanda and May, Matt and Kelleher, Caitlin",
+    title = "Towards customizable games for stroke rehabilitation",
+    year = "2010",
+    isbn = "9781605589299",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/1753326.1753649",
+    doi = "10.1145/1753326.1753649",
+    abstract = "Stroke is the leading cause of long term disability among adults in industrialized nations. The partial paralysis that stroke patients often experience can make independent living difficult or impossible. Research suggests that many of these patients could recover by performing hundreds of daily repetitions of motions with their affected limbs. Yet, only 31\\% of patients perform the exercises recommended by their therapists. Home-based stroke rehabilitation games may help motivate stroke patients to perform the necessary exercises to recover. In this paper, we describe a formative study in which we designed and user tested stroke rehabilitation games with both stroke patients and therapists. We describe the lessons we learned about what makes games useful from a therapeutic point of view.",
+    booktitle = "Proceedings of the SIGCHI Conference on Human Factors in Computing Systems",
+    pages = "2113-2122",
+    numpages = "10",
+    keywords = "video games, stroke rehabilitation, design",
+    location = "Atlanta, Georgia, USA",
+    series = "CHI '10"
+}</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
           <t>Included</t>
@@ -9571,7 +10127,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T85" t="inlineStr"/>
@@ -9580,7 +10136,11 @@
           <t>Towards customizable games for stroke rehabilitation</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/1753326.1753649</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -9588,7 +10148,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -9609,7 +10169,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Obesity and lack of physical fitness are increasingly common in adults as well as children and can negatively affect health. Regular physical activity, such as jogging or training in a fitness center, is recommended by physiologists to fight obesity and improve one’s fitness, but usually requires considerable motivation. Recently, researchers as well as companies have proposed a fewfitness games, i.e. videogames where users play by performing physical exercises, in which game elements (such as graphics and gameplay) are used to encourage people to exercise regularly. This paper proposes a fitness game system which aims at combining arcade-style game graphics, physiological sensors (e.g. heart rate monitor, 3D accelerometer), and an adaptation engine. The adaptation engine considers personal information provided by the user (e.g., age and gender), her current heart rate and movements, and information collected during previous game sessions to adjust the required intensity of physical exercises through context-aware and user-adaptive dynamic adaptations of graphics and gameplay. Besides describing the general system, the paper presents two implemented games and a preliminary user evaluation, which also led us to introduce in the system a 3D virtual human.</t>
+          <t>Obesity and lack of physical fitness are increasingly common in adults as well as children and can negatively affect health. Regular physical activity, such as jogging or training in a fitness center, is recommended by physiologists to fight obesity and improve one's fitness, but usually requires considerable motivation. Recently, researchers as well as companies have proposed a fewfitness games, i.e. videogames where users play by performing physical exercises, in which game elements (such as graphics and gameplay) are used to encourage people to exercise regularly. This paper proposes a fitness game system which aims at combining arcade-style game graphics, physiological sensors (e.g. heart rate monitor, 3D accelerometer), and an adaptation engine. The adaptation engine considers personal information provided by the user (e.g., age and gender), her current heart rate and movements, and information collected during previous game sessions to adjust the required intensity of physical exercises through context-aware and user-adaptive dynamic adaptations of graphics and gameplay. Besides describing the general system, the paper presents two implemented games and a preliminary user evaluation, which also led us to introduce in the system a 3D virtual human.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9619,7 +10179,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Fabio Buttussi1,; Luca Chittaro1,; Roberto Ranon1&amp;; Alessandro Verona1</t>
+          <t>Fabio Buttussi; Luca Chittaro; Roberto Ranon; Alessandro Verona</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -9635,7 +10195,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>pp 85–96</t>
+          <t>pp 85-96</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -9670,7 +10230,11 @@
           <t>Adaptation of graphics and gameplay in fitness games by exploiting motion and physiological sensors</t>
         </is>
       </c>
-      <c r="V86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-540-73214-3_8</t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>
@@ -9699,7 +10263,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>In this article, we present a media adaptation framework for an immersive biofeedback system for stroke patient rehabilitation. In our biofeedback system, media adaptation refers to changes in audio/visual feedback as well as changes in physical environment. Effective media adaptation frameworks help patients recover generative plans for arm movement with potential for significantly shortened therapeutic time. The media adaptation problem has significant challenges(a) high dimensionality of adaptation parameter space; (b) variability in the patient performance across and within sessions; (c) the actual rehabilitation plan is typically a non-first-order Markov process, making the learning task hard. Our key insight is to understand media adaptation as a real-time feedback control problem. We use a mixture-of-experts based Dynamic Decision Network (DDN) for online media adaptation. We train DDN mixtures per patient, per session. The mixture models address two basic questions(a) given a specific adaptation suggested by the domain experts, predict the patient performance, and (b) given the expected performance, determine the optimal adaptation decision. The questions are answered through an optimality criterion based search on DDN models trained in previous sessions. We have also developed new validation metrics and have very good results for both questions on actual stroke rehabilitation data. © 2008 ACM.</t>
+          <t>In this article, we present a media adaptation framework for an immersive biofeedback system for stroke patient rehabilitation. In our biofeedback system, media adaptation refers to changes in audio/visual feedback as well as changes in physical environment. Effective media adaptation frameworks help patients recover generative plans for arm movement with potential for significantly shortened therapeutic time. The media adaptation problem has significant challenges(a) high dimensionality of adaptation parameter space; (b) variability in the patient performance across and within sessions;</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9726,7 +10290,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Chen2008,
+          <t>@ARTICLE{Chen2008,
     author = "Chen, Yinpeng and Xu, Weiwei and Sundaram, Hari and Rikakis, Thanassis and Liu, Sheng-Min",
     title = "A dynamic decision network framework for online media adaptation in stroke rehabilitation",
     year = "2008",
@@ -9736,7 +10300,7 @@
     doi = "10.1145/1404880.1404884",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-56349115432\&amp;doi=10.1145\%2f1404880.1404884\&amp;partnerID=40\&amp;md5=f46dc5b8a8c1c2acce16c1e899a00134",
     affiliations = "Arizona State University",
-    abstract = "In this article, we present a media adaptation framework for an immersive biofeedback system for stroke patient rehabilitation. In our biofeedback system, media adaptation refers to changes in audio/visual feedback as well as changes in physical environment. Effective media adaptation frameworks help patients recover generative plans for arm movement with potential for significantly shortened therapeutic time. The media adaptation problem has significant challenges(a) high dimensionality of adaptation parameter space; (b) variability in the patient performance across and within sessions; (c) the actual rehabilitation plan is typically a non-first-order Markov process, making the learning task hard. Our key insight is to understand media adaptation as a real-time feedback control problem. We use a mixture-of-experts based Dynamic Decision Network (DDN) for online media adaptation. We train DDN mixtures per patient, per session. The mixture models address two basic questions(a) given a specific adaptation suggested by the domain experts, predict the patient performance, and (b) given the expected performance, determine the optimal adaptation decision. The questions are answered through an optimality criterion based search on DDN models trained in previous sessions. We have also developed new validation metrics and have very good results for both questions on actual stroke rehabilitation data. © 2008 ACM.",
+    abstract = "In this article, we present a media adaptation framework for an immersive biofeedback system for stroke patient rehabilitation. In our biofeedback system, media adaptation refers to changes in audio/visual feedback as well as changes in physical environment. Effective media adaptation frameworks help patients recover generative plans for arm movement with potential for significantly shortened therapeutic time. The media adaptation problem has significant challenges(a) high dimensionality of adaptation parameter space; (b) variability in the patient performance across and within sessions; (c) the actual rehabilitation plan is typically a non-first-order Markov process, making the learning task hard. Our key insight is to understand media adaptation as a real-time feedback control problem. We use a mixture-of-experts based Dynamic Decision Network (DDN) for online media adaptation. We train DDN mixtures per patient, per session. The mixture models address two basic questions(a) given a specific adaptation suggested by the domain experts, predict the patient performance, and (b) given the expected performance, determine the optimal adaptation decision. The questions are answered through an optimality criterion based search on DDN models trained in previous sessions. We have also developed new validation metrics and have very good results for both questions on actual stroke rehabilitation data. (c) 2008 ACM.",
     author_keywords = "Biofeedback; Dynamic decision network; Media adaptation; Mixture of experts",
     keywords = "Biofeedback; Feedback control; Markov processes; Mixtures; Neural networks; Neuromuscular rehabilitation; Adaptation parameters; Arm movements; Biofeedback systems; Domain experts; Dynamic decision network; Dynamic decision networks; Effective medias; First orders; High dimensionalities; Immersive; Learning tasks; Media adaptation; Media adaptations; Mixture models; Mixture of experts; Online medias; Optimal adaptations; Optimality criterions; Physical environments; Rehabilitation plans; Specific adaptations; Stroke rehabilitations; Time feedbacks; Patient rehabilitation",
     correspondence_address = "H. Sundaram; Arizona State University, United States; email: Hari.Sundaram@asu.edu",
@@ -9747,8 +10311,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 22"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -9777,7 +10340,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T87" t="inlineStr"/>
@@ -9788,13 +10351,17 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-56349115432&amp;doi=10.1145%2f1404880.1404884&amp;partnerID=40&amp;md5=f46dc5b8a8c1c2acce16c1e899a00134</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr"/>
+          <t>https://dl.acm.org/doi/10.1145/1404880.1404884</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>nan; References; Pages; Publisher</t>
+          <t>nan; References; Pages</t>
         </is>
       </c>
     </row>
@@ -9821,7 +10388,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve">H. Barbosa, A. V Castro, and E. Carrapatoso, </t>
+          <t>H. Barbosa, A. V Castro, and E. Carrapatoso,</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -9877,7 +10444,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Motion-based games for Health (MGH) are increasingly being adopted for stroke rehabilitation because of their inherent benefits [14]. In this paper, we present the initial results of a novel intervention study in Pakistan’s context, that compares the benefits of prescribed manual therapy regarding motor functional improvements of 22 participants who participated in a randomized clinical trial that lasted for a period of 4 weeks with the pre-post intervention standard functional assessments (TUG, WMFT, ARAT). The results indicated that adaptive exergames are not just an alternative to manual therapy but can also provide the additional benefits of enjoyment and motivation (TAM, CEGEQ and informal interviews). © 2018 Copyright is held by the owner/author(s).</t>
+          <t>Motion-based games for Health (MGH) are increasingly being adopted for stroke rehabilitation because of their inherent benefits [14]. In this paper, we present the initial results of a novel intervention study in Pakistan's context, that compares the benefits of prescribed manual therapy regarding motor functional improvements of 22 participants who participated in a randomized clinical trial that lasted for a period of 4 weeks with the pre-post intervention standard functional assessments (TUG, WMFT, ARAT). The results indicated that adaptive exergames are not just an alternative to manual therapy but can also provide the additional benefits of enjoyment and motivation (TAM, CEGEQ and informal interviews).</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9901,10 +10468,14 @@
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{AliKhan2018,
+          <t>@CONFERENCE{AliKhan2018,
     author = "Ali Khan, Hassan and Parvez, Murayyiam and Shahid, Suleman and Javaid, Asbar",
     title = "A comparative study on the effectiveness of adaptive exergames for stroke rehabilitation in Pakistan",
     year = "2018",
@@ -9913,7 +10484,7 @@
     doi = "10.1145/3170427.3188523",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85052023118\&amp;doi=10.1145\%2f3170427.3188523\&amp;partnerID=40\&amp;md5=c93fae2927aac4181a46e47134a202c7",
     affiliations = "Department of Computer Science, SBA School of Science and Engineering (SBASSE), Lahore University of Management Sciences, Lahore, Pakistan; University Institute of Physical Therapy (UIPT), University of Lahore, Lahore, Pakistan",
-    abstract = "Motion-based games for Health (MGH) are increasingly being adopted for stroke rehabilitation because of their inherent benefits [14]. In this paper, we present the initial results of a novel intervention study in Pakistan’s context, that compares the benefits of prescribed manual therapy regarding motor functional improvements of 22 participants who participated in a randomized clinical trial that lasted for a period of 4 weeks with the pre-post intervention standard functional assessments (TUG, WMFT, ARAT). The results indicated that adaptive exergames are not just an alternative to manual therapy but can also provide the additional benefits of enjoyment and motivation (TAM, CEGEQ and informal interviews). © 2018 Copyright is held by the owner/author(s).",
+    abstract = "Motion-based games for Health (MGH) are increasingly being adopted for stroke rehabilitation because of their inherent benefits [14]. In this paper, we present the initial results of a novel intervention study in Pakistan's context, that compares the benefits of prescribed manual therapy regarding motor functional improvements of 22 participants who participated in a randomized clinical trial that lasted for a period of 4 weeks with the pre-post intervention standard functional assessments (TUG, WMFT, ARAT). The results indicated that adaptive exergames are not just an alternative to manual therapy but can also provide the additional benefits of enjoyment and motivation (TAM, CEGEQ and informal interviews). (c) 2018 Copyright is held by the owner/author(s).",
     author_keywords = "Assistive Technology; Exergames; Games for health; Player experience; Stroke rehabilitation",
     keywords = "Human engineering; Comparative studies; Exergames; Functional improvements; Intervention studies; Manual therapy; Post interventions; Randomized clinical trials; Stroke rehabilitation; Neuromuscular rehabilitation",
     correspondence_address = "A. Javaid; University Institute of Physical Therapy (UIPT), University of Lahore, Lahore, Pakistan; email: asbarjavaid@gmail.com",
@@ -9925,8 +10496,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 8; Conference name: 2018 CHI Conference on Human Factors in Computing Systems, CHI EA 2018; Conference date: 21 April 2018 through 26 April 2018; Conference code: 135975"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -9955,7 +10525,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T89" t="inlineStr"/>
@@ -9966,7 +10536,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85052023118&amp;doi=10.1145%2f3170427.3188523&amp;partnerID=40&amp;md5=c93fae2927aac4181a46e47134a202c7</t>
+          <t>https://dl.acm.org/doi/10.1145/3170427.3188523</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
@@ -9976,7 +10546,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -9997,7 +10567,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Introduction: Home-based programmes for cardiac rehabilitation play a key role in the recovery of patients with coronary artery disease. However, their necessary educational and motivational components have been rarely implemented with the help of modern mobile technologies. We developed a mobile health system designed for motivating patients to adhere to their rehabilitation programme by providing exercise monitoring, guidance, motivational feedback, and educational content. Methods: Our multi-disciplinary approach is based on mapping “desired behaviours” into specific system’s specifications, borrowing concepts from Fogg’s Persuasive Systems Design principles. A randomised controlled trial was conducted to compare mobile-based rehabilitation (55 patients) versus standard care (63 patients). Results: Some technical issues related to connectivity, usability and exercise sessions interrupted by safety algorithms affected the trial. For those who completed the rehabilitation (19 of 55), results show high levels of both user acceptance and perceived usefulness. Adherence in terms of started exercise sessions was high, but not in terms of total time of performed exercise or drop-outs. Educational level about heart-related health improved more in the intervention group than the control. Exercise habits at 6 months follow-up also improved, although without statistical significance. Discussion: Results indicate that the adopted design methodology is promising for creating applications that help improve education and foster better exercise habits, but further studies would be needed to confirm these indications. © 2017, © The Author(s) 2017.</t>
+          <t>Introduction: Home-based programmes for cardiac rehabilitation play a key role in the recovery of patients with coronary artery disease. However, their necessary educational and motivational components have been rarely implemented with the help of modern mobile technologies. We developed a mobile health system designed for motivating patients to adhere to their rehabilitation programme by providing exercise monitoring, guidance, motivational feedback, and educational content. Methods: Our multi-disciplinary approach is based on mapping "desired behaviours" into specific system's specifications, borrowing concepts from Fogg's Persuasive Systems Design principles. A randomised controlled trial was conducted to compare mobile-based rehabilitation (55 patients) versus standard care (63 patients). Results: Some technical issues related to connectivity, usability and exercise sessions interrupted by safety algorithms affected the trial. For those who completed the rehabilitation (19 of 55), results show high levels of both user acceptance and perceived usefulness. Adherence in terms of started exercise sessions was high, but not in terms of total time of performed exercise or drop-outs. Educational level about heart-related health improved more in the intervention group than the control. Exercise habits at 6 months follow-up also improved, although without statistical significance. Discussion: Results indicate that the adopted design methodology is promising for creating applications that help improve education and foster better exercise habits, but further studies would be needed to confirm these indications.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -10007,7 +10577,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Salvi, Dario; Ottaviano, Manuel; Muuraiskangas, Salla; Martínez-Romero, Alvaro; Vera-Muñoz, Cecilia; Triantafyllidis, Andreas; Cabrera Umpiérrez, Maria Fernanda; Arredondo Waldmeyer, Maria Teresa; Skobel, Erik; Knackstedt, Christian; Liedes, Hilkka; Honka, Anita; Luprano, Jean; Cleland, John G.F.; Stut, Wim; Deighan, Carolyn</t>
+          <t>Salvi, Dario; Ottaviano, Manuel; Muuraiskangas, Salla; Martinez-Romero, Alvaro; Vera-Munoz, Cecilia; Triantafyllidis, Andreas; Cabrera Umpierrez, Maria Fernanda; Arredondo Waldmeyer, Maria Teresa; Skobel, Erik; Knackstedt, Christian; Liedes, Hilkka; Honka, Anita; Luprano, Jean; Cleland, John G.F.; Stut, Wim; Deighan, Carolyn</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -10023,26 +10593,26 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>303 – 316</t>
+          <t>303 - 316</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Salvi2018303,
-    author = "Salvi, Dario and Ottaviano, Manuel and Muuraiskangas, Salla and Martínez-Romero, Alvaro and Vera-Muñoz, Cecilia and Triantafyllidis, Andreas and Cabrera Umpiérrez, Maria Fernanda and Arredondo Waldmeyer, Maria Teresa and Skobel, Erik and Knackstedt, Christian and Liedes, Hilkka and Honka, Anita and Luprano, Jean and Cleland, John G.F. and Stut, Wim and Deighan, Carolyn",
+          <t>@ARTICLE{Salvi2018303,
+    author = "Salvi, Dario and Ottaviano, Manuel and Muuraiskangas, Salla and Martinez-Romero, Alvaro and Vera-Munoz, Cecilia and Triantafyllidis, Andreas and Cabrera Umpierrez, Maria Fernanda and Arredondo Waldmeyer, Maria Teresa and Skobel, Erik and Knackstedt, Christian and Liedes, Hilkka and Honka, Anita and Luprano, Jean and Cleland, John G.F. and Stut, Wim and Deighan, Carolyn",
     title = "An m-Health system for education and motivation in cardiac rehabilitation: the experience of HeartCycle guided exercise",
     year = "2018",
     journal = "Journal of Telemedicine and Telecare",
     volume = "24",
     number = "4",
-    pages = "303 – 316",
+    pages = "303 - 316",
     doi = "10.1177/1357633X17697501",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85026843486\&amp;doi=10.1177\%2f1357633X17697501\&amp;partnerID=40\&amp;md5=90310e58712beda42002bbdc6c7f0f4a",
-    affiliations = "Life Supporting Technologies, Departamento de Tecnología Fotónica y Biongeniería, Universidad Politécnica de Madrid, Madrid, Spain; VTT Technical Research Centre of Finland Ltd, Oulu, Finland; Universitat Politècnica de València, Valencia, Spain; Laboratory of Medical Informatics, Medical School, Aristotle University of Thessaloniki, Thessaloniki, Greece; Clinic for Cardiac and Pulmonary Rehabilitation, Rosenquelle, Aachen, Germany; Department of Cardiology, RWTH Aachen University, Aachen, Germany; Maastricht University Medical Centre, Dept. of Cardiology, Maastricht, Netherlands; VTT Technical Research Centre of Finland Ltd, Tampere, Finland; Centre Suisse d’Electronique et de Microtechnique SA, Neuchatel, Switzerland; Hull York Medical School, University of Hull, Hull, United Kingdom; Philips Research, Eindhoven, Netherlands; Heart Manual Department, NHS Lothian, United Kingdom",
-    abstract = "Introduction: Home-based programmes for cardiac rehabilitation play a key role in the recovery of patients with coronary artery disease. However, their necessary educational and motivational components have been rarely implemented with the help of modern mobile technologies. We developed a mobile health system designed for motivating patients to adhere to their rehabilitation programme by providing exercise monitoring, guidance, motivational feedback, and educational content. Methods: Our multi-disciplinary approach is based on mapping “desired behaviours” into specific system’s specifications, borrowing concepts from Fogg’s Persuasive Systems Design principles. A randomised controlled trial was conducted to compare mobile-based rehabilitation (55 patients) versus standard care (63 patients). Results: Some technical issues related to connectivity, usability and exercise sessions interrupted by safety algorithms affected the trial. For those who completed the rehabilitation (19 of 55), results show high levels of both user acceptance and perceived usefulness. Adherence in terms of started exercise sessions was high, but not in terms of total time of performed exercise or drop-outs. Educational level about heart-related health improved more in the intervention group than the control. Exercise habits at 6 months follow-up also improved, although without statistical significance. Discussion: Results indicate that the adopted design methodology is promising for creating applications that help improve education and foster better exercise habits, but further studies would be needed to confirm these indications. © 2017, © The Author(s) 2017.",
+    affiliations = "Life Supporting Technologies, Departamento de Tecnologia Fotonica y Biongenieria, Universidad Politecnica de Madrid, Madrid, Spain; VTT Technical Research Centre of Finland Ltd, Oulu, Finland; Universitat Politecnica de Valencia, Valencia, Spain; Laboratory of Medical Informatics, Medical School, Aristotle University of Thessaloniki, Thessaloniki, Greece; Clinic for Cardiac and Pulmonary Rehabilitation, Rosenquelle, Aachen, Germany; Department of Cardiology, RWTH Aachen University, Aachen, Germany; Maastricht University Medical Centre, Dept. of Cardiology, Maastricht, Netherlands; VTT Technical Research Centre of Finland Ltd, Tampere, Finland; Centre Suisse d'Electronique et de Microtechnique SA, Neuchatel, Switzerland; Hull York Medical School, University of Hull, Hull, United Kingdom; Philips Research, Eindhoven, Netherlands; Heart Manual Department, NHS Lothian, United Kingdom",
+    abstract = "Introduction: Home-based programmes for cardiac rehabilitation play a key role in the recovery of patients with coronary artery disease. However, their necessary educational and motivational components have been rarely implemented with the help of modern mobile technologies. We developed a mobile health system designed for motivating patients to adhere to their rehabilitation programme by providing exercise monitoring, guidance, motivational feedback, and educational content. Methods: Our multi-disciplinary approach is based on mapping "desired behaviours" into specific system's specifications, borrowing concepts from Fogg's Persuasive Systems Design principles. A randomised controlled trial was conducted to compare mobile-based rehabilitation (55 patients) versus standard care (63 patients). Results: Some technical issues related to connectivity, usability and exercise sessions interrupted by safety algorithms affected the trial. For those who completed the rehabilitation (19 of 55), results show high levels of both user acceptance and perceived usefulness. Adherence in terms of started exercise sessions was high, but not in terms of total time of performed exercise or drop-outs. Educational level about heart-related health improved more in the intervention group than the control. Exercise habits at 6 months follow-up also improved, although without statistical significance. Discussion: Results indicate that the adopted design methodology is promising for creating applications that help improve education and foster better exercise habits, but further studies would be needed to confirm these indications. (c) 2017, (c) The Author(s) 2017.",
     author_keywords = "cardiac rehabilitation; coronary artery diseases; education and motivation; m-Health",
     keywords = "Adult; Aged; Cardiac Rehabilitation; Exercise Therapy; Female; Humans; Male; Middle Aged; Motivation; Peptide Fragments; Self Care; Telemedicine; Urokinase-Type Plasminogen Activator; PAItrap peptide; peptide fragment; urokinase; adult; aged; controlled study; female; heart rehabilitation; human; kinesiotherapy; male; middle aged; motivation; procedures; randomized controlled trial; self care; telemedicine",
-    correspondence_address = "D. Salvi; Departamento de Tecnología Fotónica y Biongeniería, Escuela Técnica Superior de Ingenieros de Telecomunicación, Madrid, Avenida Complutense 30, 28040, Spain; email: dario.salvi.work@gmail.com",
+    correspondence_address = "D. Salvi; Departamento de Tecnologia Fotonica y Biongenieria, Escuela Tecnica Superior de Ingenieros de Telecomunicacion, Madrid, Avenida Complutense 30, 28040, Spain; email: dario.salvi.work@gmail.com",
     publisher = "SAGE Publications Ltd",
     issn = "1357633X",
     pmid = "28350282",
@@ -10052,8 +10622,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 43; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -10082,7 +10651,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T90" t="inlineStr"/>
@@ -10093,7 +10662,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85026843486&amp;doi=10.1177%2f1357633X17697501&amp;partnerID=40&amp;md5=90310e58712beda42002bbdc6c7f0f4a</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85026843486&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=bebcfbf18f80f018917c2930e0138d69&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28an+m+health+system+for+education+and+motivation+in+cardiac+rehabilitation+the+experience+of+heartcycle+guided+exercise%29&amp;sl=133&amp;sessionSearchId=bebcfbf18f80f018917c2930e0138d69&amp;relpos=0</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
@@ -10124,12 +10693,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Background: The CardioFit internet-based expert system was designed to promote physical activity in patients with coronary heart disease (CHD) who were not participating in cardiac rehabilitation. Design: This randomized controlled trial compared CardioFit to usual care to assess its effects on physical activity following hospitalization for acute coronary syndromes. Methods: A total of 223 participants were recruited at the University of Ottawa Heart Institute or London Health Sciences Centre and randomly assigned to either CardioFit (n = 115) or usual care (n = 108). The CardioFit group received a personally tailored physical-activity plan upon discharge from the hospital and access to a secure website for activity planning and tracking. They completed five online tutorials over a 6-month period and were in email contact with an exercise specialist. Usual care consisted of physical activity guidance from an attending cardiologist. Physical activity was measured by pedometer and self-reported over a 7-day period, 6 and 12 months after randomization.Results: The CardioFit internet-based physical activity expert system significantly increased objectively measured (p = 0.023) and self-reported physical activity (p = 0.047) compared to usual care. Emotional (p = 0.038) and physical (p = 0.031) dimensions of heart disease health-related quality of life were also higher with CardioFit compared to usual care.Conclusions: Patients with CHD using an internet-based activity prescription with online coaching were more physically active at follow up than those receiving usual care. Use of the CardioFit program could extend the reach of rehabilitation and secondary-prevention services. © 2011 The European Society of Cardiology.</t>
+          <t>Background: The CardioFit internet-based expert system was designed to promote physical activity in patients with coronary heart disease (CHD) who were not participating in cardiac rehabilitation. Design: This randomized controlled trial compared CardioFit to usual care to assess its effects on physical activity following hospitalization for acute coronary syndromes. Methods: A total of 223 participants were recruited at the University of Ottawa Heart Institute or London Health Sciences Centre and randomly assigned to either CardioFit (n = 115) or usual care (n = 108). The CardioFit group received a personally tailored physical-activity plan upon discharge from the hospital and access to a secure website for activity planning and tracking. They completed five online tutorials over a 6-month period and were in email contact with an exercise specialist. Usual care consisted of physical activity guidance from an attending cardiologist. Physical activity was measured by pedometer and self-reported over a 7-day period, 6 and 12 months after randomization.Results: The CardioFit internet-based physical activity expert system significantly increased objectively measured (p = 0.023) and self-reported physical activity (p = 0.047) compared to usual care. Emotional (p = 0.038) and physical (p = 0.031) dimensions of heart disease health-related quality of life were also higher with CardioFit compared to usual care.Conclusions: Patients with CHD using an internet-based activity prescription with online coaching were more physically active at follow up than those receiving usual care. Use of the CardioFit program could extend the reach of rehabilitation and secondary-prevention services.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Actigraphy; Acute Coronary Syndrome; Aged; Emotions; Exercise Therapy; Expert Systems; Female; Health Behavior; Health Knowledge, Attitudes, Practice; Health Status; Humans; Internet; Male; Mental Health; Middle Aged; Motor Activity; Ontario; Patient Compliance; Patient Discharge; Quality of Life; Secondary Prevention; Self Report; Therapy, Computer-Assisted; Time Factors; Treatment Outcome; acute coronary syndrome; adult; article; cardiologist; controlled study; emotion; exercise; female; health program; human; Internet; major clinical study; male; patient care; patient compliance; pedometer; physical activity; priority journal; quality of life; randomized controlled trial; self report; treatment planning</t>
+          <t>Actigraphy; Acute Coronary Syndrome; Aged; Emotions; Exercise Therapy; Expert Systems; Female; Health Behavior; Health Knowledge;  Attitudes;  Practice; Health Status; Humans; Internet; Male; Mental Health; Middle Aged; Motor Activity; Ontario; Patient Compliance; Patient Discharge; Quality of Life; Secondary Prevention; Self Report; Therapy;  Computer-Assisted; Time Factors; Treatment Outcome; acute coronary syndrome; adult; article; cardiologist; controlled study; emotion; exercise; female; health program; human; Internet; major clinical study; male; patient care; patient compliance; pedometer; physical activity; priority journal; quality of life; randomized controlled trial; self report; treatment planning</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -10150,23 +10719,23 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1357 – 1364</t>
+          <t>1357 - 1364</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Reid20121357,
+          <t>@ARTICLE{Reid20121357,
     author = "Reid, Robert D. and Morrin, Louise I. and Beaton, Louise J. and Papadakis, Sophia and Kocourek, Jana and McDonnell, Lisa and D'Angelo, Monika E. Slovinec and Tulloch, Heather and Suskin, Neville and Unsworth, Karen and Blanchard, Chris and Pipe, Andrew L.",
     title = "Randomized trial of an internet-based computer-tailored expert system for physical activity in patients with heart disease",
     year = "2012",
     journal = "European Journal of Preventive Cardiology",
     volume = "19",
     number = "6",
-    pages = "1357 – 1364",
+    pages = "1357 - 1364",
     doi = "10.1177/1741826711422988",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84873911522\&amp;doi=10.1177\%2f1741826711422988\&amp;partnerID=40\&amp;md5=b0a3dae1af332ec8e75cc3aa79d3401e",
     affiliations = "Prevention and Rehabilitation Centre, University of Ottawa, Heart Institute, Ottawa, ON K1Y 4W7, 40 Ruskin Street, Canada; Alberta Health Services, Canada; North Bay Parry Sound District Health Unit, North Bay, Canada; London Health Sciences Centre, London, Canada; Dalhousie University, Halifax, Canada",
-    abstract = "Background: The CardioFit internet-based expert system was designed to promote physical activity in patients with coronary heart disease (CHD) who were not participating in cardiac rehabilitation. Design: This randomized controlled trial compared CardioFit to usual care to assess its effects on physical activity following hospitalization for acute coronary syndromes. Methods: A total of 223 participants were recruited at the University of Ottawa Heart Institute or London Health Sciences Centre and randomly assigned to either CardioFit (n = 115) or usual care (n = 108). The CardioFit group received a personally tailored physical-activity plan upon discharge from the hospital and access to a secure website for activity planning and tracking. They completed five online tutorials over a 6-month period and were in email contact with an exercise specialist. Usual care consisted of physical activity guidance from an attending cardiologist. Physical activity was measured by pedometer and self-reported over a 7-day period, 6 and 12 months after randomization.Results: The CardioFit internet-based physical activity expert system significantly increased objectively measured (p = 0.023) and self-reported physical activity (p = 0.047) compared to usual care. Emotional (p = 0.038) and physical (p = 0.031) dimensions of heart disease health-related quality of life were also higher with CardioFit compared to usual care.Conclusions: Patients with CHD using an internet-based activity prescription with online coaching were more physically active at follow up than those receiving usual care. Use of the CardioFit program could extend the reach of rehabilitation and secondary-prevention services. © 2011 The European Society of Cardiology.",
+    abstract = "Background: The CardioFit internet-based expert system was designed to promote physical activity in patients with coronary heart disease (CHD) who were not participating in cardiac rehabilitation. Design: This randomized controlled trial compared CardioFit to usual care to assess its effects on physical activity following hospitalization for acute coronary syndromes. Methods: A total of 223 participants were recruited at the University of Ottawa Heart Institute or London Health Sciences Centre and randomly assigned to either CardioFit (n = 115) or usual care (n = 108). The CardioFit group received a personally tailored physical-activity plan upon discharge from the hospital and access to a secure website for activity planning and tracking. They completed five online tutorials over a 6-month period and were in email contact with an exercise specialist. Usual care consisted of physical activity guidance from an attending cardiologist. Physical activity was measured by pedometer and self-reported over a 7-day period, 6 and 12 months after randomization.Results: The CardioFit internet-based physical activity expert system significantly increased objectively measured (p = 0.023) and self-reported physical activity (p = 0.047) compared to usual care. Emotional (p = 0.038) and physical (p = 0.031) dimensions of heart disease health-related quality of life were also higher with CardioFit compared to usual care.Conclusions: Patients with CHD using an internet-based activity prescription with online coaching were more physically active at follow up than those receiving usual care. Use of the CardioFit program could extend the reach of rehabilitation and secondary-prevention services. (c) 2011 The European Society of Cardiology.",
     author_keywords = "Behavioural sciences; coronary; exercise; heart diseases; internet; rehabilitation",
     keywords = "Actigraphy; Acute Coronary Syndrome; Aged; Emotions; Exercise Therapy; Expert Systems; Female; Health Behavior; Health Knowledge, Attitudes, Practice; Health Status; Humans; Internet; Male; Mental Health; Middle Aged; Motor Activity; Ontario; Patient Compliance; Patient Discharge; Quality of Life; Secondary Prevention; Self Report; Therapy, Computer-Assisted; Time Factors; Treatment Outcome; acute coronary syndrome; adult; article; cardiologist; controlled study; emotion; exercise; female; health program; human; Internet; major clinical study; male; patient care; patient compliance; pedometer; physical activity; priority journal; quality of life; randomized controlled trial; self report; treatment planning",
     correspondence_address = "R.D. Reid; Prevention and Rehabilitation Centre, University of Ottawa, Heart Institute, Ottawa, ON K1Y 4W7, 40 Ruskin Street, Canada; email: breid@ottawaheart.ca",
@@ -10178,8 +10747,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 105; All Open Access, Bronze Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -10200,7 +10768,7 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
-          <t xml:space="preserve">personally tailored physical-activity plan </t>
+          <t>personally tailored physical-activity plan</t>
         </is>
       </c>
       <c r="R91" t="n">
@@ -10208,7 +10776,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T91" t="inlineStr"/>
@@ -10219,7 +10787,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84873911522&amp;doi=10.1177%2f1741826711422988&amp;partnerID=40&amp;md5=b0a3dae1af332ec8e75cc3aa79d3401e</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84873911522&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=ca763ae5cd4a8b9a069bfe5e1639cf54&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28randomized+trial+of+an+internet+based+computer+tailored+expert+system+for+physical+activity+in+patients+with+heart+disease%29&amp;sl=137&amp;sessionSearchId=ca763ae5cd4a8b9a069bfe5e1639cf54&amp;relpos=0</t>
         </is>
       </c>
       <c r="W91" t="inlineStr"/>
@@ -10246,12 +10814,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Cardiovascular diseases (CVDs) are a leading cause of premature death worldwide. International guidelines recommend routine delivery of all phases of cardiac rehabilitation (CR). Uptake of traditional CR remains suboptimal, as attendance at formal hospital-based CR programs is low, with community-based CR rates and individual long-term exercise maintenance even lower. Home-based CR programs have been shown to be equally effective in clinical and health-related quality of life outcomes and yet are not readily available. The aim of the current study was to develop the PATHway intervention (physical activity toward health) for the self-management of CVD. Increasing physical activity in individuals with CVD was the primary behavior. The PATHway intervention was theoretically informed by the behavior change wheel and social cognitive theory. All relevant intervention functions, behavior change techniques, and policy categories were identified and translated into intervention content. Furthermore, a person-centered approach was adopted involving an iterative codesign process and extensive user testing. Education, enablement, modeling, persuasion, training, and social restructuring were selected as appropriate intervention functions. Twenty-two behavior change techniques, linked to the six intervention functions and three policy categories, were identified for inclusion and translated into PATHway intervention content. This paper details the use of the behavior change wheel and social cognitive theory to develop an eHealth intervention for the self-management of CVD. The systematic and transparent development of the PATHway intervention will facilitate the evaluation of intervention effectiveness and future replication. © Society of Behavioral Medicine 2018. All rights reserved.</t>
+          <t>Cardiovascular diseases (CVDs) are a leading cause of premature death worldwide. International guidelines recommend routine delivery of all phases of cardiac rehabilitation (CR). Uptake of traditional CR remains suboptimal, as attendance at formal hospital-based CR programs is low, with community-based CR rates and individual long-term exercise maintenance even lower. Home-based CR programs have been shown to be equally effective in clinical and health-related quality of life outcomes and yet are not readily available. The aim of the current study was to develop the PATHway intervention (physical activity toward health) for the self-management of CVD. Increasing physical activity in individuals with CVD was the primary behavior. The PATHway intervention was theoretically informed by the behavior change wheel and social cognitive theory. All relevant intervention functions, behavior change techniques, and policy categories were identified and translated into intervention content. Furthermore, a person-centered approach was adopted involving an iterative codesign process and extensive user testing. Education, enablement, modeling, persuasion, training, and social restructuring were selected as appropriate intervention functions. Twenty-two behavior change techniques, linked to the six intervention functions and three policy categories, were identified for inclusion and translated into PATHway intervention content. This paper details the use of the behavior change wheel and social cognitive theory to develop an eHealth intervention for the self-management of CVD. The systematic and transparent development of the PATHway intervention will facilitate the evaluation of intervention effectiveness and future replication.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Aged; Behavior Therapy; Cardiac Rehabilitation; Cardiovascular Diseases; Cost of Illness; Exercise; Female; Humans; Male; Middle Aged; Mortality, Premature; Quality of Life; Self-Management; Telemedicine; Treatment Outcome; adult; aged; Article; behavior change; cardiovascular disease; clinical article; female; heart rehabilitation; human; information processing; male; persuasive communication; physical activity; priority journal; quality of life; self care; self concept; Social Cognitive Theory; social interaction; telehealth; behavior therapy; cardiovascular disease; cost of illness; exercise; middle aged; mortality; physiology; premature mortality; procedures; psychology; statistics and numerical data; telemedicine; treatment outcome; trends</t>
+          <t>Aged; Behavior Therapy; Cardiac Rehabilitation; Cardiovascular Diseases; Cost of Illness; Exercise; Female; Humans; Male; Middle Aged; Mortality;  Premature; Quality of Life; Self-Management; Telemedicine; Treatment Outcome; adult; aged; Article; behavior change; cardiovascular disease; clinical article; female; heart rehabilitation; human; information processing; male; persuasive communication; physical activity; priority journal; quality of life; self care; self concept; Social Cognitive Theory; social interaction; telehealth; behavior therapy; cardiovascular disease; cost of illness; exercise; middle aged; mortality; physiology; premature mortality; procedures; psychology; statistics and numerical data; telemedicine; treatment outcome; trends</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -10272,23 +10840,23 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>76 – 98</t>
+          <t>76 - 98</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Walsh201976,
+          <t>@ARTICLE{Walsh201976,
     author = "Walsh, Deirdre M.J. and Kieran, Moran and Cornelissen, Veronique and Buys, Roselien and Claes, Jomme and Zampognaro, Paolo and Melillo, Fabio and Maglaveras, Nicos and Chouvarda, Ioanna and Triantafyllidis, Andreas and Filos, Dimitris and Woods, Catherine B.",
     title = "The development and codesign of the PATHway intervention: A theory-driven eHealth platform for the self-management of cardiovascular disease",
     year = "2019",
     journal = "Translational Behavioral Medicine",
     volume = "9",
     number = "1",
-    pages = "76 – 98",
+    pages = "76 - 98",
     doi = "10.1093/tbm/iby017",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85046664270\&amp;doi=10.1093\%2ftbm\%2fiby017\&amp;partnerID=40\&amp;md5=de369387e2cf2982fe3cd7cd86973185",
     affiliations = "Insight Centre for Data Analytics, School of Health and Human Performance, Dublin City University, Dublin, Ireland; Department of Rehabilitation Sciences, KU Leuven, Leuven, Belgium; Department of Cardiovascular Sciences, KU Leuven, Leuven, Belgium; Engineering Ingegneria Informatica S.P.A., Napoli, Italy; Institute of Applied Biosciences, Centre for Research and Technology, Hellas, Greece; Department of Physical Education and Sport Sciences, University of Limerick, Limerick, Ireland",
-    abstract = "Cardiovascular diseases (CVDs) are a leading cause of premature death worldwide. International guidelines recommend routine delivery of all phases of cardiac rehabilitation (CR). Uptake of traditional CR remains suboptimal, as attendance at formal hospital-based CR programs is low, with community-based CR rates and individual long-term exercise maintenance even lower. Home-based CR programs have been shown to be equally effective in clinical and health-related quality of life outcomes and yet are not readily available. The aim of the current study was to develop the PATHway intervention (physical activity toward health) for the self-management of CVD. Increasing physical activity in individuals with CVD was the primary behavior. The PATHway intervention was theoretically informed by the behavior change wheel and social cognitive theory. All relevant intervention functions, behavior change techniques, and policy categories were identified and translated into intervention content. Furthermore, a person-centered approach was adopted involving an iterative codesign process and extensive user testing. Education, enablement, modeling, persuasion, training, and social restructuring were selected as appropriate intervention functions. Twenty-two behavior change techniques, linked to the six intervention functions and three policy categories, were identified for inclusion and translated into PATHway intervention content. This paper details the use of the behavior change wheel and social cognitive theory to develop an eHealth intervention for the self-management of CVD. The systematic and transparent development of the PATHway intervention will facilitate the evaluation of intervention effectiveness and future replication. © Society of Behavioral Medicine 2018. All rights reserved.",
+    abstract = "Cardiovascular diseases (CVDs) are a leading cause of premature death worldwide. International guidelines recommend routine delivery of all phases of cardiac rehabilitation (CR). Uptake of traditional CR remains suboptimal, as attendance at formal hospital-based CR programs is low, with community-based CR rates and individual long-term exercise maintenance even lower. Home-based CR programs have been shown to be equally effective in clinical and health-related quality of life outcomes and yet are not readily available. The aim of the current study was to develop the PATHway intervention (physical activity toward health) for the self-management of CVD. Increasing physical activity in individuals with CVD was the primary behavior. The PATHway intervention was theoretically informed by the behavior change wheel and social cognitive theory. All relevant intervention functions, behavior change techniques, and policy categories were identified and translated into intervention content. Furthermore, a person-centered approach was adopted involving an iterative codesign process and extensive user testing. Education, enablement, modeling, persuasion, training, and social restructuring were selected as appropriate intervention functions. Twenty-two behavior change techniques, linked to the six intervention functions and three policy categories, were identified for inclusion and translated into PATHway intervention content. This paper details the use of the behavior change wheel and social cognitive theory to develop an eHealth intervention for the self-management of CVD. The systematic and transparent development of the PATHway intervention will facilitate the evaluation of intervention effectiveness and future replication. (c) Society of Behavioral Medicine 2018. All rights reserved.",
     author_keywords = "Behavior change wheel; Cardiovascular disease; EHealth; Health behavior change; Intervention development; Physical activity",
     keywords = "Aged; Behavior Therapy; Cardiac Rehabilitation; Cardiovascular Diseases; Cost of Illness; Exercise; Female; Humans; Male; Middle Aged; Mortality, Premature; Quality of Life; Self-Management; Telemedicine; Treatment Outcome; adult; aged; Article; behavior change; cardiovascular disease; clinical article; female; heart rehabilitation; human; information processing; male; persuasive communication; physical activity; priority journal; quality of life; self care; self concept; Social Cognitive Theory; social interaction; telehealth; behavior therapy; cardiovascular disease; cost of illness; exercise; middle aged; mortality; physiology; premature mortality; procedures; psychology; statistics and numerical data; telemedicine; treatment outcome; trends",
     correspondence_address = "C.B. Woods; Department of Physical Education and Sport Sciences, University of Limerick, Limerick, Ireland; email: Catherine.Woods@ul.ie",
@@ -10301,8 +10869,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 28; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -10327,7 +10894,7 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T92" t="inlineStr"/>
@@ -10338,7 +10905,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85046664270&amp;doi=10.1093%2ftbm%2fiby017&amp;partnerID=40&amp;md5=de369387e2cf2982fe3cd7cd86973185</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-85046664270&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=3a057980075e291ba89285fd917c6b88&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28the+development+and+codesign+of+the+pathway+intervention+a+theory+driven+ehealth+platform+for+the+self+management+of+cardiovascular+disease%29&amp;sl=154&amp;sessionSearchId=3a057980075e291ba89285fd917c6b88&amp;relpos=0</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
@@ -10369,7 +10936,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Increasing screen real-estate allows for the development of applications where a single user can manage a large amount of data and related tasks through a distributed user interface. However, such users can easily become overloaded and become unaware of display changes as they alternate their attention towards different displays. We propose AwToolkit, a novel widget set for developers that supports users in maintaing awareness in multi-display systems. The AwToolkit widgets automatically determine which display a user is looking at and provide users with notifications with different levels of subtlety to make the user aware of any unattended display changes. The toolkit uses four notification levels (unnoticeable, subtle, intrusive and disruptive), ranging from an almost imperceptible visual change to a clear and visually saliant change. We describe AwToolkit's six widgets, which have been designed for C# developers, and the design of a user study with an application oriented towards healthcare environments. The evaluation results reveal a marked increase in user awareness in comparison to the same application implemented without AwToolkit. © 2014 ACM.</t>
+          <t>Increasing screen real-estate allows for the development of applications where a single user can manage a large amount of data and related tasks through a distributed user interface. However, such users can easily become overloaded and become unaware of display changes as they alternate their attention towards different displays. We propose AwToolkit, a novel widget set for developers that supports users in maintaing awareness in multi-display systems. The AwToolkit widgets automatically determine which display a user is looking at and provide users with notifications with different levels of subtlety to make the user aware of any unattended display changes. The toolkit uses four notification levels (unnoticeable, subtle, intrusive and disruptive), ranging from an almost imperceptible visual change to a clear and visually saliant change. We describe AwToolkit's six widgets, which have been designed for C# developers, and the design of a user study with an application oriented towards healthcare environments. The evaluation results reveal a marked increase in user awareness in comparison to the same application implemented without AwToolkit.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10395,21 +10962,21 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>9 – 16</t>
+          <t>9 - 16</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Garrido20149,
+          <t>@CONFERENCE{Garrido20149,
     author = "Garrido, Juan E. and Penichet, Victor M. R. and Lozano, Maria D. and Quigley, Aaron and Kristensson, Per Ola",
     title = "AwToolkit: Attention-aware user interface widgets",
     year = "2014",
     journal = "Proceedings of the Workshop on Advanced Visual Interfaces AVI",
-    pages = "9 – 16",
+    pages = "9 - 16",
     doi = "10.1145/2598153.2598160",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84903638129\&amp;doi=10.1145\%2f2598153.2598160\&amp;partnerID=40\&amp;md5=c53b28d8bdf760583987e03d86abe384",
     affiliations = "Computer Science Research Institute, University of Castilla-La Mancha, Albacete, Spain; School of Computer Science, University of St. Andrews, United Kingdom",
-    abstract = "Increasing screen real-estate allows for the development of applications where a single user can manage a large amount of data and related tasks through a distributed user interface. However, such users can easily become overloaded and become unaware of display changes as they alternate their attention towards different displays. We propose AwToolkit, a novel widget set for developers that supports users in maintaing awareness in multi-display systems. The AwToolkit widgets automatically determine which display a user is looking at and provide users with notifications with different levels of subtlety to make the user aware of any unattended display changes. The toolkit uses four notification levels (unnoticeable, subtle, intrusive and disruptive), ranging from an almost imperceptible visual change to a clear and visually saliant change. We describe AwToolkit's six widgets, which have been designed for C\# developers, and the design of a user study with an application oriented towards healthcare environments. The evaluation results reveal a marked increase in user awareness in comparison to the same application implemented without AwToolkit. © 2014 ACM.",
+    abstract = "Increasing screen real-estate allows for the development of applications where a single user can manage a large amount of data and related tasks through a distributed user interface. However, such users can easily become overloaded and become unaware of display changes as they alternate their attention towards different displays. We propose AwToolkit, a novel widget set for developers that supports users in maintaing awareness in multi-display systems. The AwToolkit widgets automatically determine which display a user is looking at and provide users with notifications with different levels of subtlety to make the user aware of any unattended display changes. The toolkit uses four notification levels (unnoticeable, subtle, intrusive and disruptive), ranging from an almost imperceptible visual change to a clear and visually saliant change. We describe AwToolkit's six widgets, which have been designed for C\# developers, and the design of a user study with an application oriented towards healthcare environments. The evaluation results reveal a marked increase in user awareness in comparison to the same application implemented without AwToolkit. (c) 2014 ACM.",
     author_keywords = "attention; awareness; distributed user interfaces; notifications",
     keywords = "Display devices; Medical applications; Application-oriented; attention; awareness; Distributed user interfaces; Evaluation results; Healthcare environments; Multi displays; notifications; User interfaces",
     publisher = "Association for Computing Machinery",
@@ -10420,8 +10987,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 16; Conference name: 2014 12th International Working Conference on Advanced Visual Interfaces, AVI 2014; Conference date: 27 May 2014 through 30 May 2014; Conference code: 105962"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -10450,7 +11016,7 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T93" t="inlineStr"/>
@@ -10461,7 +11027,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84903638129&amp;doi=10.1145%2f2598153.2598160&amp;partnerID=40&amp;md5=c53b28d8bdf760583987e03d86abe384</t>
+          <t>https://dl.acm.org/doi/10.1145/2598153.2598160</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
@@ -10495,10 +11061,14 @@
           <t>Today's drivers have to cope with a growing amount of information coming from on-board information messages, telematics and advanced driver assistance systems. The interaction between the driver and these systems is critical since it may distract the driver from the primary task of driving. The paper, addressing this problem has a twofold aim: in one hand to carry out a review of past and current initiatives on the optimization of human machine interfaces (HMI) in the automotive research area. On the other hand it presents relevant results, investigates research and market trends and proposes strategies and architectures for future implementation. The COMUNICAR project presented is the most well-know European project - as an example for past activities, while the AIDE integrated project and its vision is proposed as the roadmap for future activities</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Automotive engineering;Vehicle driving;Humans;Telematics;Information management;Road vehicles;Road accidents;Control systems;Vehicle safety;Computer interfaces</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>A. Amditis; A. Polychronopoulos</t>
+          <t>Amditis, A.; Polychronopoulos, A.</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -10513,11 +11083,32 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>1.J. A. Michon, (Ed.), Generic Intelligent Driver Support: A Comprehensive Report on GIDS, Taylor and Francis, London, 1993. Google Scholar; 2.A. Amditis, A. Polychronopoulos, F. Bellotti, R. Montanari, "Strategy plan definition for the management of the information flow through an HMI unit inside a car", Proc. E-Safety Conference, Lyon, June 2002. Google Scholar; 3.T. Bellet, et al., "Real-time Analysis of the Driving Situation in Order to Manage On-board Information", Proc. E-Safety Conference, Lyon, June 2002. Google Scholar; 4.Delphi, 2002, Integrated Safety Systems, url: http://www.delphi.com/pdf/ vpr/products/iss.pdf Google Scholar; 5.Remboski et al, "Driver Performance Improvement through the Driver Advocate™: A Research Initiative toward Automotive Safety", SAE paper 2000-01-CO75. 2000. Google Scholar; 6.NHTSA/Volpe, "Broad Agency Agreement (BAA). Demonstration and evaluation of technologies for Safety Vehicle(s) using adaptive Interface Technology (SAVEIT)", DTRS57-02-R-20003, 2002 Google Scholar; 7.AIDE Integrated Project, Annex I - "Description of Work", 2004 Google Scholar; 8.J. Nielsen, Usability engineering, Morgan Kaufmann Publishers, 1994 Google Scholar; 9.A. D. Norman, W. S. Draper, User Centred System Design, Hillsdale, NJ: Erlbaum, 1984 Google Scholar; 10.A. D. Norman, The invisible computer, MIT Press. Google Scholar; 11.European Commission, "Final Report of the e-Safety Working Group on Road Safety. Information Society Technologies", November 2002. Google Scholar</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+          <t>1.J. A. Michon, (Ed.), Generic Intelligent Driver Support: A Comprehensive Report on GIDS, Taylor and Francis, London, 1993. Google Scholar; 2.A. Amditis, A. Polychronopoulos, F. Bellotti, R. Montanari, "Strategy plan definition for the management of the information flow through an HMI unit inside a car", Proc. E-Safety Conference, Lyon, June 2002. Google Scholar; 3.T. Bellet, et al., "Real-time Analysis of the Driving Situation in Order to Manage On-board Information", Proc. E-Safety Conference, Lyon, June 2002. Google Scholar; 4.Delphi, 2002, Integrated Safety Systems, url: http://www.delphi.com/pdf/ vpr/products/iss.pdf Google Scholar; 5.Remboski et al, "Driver Performance Improvement through the Driver Advocate(tm): A Research Initiative toward Automotive Safety", SAE paper 2000-01-CO75. 2000. Google Scholar; 6.NHTSA/Volpe, "Broad Agency Agreement (BAA). Demonstration and evaluation of technologies for Safety Vehicle(s) using adaptive Interface Technology (SAVEIT)", DTRS57-02-R-20003, 2002 Google Scholar; 7.AIDE Integrated Project, Annex I - "Description of Work", 2004 Google Scholar; 8.J. Nielsen, Usability engineering, Morgan Kaufmann Publishers, 1994 Google Scholar; 9.A. D. Norman, W. S. Draper, User Centred System Design, Hillsdale, NJ: Erlbaum, 1984 Google Scholar; 10.A. D. Norman, The invisible computer, MIT Press. Google Scholar; 11.European Commission, "Final Report of the e-Safety Working Group on Road Safety. Information Society Technologies", November 2002. Google Scholar</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>176-181 vol.1</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{1398293,
+    author = "Amditis, A. and Polychronopoulos, A.",
+    booktitle = "2004 IEEE International Conference on Systems, Man and Cybernetics (IEEE Cat. No.04CH37583)",
+    title = "Communication and interaction strategies in automotive adaptive interfaces",
+    year = "2004",
+    volume = "1",
+    number = "",
+    pages = "176-181 vol.1",
+    abstract = "Today's drivers have to cope with a growing amount of information coming from on-board information messages, telematics and advanced driver assistance systems. The interaction between the driver and these systems is critical since it may distract the driver from the primary task of driving. The paper, addressing this problem has a twofold aim: in one hand to carry out a review of past and current initiatives on the optimization of human machine interfaces (HMI) in the automotive research area. On the other hand it presents relevant results, investigates research and market trends and proposes strategies and architectures for future implementation. The COMUNICAR project presented is the most well-know European project - as an example for past activities, while the AIDE integrated project and its vision is proposed as the roadmap for future activities",
+    keywords = "Automotive engineering;Vehicle driving;Humans;Telematics;Information management;Road vehicles;Road accidents;Control systems;Vehicle safety;Computer interfaces",
+    doi = "10.1109/ICSMC.2004.1398293",
+    ISSN = "1062-922X",
+    month = "Oct"
+}</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -10544,7 +11135,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T94" t="inlineStr"/>
@@ -10553,17 +11144,17 @@
           <t>Communication and interaction strategies in automotive adaptive interfaces</t>
         </is>
       </c>
-      <c r="V94" t="inlineStr"/>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/1398293</t>
+        </is>
+      </c>
       <c r="W94" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10585,10 +11176,14 @@
           <t>We describe a mixed-initiative framework designed to support the customization of complex graphical user interfaces. The framework uses an innovative form of online GOMS analysis to provide the user with tailored customization suggestions aimed at maximizing the user's performance with the interface. The suggestions are presented non-intrusively, minimizing disruption and allowing the user to maintain full control. The framework has been applied to a general user-productivity application. A formal user evaluation of the system provides encouraging evidence that this mixed-initiative approach is preferred to a purely adaptable alternative and that the system's suggestions help improve task performance.</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>mixed-initiative;  adaptive;  adaptable;  GOMS analysis</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>AndreaBunt; CristinaConati; JoannaMcGrenere</t>
+          <t>Bunt, Andrea; Conati, Cristina; McGrenere, Joanna</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -10604,10 +11199,30 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2-101</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
+          <t>92-101</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/1216295.1216317,
+    author = "Bunt, Andrea and Conati, Cristina and McGrenere, Joanna",
+    title = "Supporting interface customization using a mixed-initiative approach",
+    year = "2007",
+    isbn = "1595934812",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/1216295.1216317",
+    doi = "10.1145/1216295.1216317",
+    abstract = "We describe a mixed-initiative framework designed to support the customization of complex graphical user interfaces. The framework uses an innovative form of online GOMS analysis to provide the user with tailored customization suggestions aimed at maximizing the user's performance with the interface. The suggestions are presented non-intrusively, minimizing disruption and allowing the user to maintain full control. The framework has been applied to a general user-productivity application. A formal user evaluation of the system provides encouraging evidence that this mixed-initiative approach is preferred to a purely adaptable alternative and that the system's suggestions help improve task performance.",
+    booktitle = "Proceedings of the 12th International Conference on Intelligent User Interfaces",
+    pages = "92-101",
+    numpages = "10",
+    keywords = "mixed-initiative, adaptive, adaptable, GOMS analysis",
+    location = "Honolulu, Hawaii, USA",
+    series = "IUI '07"
+}</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -10634,7 +11249,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T95" t="inlineStr"/>
@@ -10643,7 +11258,11 @@
           <t>Supporting interface customization using a mixed-initiative approach</t>
         </is>
       </c>
-      <c r="V95" t="inlineStr"/>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/1216295.1216317</t>
+        </is>
+      </c>
       <c r="W95" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -10651,7 +11270,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -10672,7 +11291,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>As information systems become increasingly important in many different domains, the potential to adapt them to individual users and their needs also becomes more important. Adaptive user interfaces offer many possible ways to adjust displays and improve procedures for a user's individual patterns of work. This paper describes an attempt to design an adaptive user interface in a computer environment familiar to many users. According to one classification of adaptive user interfaces, the adaptive bar described in this paper would be classified as a user-controlled self-adaptation system. At the user's convenience, the adaptive bar offers suggestions for adding or removing command icons, based on the frequency and probability of specific commands. It also implements these changes once the user has agreed to them. Beyond the adaptive bar, the general behavior of the whole user interface does not change, thereby allowing the user to maintain a clear general model of the system. This paper describes the decision-making algorithm implemented in the bar. It also describes the bar's self-adaptive behavior of displaying the frequency of each icon's use through the icon's size. Finally, we present some encouraging preliminary results of evaluations by users. © 1996 Kluwer Academic Publishers.</t>
+          <t>As information systems become increasingly important in many different domains, the potential to adapt them to individual users and their needs also becomes more important. Adaptive user interfaces offer many possible ways to adjust displays and improve procedures for a user's individual patterns of work. This paper describes an attempt to design an adaptive user interface in a computer environment familiar to many users. According to one classification of adaptive user interfaces, the adaptive bar described in this paper would be classified as a user-controlled self-adaptation system. At the user's convenience, the adaptive bar offers suggestions for adding or removing command icons, based on the frequency and probability of specific commands. It also implements these changes once the user has agreed to them. Beyond the adaptive bar, the general behavior of the whole user interface does not change, thereby allowing the user to maintain a clear general model of the system. This paper describes the decision-making algorithm implemented in the bar. It also describes the bar's self-adaptive behavior of displaying the frequency of each icon's use through the icon's size. Finally, we present some encouraging preliminary results of evaluations by users.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10695,26 +11314,31 @@
           <t>https://doi.org/10.1007/BF00126652</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>citation_journal_title=The Computer Journal; citation_title=Experience with Adaptive Interfaces; citation_author=D.R. Benyon, D. Murray; citation_volume=31; citation_issue=5; citation_publication_date=1988; citation_pages=465-473; citation_id=CR1; Berthome-Montoy, A: 1994, 'Building a User Model for Self-Adaptive Menu-Based Interfaces'. Fourth International Conference on User Modeling, Hyannis, Massachusetts, pp. 51-57.; citation_title=Adaptive User Interface; citation_publication_date=1990; citation_id=CR3; citation_author=D. Browne; citation_author=P. Totterdell; citation_author=M. Norman; citation_publisher=Academic Press; citation_title=Design of Controls; citation_inbook_title=Handbook of Human Factors; citation_publication_date=1987; citation_pages=577-600; citation_id=CR4; citation_author=H.-J. Bullinger; citation_author=P. Kern; citation_author=W.F. Muntzinger; citation_publisher=John Wiley &amp; Sons; Cypher, A.: 1991, 'EAGER: Programming Repetitive Tasks by Example'. In S. P. Robertson, G.M. Olson, and J. S. Olson (eds.): CHI 1991 Proceedings, New Orleans, Louisiana, pp. 33-39.; Debevc, M.: 1993, 'Adaptive Bar'. INTERCHI '93, Conference on Human Factors in Computing Systems, INTERACT '93 and CHI '93, Amsterdam, Netherlands, pp. 117-118.; Debevc, M., D. Donlagic, R. Svecko, J. Spasovski, B. Meyer: 1994a, 'Flexible user support with adaptive bar'. East-West International conference on human-computer interaction, Saint Petersburg, Russia, pp. I/129-134.; citation_journal_title=Informatica; citation_title=Adaptive bar implementation and ergonomics; citation_author=M. Debevc, R. Svecko, D. Donlagic, B. Meyer; citation_volume=18; citation_issue=3; citation_publication_date=1994; citation_pages=357-366; citation_id=CR8; citation_title=State of the Art in Adaptive User Interfaces; citation_inbook_title=Adaptive User Interfaces: principles and practice; citation_publication_date=1993; citation_id=CR9; citation_author=H. Dieterich; citation_author=U. Malinowski; citation_author=T. Kuhme; citation_author=M. Schneider-Hufschmidt; citation_publisher=Elsevier Science Publisher; citation_journal_title=Journal of Experimental Psychology; citation_title=The information capacity of the human motor system in controlling the amplitude of movement; citation_author=P.M. Fitts; citation_volume=47; citation_issue=6; citation_publication_date=1954; citation_pages=381-391; citation_id=CR10; citation_journal_title=Quarterly Journal of Experimental Psychology; citation_title=On the rate of gain of information; citation_author=W.E. Hick; citation_volume=4; citation_issue=1; citation_publication_date=1952; citation_pages=11-26; citation_id=CR11; citation_title=Adaptive Man-Computer Dialogues; citation_inbook_title=Man-Computer Interaction Research, MACINTER-II; citation_publication_date=1989; citation_pages=201-212; citation_id=CR12; citation_author=M. Kossakowski; citation_publisher=Elsevier Science Publishers; Kuhme, T., U. Malinowski, J.D. Foley: 1993, 'Facilitating Interactive Tool Selection by Adaptive Prompting'. Conference on Human Factors in Computing Systems, INTERACT '93 and CHI '93, Amsterdam, Netherlands, pp. 149-150.; citation_title=A User-Centered Approach to Adaptive User Interfaces; citation_inbook_title=
+, (4); citation_publication_date=1993; citation_id=CR14; citation_author=T. Kuhme; citation_publisher=Butterworth-Heinemann; citation_title=Principles and Guidelines in Software User Interface Design; citation_publication_date=1992; citation_id=CR15; citation_author=D.J. Mayhew; citation_publisher=Prentice-Hall; citation_title=Retail User Assistant: Evaluation of a User-Adapted Performance Support System; citation_inbook_title=Human-Computer Interaction, 4th International Conference, EWHCI '94, Selected Papers; citation_publication_date=1994; citation_pages=45-56; citation_id=CR16; citation_author=B. Meyer; citation_publisher=Springer Verlag; Microsoft Corporation: 1994, Microsoft Word for Windows 6.0, User's Guide.; citation_title=Human-computer interaction; citation_publication_date=1994; citation_id=CR18; citation_author=J. Preece; citation_publisher=Addison-Wesley Publishing Company; citation_title=Adaptive User Interfaces: principles and practice; citation_publication_date=1993; citation_id=CR19; citation_author=M. Schneider-Hufschmidt; citation_author=T. Kuhme; citation_author=U. Malinowski; citation_publisher=Elsevier Science Publisher; citation_title=Designing the User Interface, Strategies for Effective Human-Computer Interaction; citation_publication_date=1992; citation_id=CR20; citation_author=B. Shneiderman; citation_publisher=Addison-Wesley Publishing Company; Thomas, C., G. and M. Krogsaeter: 1993, 'An Adaptive Environment for the User Interface of Excel'. International Workshop on Intelligent User Interfaces, Orlando, Florida, pp. 123-130.</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1 – 21</t>
+          <t>1 - 21</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Debevc19961,
+          <t>@ARTICLE{Debevc19961,
     author = "Debevc, Matjaz and Meyer, Beth and Donlagic, Dali and Svecko, Rajko",
     title = "Design and evaluation of an adaptive icon toolbar",
     year = "1996",
     journal = "User Modeling and User-Adapted Interaction",
     volume = "6",
     number = "1",
-    pages = "1 – 21",
+    pages = "1 - 21",
     doi = "10.1007/BF00126652",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-0030169223\&amp;doi=10.1007\%2fBF00126652\&amp;partnerID=40\&amp;md5=a3b20aa0b646b436ff7f0cc59745c805",
     affiliations = "Faculty of Electrical Engineering and Computer Science, University of Maribor, 62000 Maribor, Smetanova 17, Slovenia; School of Psychology, Georgia Institute of Technology, Atlanta, GA 30332, United States; ACM SIGCHI",
-    abstract = "As information systems become increasingly important in many different domains, the potential to adapt them to individual users and their needs also becomes more important. Adaptive user interfaces offer many possible ways to adjust displays and improve procedures for a user's individual patterns of work. This paper describes an attempt to design an adaptive user interface in a computer environment familiar to many users. According to one classification of adaptive user interfaces, the adaptive bar described in this paper would be classified as a user-controlled self-adaptation system. At the user's convenience, the adaptive bar offers suggestions for adding or removing command icons, based on the frequency and probability of specific commands. It also implements these changes once the user has agreed to them. Beyond the adaptive bar, the general behavior of the whole user interface does not change, thereby allowing the user to maintain a clear general model of the system. This paper describes the decision-making algorithm implemented in the bar. It also describes the bar's self-adaptive behavior of displaying the frequency of each icon's use through the icon's size. Finally, we present some encouraging preliminary results of evaluations by users. © 1996 Kluwer Academic Publishers.",
+    abstract = "As information systems become increasingly important in many different domains, the potential to adapt them to individual users and their needs also becomes more important. Adaptive user interfaces offer many possible ways to adjust displays and improve procedures for a user's individual patterns of work. This paper describes an attempt to design an adaptive user interface in a computer environment familiar to many users. According to one classification of adaptive user interfaces, the adaptive bar described in this paper would be classified as a user-controlled self-adaptation system. At the user's convenience, the adaptive bar offers suggestions for adding or removing command icons, based on the frequency and probability of specific commands. It also implements these changes once the user has agreed to them. Beyond the adaptive bar, the general behavior of the whole user interface does not change, thereby allowing the user to maintain a clear general model of the system. This paper describes the decision-making algorithm implemented in the bar. It also describes the bar's self-adaptive behavior of displaying the frequency of each icon's use through the icon's size. Finally, we present some encouraging preliminary results of evaluations by users. (c) 1996 Kluwer Academic Publishers.",
     author_keywords = "Adaptive user interfaces; Experimental studies of adaptive interface use; Icon toolbars; Software ergonomics; User interfaces; User modelling; User-controlled self-adaptation",
     keywords = "Algorithms; Computer simulation; Decision making; Display devices; Mathematical models; Software engineering; Systems analysis; Adaptive bar; Adaptive icon toolbar; User controlled self adaptation; User modelling; Graphical user interfaces",
     correspondence_address = "M. Debevc; Faculty of Electrical Engineering and Computer Science, University of Maribor, 62000 Maribor, Smetanova 17, Slovenia; email: debevc@uni-mb.si",
@@ -10727,8 +11351,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 34"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -10757,7 +11380,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T96" t="inlineStr"/>
@@ -10768,7 +11391,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-0030169223&amp;doi=10.1007%2fBF00126652&amp;partnerID=40&amp;md5=a3b20aa0b646b436ff7f0cc59745c805</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-0030169223&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=271240fcb5f828d89d32d82c3228284d&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28design+and+evaluation+of+an+adaptive+icon+toolbar%29&amp;sl=64&amp;sessionSearchId=271240fcb5f828d89d32d82c3228284d&amp;relpos=0</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -10776,11 +11399,7 @@
           <t>Kluwer Academic Publishers</t>
         </is>
       </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="X96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10799,7 +11418,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>This study proposes a method of coupling adaptable and adaptive approaches to the design of menus. The proposed complementary menu types incorporate both adaptability and adaptivity by dividing and allocating menu adaptation roles to the user and the system. Four different types of interface adaptation (i.e., adaptable with/without system support and adaptive with/without user control) were defined. They were implemented in a hypothetical prototype mobile phone via a hotlist (an additional collection of quickly accessible items). A controlled lab experiment was conducted to compare the menu types and investigate the effects of the system support in the adaptable menus and the user control in the adaptive menus. Twenty subjects participated in the experiment and performed menu selection tasks. Both performance and user satisfaction measures were collected. The results showed that adaptable and adaptive menus were superior to the traditional one in terms of both performance and user satisfaction. Providing system support to the adaptable menu not only increased the users' perception of the efficiency of selection, but also reduced the menu adaptation time. Important implications for the design of menus are described and valuable insights into the menu interface adaptation were gained from the quantitative and qualitative analyses of the experimental results. Relevance to industry: The evaluation experiment conducted in this study may provide valuable information to designers of adaptive or adaptable menus. Adding system support to adaptable menu would be an attractive option to consider. Also, the results of a user survey provide useful information to the practitioners in mobile phone industry on the features users accessed most frequently. © 2011 Elsevier B.V.</t>
+          <t>This study proposes a method of coupling adaptable and adaptive approaches to the design of menus. The proposed complementary menu types incorporate both adaptability and adaptivity by dividing and allocating menu adaptation roles to the user and the system. Four different types of interface adaptation (i.e., adaptable with/without system support and adaptive with/without user control) were defined. They were implemented in a hypothetical prototype mobile phone via a hotlist (an additional collection of quickly accessible items). A controlled lab experiment was conducted to compare the menu types and investigate the effects of the system support in the adaptable menus and the user control in the adaptive menus. Twenty subjects participated in the experiment and performed menu selection tasks. Both performance and user satisfaction measures were collected. The results showed that adaptable and adaptive menus were superior to the traditional one in terms of both performance and user satisfaction. Providing system support to the adaptable menu not only increased the users' perception of the efficiency of selection, but also reduced the menu adaptation time. Important implications for the design of menus are described and valuable insights into the menu interface adaptation were gained from the quantitative and qualitative analyses of the experimental results. Relevance to industry: The evaluation experiment conducted in this study may provide valuable information to designers of adaptive or adaptable menus. Adding system support to adaptable menu would be an attractive option to consider. Also, the results of a user survey provide useful information to the practitioners in mobile phone industry on the features users accessed most frequently.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10825,23 +11444,23 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>305 – 316</t>
+          <t>305 - 316</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Park2011305,
+          <t>@ARTICLE{Park2011305,
     author = "Park, Jungchul and Han, Sung H.",
     title = "Complementary menus: Combining adaptable and adaptive approaches for menu interface",
     year = "2011",
     journal = "International Journal of Industrial Ergonomics",
     volume = "41",
     number = "3",
-    pages = "305 – 316",
+    pages = "305 - 316",
     doi = "10.1016/j.ergon.2011.01.010",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-79953314757\&amp;doi=10.1016\%2fj.ergon.2011.01.010\&amp;partnerID=40\&amp;md5=06e214e6283408ad7f1c661c2fa3f815",
     affiliations = "Department of Safety Engineering, Chungju National University, Daehak-ro, Chungju 380-702, South Korea; Department of Industrial and Management Engineering, Pohang University of Science and Technology (Postech), Hyoja, Pohang 790-784, San 31, South Korea",
-    abstract = "This study proposes a method of coupling adaptable and adaptive approaches to the design of menus. The proposed complementary menu types incorporate both adaptability and adaptivity by dividing and allocating menu adaptation roles to the user and the system. Four different types of interface adaptation (i.e., adaptable with/without system support and adaptive with/without user control) were defined. They were implemented in a hypothetical prototype mobile phone via a hotlist (an additional collection of quickly accessible items). A controlled lab experiment was conducted to compare the menu types and investigate the effects of the system support in the adaptable menus and the user control in the adaptive menus. Twenty subjects participated in the experiment and performed menu selection tasks. Both performance and user satisfaction measures were collected. The results showed that adaptable and adaptive menus were superior to the traditional one in terms of both performance and user satisfaction. Providing system support to the adaptable menu not only increased the users' perception of the efficiency of selection, but also reduced the menu adaptation time. Important implications for the design of menus are described and valuable insights into the menu interface adaptation were gained from the quantitative and qualitative analyses of the experimental results. Relevance to industry: The evaluation experiment conducted in this study may provide valuable information to designers of adaptive or adaptable menus. Adding system support to adaptable menu would be an attractive option to consider. Also, the results of a user survey provide useful information to the practitioners in mobile phone industry on the features users accessed most frequently. © 2011 Elsevier B.V.",
+    abstract = "This study proposes a method of coupling adaptable and adaptive approaches to the design of menus. The proposed complementary menu types incorporate both adaptability and adaptivity by dividing and allocating menu adaptation roles to the user and the system. Four different types of interface adaptation (i.e., adaptable with/without system support and adaptive with/without user control) were defined. They were implemented in a hypothetical prototype mobile phone via a hotlist (an additional collection of quickly accessible items). A controlled lab experiment was conducted to compare the menu types and investigate the effects of the system support in the adaptable menus and the user control in the adaptive menus. Twenty subjects participated in the experiment and performed menu selection tasks. Both performance and user satisfaction measures were collected. The results showed that adaptable and adaptive menus were superior to the traditional one in terms of both performance and user satisfaction. Providing system support to the adaptable menu not only increased the users' perception of the efficiency of selection, but also reduced the menu adaptation time. Important implications for the design of menus are described and valuable insights into the menu interface adaptation were gained from the quantitative and qualitative analyses of the experimental results. Relevance to industry: The evaluation experiment conducted in this study may provide valuable information to designers of adaptive or adaptable menus. Adding system support to adaptable menu would be an attractive option to consider. Also, the results of a user survey provide useful information to the practitioners in mobile phone industry on the features users accessed most frequently. (c) 2011 Elsevier B.V.",
     author_keywords = "Adaptable interface; Adaptive interface; Menu selection; Mobile phone; Usability evaluation",
     keywords = "Design; Experiments; Mobile phones; Mobile telecommunication systems; Telecommunication equipment; Telephone; Telephone sets; Adaptable interfaces; Adaptation time; Adaptive approach; Adaptive interface; Adaptivity; Evaluation experiments; Interface adaptation; Menu interface; Menu selection; Mobile-phone industry; Prototype mobile phones; Qualitative analysis; System supports; Usability evaluation; User control; User satisfaction; User surveys; Users' perception; adaptation; adolescent; adult; article; consumer attitude; ergonomics; female; human; human experiment; information processing; male; man machine interaction; mobile phone; normal human; priority journal; process design; Adaptive control systems",
     correspondence_address = "S.H. Han; Department of Industrial and Management Engineering, Pohang University of Science and Technology (Postech), Hyoja, Pohang 790-784, San 31, South Korea; email: shan@postech.edu",
@@ -10853,8 +11472,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 13"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -10883,7 +11501,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T97" t="inlineStr"/>
@@ -10894,13 +11512,17 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-79953314757&amp;doi=10.1016%2fj.ergon.2011.01.010&amp;partnerID=40&amp;md5=06e214e6283408ad7f1c661c2fa3f815</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr"/>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-79953314757&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=d1a92b7832d96d07928ad6cc9d21727d&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28complementary+menus+combining+adaptable+and+adaptive+approaches+for+menu+interface%29&amp;sl=97&amp;sessionSearchId=d1a92b7832d96d07928ad6cc9d21727d&amp;relpos=0</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Science Direct</t>
+        </is>
+      </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -10921,7 +11543,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Effective stroke rehabilitation must be early, intensive and repetitive, which can lead to problems with patient motivation and engagement. The design of video games, often associated with good user engagement, may offer insights into how more effective systems for stroke rehabilitation can be developed. In this paper we identify game design principles for upper limb stroke rehabilitation and present several games developed using these principles. The games use low-cost video-capture technology which may make them suitable for deployment at home. Results from evaluating the games with both healthy subjects and people with stroke in their home are encouraging. © Springer-Verlag 2009.</t>
+          <t>Effective stroke rehabilitation must be early, intensive and repetitive, which can lead to problems with patient motivation and engagement. The design of video games, often associated with good user engagement, may offer insights into how more effective systems for stroke rehabilitation can be developed. In this paper we identify game design principles for upper limb stroke rehabilitation and present several games developed using these principles. The games use low-cost video-capture technology which may make them suitable for deployment at home. Results from evaluating the games with both healthy subjects and people with stroke in their home are encouraging.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10944,26 +11566,34 @@
           <t>https://doi.org/10.1007/s00371-009-0387-4</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>citation_title=The Aftermath of Stroke: The Experience of Patients and Their Families; citation_publication_date=1992; citation_id=CR1; citation_author=R. Anderson; citation_publisher=Cambridge University Press; citation_journal_title=Med. Sci. Sports Exerc.; citation_title=Psychophysical bases of perceived exertion; citation_author=G.A. Borg; citation_volume=14; citation_publication_date=1982; citation_pages=377-381; citation_id=CR2; Burdea, G.: Key note address: Virtual rehabilitation--benefits and challenges. In: 1st Intl. Workshop on Virtual Reality Rehabilitation (Mental Health, Neurological, Physical, Vocational), pp. 1-11 (2002); Burke, J.W., McNeill, M.D.J., Charles, D.K., Morrow, P.J., McDonough, S.M., Crosbie, J.H.: serious games for upper limb rehabilitation following stroke. In: IEEE Intl. Conf. in Games and Virtual Worlds for Serious Applications (VS Games '09), pp. 103-110 (2009); Crosbie, J.H., McDonough, S.M., Lennon, S., Pokluda, L., McNeill, M.D.J.:Virtual reality in the rehabilitation of the upper limb after stroke: The user's perspective. In: 5th Intl. Conf. for Disability, Virtual Reality and Associated Tech., pp. 215-224 (2004); Desurvire, H., Caplan, M., Toth, J.A.: Using heuristics to evaluate the playability of games. In: Proc. ACM Conference on Human Factors in Computing Systems (SIGCHI)'04, pp. 1509-1512 (2004); GestureTek: 
+                  http://www.gesturetekhealth.com/
+                 (2008); citation_journal_title=IEEE Trans. Neural Syst. Rehabil. Eng.; citation_title=Virtual reality-enhanced stroke rehabilitation; citation_author=D. Jack, R. Boian, A. Merians, M. Tremaine, G. Burdea, S. Adamovich; citation_volume=9; citation_publication_date=2001; citation_pages=308-318; citation_doi=10.1109/7333.948460; citation_id=CR8; citation_title=A Theory of Fun for Game Design; citation_publication_date=2005; citation_id=CR9; citation_author=R. Koster; citation_publisher=Paraglyph; citation_journal_title=Lancet; citation_title=Intensity of leg and arm training after primary middle-cerebral-artery stroke: a randomised trial; citation_author=G. Kwakkel, R.C. Wagenaar, J.W. Twisk, G.J. Lankhorst, J.C. Koetsier; citation_volume=354; citation_publication_date=1999; citation_pages=191-196; citation_doi=10.1016/S0140-6736(98)09477-X; citation_id=CR10; citation_journal_title=Lect. Not. Comput. Sci.; citation_title=Adaptive virtual reality games for rehabilitation of motor disorders; citation_author=M. Ma, M. McNeill, D. Charles, S. McDonough, J. Crosbie, L. Oliver, C. McGoldrick; citation_volume=4555; citation_publication_date=2007; citation_pages=681-690; citation_doi=10.1007/978-3-540-73281-5_74; citation_id=CR11; Morrow, K., Docan, C., Burdea, G., Merians, A.: Low-cost virtual rehabilitation of the hand for patients post-stroke. In: Intl. Workshop on Virtual Rehabilitation '06, pp. 6-10 (2006); Peek, B.: Managed library for Nintendo's Wiimote. 
+                  http://www.brianpeek.com
+                 (2008); Rand, D., Kizony, R., Weiss, P.L.: Virtual reality rehabilitation for all: Vivid GX versus Sony PlayStation II EyeToy. In: Proc. 5th Intl. Conf. on Disability, Virtual Reality &amp; Associated Tech '04, pp. 87-94 (2004); citation_journal_title=Presence; citation_title=A SWOT analysis of the field of virtual reality rehabilitation and therapy; citation_author=A. Rizzo, G.J. Kim; citation_volume=14; citation_publication_date=2005; citation_pages=119-146; citation_doi=10.1162/1054746053967094; citation_id=CR15; citation_title=Rules of Play: Game Design Fundamentals; citation_publication_date=2003; citation_id=CR16; citation_author=K. Salen; citation_author=E. Zimmerman; citation_publisher=MIT Press; citation_journal_title=Stroke; citation_title=Forced use of the upper extremity in chronic stroke patients; citation_author=J.H. Lee, R.C. Wagenaar, G.J. Lankhorst, T.W. Vogelaar, W.L. Deville, L.M. Bouter; citation_volume=30; citation_issue=11; citation_publication_date=1999; citation_pages=2369-2375; citation_id=CR17; citation_journal_title=J. Neurol. Neurosurg. Psychiatry; citation_title=Recovery after stroke--the first three months; citation_author=D.T. Wade, V.A. Wood, R.L. Hewer; citation_volume=48; citation_publication_date=1985; citation_pages=7-13; citation_doi=10.1136/jnnp.48.1.7; citation_id=CR18; Weiss, P., Kizony, R., Feintuch, U., Katz, N.: Virtual reality in neurorehabilitation. In: Textbook of Neural Repair and Neurorehabilitation, vol. 2, pp. 182-197 (2005); citation_journal_title=Presence; citation_title=Measuring presence in virtual environments: a presence questionnaire; citation_author=B.G. Witmer, M.J. Singer; citation_volume=7; citation_publication_date=1998; citation_pages=225-240; citation_doi=10.1162/105474698565686; citation_id=CR20; citation_journal_title=Eur. J. Phys. Rehabil. Med.; citation_title=Playstation Eyetoy games improve upper extremity-related motor functioning in subacute stroke: a randomized controlled clinical trial; citation_author=G. Yavuzer, A. Senel, M.B. Atay, H.J. Stam; citation_volume=44; citation_issue=3; citation_publication_date=2008; citation_pages=237-244; citation_id=CR21</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1085 – 1099</t>
+          <t>1085 - 1099</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Burke20091085,
+          <t>@ARTICLE{Burke20091085,
     author = "Burke, J.W. and McNeill, M.D.J. and Charles, D.K. and Morrow, P.J. and Crosbie, J.H. and McDonough, S.M.",
     title = "Optimising engagement for stroke rehabilitation using serious games",
     year = "2009",
     journal = "Visual Computer",
     volume = "25",
     number = "12",
-    pages = "1085 – 1099",
+    pages = "1085 - 1099",
     doi = "10.1007/s00371-009-0387-4",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-77953018663\&amp;doi=10.1007\%2fs00371-009-0387-4\&amp;partnerID=40\&amp;md5=c9c3f68a39dae6614695e21eea987134",
     affiliations = "School of Computing and Information Engineering, University of Ulster, I-Coleraine, United Kingdom; School of Health Sciences, University of Ulster, Jordanstown, United Kingdom",
-    abstract = "Effective stroke rehabilitation must be early, intensive and repetitive, which can lead to problems with patient motivation and engagement. The design of video games, often associated with good user engagement, may offer insights into how more effective systems for stroke rehabilitation can be developed. In this paper we identify game design principles for upper limb stroke rehabilitation and present several games developed using these principles. The games use low-cost video-capture technology which may make them suitable for deployment at home. Results from evaluating the games with both healthy subjects and people with stroke in their home are encouraging. © Springer-Verlag 2009.",
+    abstract = "Effective stroke rehabilitation must be early, intensive and repetitive, which can lead to problems with patient motivation and engagement. The design of video games, often associated with good user engagement, may offer insights into how more effective systems for stroke rehabilitation can be developed. In this paper we identify game design principles for upper limb stroke rehabilitation and present several games developed using these principles. The games use low-cost video-capture technology which may make them suitable for deployment at home. Results from evaluating the games with both healthy subjects and people with stroke in their home are encouraging. (c) Springer-Verlag 2009.",
     author_keywords = "Engagement; Rehabilitation; Serious games; Stroke; Video capture",
     keywords = "Human computer interaction; Neuromuscular rehabilitation; Patient rehabilitation; Effective systems; Engagement; Healthy subjects; Motivation and engagements; Stroke; Stroke rehabilitation; User engagement; Video capture; Serious games",
     correspondence_address = "J.W. Burke; School of Computing and Information Engineering, University of Ulster, I-Coleraine, United Kingdom; email: burke-j5@email.ulster.ac.uk",
@@ -10976,8 +11606,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 475"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -11002,7 +11631,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
@@ -11013,7 +11642,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-77953018663&amp;doi=10.1007%2fs00371-009-0387-4&amp;partnerID=40&amp;md5=c9c3f68a39dae6614695e21eea987134</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-77953018663&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=1a128005f214584b2193629f7d050488&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28optimising+engagement+for+stroke+rehabilitation+using+serious+games%29&amp;sl=82&amp;sessionSearchId=1a128005f214584b2193629f7d050488&amp;relpos=0</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
@@ -11021,11 +11650,7 @@
           <t>Springer Verlag</t>
         </is>
       </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>nan; References</t>
-        </is>
-      </c>
+      <c r="X98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -11044,7 +11669,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>In this paper, we propose a dynamic difficulty adaptation approach for serious games dedicated to upper-limb rehabilitation after stroke. The proposed approach aims to provide a personalized rehabilitation session in which the training intensity and challenges can be adapted to patient's abilities and training needs. The objective is to increase the rehabilitation volume by getting the patient engaged in the therapy session. This approach has been implemented and tested through a point and click game. It has been also experimented on healthy people in order to explain how this approach will be integrated to post-stroke therapeutic games. Copyright © 2012 ACM.</t>
+          <t>In this paper, we propose a dynamic difficulty adaptation approach for serious games dedicated to upper-limb rehabilitation after stroke. The proposed approach aims to provide a personalized rehabilitation session in which the training intensity and challenges can be adapted to patient's abilities and training needs. The objective is to increase the rehabilitation volume by getting the patient engaged in the therapy session. This approach has been implemented and tested through a point and click game. It has been also experimented on healthy people in order to explain how this approach will be integrated to post-stroke therapeutic games.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11054,7 +11679,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Gouaïch, Abdelkader; Hocine, Nadia; Van Dokkum, Liesjet; Mottet, Denis</t>
+          <t>Gouaich, Abdelkader; Hocine, Nadia; Van Dokkum, Liesjet; Mottet, Denis</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -11070,24 +11695,24 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>5 – 11</t>
+          <t>5 - 11</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Gouaïch20125,
-    author = "Gouaïch, Abdelkader and Hocine, Nadia and Van Dokkum, Liesjet and Mottet, Denis",
+          <t>@CONFERENCE{Gouaich20125,
+    author = "Gouaich, Abdelkader and Hocine, Nadia and Van Dokkum, Liesjet and Mottet, Denis",
     title = "Digital-pheromone based difficulty adaptation in post-stroke therapeutic games",
     year = "2012",
     journal = "IHI'12 - Proceedings of the 2nd ACM SIGHIT International Health Informatics Symposium",
-    pages = "5 – 11",
+    pages = "5 - 11",
     doi = "10.1145/2110363.2110368",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84857707599\&amp;doi=10.1145\%2f2110363.2110368\&amp;partnerID=40\&amp;md5=7db8123ff8ec3f7a416270eb7e04ff09",
     affiliations = "LIRMM Laboratory (Montpellier II University, CNRS), 34095 Montpellier, 161 rue ADA, France; Movement to Health Laboratory (Montpellier i University), 34090 Montpellier, 700 Avenue du Pic Saint Loup, France",
-    abstract = "In this paper, we propose a dynamic difficulty adaptation approach for serious games dedicated to upper-limb rehabilitation after stroke. The proposed approach aims to provide a personalized rehabilitation session in which the training intensity and challenges can be adapted to patient's abilities and training needs. The objective is to increase the rehabilitation volume by getting the patient engaged in the therapy session. This approach has been implemented and tested through a point and click game. It has been also experimented on healthy people in order to explain how this approach will be integrated to post-stroke therapeutic games. Copyright © 2012 ACM.",
+    abstract = "In this paper, we propose a dynamic difficulty adaptation approach for serious games dedicated to upper-limb rehabilitation after stroke. The proposed approach aims to provide a personalized rehabilitation session in which the training intensity and challenges can be adapted to patient's abilities and training needs. The objective is to increase the rehabilitation volume by getting the patient engaged in the therapy session. This approach has been implemented and tested through a point and click game. It has been also experimented on healthy people in order to explain how this approach will be integrated to post-stroke therapeutic games. Copyright (c) 2012 ACM.",
     author_keywords = "Difficulty adaptation; Post-stroke rehabilitation; Serious game",
     keywords = "Patient treatment; Difficulty adaptation; Healthy people; Post-stroke rehabilitation; Serious game; Serious games; Upper-limb rehabilitation; Patient rehabilitation",
-    correspondence_address = "A. Gouaïch; LIRMM Laboratory (Montpellier II University, CNRS), 34095 Montpellier, 161 rue ADA, France; email: abdelkader.gouaich@lirmm.fr",
+    correspondence_address = "A. Gouaich; LIRMM Laboratory (Montpellier II University, CNRS), 34095 Montpellier, 161 rue ADA, France; email: abdelkader.gouaich@lirmm.fr",
     isbn = "978-145030781-9",
     language = "English",
     abbrev_source_title = "IHI - Proc. ACM SIGHIT Int. Health Informatics Symp.",
@@ -11095,8 +11720,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 16; Conference name: 2nd ACM SIGHIT International Health Informatics Symposium, IHI'12; Conference date: 28 January 2012 through 30 January 2012; Conference code: 88772; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -11121,7 +11745,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T99" t="inlineStr"/>
@@ -11132,13 +11756,17 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84857707599&amp;doi=10.1145%2f2110363.2110368&amp;partnerID=40&amp;md5=7db8123ff8ec3f7a416270eb7e04ff09</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr"/>
+          <t>https://dl.acm.org/doi/10.1145/2110363.2110368</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Association for Computing Machinery</t>
+        </is>
+      </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>nan; References; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -11162,10 +11790,14 @@
           <t>Computer games are a promising tool to support rehabilitation at home. It is widely recognized that rehabilitation games should (i) be nicely integrated in general-purpose rehabilitation stations, (ii) adhere to the constraints posed by the clinical protocols, (iii) involve movements that are functional to reach the rehabilitation goal, and (iv) adapt to the patients' current status and progress. However, the vast majority of existing rehabilitation games are stand-alone applications (not integrated in a patient station), that rarely adapt to the patients' condition. In this paper, we present the first prototype of the patient rehabilitation station we developed that integrates video games for rehabilitation with methods of computational intelligence both for on-line monitoring the movements' execution during the games and for adapting the gameplay to the patients' status. The station employs a fuzzy system to monitor the exercises execution, on-line, according to the clinical constraints defined by the therapist at configuration time, and to provide direct feedback to the patients. At the same time, it applies real-time adaptation (using the Quest Bayesian adaptive approach) to modify the gameplay according both (i) to the patient current performance and progress and (ii) to the exercise plan specified by the therapist. Finally, we present one of the games available in our patient stations (designed in tight cooperation with therapists) that integrates monitoring functionalities with in-game self-adaptation to provide the best support possible to patients during their routine.</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Games;Monitoring;Computational intelligence;Hospitals;Real-time systems;Bayesian methods;Engines</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Michele Pirovano; Renato Mainetti; Gabriel Baud-Bovy; Pier Luca Lanzi; Nunzio Alberto Borghese</t>
+          <t>Pirovano, Michele; Mainetti, Renato; Baud-Bovy, Gabriel; Lanzi, Pier Luca; Borghese, Nunzio Alberto</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -11180,11 +11812,32 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1.N. A. Borghese, M. Renato, P. Michele, and P. L. Lanzi, "An integrated low-cost system for at home rehabilitation," Submitted to VSSMM2012 conference., 2012. View Article  Google Scholar; 2.C. F. Langhorne P and P. A., "Motor recovery after stroke: a systematic review." The lancet Neurology, vol. 8, no. 8, pp. 741-754, 2009. CrossRef  Google Scholar; 3.M. Cameirao, S. Badia, E. Oller, and P. Verschure, " Neurorehabilitation using the virtual reality based rehabilitation gaming system: Methodology, design, psychometrics, usability and validation," J. of NeuroEng. and Rehab., vol. 7, no. 1, p. 48, 2010. CrossRef  Google Scholar; 4.J. W. Burke, M. McNeill, D. Charles, P. Morrow, J. Crosbie, and S. McDonough, "Serious games for upper limb rehabilitation following stroke," Conf. in Games and Virtual Worlds for Serious Applications, pp. 103-110, 2009. View Article  Google Scholar; 5.W. Ijsselsteijn, H. H. Nap, Y. de Kort, and K. Poels, "Digital game design for elderly users," in Proc. 2007 conf. on Future Play, ser. Future Play '07, 2007, pp. 17-22. CrossRef  Google Scholar; 6.J. Burke, M. McNeill, D. Charles, P. Morrow, J. Crosbie, and S. Mc-Donough, "Optimising engagement for stroke rehabilitation using serious games," The Visual Computer, vol. 25, pp. 1085-1099, 2009. CrossRef  Google Scholar; 7.M. Cameirão, S. B. i Badia, E. D. Oller, and P. F. M. J. Verschure, "Using a multi-task adaptive vr system for upper limb rehabilitation in the acute phase of stroke," in Virtual Rehabilitation, 25/08/2008 2008. View Article  Google Scholar; 8.A. L. Betker, T. Szturm, Z. K. Moussavi, and C. Nett, "Video game-based exercises for balance rehabilitation: A single-subject design." Arch. of Phys. Med. and Rehab., vol. 87, no. 8, pp. 1141-1149, 2006. CrossRef  Google Scholar; 9.D. Jack, R. Boian, A. S. Merians, G. C. Burde, S. V. Adamovich, M. Recce, and H. Poizner, "Virtual reality-enhanced stroke rehabilitation," IEEE Trans. on Neural Systems and Rehab. Eng., vol. 9, no. 3, pp. 308 -318, 2001. View Article  Google Scholar; 10.R. Colombo, F. Pisano, A. Mazzone, C. Delconte, S. Micera, M. C. Carrozza, P. Dario, and G. Minuco, "Design strategies to improve patient motivation during robot-aided rehabilitation," J. of NeuroEng. and Rehab., vol. 4, no. 1, p. 3, 2007. CrossRef  Google Scholar; 11.M. Ma, M. McNeill, D. Charles, S. McDonough, J. Crosbie, L. Oliver, and C. McGoldrick, "Adaptive virtual reality games for rehabilitation of motor disorders," in Universal Access in Human-Computer Interaction. Ambient Interaction, 2007, vol. 4555, pp. 681-690. CrossRef  Google Scholar; 12.A. Conconi, T. Ganchev, O. Kocsis, G. Papadopoulos, F. Fernandez-Aranda, and S. Jimenez-Murcia, "Playmancer: A serious gaming 3d environment," 2008 Int. Conf. on Automated Solutions for Cross Media Content and MultiChannel Distribution, pp. 111-117, 2008. View Article  Google Scholar; 13.N. Rossol, I. Cheng, W. F. Bischof, and A. Basu, "A framework for adaptive training and games in virtual reality rehabilitation environments," in Proc. of the 10th Int. Conf. on Virtual Reality Continuum and Its Applications in Ind., ser. VRCAI '11. ACM, 2011, pp. 343-346. CrossRef  Google Scholar; 14.E. Vergaro, M. Casadio, V. Squeri, P. Giannoni, P. Morasso, and S. V., "Self-adaptive robot training of stroke survivors for continuous tracking movements," J. Neuroeng. and Rehab., pp. 7-13, 2010. CrossRef  Google Scholar; 15.M. Ju, C. Lin, D. Lin, I. Hwang, and S. Chen, "A rehabilitation robot with force-position hybrid fuzzy controller: hybrid fuzzy control of rehabilitation robot." IEEE Trans Neural Syst Rehabil Eng, vol. 13, no. 3, pp. 349-58, 2005. View Article  Google Scholar; 16.A. F. B. Coley, B. M. BM. Jolles and K. Aminian, "Arm position during daily activity," Gait &amp; Posture, pp. 581-587, 2008. CrossRef  Google Scholar; 17.A. B. Watson and D. G. Pelli, "Quest: a bayesian adaptive psychometric method." Perception And Psychophysics, vol. 33, no. 2, pp. 113-120, 1983. CrossRef  Google Scholar; 18.P. E. King-Smith, S. S. Grigsby, A. J. Vingrys, S. C. Benes, and A. Supowit, "Efficient and unbiased modifications of the quest threshold method: Theory, simulations, experimental evaluation and practical implementation," Vision Research, vol. 34, no. 7, pp. 885 - 912, 1994. CrossRef  Google Scholar; 19.J. Schell, The Art of Game Design: Book of Lenses. Elsevier, 2008. Google Scholar</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+          <t>1.N. A. Borghese, M. Renato, P. Michele, and P. L. Lanzi, "An integrated low-cost system for at home rehabilitation," Submitted to VSSMM2012 conference., 2012. View Article  Google Scholar; 2.C. F. Langhorne P and P. A., "Motor recovery after stroke: a systematic review." The lancet Neurology, vol. 8, no. 8, pp. 741-754, 2009. CrossRef  Google Scholar; 3.M. Cameirao, S. Badia, E. Oller, and P. Verschure, " Neurorehabilitation using the virtual reality based rehabilitation gaming system: Methodology, design, psychometrics, usability and validation," J. of NeuroEng. and Rehab., vol. 7, no. 1, p. 48, 2010. CrossRef  Google Scholar; 4.J. W. Burke, M. McNeill, D. Charles, P. Morrow, J. Crosbie, and S. McDonough, "Serious games for upper limb rehabilitation following stroke," Conf. in Games and Virtual Worlds for Serious Applications, pp. 103-110, 2009. View Article  Google Scholar; 5.W. Ijsselsteijn, H. H. Nap, Y. de Kort, and K. Poels, "Digital game design for elderly users," in Proc. 2007 conf. on Future Play, ser. Future Play '07, 2007, pp. 17-22. CrossRef  Google Scholar; 6.J. Burke, M. McNeill, D. Charles, P. Morrow, J. Crosbie, and S. Mc-Donough, "Optimising engagement for stroke rehabilitation using serious games," The Visual Computer, vol. 25, pp. 1085-1099, 2009. CrossRef  Google Scholar; 7.M. Cameirao, S. B. i Badia, E. D. Oller, and P. F. M. J. Verschure, "Using a multi-task adaptive vr system for upper limb rehabilitation in the acute phase of stroke," in Virtual Rehabilitation, 25/08/2008 2008. View Article  Google Scholar; 8.A. L. Betker, T. Szturm, Z. K. Moussavi, and C. Nett, "Video game-based exercises for balance rehabilitation: A single-subject design." Arch. of Phys. Med. and Rehab., vol. 87, no. 8, pp. 1141-1149, 2006. CrossRef  Google Scholar; 9.D. Jack, R. Boian, A. S. Merians, G. C. Burde, S. V. Adamovich, M. Recce, and H. Poizner, "Virtual reality-enhanced stroke rehabilitation," IEEE Trans. on Neural Systems and Rehab. Eng., vol. 9, no. 3, pp. 308 -318, 2001. View Article  Google Scholar; 10.R. Colombo, F. Pisano, A. Mazzone, C. Delconte, S. Micera, M. C. Carrozza, P. Dario, and G. Minuco, "Design strategies to improve patient motivation during robot-aided rehabilitation," J. of NeuroEng. and Rehab., vol. 4, no. 1, p. 3, 2007. CrossRef  Google Scholar; 11.M. Ma, M. McNeill, D. Charles, S. McDonough, J. Crosbie, L. Oliver, and C. McGoldrick, "Adaptive virtual reality games for rehabilitation of motor disorders," in Universal Access in Human-Computer Interaction. Ambient Interaction, 2007, vol. 4555, pp. 681-690. CrossRef  Google Scholar; 12.A. Conconi, T. Ganchev, O. Kocsis, G. Papadopoulos, F. Fernandez-Aranda, and S. Jimenez-Murcia, "Playmancer: A serious gaming 3d environment," 2008 Int. Conf. on Automated Solutions for Cross Media Content and MultiChannel Distribution, pp. 111-117, 2008. View Article  Google Scholar; 13.N. Rossol, I. Cheng, W. F. Bischof, and A. Basu, "A framework for adaptive training and games in virtual reality rehabilitation environments," in Proc. of the 10th Int. Conf. on Virtual Reality Continuum and Its Applications in Ind., ser. VRCAI '11. ACM, 2011, pp. 343-346. CrossRef  Google Scholar; 14.E. Vergaro, M. Casadio, V. Squeri, P. Giannoni, P. Morasso, and S. V., "Self-adaptive robot training of stroke survivors for continuous tracking movements," J. Neuroeng. and Rehab., pp. 7-13, 2010. CrossRef  Google Scholar; 15.M. Ju, C. Lin, D. Lin, I. Hwang, and S. Chen, "A rehabilitation robot with force-position hybrid fuzzy controller: hybrid fuzzy control of rehabilitation robot." IEEE Trans Neural Syst Rehabil Eng, vol. 13, no. 3, pp. 349-58, 2005. View Article  Google Scholar; 16.A. F. B. Coley, B. M. BM. Jolles and K. Aminian, "Arm position during daily activity," Gait &amp; Posture, pp. 581-587, 2008. CrossRef  Google Scholar; 17.A. B. Watson and D. G. Pelli, "Quest: a bayesian adaptive psychometric method." Perception And Psychophysics, vol. 33, no. 2, pp. 113-120, 1983. CrossRef  Google Scholar; 18.P. E. King-Smith, S. S. Grigsby, A. J. Vingrys, S. C. Benes, and A. Supowit, "Efficient and unbiased modifications of the quest threshold method: Theory, simulations, experimental evaluation and practical implementation," Vision Research, vol. 34, no. 7, pp. 885 - 912, 1994. CrossRef  Google Scholar; 19.J. Schell, The Art of Game Design: Book of Lenses. Elsevier, 2008. Google Scholar</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>179-186</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>@INPROCEEDINGS{6374154,
+    author = "Pirovano, Michele and Mainetti, Renato and Baud-Bovy, Gabriel and Lanzi, Pier Luca and Borghese, Nunzio Alberto",
+    booktitle = "2012 IEEE Conference on Computational Intelligence and Games (CIG)",
+    title = "Self-adaptive games for rehabilitation at home",
+    year = "2012",
+    volume = "",
+    number = "",
+    pages = "179-186",
+    abstract = "Computer games are a promising tool to support rehabilitation at home. It is widely recognized that rehabilitation games should (i) be nicely integrated in general-purpose rehabilitation stations, (ii) adhere to the constraints posed by the clinical protocols, (iii) involve movements that are functional to reach the rehabilitation goal, and (iv) adapt to the patients' current status and progress. However, the vast majority of existing rehabilitation games are stand-alone applications (not integrated in a patient station), that rarely adapt to the patients' condition. In this paper, we present the first prototype of the patient rehabilitation station we developed that integrates video games for rehabilitation with methods of computational intelligence both for on-line monitoring the movements' execution during the games and for adapting the gameplay to the patients' status. The station employs a fuzzy system to monitor the exercises execution, on-line, according to the clinical constraints defined by the therapist at configuration time, and to provide direct feedback to the patients. At the same time, it applies real-time adaptation (using the Quest Bayesian adaptive approach) to modify the gameplay according both (i) to the patient current performance and progress and (ii) to the exercise plan specified by the therapist. Finally, we present one of the games available in our patient stations (designed in tight cooperation with therapists) that integrates monitoring functionalities with in-game self-adaptation to provide the best support possible to patients during their routine.",
+    keywords = "Games;Monitoring;Computational intelligence;Hospitals;Real-time systems;Bayesian methods;Engines",
+    doi = "10.1109/CIG.2012.6374154",
+    ISSN = "2325-4289",
+    month = "Sep."
+}</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr">
         <is>
           <t>Included</t>
@@ -11207,7 +11860,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T100" t="inlineStr"/>
@@ -11216,17 +11869,17 @@
           <t>Self-adaptive games for rehabilitation at home</t>
         </is>
       </c>
-      <c r="V100" t="inlineStr"/>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/6374154</t>
+        </is>
+      </c>
       <c r="W100" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11245,7 +11898,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Many computer games of all genres pit the player against a succession of increasingly difficult challenges such as combat with computer-controlled enemies and puzzles. Part of the fun of computer games is to master the skills necessary to complete the game. Challenge tailoring is the problem of matching the difficulty of skill-based events over the course of a game to a specific player's abilities. We present a tensor factorization approach to predicting player performance in skill-based computer games. Our tensor factorization approach is data-driven and can predict changes in players' skill mastery over time, allowing more accurate tailoring of challenges. We demonstrate the efficacy and scalability of tensor factorization models through an empirical study of human players in a simple role-playing combat game.We further find a significant correlation between these performance ratings and player subjective experiences of difficulty and discuss ways our model can be used to optimize player enjoyment. Copyright © 2012, Association for the Advancement of Artificial Intelligence.</t>
+          <t>Many computer games of all genres pit the player against a succession of increasingly difficult challenges such as combat with computer-controlled enemies and puzzles. Part of the fun of computer games is to master the skills necessary to complete the game. Challenge tailoring is the problem of matching the difficulty of skill-based events over the course of a game to a specific player's abilities. We present a tensor factorization approach to predicting player performance in skill-based computer games. Our tensor factorization approach is data-driven and can predict changes in players' skill mastery over time, allowing more accurate tailoring of challenges. We demonstrate the efficacy and scalability of tensor factorization models through an empirical study of human players in a simple role-playing combat game.We further find a significant correlation between these performance ratings and player subjective experiences of difficulty and discuss ways our model can be used to optimize player enjoyment.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -11263,24 +11916,28 @@
           <t>Proceedings of the 8th AAAI Conference on Artificial Intelligence and Interactive Digital Entertainment, AIIDE 2012</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5555/3014629.3014646</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>93 – 98</t>
+          <t>93 - 98</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Zook201293,
+          <t>@CONFERENCE{Zook201293,
     author = "Zook, Alexander E. and Riedl, Mark O.",
     title = "A temporal data-driven player model for dynamic difficulty adjustment",
     year = "2012",
     journal = "Proceedings of the 8th AAAI Conference on Artificial Intelligence and Interactive Digital Entertainment, AIIDE 2012",
-    pages = "93 – 98",
+    pages = "93 - 98",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84883109617\&amp;partnerID=40\&amp;md5=53aa9a39e89b6a556ca080e7da47ee91",
     affiliations = "Georgia Institute of Technology, School of Interactive Computing, College of Computing, United States",
-    abstract = "Many computer games of all genres pit the player against a succession of increasingly difficult challenges such as combat with computer-controlled enemies and puzzles. Part of the fun of computer games is to master the skills necessary to complete the game. Challenge tailoring is the problem of matching the difficulty of skill-based events over the course of a game to a specific player's abilities. We present a tensor factorization approach to predicting player performance in skill-based computer games. Our tensor factorization approach is data-driven and can predict changes in players' skill mastery over time, allowing more accurate tailoring of challenges. We demonstrate the efficacy and scalability of tensor factorization models through an empirical study of human players in a simple role-playing combat game.We further find a significant correlation between these performance ratings and player subjective experiences of difficulty and discuss ways our model can be used to optimize player enjoyment. Copyright © 2012, Association for the Advancement of Artificial Intelligence.",
+    abstract = "Many computer games of all genres pit the player against a succession of increasingly difficult challenges such as combat with computer-controlled enemies and puzzles. Part of the fun of computer games is to master the skills necessary to complete the game. Challenge tailoring is the problem of matching the difficulty of skill-based events over the course of a game to a specific player's abilities. We present a tensor factorization approach to predicting player performance in skill-based computer games. Our tensor factorization approach is data-driven and can predict changes in players' skill mastery over time, allowing more accurate tailoring of challenges. We demonstrate the efficacy and scalability of tensor factorization models through an empirical study of human players in a simple role-playing combat game.We further find a significant correlation between these performance ratings and player subjective experiences of difficulty and discuss ways our model can be used to optimize player enjoyment. Copyright (c) 2012, Association for the Advancement of Artificial Intelligence.",
     keywords = "Artificial intelligence; Factorization; Human computer interaction; Tensors; Empirical studies; Human players; Performance ratings; Player modeling; Subjective experiences; Tensor factorization; Computer games",
     isbn = "978-157735582-3",
     language = "English",
@@ -11289,8 +11946,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 54; Conference name: 8th AAAI Conference on Artificial Intelligence and Interactive Digital Entertainment, AIIDE 2012; Conference date: 8 October 2012 through 12 October 2012; Conference code: 98788"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -11319,7 +11975,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T101" t="inlineStr"/>
@@ -11330,13 +11986,17 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84883109617&amp;partnerID=40&amp;md5=53aa9a39e89b6a556ca080e7da47ee91</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr"/>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84883109617&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=095c95abfe66657404c4f79720252fa4&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28a+temporal+data+driven+player+model+for+dynamic+difficulty+adjustment%29&amp;sl=84&amp;sessionSearchId=095c95abfe66657404c4f79720252fa4&amp;relpos=0</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>AAAI Press</t>
+        </is>
+      </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>nan; References; DOI; Publisher</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -11357,7 +12017,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Lack of motivation during physical rehabilitation is a very common problem that worsens the efficacy of rehabilitation, decreasing the recovery rates of the patient. We suggest a gamified upper-limb rehabilitation that incorporates adaptive gameplay and difficulty so as to overcome that issue, emerging as a support tool for physical therapy professionals. The presence of difficulty adjustment in the game allows a higher motivation level for the patients by preserving the trade off between keeping the difficulty low enough to avoid frustration, but high enough to promote motivation and engagement. This rehabilitation game is a home-based system that allows the patient to exercise at home, due to its Kinect-based portable setup. The game aims to increase the motivation of the patients and thus the speed of their recovery. To accomplish that goal, it is key to potentiate a full immersion into the therapeutic activity. Thus gamification elements, gameplay design and adaptive difficulty are explored and incorporated into the concept. © 2018 IEEE.</t>
+          <t>Lack of motivation during physical rehabilitation is a very common problem that worsens the efficacy of rehabilitation, decreasing the recovery rates of the patient. We suggest a gamified upper-limb rehabilitation that incorporates adaptive gameplay and difficulty so as to overcome that issue, emerging as a support tool for physical therapy professionals. The presence of difficulty adjustment in the game allows a higher motivation level for the patients by preserving the trade off between keeping the difficulty low enough to avoid frustration, but high enough to promote motivation and engagement. This rehabilitation game is a home-based system that allows the patient to exercise at home, due to its Kinect-based portable setup. The game aims to increase the motivation of the patients and thus the speed of their recovery. To accomplish that goal, it is key to potentiate a full immersion into the therapeutic activity. Thus gamification elements, gameplay design and adaptive difficulty are explored and incorporated into the concept.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -11367,7 +12027,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Pinto, Joana F.; Carvalho, Henrique R.; Chambel, Gonçalo R.R.; Ramiro, João; Gonçalves, Afonso</t>
+          <t>Pinto, Joana F.; Carvalho, Henrique R.; Chambel, Goncalo R.R.; Ramiro, Joao; Goncalves, Afonso</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -11383,22 +12043,22 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>1 – 8</t>
+          <t>1 - 8</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Pinto20181,
-    author = "Pinto, Joana F. and Carvalho, Henrique R. and Chambel, Gonçalo R.R. and Ramiro, João and Gonçalves, Afonso",
+          <t>@CONFERENCE{Pinto20181,
+    author = "Pinto, Joana F. and Carvalho, Henrique R. and Chambel, Goncalo R.R. and Ramiro, Joao and Goncalves, Afonso",
     editor = "J.L., Vilaca and D., Duque and N., Rodrigues and N., Dias and T., Grechenig",
     title = "Adaptive gameplay and difficulty adjustment in a gamified upper-limb rehabilitation",
     year = "2018",
     journal = "2018 IEEE 6th International Conference on Serious Games and Applications for Health, SeGAH 2018",
-    pages = "1 – 8",
+    pages = "1 - 8",
     doi = "10.1109/SeGAH.2018.8401363",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85050217471\&amp;doi=10.1109\%2fSeGAH.2018.8401363\&amp;partnerID=40\&amp;md5=62168d0121a0c624c975410e8f13260a",
-    affiliations = "JUNITEC - Júnior Empresas Do Instituto Superior Técnico, Instituto Superior Técnico, Universidade de Lisboa, Av. Rovisco Pais 1, Lisboa, 1049-001, Portugal",
-    abstract = "Lack of motivation during physical rehabilitation is a very common problem that worsens the efficacy of rehabilitation, decreasing the recovery rates of the patient. We suggest a gamified upper-limb rehabilitation that incorporates adaptive gameplay and difficulty so as to overcome that issue, emerging as a support tool for physical therapy professionals. The presence of difficulty adjustment in the game allows a higher motivation level for the patients by preserving the trade off between keeping the difficulty low enough to avoid frustration, but high enough to promote motivation and engagement. This rehabilitation game is a home-based system that allows the patient to exercise at home, due to its Kinect-based portable setup. The game aims to increase the motivation of the patients and thus the speed of their recovery. To accomplish that goal, it is key to potentiate a full immersion into the therapeutic activity. Thus gamification elements, gameplay design and adaptive difficulty are explored and incorporated into the concept. © 2018 IEEE.",
+    affiliations = "JUNITEC - Junior Empresas Do Instituto Superior Tecnico, Instituto Superior Tecnico, Universidade de Lisboa, Av. Rovisco Pais 1, Lisboa, 1049-001, Portugal",
+    abstract = "Lack of motivation during physical rehabilitation is a very common problem that worsens the efficacy of rehabilitation, decreasing the recovery rates of the patient. We suggest a gamified upper-limb rehabilitation that incorporates adaptive gameplay and difficulty so as to overcome that issue, emerging as a support tool for physical therapy professionals. The presence of difficulty adjustment in the game allows a higher motivation level for the patients by preserving the trade off between keeping the difficulty low enough to avoid frustration, but high enough to promote motivation and engagement. This rehabilitation game is a home-based system that allows the patient to exercise at home, due to its Kinect-based portable setup. The game aims to increase the motivation of the patients and thus the speed of their recovery. To accomplish that goal, it is key to potentiate a full immersion into the therapeutic activity. Thus gamification elements, gameplay design and adaptive difficulty are explored and incorporated into the concept. (c) 2018 IEEE.",
     author_keywords = "adaptability; game design; motor rehabilitation; Serious game; upper limb rehabilitation",
     keywords = "Economic and social effects; Motivation; Serious games; adaptability; Game design; Gameplay designs; Motivation and engagements; Motor rehabilitation; Physical rehabilitation; Therapeutic activity; Upper-limb rehabilitation; Neuromuscular rehabilitation",
     publisher = "Institute of Electrical and Electronics Engineers Inc.",
@@ -11409,8 +12069,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 26; Conference name: 6th IEEE International Conference on Serious Games and Applications for Health, SeGAH 2018; Conference date: 16 May 2018 through 18 May 2018; Conference code: 137631"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -11435,7 +12094,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T102" t="inlineStr"/>
@@ -11446,12 +12105,12 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85050217471&amp;doi=10.1109%2fSeGAH.2018.8401363&amp;partnerID=40&amp;md5=62168d0121a0c624c975410e8f13260a</t>
+          <t>https://ieeexplore.ieee.org/document/8401363</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+          <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -11472,7 +12131,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RehaBot:Gamified Virtual Assistants Towards Adaptive TeleRehabilitation</t>
+          <t>RehaBot: Gamified Virtual Assistants Towards Adaptive TeleRehabilitation</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11480,10 +12139,14 @@
           <t>This paper introduces 'RehaBot', a framework for building adaptive serious games in the context of telerehabilitation. RehaBot takes advantage of 3D motion tracking and virtual reality devices, to develop an immersive and gamified telerehabilitation environment. A personalized and adaptive gaming system is developed, which allows patients to perform exercises with the help of embedded virtual assistants, hereafter called 'rehab bots', that are dynamically displayed within scenes to guide the patient through the different sets of gestures required to complete the session. These rehab bots have the ability to learn and adapt to the best level of difficulty in real-time based on the user performance. An intelligent alerting and automatic correction technique is incorporated within our engine, so that pre-calculated gesture patterns are correlated and matched with patients' gestures. Consequently, the system estimates the perceived difficulty of gestures by the patient, and automatically adjusts the game behavior to ensure a highly engaging and adaptive gaming experience. Furthermore, multimodal instructions are conveyed to users with details on joints that are not performing as expected, and to guide them towards improving the current gesture. A pilot study has been conducted to prove the usability and effectiveness of our adaptive physiotherapy solution.</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>user adaptation;  telerehabilitation;  serious games;  intelligent alerting;  automatic correction</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>ImadAfyouni; AnasEinea; AbdullahMurad</t>
+          <t>Afyouni, Imad; Einea, Anas; Murad, Abdullah</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -11499,10 +12162,30 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>1-26</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr"/>
+          <t>21-26</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>@inproceedings{10.1145/3314183.3324988,
+    author = "Afyouni, Imad and Einea, Anas and Murad, Abdullah",
+    title = "RehaBot: Gamified Virtual Assistants Towards Adaptive TeleRehabilitation",
+    year = "2019",
+    isbn = "9781450367110",
+    publisher = "Association for Computing Machinery",
+    address = "New York, NY, USA",
+    url = "https://doi.org/10.1145/3314183.3324988",
+    doi = "10.1145/3314183.3324988",
+    abstract = "This paper introduces 'RehaBot', a framework for building adaptive serious games in the context of telerehabilitation. RehaBot takes advantage of 3D motion tracking and virtual reality devices, to develop an immersive and gamified telerehabilitation environment. A personalized and adaptive gaming system is developed, which allows patients to perform exercises with the help of embedded virtual assistants, hereafter called 'rehab bots', that are dynamically displayed within scenes to guide the patient through the different sets of gestures required to complete the session. These rehab bots have the ability to learn and adapt to the best level of difficulty in real-time based on the user performance. An intelligent alerting and automatic correction technique is incorporated within our engine, so that pre-calculated gesture patterns are correlated and matched with patients' gestures. Consequently, the system estimates the perceived difficulty of gestures by the patient, and automatically adjusts the game behavior to ensure a highly engaging and adaptive gaming experience. Furthermore, multimodal instructions are conveyed to users with details on joints that are not performing as expected, and to guide them towards improving the current gesture. A pilot study has been conducted to prove the usability and effectiveness of our adaptive physiotherapy solution.",
+    booktitle = "Adjunct Publication of the 27th Conference on User Modeling, Adaptation and Personalization",
+    pages = "21-26",
+    numpages = "6",
+    keywords = "user adaptation, telerehabilitation, serious games, intelligent alerting, automatic correction",
+    location = "Larnaca, Cyprus",
+    series = "UMAP'19 Adjunct"
+}</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -11529,7 +12212,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T103" t="inlineStr"/>
@@ -11538,7 +12221,11 @@
           <t>Rehabot: Gamified virtual assistants towards adaptive telerehabilitation</t>
         </is>
       </c>
-      <c r="V103" t="inlineStr"/>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3314183.3324988</t>
+        </is>
+      </c>
       <c r="W103" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -11546,7 +12233,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -11573,7 +12260,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t xml:space="preserve">V. Dooren, </t>
+          <t>V. Dooren,</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -11647,21 +12334,25 @@
           <t>Healthcare Sensor Networks: Challenges Toward Practical Implementation</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84958264733&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=a4f26d8f33dd7214c54bde41df4403cc&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28nocturnal+sensing+and+intervention+for+assisted+living+of+people+with+dementia%29&amp;sl=93&amp;sessionSearchId=a4f26d8f33dd7214c54bde41df4403cc&amp;relpos=0</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>283 – 301</t>
+          <t>283 - 301</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t xml:space="preserve">@BOOK{McCullagh2016283,
+          <t>@BOOK{McCullagh2016283,
     author = "McCullagh, Paul J. and Carswell, William M.A. and Mulvenna, Maurice D. and Augusto, Juan C. and Zheng, Huiru and Jeffers, Paul W.",
     title = "Nocturnal sensing and intervention for assisted living of people with dementia",
     year = "2016",
     journal = "Healthcare Sensor Networks: Challenges Toward Practical Implementation",
-    pages = "283 – 301",
+    pages = "283 - 301",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84958264733\&amp;partnerID=40\&amp;md5=0b9f880e0bd101ae218dfff5626c26fc",
     affiliations = "School of Computing and Mathematics, University of Ulster, Newtownabbey, United Kingdom; Fold Housing Association Hollywood, United Kingdom",
     keywords = "Computer networks; Information systems; Assisted living",
@@ -11673,8 +12364,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 10"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -11699,7 +12389,7 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T105" t="inlineStr"/>
@@ -11710,7 +12400,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84958264733&amp;partnerID=40&amp;md5=0b9f880e0bd101ae218dfff5626c26fc</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84958264733&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=a4f26d8f33dd7214c54bde41df4403cc&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28nocturnal+sensing+and+intervention+for+assisted+living+of+people+with+dementia%29&amp;sl=93&amp;sessionSearchId=a4f26d8f33dd7214c54bde41df4403cc&amp;relpos=0</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
@@ -11720,7 +12410,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>nan; Abstract; References; DOI</t>
+          <t>nan; Abstract; References</t>
         </is>
       </c>
     </row>
@@ -11744,10 +12434,14 @@
           <t>Ambient assisted living (AAL) services that provide support for people to remain in their homes are increasingly being used in healthcare systems around the world. Typically, these ambient assisted living services provide additional information though location-awareness, presence-awareness, and context-awareness capabilities, arising from the prolific use of telecommunications devices including sensors and actuators in the home of the person receiving care. In addition there is a need to provide abstract information, in context, to local and remote stakeholders. There are many different viewing options utilizing converged networks and the resulting explosion in data and information has resulted in a new problem, as these new ambient assisted living services struggle to convey meaningful information to different groups of end users. The article discusses visualization of data from the perspective of the needs of the differing end user groups, and discusses how algorithms are required to contextualize and convey information across location and time. In order to illustrate the issues, current work on nighttime AAL services for people with dementia is described.</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Data visualization;Sensors;Biomedical monitoring;Monitoring;Dementia;Real time systems</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Maurice Mulvenna; William Carswell; Paul Mccullagh; Juan Carlos Augusto; Huiru Zheng; Paul Jeffers; Haiying Wang; Suzanne Martin</t>
+          <t>Mulvenna, Maurice; Carswell, William; Mccullagh, Paul; Augusto, Juan Carlos; Zheng, Huiru; Jeffers, Paul; Wang, Haiying; Martin, Suzanne</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -11762,11 +12456,32 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>1.K. Ducatel, "Scenarios for Ambient Intelligence in2010", IPTS-ISTAG EC: Luxembourg, 2001,  [online]  Available: www.cordis.lu/ist/istag. Google Scholar; 2.D. J. Cook, J. C. Augusto and V. R. Jakkula, "Ambient Intelligence: Technologies Applications and Opportunities", Pervasive Mobile Comp., vol. 5, no. 4, pp. 277-98, 2009. CrossRef  Google Scholar; 3.M. Wojciechowski and J. Xiong, "A User Interface Level Context Model for Ambient Assisted Living", Smart Homes and Health Telematics, pp. 105-12, 2008. CrossRef  Google Scholar; 4.B. Takacs and D. Hanak, "A Mobile System for Assisted Living with Ambient Facial Interfaces", Intl J. Comp. Sci. Info. Sys., vol. 2, no. 2, pp. 33-50, 2007. Google Scholar; 5.K. Truong, K.E. Huang and G. Abowd, "CAMP: A Magnetic Poetry Interface for End-User Programming of Capture Applications for the Home", Proc. Intl. Conf. Ubiquitous Comp., pp. 143-60, 2004. CrossRef  Google Scholar; 6.N. M. Gil, "Data Visualization and Data Mining Technology for Supporting Care for Older People", Proc. 9th ACM SIGACCESS Intl. Conf. Comp. Accessibility, pp. 139-46, 2007. CrossRef  Google Scholar; 7.N. Staggers and D. Kobus, "Comparing Response Time Errors and Satisfaction between Text-Based and Graphical User Interfaces During Nursing Order Tasks", J. American Medical Info. Assoc., vol. 7, pp. 164-76, 2000. CrossRef  Google Scholar; 8.W. Carswell, "A Review of the Role of Assistive Technology for People with Dementia in the Hours of Darkness", Tech. Healthcare, vol. 17, no. 4, 2009. CrossRef  Google Scholar; 9.S. Consolvo, "Flowers or a Robot Army?: Encouraging Awareness  Activity with Personal Mobile Displays", Proc. 10th Intl. Conf. Ubiquitous Comp., 2008-Sept.-21–24. CrossRef  Google Scholar; 10."Final Report Department for Culture Media and Sport and Department for Business Innovation and Skills" in , TSO, June 2009. Google Scholar</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+          <t>1.K. Ducatel, "Scenarios for Ambient Intelligence in2010", IPTS-ISTAG EC: Luxembourg, 2001,  [online]  Available: www.cordis.lu/ist/istag. Google Scholar; 2.D. J. Cook, J. C. Augusto and V. R. Jakkula, "Ambient Intelligence: Technologies Applications and Opportunities", Pervasive Mobile Comp., vol. 5, no. 4, pp. 277-98, 2009. CrossRef  Google Scholar; 3.M. Wojciechowski and J. Xiong, "A User Interface Level Context Model for Ambient Assisted Living", Smart Homes and Health Telematics, pp. 105-12, 2008. CrossRef  Google Scholar; 4.B. Takacs and D. Hanak, "A Mobile System for Assisted Living with Ambient Facial Interfaces", Intl J. Comp. Sci. Info. Sys., vol. 2, no. 2, pp. 33-50, 2007. Google Scholar; 5.K. Truong, K.E. Huang and G. Abowd, "CAMP: A Magnetic Poetry Interface for End-User Programming of Capture Applications for the Home", Proc. Intl. Conf. Ubiquitous Comp., pp. 143-60, 2004. CrossRef  Google Scholar; 6.N. M. Gil, "Data Visualization and Data Mining Technology for Supporting Care for Older People", Proc. 9th ACM SIGACCESS Intl. Conf. Comp. Accessibility, pp. 139-46, 2007. CrossRef  Google Scholar; 7.N. Staggers and D. Kobus, "Comparing Response Time Errors and Satisfaction between Text-Based and Graphical User Interfaces During Nursing Order Tasks", J. American Medical Info. Assoc., vol. 7, pp. 164-76, 2000. CrossRef  Google Scholar; 8.W. Carswell, "A Review of the Role of Assistive Technology for People with Dementia in the Hours of Darkness", Tech. Healthcare, vol. 17, no. 4, 2009. CrossRef  Google Scholar; 9.S. Consolvo, "Flowers or a Robot Army?: Encouraging Awareness  Activity with Personal Mobile Displays", Proc. 10th Intl. Conf. Ubiquitous Comp., 2008-Sept.-21-24. CrossRef  Google Scholar; 10."Final Report Department for Culture Media and Sport and Department for Business Innovation and Skills" in , TSO, June 2009. Google Scholar</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>110-117</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>@ARTICLE{5681023,
+    author = "Mulvenna, Maurice and Carswell, William and Mccullagh, Paul and Augusto, Juan Carlos and Zheng, Huiru and Jeffers, Paul and Wang, Haiying and Martin, Suzanne",
+    journal = "IEEE Communications Magazine",
+    title = "Visualization of data for ambient assisted living services",
+    year = "2011",
+    volume = "49",
+    number = "1",
+    pages = "110-117",
+    abstract = "Ambient assisted living (AAL) services that provide support for people to remain in their homes are increasingly being used in healthcare systems around the world. Typically, these ambient assisted living services provide additional information though location-awareness, presence-awareness, and context-awareness capabilities, arising from the prolific use of telecommunications devices including sensors and actuators in the home of the person receiving care. In addition there is a need to provide abstract information, in context, to local and remote stakeholders. There are many different viewing options utilizing converged networks and the resulting explosion in data and information has resulted in a new problem, as these new ambient assisted living services struggle to convey meaningful information to different groups of end users. The article discusses visualization of data from the perspective of the needs of the differing end user groups, and discusses how algorithms are required to contextualize and convey information across location and time. In order to illustrate the issues, current work on nighttime AAL services for people with dementia is described.",
+    keywords = "Data visualization;Sensors;Biomedical monitoring;Monitoring;Dementia;Real time systems",
+    doi = "10.1109/MCOM.2011.5681023",
+    ISSN = "1558-1896",
+    month = "January"
+}</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -11789,7 +12504,7 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>IEEE</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T106" t="inlineStr"/>
@@ -11798,17 +12513,17 @@
           <t>Visualization of data for ambient assisted living services</t>
         </is>
       </c>
-      <c r="V106" t="inlineStr"/>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/document/5681023</t>
+        </is>
+      </c>
       <c r="W106" t="inlineStr">
         <is>
           <t>IEEE</t>
         </is>
       </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>nan; Keywords; Pages; Year; Bibtex; Link</t>
-        </is>
-      </c>
+      <c r="X106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11827,7 +12542,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Caregiver anecdotes attest that music and photographs play an important role for family members diagnosed with Alzheimer's disease (AD), even those with severe AD. Tablets and iPads, which are prevalent, can be utilized with dementia patients in portraying favorite music and family photographs via apps developed in close partnership with geriatric facilities. Anecdotal research has shown that non-verbal late-stage dementia patients have become stimulated when iPods played their beloved tunes. There is an unmet need in geriatric facilities for stimulating dementia patients, as well providing hard-core data for proving increased cognitive abilities with technology. Technology can help bridge the gap between patients and staff to improve the quality of life for the cognitively impaired. This study addresses cognitive functioning and quality of life for people diagnosed with dementia via technology. In recent times, the influx of older adults suffering from Alzheimer's or dementia related illness has impacted the U.S. Healthcare system. Cognition significantly declines in older adults with AD or dementia over the course of the disease, causing most to be dependent on caregivers, thus routinely institutionalized. Caregivers are often required to focus their attention on addressing the agitation or discomfort of the AD or dementia patient. Research has shown that technology instruments such as iPods, help stimulate those with dementia. This study focuses on innovative devices such as iPads and tablets, which are mainstream and easy to use, cannot only help determine stage of dementia, but also provide stimulation to improve cognitive functioning. It is hoped that this research will analyze that specially created apps and existing assistive software can be used to decrease the symptoms and improve cognition of older adults suffering from AD or other dementia related diseases. Via service-learning courses, students developed an easy-to-use application for tablets to help older adults with disabilities more readily use the technology. Student programmers produced apps and performed usability tests with the dementia patients, as well as met with geriatric facility personnel to produce application software that meets the patients, family, and caregiver needs and expectations. For example, a student term project produced an application entitled Candoo that utilizes Google's voice recognition and synthesis engine to navigate the web, provide the weather, and supply pill reminder alerts. Another application example included one that allows families to electronically send photographs, video clips, and favorite music from anywhere to loved ones for enjoyment. Furthermore, older adults were assessed by nursing students for cognitive functioning before, and after the semester's intervention. Such mobile apps could allow dementia persons to become less agitated and stay in their homes longer, while also providing awareness and positive change of attitude by those of another generation towards the elderly. This research will discuss student developed mobile applications in the scope of helping improve the quality of life of patients with AD or dementia. © 2013 IEEE.</t>
+          <t>Caregiver anecdotes attest that music and photographs play an important role for family members diagnosed with Alzheimer's disease (AD), even those with severe AD. Tablets and iPads, which are prevalent, can be utilized with dementia patients in portraying favorite music and family photographs via apps developed in close partnership with geriatric facilities. Anecdotal research has shown that non-verbal late-stage dementia patients have become stimulated when iPods played their beloved tunes. There is an unmet need in geriatric facilities for stimulating dementia patients, as well providing hard-core data for proving increased cognitive abilities with technology. Technology can help bridge the gap between patients and staff to improve the quality of life for the cognitively impaired. This study addresses cognitive functioning and quality of life for people diagnosed with dementia via technology. In recent times, the influx of older adults suffering from Alzheimer's or dementia related illness has impacted the U.S. Healthcare system. Cognition significantly declines in older adults with AD or dementia over the course of the disease, causing most to be dependent on caregivers, thus routinely institutionalized. Caregivers are often required to focus their attention on addressing the agitation or discomfort of the AD or dementia patient. Research has shown that technology instruments such as iPods, help stimulate those with dementia. This study focuses on innovative devices such as iPads and tablets, which are mainstream and easy to use, cannot only help determine stage of dementia, but also provide stimulation to improve cognitive functioning. It is hoped that this research will analyze that specially created apps and existing assistive software can be used to decrease the symptoms and improve cognition of older adults suffering from AD or other dementia related diseases. Via service-learning courses, students developed an easy-to-use application for tablets to help older adults with disabilities more readily use the technology. Student programmers produced apps and performed usability tests with the dementia patients, as well as met with geriatric facility personnel to produce application software that meets the patients, family, and caregiver needs and expectations. For example, a student term project produced an application entitled Candoo that utilizes Google's voice recognition and synthesis engine to navigate the web, provide the weather, and supply pill reminder alerts. Another application example included one that allows families to electronically send photographs, video clips, and favorite music from anywhere to loved ones for enjoyment. Furthermore, older adults were assessed by nursing students for cognitive functioning before, and after the semester's intervention. Such mobile apps could allow dementia persons to become less agitated and stay in their homes longer, while also providing awareness and positive change of attitude by those of another generation towards the elderly. This research will discuss student developed mobile applications in the scope of helping improve the quality of life of patients with AD or dementia.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11850,11 +12565,15 @@
           <t>https://doi.org/10.1109/LISAT.2013.6578252</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>1.Alzheimers Association, "2012 Alzheimers disease facts and figures," Alzheimers  Dementia, 2012. www.alz.org; 2.A. Astell, N. Alm, G. Gowans, M. Ellis, R. Dye, and P. Vaughan, "Involving older people with dementia and their careers in designing computer based support systems-Some methodological considerations," Universal Access in the Information Society, vol. 8, 2009: 49-58. CrossRef  Google Scholar; 3.G. Gowans, R. Dye, N. Alm, P. Vaughan, A. Astell, and M. Ellis, "Designing the interface between dementia patients, caregivers and computer-based intervention," The Design Journal, vol.20, issue 1 (Ashgate Publishing Limited, 2007): 12. CrossRef  Google Scholar; 4.S. Hoops, et al., "Validity of the MoCA and MMSE in the detection of MCI and dementia in Parkinson disease," Neurology, vol. 73, pp. 1738-1745, November 24, 2009. CrossRef  Google Scholar; 5.L. Velayudhan, et al., "Entorhinal cortex thickness predicts cognitive decline in Alzheimers Disease," Journal of Alzheimers Disease, vol. 33, 2013: 755-766. CrossRef  Google Scholar; 6.National Instute of Health National Institute on Ageing, "Alzheimers Disease: Unraveling the Mystery," Alzheimers Disease Education and Referral Center, 2008. http://www.nia.nih.gov/; 7.Alzheimers Disease Education and Referral Center. National Institute of Health, National Institute on Ageing, Alzheimers Disease: Unraveling the Mystery, 2008. http://www.nia.nih.gov/; 8."The progression of Alzheimers disease and other dementias," Alzheimers Society: Leading the Fight Against Dementia, Dec 2011: 20 Jan 2013. http://www.alzheimers.org.uk/site/scripts/documents-info.php?docume ntID=133 Google Scholar; 9.J. Killick  K. Allan, Communication and the care of people with dementia, Philadelphia, PA: Open University Press, 2001. Google Scholar; 10.D. Jootun, G. McGhee, Effective communication with people who have dementia, Nursing Standard, 2011: 25, 40-46. CrossRef  Google Scholar; 11.L. Hebert, P. Scherr,  L. Beckett, "Age-specific incidence of Alzheimers disease in a community population," The Journal of the American Medical Association, 1995: 273 (1354). CrossRef  Google Scholar; 12.Pam Belluck, "Dementia care cost is projected to double by 2040," The New York Times, 3 Apr 2013: 4 Apr 2014. http://www.nytimes.com/ 2013/04/04/health/dementia-care-costs-aresoaring-study-finds.html?-r=0 Google Scholar; 13.Michael D. Hurd, Paco Martorell, Adeline Delavande, Kathlenn J. Mullen, and Kenneth M. Langa, "Monetary costs of dementia in the United States," The New England Journal of Medicine, 4 Apr 2013: 4 Apr 2013. http://www.nejm.org/doi/full/10.1056/NEJMsa1204629 Google Scholar; 14.J. M. Brown, "79 million baby boomers enter retirement: what it could mean for the market," 15 Feb 2011: 20 Jan 2013. http://www.csmonitor. com/Business/The-Reformed-Broker/2010/0706/79-million-baby-boomers-enter- retirement-Whatitcould-mean-for-the-market. Google Scholar; 15.L. Tarraga, M. Boada, G. Modinos, A. Espinosa, S. Diego, A. Morera, J. T. Becker, "A randomized pilot study to assess the efficacy of an interactive, multimedia tool of cognitive stimulation in Alzheimers disease," Journal of Neurology, Neurosurgery, and Psychiatry. 77:10. 2006: 1116-1121. doi:10.1136/jnnp.2005.086074 CrossRef  Google Scholar; 16.C. R. Kovach, "Late-stage dementia," End-Stage Dementia Care: A Basic Guide, 2013: 127. Google Scholar; 17.A. M. Lipton and C. D. Marshall, "Dealing with Problem Behaviors in Dementia," The Common Sense Guide to Dementia For Clinicians and Caregivers, edited by Springer, 2013: 135-148. CrossRef  Google Scholar; 18.ElderCareTeam.com. (n.d.). Dementia Tantrums. 16 April 2013. http://www.eldercareteam.com/public/161.cfm; 19.M. Kowtko, "Using assistive technologies to improve lives of older adults and people with disabilities," Systems, Applications and Technology Conference (LISAT), 2012 IEEE Long Island, vol., no., May 2012: 1,6, 4-4. View Article  Google Scholar</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Yamagata2013,
+          <t>@CONFERENCE{Yamagata2013,
     author = "Yamagata, Christina and Coppola, Jean F. and Kowtko, Marc and Joyce, Shannon",
     title = "Mobile app development and usability research to help dementia and Alzheimer patients",
     year = "2013",
@@ -11862,7 +12581,7 @@
     doi = "10.1109/LISAT.2013.6578252",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84883354134\&amp;doi=10.1109\%2fLISAT.2013.6578252\&amp;partnerID=40\&amp;md5=ab264a1c7d4371112551f5d747e987fc",
     affiliations = "Seidenberg School of Computer Science and Information Systems, Pace University, Pleasantville, NY 10570, 861 Bedford Rd., United States; College of Health Professions Pace University, New York, NY 10038, 163 William Street, United States",
-    abstract = "Caregiver anecdotes attest that music and photographs play an important role for family members diagnosed with Alzheimer's disease (AD), even those with severe AD. Tablets and iPads, which are prevalent, can be utilized with dementia patients in portraying favorite music and family photographs via apps developed in close partnership with geriatric facilities. Anecdotal research has shown that non-verbal late-stage dementia patients have become stimulated when iPods played their beloved tunes. There is an unmet need in geriatric facilities for stimulating dementia patients, as well providing hard-core data for proving increased cognitive abilities with technology. Technology can help bridge the gap between patients and staff to improve the quality of life for the cognitively impaired. This study addresses cognitive functioning and quality of life for people diagnosed with dementia via technology. In recent times, the influx of older adults suffering from Alzheimer's or dementia related illness has impacted the U.S. Healthcare system. Cognition significantly declines in older adults with AD or dementia over the course of the disease, causing most to be dependent on caregivers, thus routinely institutionalized. Caregivers are often required to focus their attention on addressing the agitation or discomfort of the AD or dementia patient. Research has shown that technology instruments such as iPods, help stimulate those with dementia. This study focuses on innovative devices such as iPads and tablets, which are mainstream and easy to use, cannot only help determine stage of dementia, but also provide stimulation to improve cognitive functioning. It is hoped that this research will analyze that specially created apps and existing assistive software can be used to decrease the symptoms and improve cognition of older adults suffering from AD or other dementia related diseases. Via service-learning courses, students developed an easy-to-use application for tablets to help older adults with disabilities more readily use the technology. Student programmers produced apps and performed usability tests with the dementia patients, as well as met with geriatric facility personnel to produce application software that meets the patients, family, and caregiver needs and expectations. For example, a student term project produced an application entitled Candoo that utilizes Google's voice recognition and synthesis engine to navigate the web, provide the weather, and supply pill reminder alerts. Another application example included one that allows families to electronically send photographs, video clips, and favorite music from anywhere to loved ones for enjoyment. Furthermore, older adults were assessed by nursing students for cognitive functioning before, and after the semester's intervention. Such mobile apps could allow dementia persons to become less agitated and stay in their homes longer, while also providing awareness and positive change of attitude by those of another generation towards the elderly. This research will discuss student developed mobile applications in the scope of helping improve the quality of life of patients with AD or dementia. © 2013 IEEE.",
+    abstract = "Caregiver anecdotes attest that music and photographs play an important role for family members diagnosed with Alzheimer's disease (AD), even those with severe AD. Tablets and iPads, which are prevalent, can be utilized with dementia patients in portraying favorite music and family photographs via apps developed in close partnership with geriatric facilities. Anecdotal research has shown that non-verbal late-stage dementia patients have become stimulated when iPods played their beloved tunes. There is an unmet need in geriatric facilities for stimulating dementia patients, as well providing hard-core data for proving increased cognitive abilities with technology. Technology can help bridge the gap between patients and staff to improve the quality of life for the cognitively impaired. This study addresses cognitive functioning and quality of life for people diagnosed with dementia via technology. In recent times, the influx of older adults suffering from Alzheimer's or dementia related illness has impacted the U.S. Healthcare system. Cognition significantly declines in older adults with AD or dementia over the course of the disease, causing most to be dependent on caregivers, thus routinely institutionalized. Caregivers are often required to focus their attention on addressing the agitation or discomfort of the AD or dementia patient. Research has shown that technology instruments such as iPods, help stimulate those with dementia. This study focuses on innovative devices such as iPads and tablets, which are mainstream and easy to use, cannot only help determine stage of dementia, but also provide stimulation to improve cognitive functioning. It is hoped that this research will analyze that specially created apps and existing assistive software can be used to decrease the symptoms and improve cognition of older adults suffering from AD or other dementia related diseases. Via service-learning courses, students developed an easy-to-use application for tablets to help older adults with disabilities more readily use the technology. Student programmers produced apps and performed usability tests with the dementia patients, as well as met with geriatric facility personnel to produce application software that meets the patients, family, and caregiver needs and expectations. For example, a student term project produced an application entitled Candoo that utilizes Google's voice recognition and synthesis engine to navigate the web, provide the weather, and supply pill reminder alerts. Another application example included one that allows families to electronically send photographs, video clips, and favorite music from anywhere to loved ones for enjoyment. Furthermore, older adults were assessed by nursing students for cognitive functioning before, and after the semester's intervention. Such mobile apps could allow dementia persons to become less agitated and stay in their homes longer, while also providing awareness and positive change of attitude by those of another generation towards the elderly. This research will discuss student developed mobile applications in the scope of helping improve the quality of life of patients with AD or dementia. (c) 2013 IEEE.",
     author_keywords = "Accessibility; Aged User; Assistive Technologyies; Computer Science Education; Elderly; Older Adults; Senior Citizen; Software Engineering; Sundowning",
     keywords = "Geriatrics; Neurodegenerative diseases; Photography; Research; Software engineering; Stages; Students; Technology; Accessibility; Aged User; Assistive; Computer Science Education; Elderly; Older adults; Senior citizens; Sundowning; Handicapped persons",
     isbn = "978-146736245-0",
@@ -11872,8 +12591,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 62; Conference name: 9th Annual Conference on Long Island Systems, Applications and Technology, LISAT 2013; Conference date: 3 May 2013 through 3 May 2013; Conference code: 99009"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -11898,7 +12616,7 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T107" t="inlineStr"/>
@@ -11909,13 +12627,17 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84883354134&amp;doi=10.1109%2fLISAT.2013.6578252&amp;partnerID=40&amp;md5=ab264a1c7d4371112551f5d747e987fc</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr"/>
+          <t>https://ieeexplore.ieee.org/document/6578252</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>nan; References; Pages; Publisher</t>
+          <t>nan; Pages</t>
         </is>
       </c>
     </row>
@@ -11936,7 +12658,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The present paper proposes a new adaptive smart kitchen environment able to support different users with several typologies of impairment (i.e., visual, motor, cognitive) in performing cooking activities. This system is managed through an adaptive user interface, which guides the user in food preparation according to users' capabilities and needs and permits household appliances controlling. Results of a preliminary usability evaluation has shown that the proposed solution is accessible and highly usable for users with some limitations such elderly with mild to moderate dementia and adult people with moderate retinopathy and rheumatoid arthritis. Copyright 2016 is held by the owner/author(s).</t>
+          <t>The present paper proposes a new adaptive smart kitchen environment able to support different users with several typologies of impairment (i.e., visual, motor, cognitive) in performing cooking activities. This system is managed through an adaptive user interface, which guides the user in food preparation according to users' capabilities and needs and permits household appliances controlling. Results of a preliminary usability evaluation has shown that the proposed solution is accessible and highly usable for users with some limitations such elderly with mild to moderate dementia and adult people with moderate retinopathy and rheumatoid arthritis.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11946,7 +12668,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Gullà, F.; Ceccacci, S.; Menghi, R.; Germani, M.</t>
+          <t>Gulla, F.; Ceccacci, S.; Menghi, R.; Germani, M.</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -11960,18 +12682,22 @@
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Gullà2016,
-    author = "Gullà, F. and Ceccacci, S. and Menghi, R. and Germani, M.",
+          <t>@CONFERENCE{Gulla2016,
+    author = "Gulla, F. and Ceccacci, S. and Menghi, R. and Germani, M.",
     title = "An adaptive smart system to foster disabled and elderly people in kitchen-related task",
     year = "2016",
     journal = "ACM International Conference Proceeding Series",
     volume = "29-June-2016",
     doi = "10.1145/2910674.2910678",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85005990797\&amp;doi=10.1145\%2f2910674.2910678\&amp;partnerID=40\&amp;md5=8b73ca7eeb5b3cefddc9356244b2c26a",
-    affiliations = "Università Politecnica Delle Marche, Department DIISM, Via Brecce Bianche, Ancona, Italy",
+    affiliations = "Universita Politecnica Delle Marche, Department DIISM, Via Brecce Bianche, Ancona, Italy",
     abstract = "The present paper proposes a new adaptive smart kitchen environment able to support different users with several typologies of impairment (i.e., visual, motor, cognitive) in performing cooking activities. This system is managed through an adaptive user interface, which guides the user in food preparation according to users' capabilities and needs and permits household appliances controlling. Results of a preliminary usability evaluation has shown that the proposed solution is accessible and highly usable for users with some limitations such elderly with mild to moderate dementia and adult people with moderate retinopathy and rheumatoid arthritis. Copyright 2016 is held by the owner/author(s).",
     author_keywords = "Adaptive User Interface; Design for all; Human Computer Interaction; Smart Environment",
     keywords = "Adaptive control systems; Diseases; Domestic appliances; Human computer interaction; Adaptive user interface; Design for all; Elderly people; Food preparation; Rheumatoid arthritis; Smart environment; Smart System; Usability evaluation; User interfaces",
@@ -11983,8 +12709,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 14; Conference name: 9th ACM International Conference on Pervasive Technologies Related to Assistive Environments, PETRA 2016; Conference date: 29 June 2016 through 1 July 2016; Conference code: 124964"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -12009,7 +12734,7 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T108" t="inlineStr"/>
@@ -12020,7 +12745,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85005990797&amp;doi=10.1145%2f2910674.2910678&amp;partnerID=40&amp;md5=8b73ca7eeb5b3cefddc9356244b2c26a</t>
+          <t>https://dl.acm.org/doi/10.1145/2910674.2910678</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
@@ -12030,7 +12755,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -12051,7 +12776,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Autism Spectrum Disorder (ASD) individuals experience many troubles in communication and lag in social improvement. In this significant circumstance, the appearance of smart technologies has kept promising success regarding Autism Spectrum Disorder (ASD). Many socio-developmental mobile applications have been created in developed countries. In contrast, there are no such applications in developing countries like Bangladesh in native content. In this paper, an Android-based mobile application named HELLO is designed with the fundamental thought of Picture Exchange Communication System (PECS) in the Bangla language. This application aims to improve the socio-communicational learnability of autism individuals in Bangladesh. It is expected that our application can be brilliant support to autism individuals, also included the people who endure non-verbal inconveniences. The outcome of this application demonstrates a positive streamline to the improvement in communicating with others. © 2022 IEEE.</t>
+          <t>Autism Spectrum Disorder (ASD) individuals experience many troubles in communication and lag in social improvement. In this significant circumstance, the appearance of smart technologies has kept promising success regarding Autism Spectrum Disorder (ASD). Many socio-developmental mobile applications have been created in developed countries. In contrast, there are no such applications in developing countries like Bangladesh in native content. In this paper, an Android-based mobile application named HELLO is designed with the fundamental thought of Picture Exchange Communication System (PECS) in the Bangla language. This application aims to improve the socio-communicational learnability of autism individuals in Bangladesh. It is expected that our application can be brilliant support to autism individuals, also included the people who endure non-verbal inconveniences. The outcome of this application demonstrates a positive streamline to the improvement in communicating with others.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -12074,11 +12799,15 @@
           <t>https://doi.org/10.1109/IMCOM53663.2022.9721813</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>1.D. Sokol Lahiri, C. Erickson, B. Ray, C. Ho and B. Maloney, "Autism as early neurodevelopmental disorder: evidence for an sAPPa-mediated anabolic pathway", Frontiers in Cellular Neuroscience, vol. 7, 2013. CrossRef  Google Scholar; 2.Z. Xiao et al., "Autism Spectrum Disorder as Early Neurodevelopmental Disorder: Evidence from the Brain Imaging Abnormalities in 2-3 Years Old Toddlers", Journal of Autism and Developmental Disorders, vol. 44, no. 7, pp. 1633-1640, 2014. CrossRef  Google Scholar; 3.Moushumi Sharmin et al., "From Research to Practice: Informing the Design of Autism Support Smart Technology", Proceedings of the 2018 CHI Conference on Human Factors in Computing Systems - CHI '18, 21 Apr. 2018. CrossRef  Google Scholar; 4.Mohammad Didar Hossain et al., "Autism Spectrum Disorders (ASD) in South Asia: a Systematic Review", BMC Psychiatry, Aug. 2017. CrossRef  Google Scholar; 5.S. Chu, S. Mohd Normal, G. McConnell, J. Tan and S. Joginder Singh, "Challenges faced by parents of children with autism spectrum disorder in Malaysia", Speech Language and Hearing, vol. 23, no. 4, pp. 221-231, 2018. CrossRef  Google Scholar; 6.T. Soron, "Autism Stigma and Achievements of Bangladesh", Journal of Psychiatry, vol. 18, no. 5, pp. 2015. CrossRef  Google Scholar; 7.T. Soron, "Telepsychiatry for Depression Management in Bangladesh", International Journal of Mental Health, vol. 45, no. 4, pp. 279-280, 2016. CrossRef  Google Scholar; 8."Mobile Phone Subscribers in Bangladesh September 2021 | BTRC", 2021,  [online]  Available: Btrc.gov.bd. Google Scholar; 9.N. Voon, S. Bazilah, A. Maidin, H. Jumaat and M. Ahmad, "AutiSay: A Mobile Communication Tool for Autistic Individuals", Advances in Intelligent Systems and Computing, pp. 349-359, 2015. CrossRef  Google Scholar; 10.N. Soomro and S. Soomro, "Autism Children's App using PECS", Annals of Emerging Technologies in Computing, vol. 2, no. 1, pp. 7-16, 2018. CrossRef  Google Scholar; 11.A. Shminan, R. Adzani, S. Sharif and N. Lee, "AutiPECS: Mobile-based learning of picture exchange communication intervention for caregivers of autistic children", 2017 International Conference on Computer and Drone Applications (IConDA), 2017. View Article  Google Scholar; 12.A. Shminan, L. Choi and S. Sharif, "AutiTEACCH: Mobile-based Learning in a Structured Teaching Approach for Autistic Children Caregivers", 2020 International Conference on Informatics Multimedia Cyber and Information System (ICIMCIS), 2020. View Article  Google Scholar; 13.H. Hani and R. Abu-Wandi, "DISSERO Mobile Application for AUTISTIC Children's", Proceedings of the International Conference on Intelligent Information Processing Security and Advanced Communication, 2015. CrossRef  Google Scholar; 14.D. Zoerner, J. Schutze, S. Kirst, I. Dziobek and U. Lucke, "Zirkus Empathico: Mobile Training of Socio-Emotional Competences for Children with Autism", 2016 IEEE 16th International Conference on Advanced Learning Technologies (ICALT), 2016. View Article  Google Scholar; 15.L. Escobedo et al., "MOSOCO", Proceedings of the SIGCHI Conference on Human Factors in Computing Systems, 2012. CrossRef  Google Scholar; 16.Hsien-Hui Tang, Cyun-Meng Jheng, Miao-En Chien, Ni-Miao Lin and M. Chen, "iCAN: A tablet-based pedagogical system for improving the user experience of children with autism in the learning process", 2013 1st International Conference on Orange Technologies (ICOT), 2013. View Article  Google Scholar; 17.C. Papoutsi, A. Drigas and C. Skianis, "Mobile Applications to Improve Emotional Intelligence in Autism - A Review", International Journal of Interactive Mobile Technologies (iJIM), vol. 12, no. 6, pp. 47, 2018. CrossRef  Google Scholar; 18.S. Bardhan et al., "Autism Barta -- A smart device based automated autism screening tool for Bangladesh", 2016 5th International Conference on Informatics Electronics and Vision (ICIEV), 2016. View Article  Google Scholar; 19.T. Zaki et al., "Towards developing a learning tool for children with autism", 2017 6th International Conference on Informatics Electronics and Vision &amp; 2017 7th International Symposium in Computational Medical and Health Technology (ICIEV-ISCMHT), 2017. View Article  Google Scholar; 20.M. Satu et al., "Prottoy: A Smart Phone Based Mobile Application to Detect Autism of Children in Bangladesh", 2019 4th International Conference on Electrical Information and Communication Technology (EICT), 2019. View Article  Google Scholar; 21.M. Haque et al., "Towards Developing A Mobile-Based Care for Children with Autism Spectrum Disorder (mCARE) in low and Middle-Income Countries (LMICs) Like Bangladesh", 2020 IEEE 44th Annual Computers Software and Applications Conference (COMPSAC), 2020. View Article  Google Scholar; 22.T. Slocum, R. Detrich, S. Wilczynski, T. Spencer, T. Lewis and K. Wolfe, "The Evidence-Based Practice of Applied Behavior Analysis", The Behavior Analyst, vol. 37, no. 1, pp. 41-56, 2014. CrossRef  Google Scholar; 23.M. Charlop-Christy, M. Carpenter, L. Le, L. LeBlanc and K. Kellet, "USING THE PICTURE EXCHANGE COMMUNICATION SYSTEM (PECS) WITH CHILDREN WITH AUTISM: ASSESSMENT OF PECS ACQUISITION SPEECH SOCIAL-COMMUNICATIVE BEHAVIOR AND PROBLEM BEHAVIOR", Journal of Applied Behavior Analysis, vol. 35, no. 3, pp. 213-231, 2002. CrossRef  Google Scholar; 24.J. Virues-Ortega, F. Julio and R. Pastor-Barriuso, "The TEACCH program for children and adults with autism: A meta-analysis of intervention studies", Clinical Psychology Review, vol. 33, no. 8, pp. 940-953, 2013. CrossRef  Google Scholar; 25.O. F. Rakib, S. Akter, M. A. Khan, A. K. Das and K. M. Habibullah, "Bangla Word Prediction and Sentence Completion Using GRU: An Extended Version of RNN on Ngram Language Model", 2019 International Conference on Sustainable Technologies for Industry 4.0 (STI). View Article  Google Scholar; 26.E. A. Emon, S. Rahman, J. Banarjee, A. K. Das and T. Mittra, "A Deep Learning Approach to Detect Abusive Bengali Text", 2019 7th International Conference on Smart Computing &amp; Communications (ICSCC), 2019. View Article  Google Scholar; 27.M. M. Hossain, M. F. Labib, A. S. Rifat, A. K. Das and M. Mukta, "Auto-correction of English to Bengali Transliteration System using Levenshtein Distance", 2019 7th International Conference on Smart Computing &amp; Communications (ICSCC), 2019. View Article  Google Scholar; 28.M. D. Drovo, M. Chowdhury, S. I. Uday and A. K. Das, "Named Entity Recognition in Bengali Text Using Merged Hidden Markov Model and Rule Base Approach", 2019 7th International Conference on Smart Computing &amp; Communications (ICSCC), 2019. View Article  Google Scholar; 29.E. Biswas and A. K. Das, "Symptom-Based Disease Detection System In Bengali Using Convolution Neural Network", 2019 7th International Conference on Smart Computing &amp; Communications (ICSCC), 2019. View Article  Google Scholar; 30.A. K. Das, A. Ashrafi and M. Ahmmad, "Joint Cognition of Both Human and Machine for Predicting Criminal Punishment in Judicial System", 2019 IEEE 4th International Conference on Computer and Communication Systems (ICCCS), pp. 36-40, 2019. View Article  Google Scholar</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t xml:space="preserve">@CONFERENCE{Yra2022,
+          <t>@CONFERENCE{Yra2022,
     author = "Yra, Ishrat Jahan and Pranto, Maksud Hossain and Das, Amit Kumar",
     editor = "S., Lee and H., Choo and R., Ismail",
     title = "HELLO: An Android-based Mobile Application for Autism Individuals to Improve Socio-Communicational Learnability in Bangladesh",
@@ -12087,7 +12816,7 @@
     doi = "10.1109/IMCOM53663.2022.9721813",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-85127494364\&amp;doi=10.1109\%2fIMCOM53663.2022.9721813\&amp;partnerID=40\&amp;md5=82e33942341f4aa41ea47f7626e5dbba",
     affiliations = "East West University, Department of Computer Science and Engineering, Dhaka, Bangladesh",
-    abstract = "Autism Spectrum Disorder (ASD) individuals experience many troubles in communication and lag in social improvement. In this significant circumstance, the appearance of smart technologies has kept promising success regarding Autism Spectrum Disorder (ASD). Many socio-developmental mobile applications have been created in developed countries. In contrast, there are no such applications in developing countries like Bangladesh in native content. In this paper, an Android-based mobile application named HELLO is designed with the fundamental thought of Picture Exchange Communication System (PECS) in the Bangla language. This application aims to improve the socio-communicational learnability of autism individuals in Bangladesh. It is expected that our application can be brilliant support to autism individuals, also included the people who endure non-verbal inconveniences. The outcome of this application demonstrates a positive streamline to the improvement in communicating with others. © 2022 IEEE.",
+    abstract = "Autism Spectrum Disorder (ASD) individuals experience many troubles in communication and lag in social improvement. In this significant circumstance, the appearance of smart technologies has kept promising success regarding Autism Spectrum Disorder (ASD). Many socio-developmental mobile applications have been created in developed countries. In contrast, there are no such applications in developing countries like Bangladesh in native content. In this paper, an Android-based mobile application named HELLO is designed with the fundamental thought of Picture Exchange Communication System (PECS) in the Bangla language. This application aims to improve the socio-communicational learnability of autism individuals in Bangladesh. It is expected that our application can be brilliant support to autism individuals, also included the people who endure non-verbal inconveniences. The outcome of this application demonstrates a positive streamline to the improvement in communicating with others. (c) 2022 IEEE.",
     author_keywords = "ASD; Autism Individuals; Bangla language; HELLO; Mobile Application; PECS; Smart Technologies; Socio-Communicational",
     keywords = "Android (operating system); Developing countries; Mobile computing; Autism individual; Autism spectrum disorders; Bangla language; Bangladesh; Communications systems; HELLO; Mobile applications; Picture exchange communication system; Smart technology; Socio-communicational; Diseases",
     publisher = "Institute of Electrical and Electronics Engineers Inc.",
@@ -12098,8 +12827,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 1; Conference name: 16th International Conference on Ubiquitous Information Management and Communication, IMCOM 2022; Conference date: 3 January 2022 through 5 January 2022; Conference code: 177743"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -12124,7 +12852,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T109" t="inlineStr"/>
@@ -12135,17 +12863,17 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85127494364&amp;doi=10.1109%2fIMCOM53663.2022.9721813&amp;partnerID=40&amp;md5=82e33942341f4aa41ea47f7626e5dbba</t>
+          <t>https://ieeexplore.ieee.org/document/9721813</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>Institute of Electrical and Electronics Engineers Inc.</t>
+          <t>Institute of Electrical and Electronics Engineers Inc</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>nan; References; Pages</t>
+          <t>nan; Pages</t>
         </is>
       </c>
     </row>
@@ -12172,7 +12900,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t xml:space="preserve">W. F. W. Ahmad and N. A. B. Zulkharnain, </t>
+          <t>W. F. W. Ahmad and N. A. B. Zulkharnain,</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -12224,12 +12952,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Objectives: We developed an adaptive computer assistant for the supervision of diabetics' self-care, to support limiting illness and need for acute treatment, and improve health literacy. This assistant monitors self-care activities logged in the patient's electronic diary. Accordingly, it provides context-aware feedback. The objective was to evaluate whether older adults in general can make use of the computer assistant and to compare an adaptive computer assistant with a fixed one, concerning its usability and contribution to health literacy. Methods: We conducted a laboratory experiment in the Georgia Tech Aware Home wherein 28 older adults participated in a usability evaluation of the computer assistant, while engaged in scenarios reflecting normal and health-critical situations. We evaluated the assistant on effectiveness, efficiency, satisfaction, and educational value. Finally, we studied the moderating effects of the subjects' personal characteristics. Results: Logging self-care tasks and receiving feedback from the computer assistant enhanced the subjects' knowledge of diabetes. The adaptive assistant was more effective in dealing with normal and health-critical situations, and, generally, it led to more time efficiency. Subjects' personal characteristics had substantial effects on the effectiveness and efficiency of the two computer assistants. Conclusions: Older adults were able to use the adoptive computer assistant. In addition, it had a positive effect on the development of health literacy. The assistant has the potential to support older diabetics' self care while maintaining quality of life. © 2008 Schattauer GmbH.</t>
+          <t>Objectives: We developed an adaptive computer assistant for the supervision of diabetics' self-care, to support limiting illness and need for acute treatment, and improve health literacy. This assistant monitors self-care activities logged in the patient's electronic diary. Accordingly, it provides context-aware feedback. The objective was to evaluate whether older adults in general can make use of the computer assistant and to compare an adaptive computer assistant with a fixed one, concerning its usability and contribution to health literacy. Methods: We conducted a laboratory experiment in the Georgia Tech Aware Home wherein 28 older adults participated in a usability evaluation of the computer assistant, while engaged in scenarios reflecting normal and health-critical situations. We evaluated the assistant on effectiveness, efficiency, satisfaction, and educational value. Finally, we studied the moderating effects of the subjects' personal characteristics. Results: Logging self-care tasks and receiving feedback from the computer assistant enhanced the subjects' knowledge of diabetes. The adaptive assistant was more effective in dealing with normal and health-critical situations, and, generally, it led to more time efficiency. Subjects' personal characteristics had substantial effects on the effectiveness and efficiency of the two computer assistants. Conclusions: Older adults were able to use the adoptive computer assistant. In addition, it had a positive effect on the development of health literacy. The assistant has the potential to support older diabetics' self care while maintaining quality of life.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Access to Information; Age Factors; Aged; Aged, 80 and over; Aging; Chronic Disease; Computer Literacy; Diabetes Mellitus; Educational Status; Female; Health Education; Health Knowledge, Attitudes, Practice; Humans; Male; Middle Aged; Patient Satisfaction; Quality of Life; Self Care; Self-Help Devices; article; computer aided design; education; electronic medical record; feedback system; health service; home care; human; information technology; knowledge; medical specialist; non insulin dependent diabetes mellitus; priority journal; reading; self care</t>
+          <t>Access to Information; Age Factors; Aged; Aged;  80 and over; Aging; Chronic Disease; Computer Literacy; Diabetes Mellitus; Educational Status; Female; Health Education; Health Knowledge;  Attitudes;  Practice; Humans; Male; Middle Aged; Patient Satisfaction; Quality of Life; Self Care; Self-Help Devices; article; computer aided design; education; electronic medical record; feedback system; health service; home care; human; information technology; knowledge; medical specialist; non insulin dependent diabetes mellitus; priority journal; reading; self care</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -12250,23 +12978,23 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>82 – 88</t>
+          <t>82 - 88</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{BlansonHenkemans200882,
+          <t>@ARTICLE{BlansonHenkemans200882,
     author = "Blanson Henkemans, O.A. and Rogers, W.A. and Fisk, A.D. and Neerincx, M.A. and Lindenberg, J. and Van Der Mast, C.A.P.G.",
     title = "Usability of an adaptive computer assistant that improves self-care and health literacy of older adults",
     year = "2008",
     journal = "Methods of Information in Medicine",
     volume = "47",
     number = "1",
-    pages = "82 – 88",
+    pages = "82 - 88",
     doi = "10.3414/ME9105",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-38549095566\&amp;doi=10.3414\%2fME9105\&amp;partnerID=40\&amp;md5=30cbe7dd703824f9d1d89e22f4c8f570",
     affiliations = "Delft University of Technology, Delft, Netherlands; Georgia Institute of Technology, Atlanta, GA, United States; TNO, Netherlands Organisation for Applied Scientific Research, Delft, Netherlands; Office 10.100, 2628 CD, Delft, Mekelweg 4, Netherlands",
-    abstract = "Objectives: We developed an adaptive computer assistant for the supervision of diabetics' self-care, to support limiting illness and need for acute treatment, and improve health literacy. This assistant monitors self-care activities logged in the patient's electronic diary. Accordingly, it provides context-aware feedback. The objective was to evaluate whether older adults in general can make use of the computer assistant and to compare an adaptive computer assistant with a fixed one, concerning its usability and contribution to health literacy. Methods: We conducted a laboratory experiment in the Georgia Tech Aware Home wherein 28 older adults participated in a usability evaluation of the computer assistant, while engaged in scenarios reflecting normal and health-critical situations. We evaluated the assistant on effectiveness, efficiency, satisfaction, and educational value. Finally, we studied the moderating effects of the subjects' personal characteristics. Results: Logging self-care tasks and receiving feedback from the computer assistant enhanced the subjects' knowledge of diabetes. The adaptive assistant was more effective in dealing with normal and health-critical situations, and, generally, it led to more time efficiency. Subjects' personal characteristics had substantial effects on the effectiveness and efficiency of the two computer assistants. Conclusions: Older adults were able to use the adoptive computer assistant. In addition, it had a positive effect on the development of health literacy. The assistant has the potential to support older diabetics' self care while maintaining quality of life. © 2008 Schattauer GmbH.",
+    abstract = "Objectives: We developed an adaptive computer assistant for the supervision of diabetics' self-care, to support limiting illness and need for acute treatment, and improve health literacy. This assistant monitors self-care activities logged in the patient's electronic diary. Accordingly, it provides context-aware feedback. The objective was to evaluate whether older adults in general can make use of the computer assistant and to compare an adaptive computer assistant with a fixed one, concerning its usability and contribution to health literacy. Methods: We conducted a laboratory experiment in the Georgia Tech Aware Home wherein 28 older adults participated in a usability evaluation of the computer assistant, while engaged in scenarios reflecting normal and health-critical situations. We evaluated the assistant on effectiveness, efficiency, satisfaction, and educational value. Finally, we studied the moderating effects of the subjects' personal characteristics. Results: Logging self-care tasks and receiving feedback from the computer assistant enhanced the subjects' knowledge of diabetes. The adaptive assistant was more effective in dealing with normal and health-critical situations, and, generally, it led to more time efficiency. Subjects' personal characteristics had substantial effects on the effectiveness and efficiency of the two computer assistants. Conclusions: Older adults were able to use the adoptive computer assistant. In addition, it had a positive effect on the development of health literacy. The assistant has the potential to support older diabetics' self care while maintaining quality of life. (c) 2008 Schattauer GmbH.",
     author_keywords = "Adoptive computer assistance; Diabetes; Older adults; Self-care; Smart homes; Usability evaluation",
     keywords = "Access to Information; Age Factors; Aged; Aged, 80 and over; Aging; Chronic Disease; Computer Literacy; Diabetes Mellitus; Educational Status; Female; Health Education; Health Knowledge, Attitudes, Practice; Humans; Male; Middle Aged; Patient Satisfaction; Quality of Life; Self Care; Self-Help Devices; article; computer aided design; education; electronic medical record; feedback system; health service; home care; human; information technology; knowledge; medical specialist; non insulin dependent diabetes mellitus; priority journal; reading; self care",
     correspondence_address = "O.A. Blanson Henkemans; Office 10.100, 2628 CD, Delft, Mekelweg 4, Netherlands; email: O.A.BlansonHenkemans@TUDelft.nl",
@@ -12279,8 +13007,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 29; All Open Access, Green Open Access"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -12305,7 +13032,7 @@
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T111" t="inlineStr"/>
@@ -12316,7 +13043,7 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-38549095566&amp;doi=10.3414%2fME9105&amp;partnerID=40&amp;md5=30cbe7dd703824f9d1d89e22f4c8f570</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-38549095566&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=a5a5fb3bdc7653bab78dd6faadfcadd9&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28usability+of+an+adaptive+computer+assistant+that+improves+self+care+and+health+literacy+of+older+adults%29&amp;sl=118&amp;sessionSearchId=a5a5fb3bdc7653bab78dd6faadfcadd9&amp;relpos=0</t>
         </is>
       </c>
       <c r="W111" t="inlineStr"/>
@@ -12343,10 +13070,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Childhood obesity has now reached an alarming level among children. It affects one out of every ten children all over the world. While in Malaysia, overweight child is 38 percent of the child population. If it is not effectively curbed, childhood obesity will cause many problems. Previous studies have shown that parents are responsible for their children's well-being and their involvement is the most influential treatment to childhood obesity. With the advent of mobile technology, various mobile apps have been developed to manage people's daily lives. This paper elaborates on the development of the BMI monitor app, a mobile application which is intended to be used by parents to monitor their children's Body Mass Index (BMI). It uses the BMI Percentile method which is recommended by pediatricians worldwide. This app enables parents to store all the BMI records of the children and also provides advices to help parents to deal with the childhood obesity problems. This paper also discusses on the outcome of an evaluation that has been conducted among a sample of parents towards the use of the app. It is hoped that the use of the app will ease the parents in monitoring their children's BMI status and eventually formed them to be more responsible parents. © Serials Publications.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+          <t>Childhood obesity has now reached an alarming level among children. It affects one out of every ten children all over the world. While in Malaysia, overweight child is 38 percent of the child population. If it is not effectively curbed, childhood obesity will cause many problems. Previous studies have shown that parents are responsible for their children's well-being and their involvement is the most influential treatment to childhood obesity. With the advent of mobile technology, various mobile apps have been developed to manage people's daily lives. This paper elaborates on the development of the BMI monitor app, a mobile application which is intended to be used by parents to monitor their children's Body Mass Index (BMI). It uses the BMI Percentile method which is recommended by pediatricians worldwide. This app enables parents to store all the BMI records of the children and also provides advices to help parents to deal with the childhood obesity problems. This paper also discusses on the outcome of an evaluation that has been conducted among a sample of parents towards the use of the app. It is hoped that the use of the app will ease the parents in monitoring their children's BMI status and eventually formed them to be more responsible parents.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>BMI monitor;; Body Mass Index;; Childhood obesity;; Mobile healthcare;; Parents</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>Qasim, Mustafa Moosa; Zulkifli, Abdul Nasir; Ahmad, Mazida; Omar, Mazni; Abu Bakar, Juliana Aida</t>
@@ -12357,26 +13088,30 @@
           <t>Man in India</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84959017304&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=6661bf04ac0e47c4673654506217b4b1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28educating+parents+in+dealing+with+childhood+obesity+through+the+use+of+the+bmi+monitor+app%29&amp;sl=105&amp;sessionSearchId=6661bf04ac0e47c4673654506217b4b1&amp;relpos=0</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>367 – 376</t>
+          <t>367 - 376</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ARTICLE{Qasim2016367,
+          <t>@ARTICLE{Qasim2016367,
     author = "Qasim, Mustafa Moosa and Zulkifli, Abdul Nasir and Ahmad, Mazida and Omar, Mazni and Abu Bakar, Juliana Aida",
     title = "Educating parents in dealing with childhood obesity through the use of the BMI monitor APP",
     year = "2016",
     journal = "Man in India",
     volume = "96",
     number = "1-2",
-    pages = "367 – 376",
+    pages = "367 - 376",
     url = "https://www.scopus.com/inward/record.uri?eid=2-s2.0-84959017304\&amp;partnerID=40\&amp;md5=642020111c82979e47c36baa0f944674",
     affiliations = "School of Multimedia Technology and Communication, Universiti Utara Malaysia, Malaysia; School of Computing, Universiti Utara Malaysia, Malaysia",
-    abstract = "Childhood obesity has now reached an alarming level among children. It affects one out of every ten children all over the world. While in Malaysia, overweight child is 38 percent of the child population. If it is not effectively curbed, childhood obesity will cause many problems. Previous studies have shown that parents are responsible for their children's well-being and their involvement is the most influential treatment to childhood obesity. With the advent of mobile technology, various mobile apps have been developed to manage people's daily lives. This paper elaborates on the development of the BMI monitor app, a mobile application which is intended to be used by parents to monitor their children's Body Mass Index (BMI). It uses the BMI Percentile method which is recommended by pediatricians worldwide. This app enables parents to store all the BMI records of the children and also provides advices to help parents to deal with the childhood obesity problems. This paper also discusses on the outcome of an evaluation that has been conducted among a sample of parents towards the use of the app. It is hoped that the use of the app will ease the parents in monitoring their children's BMI status and eventually formed them to be more responsible parents. © Serials Publications.",
+    abstract = "Childhood obesity has now reached an alarming level among children. It affects one out of every ten children all over the world. While in Malaysia, overweight child is 38 percent of the child population. If it is not effectively curbed, childhood obesity will cause many problems. Previous studies have shown that parents are responsible for their children's well-being and their involvement is the most influential treatment to childhood obesity. With the advent of mobile technology, various mobile apps have been developed to manage people's daily lives. This paper elaborates on the development of the BMI monitor app, a mobile application which is intended to be used by parents to monitor their children's Body Mass Index (BMI). It uses the BMI Percentile method which is recommended by pediatricians worldwide. This app enables parents to store all the BMI records of the children and also provides advices to help parents to deal with the childhood obesity problems. This paper also discusses on the outcome of an evaluation that has been conducted among a sample of parents towards the use of the app. It is hoped that the use of the app will ease the parents in monitoring their children's BMI status and eventually formed them to be more responsible parents. (c) Serials Publications.",
     author_keywords = "BMI monitor; Body Mass Index; Childhood obesity; Mobile healthcare; Parents",
     publisher = "Serials Publications",
     issn = "00251569",
@@ -12386,8 +13121,7 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5"
-}
-</t>
+}</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -12412,7 +13146,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus Signed In</t>
         </is>
       </c>
       <c r="T112" t="inlineStr"/>
@@ -12423,7 +13157,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-84959017304&amp;partnerID=40&amp;md5=642020111c82979e47c36baa0f944674</t>
+          <t>https://www.scopus.com/record/display.uri?eid=2-s2.0-84959017304&amp;origin=resultslist&amp;sort=plf-f&amp;src=s&amp;sid=6661bf04ac0e47c4673654506217b4b1&amp;sot=b&amp;sdt=b&amp;s=TITLE-ABS-KEY%28educating+parents+in+dealing+with+childhood+obesity+through+the+use+of+the+bmi+monitor+app%29&amp;sl=105&amp;sessionSearchId=6661bf04ac0e47c4673654506217b4b1&amp;relpos=0</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
@@ -12433,7 +13167,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; DOI</t>
+          <t>nan; References</t>
         </is>
       </c>
     </row>
@@ -12464,7 +13198,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Sandro Hardy1,; Tim Dutz1,; Josef Wiemeyer2,; Stefan Göbel1&amp;; Ralf Steinmetz1</t>
+          <t>Sandro Hardy; Tim Dutz; Josef Wiemeyer; Stefan Gobel; Ralf Steinmetz</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -12479,9 +13213,9 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>citation_journal_title=Am J Prev Med; citation_title=Playing for real: video games and stories for health-related behavior change; citation_author=T Baranowski, R Buday, DI Thompson, J Baranowski; citation_volume=34; citation_publication_date=2008; citation_pages=74-82; citation_doi=10.1016/j.amepre.2007.09.027; citation_id=CR1; citation_title=Borg’s perceived exertion and pain scales; citation_publication_date=1998; citation_id=CR2; citation_author=G Borg; citation_publisher=Human Kinetics; Bös J, Brehm W (2006) Handbuch Gesundheitssport (2. Aufl.) [Handbook of health sport]. Schorndorf: Hofmann; citation_title=Ziele, Zielgruppen und Programme im Gesundheitssport [Goal, target groups, and programs in health sport]; citation_inbook_title=Fitness- und Gesundheitstraining - Wem nützt was?; citation_publication_date=2005; citation_pages=37-54; citation_id=CR4; citation_author=W Brehm; citation_publisher=Institute for Sport Sciences; citation_journal_title=Clin Kinesiol J Am Kinesiotherapy Assoc; citation_title=Comparison of efficacy between traditional and video game based balance programs; citation_author=KA Brumels, T Blasius, T Cortright, D Oumedian, B Solberg; citation_volume=62; citation_publication_date=2008; citation_pages=26-31; citation_id=CR5; Göbel S, Gutjahr M (2011) What makes a good serious game - conceptual approach towards a metadata format for the description and evaluation of Serious Games. Proc ECGBL 2011 5th Eur Conf Games Based Learn; Göbel S, Hardy S, Wendel V, Mehm F, Steinmetz R (2010) Serious games for health: personalized exergames. Proc Int Conf Multimed. ACM, New York, NY, USA, pp 1663–1666; citation_journal_title=Int J Comput Sci Sport; citation_title=Adaptation model for indoor Exergames; citation_author=S Hardy, S Göbel, M Gutjahr, J Wiemeyer, R Steinmetz; citation_volume=11; citation_publication_date=2012; citation_pages=73-85; citation_id=CR8; citation_journal_title=Circulation; citation_title=Physical activity and public health: updated recommendation for adults from the American College of Sports Medicine and the American Heart Association; citation_author=WL Haskell, I-M Lee, RR Pate, KE Powell, SN Blair, B Franklin, CA Macera, GW Heath, PD Thompson, A Bauman; citation_volume=116; citation_publication_date=2007; citation_pages=1081-1093; citation_doi=10.1161/CIRCULATIONAHA.107.185649; citation_id=CR9; Heitkamp H-C (2003) Steuerung des präventiven Ausdauertrainings [Control of preventive endurance training]. In: Jeschke D, R L (eds) Sport. Trainingssteuerung. Köln: Strauß, pp 161–167; Jung Y, Li KJ, Janissa NS, Gladys WLC, Lee KM (2009) Games for a better life: effects of playing Wii games on the well-being of seniors in a long-term care facility. In Proceedings of the Sixth Australasian Conference on Interactive Entertainment (IE '09). ACM, New York, 5:6. doi:
-                    10.1145/1746050.1746055; citation_journal_title=Pediatrics; citation_title=A video game improves behavioral outcomes in adolescents and young adults with cancer: a randomized trial; citation_author=PM Kato, SW Cole, AS Bradlyn, BH Pollock; citation_volume=122; citation_publication_date=2008; citation_pages=305-317; citation_doi=10.1542/peds.2007-3134; citation_id=CR12; citation_journal_title=Int J Comput Sci Sport; citation_title=Comparison of a traditional and a video game based balance training program; citation_author=A Kliem, J Wiemeyer; citation_volume=9; citation_publication_date=2010; citation_pages=80-91; citation_id=CR13; Korn O, Brach M, Hauer K, Unkauf S (2013) Exergames for elderly persons: physical exercise software based on motion tracking within the framework of ambient assisted living. Serious Games Virtual Worlds Educ Prof Dev Healthc. pp 258–268; citation_journal_title=Br J Sports Med; citation_title=Complex systems model of fatigue: integrative homoeostatic control of peripheral physiological system during exercise in humans; citation_author=EV Lambert, A St. Clair Gibson, TD Noakes; citation_volume=39; citation_publication_date=2005; citation_pages=52-62; citation_doi=10.1136/bjsm.2003.011247; citation_id=CR15; Mehm F (2010) Authoring Serious Games. In: Pisan Y (ed) Proc Fifth Int Conf Found Digit Games. ACM, New York, NY, USA, pp 271–273; Mehm F, Göbel S, Radke S, Steinmetz R (2009) Authoring Environment for Story-based Digital Educational Games. In: Kickmeier-Rust MD (ed) Proc 1st Int Open Work Intell Pers Adapt Digit Educ Games. pp 113–124; Mehm F, Hardy S, Göbel S, Steinmetz R (2011) Collaborative authoring of serious games for health. Proc Int Conf Multimed. ACM, New York, NY, USA, pp 807–808; Nacke L (2009) Affective Ludology: Scientific Measurement of User Experience in Interactive Entertainment, Blekinge Institute of Technology School of Computing. Blekinge Institute of Technology Doctoral Dissertation Series, 1653–2090; Opper E, Brehm W, Saam J (2006) Zielgruppenspezifische Interventionen: Gesundheitsprogramme [Interventions specific for target groups: Health programs]. In: Bös K, Brehm W (eds) Schorndorf: Hofmann, pp 154–166; Pfeifer K (2005) Qualitätsmanagement im Fitness- und Gesundheitssport [Qualitiy assurance in fitness and health sport]. In: Wiemeyer J, Singer R (eds) Institute for Sport Sciences, Darmstadt, pp 21–35; citation_journal_title=Off J Am Soc Exerc Physiol; citation_title=The surprising history of the “HRmax=220-age” equation; citation_author=RA Robergs, R Landwehr; citation_volume=5; citation_publication_date=2002; citation_pages=1-10; citation_id=CR22; Roth K (1998) Wie verbessert man koordinative Fähigkeiten? Bielefelder Sport. Methoden im Sport; Sinclair J, Hingston P, Masek M (2007) Considerations for the design of exergames. Proc 5th Int Conf Comput Graph Interact Tech Aust Southeast Asia. ACM, New York, NY, USA, pp 289–295; Sinclair J, Hingston P, Masek M (2009) Exergame development using the dual flow model. Proc Sixth Australas Conf Interact Entertain - IE’09 1–7. doi:
-                    10.1145/1746050.1746061; citation_title=Frame games; citation_publication_date=1980; citation_id=CR26; citation_author=HD Stolovitch; citation_author=S Thiagarajan; citation_publisher=Educational Technology; citation_journal_title=Technology; citation_title=GameFlow : a model for evaluating player enjoyment in games; citation_author=P Sweetser, P Wyeth; citation_volume=3; citation_publication_date=2005; citation_pages=1-24; citation_id=CR27; citation_journal_title=Dtsch Z Sportmed; citation_title=Gesundheitssport - Effekte und deren Nachhaltigkeit bei unterschiedlichem Energieverbrauch [Health-related physical exercise – effects and their sustainability depending on different energy expenditure]; citation_author=R Sygusch, P Wagner, A Janke, W Brehm; citation_volume=56; citation_publication_date=2005; citation_pages=318-326; citation_id=CR28; citation_journal_title=J Am Coll Cardiol; citation_title=Age-predicted maximal heart rate revisited; citation_author=H Tanaka, KD Monahan, DR Seals; citation_volume=37; citation_publication_date=2001; citation_pages=153-156; citation_doi=10.1016/S0735-1097(00)01054-8; citation_id=CR29; Weineck J (2000) Optimales Training [Optimal Training]. Spitta Verlag GmbH &amp; Co. KG; World Health Organization (2009) Global Recommendations on physical activity for health</t>
+          <t>citation_journal_title=Am J Prev Med; citation_title=Playing for real: video games and stories for health-related behavior change; citation_author=T Baranowski, R Buday, DI Thompson, J Baranowski; citation_volume=34; citation_publication_date=2008; citation_pages=74-82; citation_doi=10.1016/j.amepre.2007.09.027; citation_id=CR1; citation_title=Borg's perceived exertion and pain scales; citation_publication_date=1998; citation_id=CR2; citation_author=G Borg; citation_publisher=Human Kinetics; Bos J, Brehm W (2006) Handbuch Gesundheitssport (2. Aufl.) [Handbook of health sport]. Schorndorf: Hofmann; citation_title=Ziele, Zielgruppen und Programme im Gesundheitssport [Goal, target groups, and programs in health sport]; citation_inbook_title=Fitness- und Gesundheitstraining - Wem nutzt was?; citation_publication_date=2005; citation_pages=37-54; citation_id=CR4; citation_author=W Brehm; citation_publisher=Institute for Sport Sciences; citation_journal_title=Clin Kinesiol J Am Kinesiotherapy Assoc; citation_title=Comparison of efficacy between traditional and video game based balance programs; citation_author=KA Brumels, T Blasius, T Cortright, D Oumedian, B Solberg; citation_volume=62; citation_publication_date=2008; citation_pages=26-31; citation_id=CR5; Gobel S, Gutjahr M (2011) What makes a good serious game - conceptual approach towards a metadata format for the description and evaluation of Serious Games. Proc ECGBL 2011 5th Eur Conf Games Based Learn; Gobel S, Hardy S, Wendel V, Mehm F, Steinmetz R (2010) Serious games for health: personalized exergames. Proc Int Conf Multimed. ACM, New York, NY, USA, pp 1663-1666; citation_journal_title=Int J Comput Sci Sport; citation_title=Adaptation model for indoor Exergames; citation_author=S Hardy, S Gobel, M Gutjahr, J Wiemeyer, R Steinmetz; citation_volume=11; citation_publication_date=2012; citation_pages=73-85; citation_id=CR8; citation_journal_title=Circulation; citation_title=Physical activity and public health: updated recommendation for adults from the American College of Sports Medicine and the American Heart Association; citation_author=WL Haskell, I-M Lee, RR Pate, KE Powell, SN Blair, B Franklin, CA Macera, GW Heath, PD Thompson, A Bauman; citation_volume=116; citation_publication_date=2007; citation_pages=1081-1093; citation_doi=10.1161/CIRCULATIONAHA.107.185649; citation_id=CR9; Heitkamp H-C (2003) Steuerung des praventiven Ausdauertrainings [Control of preventive endurance training]. In: Jeschke D, R L (eds) Sport. Trainingssteuerung. Koln: Strauss, pp 161-167; Jung Y, Li KJ, Janissa NS, Gladys WLC, Lee KM (2009) Games for a better life: effects of playing Wii games on the well-being of seniors in a long-term care facility. In Proceedings of the Sixth Australasian Conference on Interactive Entertainment (IE '09). ACM, New York, 5:6. doi:
+                    10.1145/1746050.1746055; citation_journal_title=Pediatrics; citation_title=A video game improves behavioral outcomes in adolescents and young adults with cancer: a randomized trial; citation_author=PM Kato, SW Cole, AS Bradlyn, BH Pollock; citation_volume=122; citation_publication_date=2008; citation_pages=305-317; citation_doi=10.1542/peds.2007-3134; citation_id=CR12; citation_journal_title=Int J Comput Sci Sport; citation_title=Comparison of a traditional and a video game based balance training program; citation_author=A Kliem, J Wiemeyer; citation_volume=9; citation_publication_date=2010; citation_pages=80-91; citation_id=CR13; Korn O, Brach M, Hauer K, Unkauf S (2013) Exergames for elderly persons: physical exercise software based on motion tracking within the framework of ambient assisted living. Serious Games Virtual Worlds Educ Prof Dev Healthc. pp 258-268; citation_journal_title=Br J Sports Med; citation_title=Complex systems model of fatigue: integrative homoeostatic control of peripheral physiological system during exercise in humans; citation_author=EV Lambert, A St. Clair Gibson, TD Noakes; citation_volume=39; citation_publication_date=2005; citation_pages=52-62; citation_doi=10.1136/bjsm.2003.011247; citation_id=CR15; Mehm F (2010) Authoring Serious Games. In: Pisan Y (ed) Proc Fifth Int Conf Found Digit Games. ACM, New York, NY, USA, pp 271-273; Mehm F, Gobel S, Radke S, Steinmetz R (2009) Authoring Environment for Story-based Digital Educational Games. In: Kickmeier-Rust MD (ed) Proc 1st Int Open Work Intell Pers Adapt Digit Educ Games. pp 113-124; Mehm F, Hardy S, Gobel S, Steinmetz R (2011) Collaborative authoring of serious games for health. Proc Int Conf Multimed. ACM, New York, NY, USA, pp 807-808; Nacke L (2009) Affective Ludology: Scientific Measurement of User Experience in Interactive Entertainment, Blekinge Institute of Technology School of Computing. Blekinge Institute of Technology Doctoral Dissertation Series, 1653-2090; Opper E, Brehm W, Saam J (2006) Zielgruppenspezifische Interventionen: Gesundheitsprogramme [Interventions specific for target groups: Health programs]. In: Bos K, Brehm W (eds) Schorndorf: Hofmann, pp 154-166; Pfeifer K (2005) Qualitatsmanagement im Fitness- und Gesundheitssport [Qualitiy assurance in fitness and health sport]. In: Wiemeyer J, Singer R (eds) Institute for Sport Sciences, Darmstadt, pp 21-35; citation_journal_title=Off J Am Soc Exerc Physiol; citation_title=The surprising history of the; Roth K (1998) Wie verbessert man koordinative Fahigkeiten? Bielefelder Sport. Methoden im Sport; Sinclair J, Hingston P, Masek M (2007) Considerations for the design of exergames. Proc 5th Int Conf Comput Graph Interact Tech Aust Southeast Asia. ACM, New York, NY, USA, pp 289-295; Sinclair J, Hingston P, Masek M (2009) Exergame development using the dual flow model. Proc Sixth Australas Conf Interact Entertain - IE'09 1-7. doi:
+                    10.1145/1746050.1746061; citation_title=Frame games; citation_publication_date=1980; citation_id=CR26; citation_author=HD Stolovitch; citation_author=S Thiagarajan; citation_publisher=Educational Technology; citation_journal_title=Technology; citation_title=GameFlow : a model for evaluating player enjoyment in games; citation_author=P Sweetser, P Wyeth; citation_volume=3; citation_publication_date=2005; citation_pages=1-24; citation_id=CR27; citation_journal_title=Dtsch Z Sportmed; citation_title=Gesundheitssport - Effekte und deren Nachhaltigkeit bei unterschiedlichem Energieverbrauch [Health-related physical exercise - effects and their sustainability depending on different energy expenditure]; citation_author=R Sygusch, P Wagner, A Janke, W Brehm; citation_volume=56; citation_publication_date=2005; citation_pages=318-326; citation_id=CR28; citation_journal_title=J Am Coll Cardiol; citation_title=Age-predicted maximal heart rate revisited; citation_author=H Tanaka, KD Monahan, DR Seals; citation_volume=37; citation_publication_date=2001; citation_pages=153-156; citation_doi=10.1016/S0735-1097(00)01054-8; citation_id=CR29; Weineck J (2000) Optimales Training [Optimal Training]. Spitta Verlag GmbH &amp; Co. KG; World Health Organization (2009) Global Recommendations on physical activity for health</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -12513,7 +13247,11 @@
           <t>Framework for personalized and adaptive game-based training programs in health spor</t>
         </is>
       </c>
-      <c r="V113" t="inlineStr"/>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11042-014-2009-z</t>
+        </is>
+      </c>
       <c r="W113" t="inlineStr">
         <is>
           <t>Springer Link</t>
@@ -12545,10 +13283,14 @@
           <t>Personal, mobile displays, such as those on mobile phones, are ubiquitous, yet for the most part, underutilized. We present results from a field experiment that investigated the effectiveness of these displays as a means for improving awareness of daily life (in our case, self-monitoring of physical activity). Twenty-eight participants in three experimental conditions used our UbiFit system for a period of three months in their day-to-day lives over the winter holiday season. Our results show, for example, that participants who had an awareness display were able to maintain their physical activity level (even during the holidays), while the level of physical activity for participants who did not have an awareness display dropped significantly. We discuss our results and their general implications for the use of everyday mobile devices as awareness displays.</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ambient display; awareness; calm technology; field experiment; fitness; glanceable display; mobile phone; personal mobile display; persuasive technology; physical activity</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>SunnyConsolvo; PredragKlasnja; David W.McDonald; DanielAvrahami; JonFroehlich; LouisLeGrand; RyanLibby; KeithMosher; James A.Landay</t>
+          <t>Sunny Consolvo; Predrag Klasnja; David W. McDonald; Daniel Avrahami; Jon Froehlich; Louis LeGrand; Ryan Libby; Keith Mosher; James A. Landay</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -12564,7 +13306,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>4-63</t>
+          <t>54-63</t>
         </is>
       </c>
       <c r="L114" t="inlineStr"/>
@@ -12595,7 +13337,11 @@
           <t>Flowers or a robot army? (encouraging awareness and activity with personal, mobile displays</t>
         </is>
       </c>
-      <c r="V114" t="inlineStr"/>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/1409635.1409644</t>
+        </is>
+      </c>
       <c r="W114" t="inlineStr">
         <is>
           <t>Association for Computing Machinery</t>
@@ -12603,7 +13349,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Year; Bibtex; Link</t>
+          <t>nan; References; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -12619,12 +13365,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Fish’n’Steps: Encouraging Physical Activity with an Interactive Computer Game</t>
+          <t>Fish'n'Steps: Encouraging Physical Activity with an Interactive Computer Game</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle is a contributing factor to chronic diseases, and it is often correlated with obesity. To promote an increase in physical activity, we created a social computer game, Fish’n’Steps, which links a player’s daily foot step count to the growth and activity of an animated virtual character, a fish in a fish tank. As further encouragement, some of the players’ fish tanks included other players’ fish, thereby creating an environment of both cooperation and competition. In a fourteen-week study with nineteen participants, the game served as a catalyst for promoting exercise and for improving game players’ attitudes towards physical activity. Furthermore, although most player’s enthusiasm in the game decreased after the game’s first two weeks, analyzing the results using Prochaska’s Transtheoretical Model of Behavioral Change suggests that individuals had, by that time, established new routines that led to healthier patterns of physical activity in their daily lives. Lessons learned from this study underscore the value of such games to encourage rather than provide negative reinforcement, especially when individuals are not meeting their own expectations, to foster long-term behavioral change.</t>
+          <t>A sedentary lifestyle is a contributing factor to chronic diseases, and it is often correlated with obesity. To promote an increase in physical activity, we created a social computer game, Fish'n'Steps, which links a player's daily foot step count to the growth and activity of an animated virtual character, a fish in a fish tank. As further encouragement, some of the players' fish tanks included other players' fish, thereby creating an environment of both cooperation and competition. In a fourteen-week study with nineteen participants, the game served as a catalyst for promoting exercise and for improving game players' attitudes towards physical activity. Furthermore, although most player's enthusiasm in the game decreased after the game's first two weeks, analyzing the results using Prochaska's Transtheoretical Model of Behavioral Change suggests that individuals had, by that time, established new routines that led to healthier patterns of physical activity in their daily lives. Lessons learned from this study underscore the value of such games to encourage rather than provide negative reinforcement, especially when individuals are not meeting their own expectations, to foster long-term behavioral change.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -12634,7 +13380,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>James J. Lin18,; Lena Mamykina18,; Silvia Lindtner18,; Gregory Delajoux18&amp;; Henry B. Strub18</t>
+          <t>James J. Lin; Lena Mamykina; Silvia Lindtner; Gregory Delajoux; Henry B. Strub</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -12650,7 +13396,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>pp 261–278</t>
+          <t>pp 261-278</t>
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
@@ -12681,7 +13427,11 @@
           <t>Fish’n’Steps: Encouraging Physical Activity with an Interactive Computer Gam</t>
         </is>
       </c>
-      <c r="V115" t="inlineStr"/>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/11853565_16</t>
+        </is>
+      </c>
       <c r="W115" t="inlineStr">
         <is>
           <t>Springer, Berlin, Heidelberg</t>

--- a/Datasets/ESM_2/ESM_2.xlsx
+++ b/Datasets/ESM_2/ESM_2.xlsx
@@ -3394,7 +3394,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>ScienceDirect</t>
+          <t>Science Direct</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>ScienceDirect</t>
+          <t>Science Direct</t>
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
@@ -9418,25 +9418,49 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Reducing cognitive impairment among dementia users through mobile application</t>
+          <t>Reducing Cognitive Impairment Among Dementia Users Through Mobile Application</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Cognitive impairment includes the lacking ability to remember things, disorientation in remembering the current location, and the struggle to find the correct word. People with dementia (PwD) are often involved in this impairment. With that being said, this project proposes the use of a mobile application to help in improving their cognitive issues. To tackle this problem, features and functionality of a mobile application specifically for dementia users are identified which contributes to the development of a diary application. Identifying and gathering features from previous studies was the initial method. Development of the diary application followed the software development life cycle (SDLC) waterfall method and evaluation of the application was experimented with identified dementia users. The findings of this project are the application set of guidelines gathered from literature into the diary application. Four verified dementia people were involved in the evaluation of the effectiveness of the application. The evaluation of the application includes some good points. Some parts of the application are pointed out for their unsuitable design and suggestions are given to improve the application in the later future.,” vol. 29, no. 2, pp. 863–883, 2021, doi: 10.47836/pjst.29.2.09.</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>Cognitive impairment includes the lacking ability to remember things, disorientation in remembering the current location, and the struggle to find the correct word. People with dementia (PwD) are often involved in this impairment. With that being said, this project proposes the use of a mobile application to help in improving their cognitive issues. To tackle this problem, features and functionality of a mobile application specifically for dementia users are identified which contributes to the development of a diary application. Identifying and gathering features from previous studies was the initial method. Development of the diary application followed the software development life cycle (SDLC) waterfall method and evaluation of the application was experimented with identified dementia users. The findings of this project are the application set of guidelines gathered from literature into the diary application. Four verified dementia people were involved in the evaluation of the effectiveness of the application. The evaluation of the application includes some good points. Some parts of the application are pointed out for their unsuitable design and suggestions are given to improve the application in the later future.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>N. A. M. Hassan, A. Baharum, Z. H. A. Sani, K. Chau, and N. A. M. Noor,</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+          <t>N. A. M. Hassan; A. Baharum; Z. H. A. Sani; K. Chau; N. A. M. Noor</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Pertanika J. Sci. &amp; Technol. 29 (2): 863 - 883 (2021)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr">
         <is>
           <t>Included</t>
@@ -9461,11 +9485,27 @@
       <c r="R79" t="n">
         <v>2</v>
       </c>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Reducing cognitive impairment among dementia users through mobile application</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
       <c r="X79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -9541,7 +9581,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
@@ -10221,7 +10261,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
@@ -10377,25 +10417,49 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Serious Games and Rehabilitation for Elderly Adults</t>
+          <t>SERIOUS GAMES AND REHABILITATION FOR ELDERLY ADULTS</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Healthcare is continually being improved, especially regarding the use of the current technologies. In the field of rehabilitation, the use of serious games and related technologies may help to develop new rehabilitation procedures. There are several approaches in the area of rehabilitation that invoke technology for a more comprehensive and dynamic learning process aimed at the physical and psychological recovery of persons with a disability or limitations, with a view to their possible recovery and reintegration. This contribution presents research on systems for rehabilitation, focusing on the elderly, based on exercises and serious games. It provides an overview of the state of the art, in order to support and guide future work in this area.,” vol. 6, no. 1, pp. 275–283, 2018, [Online]. Available: http://www.globalscientificjournal.com/researchpaper/Serious-Games-and-Rehabilitation-for-Elderly-Adults.pdf%0Awww.globalscientificjournal.com</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>Healthcare is continually being improved, especially regarding the use of the current technologies. In the field of rehabilitation, the use of serious games and related technologies may help to develop new rehabilitation procedures. There are several approaches in the area of rehabilitation that invoke technology for a more comprehensive and dynamic learning process aimed at the physical and psychological recovery of persons with a disability or limitations, with a view to their possible recovery and reintegration. This contribution presents research on systems for rehabilitation, focusing on the elderly, based on exercises and serious games. It provides an overview of the state of the art, in order to support and guide future work in this area.,aEUR vol. 6, no. 1, pp. 275-283, 2018, [Online]. Available: http://www.globalscientificjournal.com/researchpaper/Serious-Games-and-Rehabilitation-for-Elderly-Adults.pdf%0Awww.globalscientificjournal.com</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>H. Barbosa, A. V Castro, and E. Carrapatoso,</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>H. Barbosa; A. V Castro; E. Carrapatoso,</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>GSJ: Volume 6, Issue 1, January 2018</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -10420,11 +10484,27 @@
       <c r="R88" t="n">
         <v>2</v>
       </c>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Serious Games and Rehabilitation for Elderly Adults</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="X88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -12249,25 +12329,49 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Personalized gamification to enhance implementation of eHealth therapy in youth mental healthcare Personalized gamification to enhance implementation of eHealth therapy in youth mental healthcare</t>
+          <t>Personalized gamification to enhance implementation of eHealth therapy in youth mental healthcare</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>This dissertation focused on the added value of personalized gamification as a factor to enhance implementation potential of eHealth interventions in youth mental healthcare. Mental health disorders are the leading cause of disability in adolescents. It is important for these adolescents to go into therapy, as adolescence is a period in live in which essential developments occur on which mental health disorders have a negative impact. Although psychosocial therapies are effective in reducing psychiatric symptoms in adolescents with mental disorders, there is still room for improvement. For example, because of premature termination of treatment, poor attendance of treatment‐sessions and a low or non‐adherence to homework assignments...” Delft University of Technology, 2020.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+          <t>This dissertation focused on the added value of personalized gamification as a factor to enhance implementation potential of eHealth interventions in youth mental healthcare. Mental health disorders are the leading cause of disability in adolescents. It is important for these adolescents to go into therapy, as adolescence is a period in live in which essential developments occur on which mental health disorders have a negative impact. Although psychosocial therapies are effective in reducing psychiatric symptoms in adolescents with mental disorders, there is still room for improvement. For example, because of premature termination of treatment, poor attendance of treatment?sessions and a low or non?adherence to homework assignments...</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>V. Dooren,</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+          <t>van Dooren, M.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Delft University of Technology, 2020.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -12292,11 +12396,27 @@
       <c r="R104" t="n">
         <v>2</v>
       </c>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
       <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Personalized gamification to enhance implementation of eHealth therapy in youth mental healthcare Personalized gamification to enhance implementation of eHealth therapy in youth mental healthcare</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>TUDelft</t>
+        </is>
+      </c>
       <c r="X104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -12889,25 +13009,67 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Development of a Mobile Application Using Augmentative and Alternative Communication and Video Modelling for Autistic Children.</t>
+          <t>Development of a Mobile Application Using Augmentative and Alternative Communication and Video Modelling for Autistic Children</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Purpose: The aim of this project is to report on a mobile application which has integrated Augmented and Alternative Communication and video modeling approaches. A usability testing has been conducted on the developed application. Design/methodology/approach: The authors have developed a mobile application, AutiAct. In order to do so, an interview has been conducted with teachers. Observations have been made with 4 ASD children aged 7 to 12 years, each of whom has different types of severity, while usability tests and interview questions have been conducted with 3 teachers from the National Autism Society of Malaysia (NASOM) to test the effectiveness of AutiAct. Findings: A mobile application, AutiAct, has been developed through the introduction of video modeling and Augmentative Alternative Communication approaches to assist autistic children in their everyday routine. The procedure in the application is simple and can be followed step by step for autistic children. Based on the testing, all the respondents have 100% agreed that AutiAct is an appropriate tool to assist and enhance autism children with their daily life skills. Results also have shown that video modelling and AAC are an important tool to be used to improve the abilities of autistic children. Practical implications: Results have shown that AutiAct is reliable to help autistic children improve their independent skills so that they will depend less on their parents as they grow older and that it also embeds a character building for autistic children to help them shape their personality and characteristics. [ABSTRACT FROM AUTHOR],” vol. 12, no. 4, pp. 1–11, 2020, [Online]. Available: http://search.ebscohost.com/login.aspx?direct=true&amp;db=bth&amp;AN=147933777&amp;site=ehost-live</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>Purpose: The aim of this project is to report on a mobile application which has integrated
+Augmented and Alternative Communication and video modeling approaches. A usability
+testing has been conducted on the developed application.
+Design/methodology/approach: The authors have developed a mobile application, AutiAct.
+In order to do so, an interview has been conducted with teachers. Observations have been made
+with 4 ASD children aged 7 to 12 years, each of whom has different types of severity, while
+usability tests and interview questions have been conducted with 3 teachers from the National
+Autism Society of Malaysia (NASOM) to test the effectiveness of AutiAct.
+Findings: A mobile application, AutiAct, has been developed through the introduction of video
+modeling and Augmentative Alternative Communication approaches to assist autistic children
+in their everyday routine. The procedure in the application is simple and can be followed step
+by step for autistic children. Based on the testing, all the respondents have 100% agreed that
+AutiAct is an appropriate tool to assist and enhance autism children with their daily life skills.
+Results also have shown that video modelling and AAC are an important tool to be used to
+improve the abilities of autistic children.
+Practical implications: Results have shown that AutiAct is reliable to help autistic children
+improve their independent skills so that they will depend less on their parents as they grow
+older and that it also embeds a character building for autistic children to help them shape their
+personality and characteristics.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Mobile application; Augmented and Alternative Communication; Video Modeling; Autistic Children</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>W. F. W. Ahmad and N. A. B. Zulkharnain,</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Global Business and Management Research: An International Journal, Vol. 12, No. 4 (2020)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr">
         <is>
           <t>Excluded</t>
@@ -12928,11 +13090,27 @@
       <c r="R110" t="n">
         <v>2</v>
       </c>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Google Scholar</t>
+        </is>
+      </c>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Development of a Mobile Application Using Augmentative and Alternative Communication and Video Modelling for Autistic Children.</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>GBMR</t>
+        </is>
+      </c>
       <c r="X110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -13238,7 +13416,7 @@
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T113" t="inlineStr"/>
@@ -13418,7 +13596,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>SpringerLink</t>
+          <t>Springer Link</t>
         </is>
       </c>
       <c r="T115" t="inlineStr"/>

--- a/Datasets/ESM_2/ESM_2.xlsx
+++ b/Datasets/ESM_2/ESM_2.xlsx
@@ -9443,7 +9443,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://doi.org/10.47836/pjst.29.2.09</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://doi.org/10.47836/pjst.29.2.09</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://d1wqtxts1xzle7.cloudfront.net/55733329/Serious-Games-and-Rehabilitation-for-Elderly-Adults-libre.pdf?1517950916=&amp;response-content-disposition=inline%3B+filename%3DSerious_Games_and_Rehabilitation_for_Eld.pdf&amp;Expires=1724342329&amp;Signature=N7v31RMY-LtJ8xsDmfUcrRvzsGNcs3ntxMKp8wE1q1y~MjANsiwbrpLGOUsoKys00VmxR0JipLyyV2xqt-PVWfraSsv8iz4WzhR4WOJu2tRU6Cbmm3o3Efk65s0Ox14egigT0GUctyjxD7g4oyleIWPpXITqxCuaUFFQBepBNxGr5ZyI-09dkEmqT8AwNiH1pbVBczN3FHeHWgA9KMOxl4C7QdAFaKhyCDuCC1FcdYYwaSDsURSRzHGvoGpZ~5Lr1xB9p4F2O7UMscz24a0LNc7cshcI4SVjrBO-ITsUKR2NStURJdjTCSNJd-v--f3uLWpDL8760Syt335cJc0www__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://d1wqtxts1xzle7.cloudfront.net/55733329/Serious-Games-and-Rehabilitation-for-Elderly-Adults-libre.pdf?1517950916=&amp;response-content-disposition=inline%3B+filename%3DSerious_Games_and_Rehabilitation_for_Eld.pdf&amp;Expires=1724342329&amp;Signature=N7v31RMY-LtJ8xsDmfUcrRvzsGNcs3ntxMKp8wE1q1y~MjANsiwbrpLGOUsoKys00VmxR0JipLyyV2xqt-PVWfraSsv8iz4WzhR4WOJu2tRU6Cbmm3o3Efk65s0Ox14egigT0GUctyjxD7g4oyleIWPpXITqxCuaUFFQBepBNxGr5ZyI-09dkEmqT8AwNiH1pbVBczN3FHeHWgA9KMOxl4C7QdAFaKhyCDuCC1FcdYYwaSDsURSRzHGvoGpZ~5Lr1xB9p4F2O7UMscz24a0LNc7cshcI4SVjrBO-ITsUKR2NStURJdjTCSNJd-v--f3uLWpDL8760Syt335cJc0www__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://repository.tudelft.nl/record/uuid:9a8d3973-f5b5-4812-97ed-27e5c14afc34</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -12409,7 +12409,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>https://repository.tudelft.nl/record/uuid:9a8d3973-f5b5-4812-97ed-27e5c14afc34</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>http://www.gbmrjournal.com/pdf/v12n4/V12N4-1.pdf</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>http://www.gbmrjournal.com/pdf/v12n4/V12N4-1.pdf</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">

--- a/Datasets/ESM_2/ESM_2.xlsx
+++ b/Datasets/ESM_2/ESM_2.xlsx
@@ -598,7 +598,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/2470654.2481341,
+          <t>"@inproceedings{10.1145/2470654.2481341,
     author = "Orji, Rita and Mandryk, Regan L. and Vassileva, Julita and Gerling, Kathrin M.",
     title = "Tailoring persuasive health games to gamer type",
     year = "2013",
@@ -614,7 +614,8 @@
     keywords = "behavior theory, gamer types, games design, hbm, health, persuasive game, player typology, serious games",
     location = "Paris, France",
     series = "CHI '13"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -685,7 +686,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abstract:Poor lifestyle represents a health risk factor and is the leading cause of morbidity and chronic conditions. The impact of poor lifestyle can be significantly altered by individual behavior change. Although the current shift in healthcare towards a long lasting modifiable behavior, however, with increasing caregiver workload and individuals' continuous needs of care, there is a need to ease caregiver's work while ensuring continuous interaction with users. This paper describes the design and validation of CoachAI, a conversational agent assisted health coaching system to support health intervention delivery to individuals and groups. CoachAI instantiates a text based healthcare chatbot system that bridges the remote human coach and the users. This research provides three main contributions to the preventive healthcare and healthy lifestyle promotion: (1) it presents the conversational agent to aid the caregiver; (2) it aims to decrease caregiver's workload and enhance care given to users, by handling (automating) repetitive caregiver tasks; and (3) it presents a domain independent mobile health conversational agent for health intervention delivery. We will discuss our approach and analyze the results of a one month validation study on physical activity, healthy diet and stress management.</t>
+          <t>Poor lifestyle represents a health risk factor and is the leading cause of morbidity and chronic conditions. The impact of poor lifestyle can be significantly altered by individual behavior change. Although the current shift in healthcare towards a long lasting modifiable behavior, however, with increasing caregiver workload and individuals' continuous needs of care, there is a need to ease caregiver's work while ensuring continuous interaction with users. This paper describes the design and validation of CoachAI, a conversational agent assisted health coaching system to support health intervention delivery to individuals and groups. CoachAI instantiates a text based healthcare chatbot system that bridges the remote human coach and the users. This research provides three main contributions to the preventive healthcare and healthy lifestyle promotion: (1) it presents the conversational agent to aid the caregiver; (2) it aims to decrease caregiver's workload and enhance care given to users, by handling (automating) repetitive caregiver tasks; and (3) it presents a domain independent mobile health conversational agent for health intervention delivery. We will discuss our approach and analyze the results of a one month validation study on physical activity, healthy diet and stress management.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -747,10 +748,14 @@
           <t>https://doi.org/10.48550/arXiv.1904.11961</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
+          <t>nan; Keywords; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -771,7 +776,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abstract:Delivery of digital behaviour change interventions which encourage physical activity has been tried in many forms. Most often interventions are delivered as text notifications, but these do not promote interaction. Advances in conversational AI have improved natural language understanding and generation, allowing AI chatbots to provide an engaging experience with the user. For this reason, chatbots have recently been seen in healthcare delivering digital interventions through free text or choice selection. In this work, we explore the use of voice-based AI chatbots as a novel mode of intervention delivery, specifically targeting older adults to encourage physical activity. We co-created "FitChat", an AI chatbot, with older adults and we evaluate the first prototype using Think Aloud Sessions. Our thematic evaluation suggests that older adults prefer voice-based chat over text notifications or free text entry and that voice is a powerful mode for encouraging motivation.</t>
+          <t>Delivery of digital behaviour change interventions which encourage physical activity has been tried in many forms. Most often interventions are delivered as text notifications, but these do not promote interaction. Advances in conversational AI have improved natural language understanding and generation, allowing AI chatbots to provide an engaging experience with the user. For this reason, chatbots have recently been seen in healthcare delivering digital interventions through free text or choice selection. In this work, we explore the use of voice-based AI chatbots as a novel mode of intervention delivery, specifically targeting older adults to encourage physical activity. We co-created "FitChat", an AI chatbot, with older adults and we evaluate the first prototype using Think Aloud Sessions. Our thematic evaluation suggests that older adults prefer voice-based chat over text notifications or free text entry and that voice is a powerful mode for encouraging motivation.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -833,10 +838,14 @@
           <t>https://doi.org/10.48550/arXiv.2004.14067</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>arXiv</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>nan; Keywords; References; Pages; Year; Bibtex; Link; Publisher</t>
+          <t>nan; Keywords; References; Pages; Year; Bibtex; Link</t>
         </is>
       </c>
     </row>
@@ -888,7 +897,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>@ARTICLE{Fadhil20199,
+          <t>"@ARTICLE{Fadhil20199,
     author = "Fadhil, Ahmed and Wang, Yunlong and Reiterer, Harald",
     title = "Assistive Conversational Agent for Health Coaching: A Validation Study",
     year = "2019",
@@ -913,7 +922,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 55; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1015,7 +1025,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>@ARTICLE{Liu200869,
+          <t>"@ARTICLE{Liu200869,
     author = "Liu, Alan L. and Hile, Harlan and Kautz, Henry and Borriello, Gaetano and Brown, Pat A. and Harniss, Mark and Johnson, Kurt",
     title = "Indoor wayfinding: Developing a functional interface for individuals with cognitive impairments",
     year = "2008",
@@ -1038,7 +1048,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 51"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1143,7 +1154,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Chen2019208,
+          <t>"@CONFERENCE{Chen2019208,
     author = "Chen, Cong and Chander, Ajay and Uchino, Kanji",
     title = "Guided play: Digital sensing and coaching for stereotypical play behavior in children with autism",
     year = "2019",
@@ -1163,7 +1174,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 3; Conference name: 24th ACM International Conference on Intelligent User Interfaces, IUI 2019; Conference date: 17 March 2019 through 20 March 2019; Conference code: 147615"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1284,7 +1296,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>@ARTICLE{Orji20131211,
+          <t>"@ARTICLE{Orji20131211,
     author = "Orji, Rita and Vassileva, Julita and Mandryk, Regan L.",
     title = "LunchTime: A slow-casual game for long-term dietary behavior change",
     year = "2013",
@@ -1306,7 +1318,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 136"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1405,7 +1418,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Orji20171015,
+          <t>"@CONFERENCE{Orji20171015,
     author = "Orji, Rita and Nacke, Lennart E. and Di Marco, Chrysanne",
     title = "Towards personality-driven persuasive health games and gamified systems",
     year = "2017",
@@ -1426,7 +1439,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 206; Conference name: 2017 ACM SIGCHI Conference on Human Factors in Computing Systems, CHI 2017; Conference date: 6 May 2017 through 11 May 2017; Conference code: 127654"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1528,7 +1542,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Orji2018,
+          <t>"@CONFERENCE{Orji2018,
     author = "Orji, Rita and Tondello, Gustavo F. and Nacke, Lennart E.",
     title = "Personalizing persuasive strategies in gameful systems to gamification user types",
     year = "2018",
@@ -1548,7 +1562,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 138; Conference name: 2018 CHI Conference on Human Factors in Computing Systems, CHI 2018; Conference date: 21 April 2018 through 26 April 2018; Conference code: 135975; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1650,7 +1665,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Caro2018,
+          <t>"@CONFERENCE{Caro2018,
     author = "Caro, Karina and Feng, Yuanyuan and Day, Timothy and Freed, Evan and Fox, Boyd and Zhu, Jichen",
     editor = "N., Minsky and V., Osmani",
     title = "Understanding the effect of existing positive relationships on a social motion-based game for health",
@@ -1671,7 +1686,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 10; Conference name: 12th EAI International Conference on Pervasive Computing Technologies for Healthcare, PervasiveHealth 2018; Conference date: 21 May 2018 through 24 May 2018; Conference code: 265849"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1769,7 +1785,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>@ARTICLE{Birk2019,
+          <t>"@ARTICLE{Birk2019,
     author = "Birk, Max Valentin and Mandryk, Regan Lee",
     title = "Improving the efficacy of cognitive training for digital mental health interventions through avatar customization: Crowdsourced quasi-experimental study",
     year = "2019",
@@ -1792,7 +1808,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 43; All Open Access, Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1890,7 +1907,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>@ARTICLE{Zhao2020,
+          <t>"@ARTICLE{Zhao2020,
     author = "Zhao, Zhao and Arya, Ali and Orji, Rita and Chan, Gerry",
     title = "Effects of a personalized fitness recommender system using gamification and continuous player modeling: System design and long-term validation study",
     year = "2020",
@@ -1911,7 +1928,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 34; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2010,7 +2028,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Oyebode2020,
+          <t>"@CONFERENCE{Oyebode2020,
     author = "Oyebode, Oladapo and Maurya, Devansh and Orji, Rita",
     editor = "N., Rodrigues and R., Smith and N., Dias and J.L., Vilaca and K., Qayumi and E., Oliveira and D., Duque",
     title = "Nourish Your Tree! Developing a Persuasive Exergame for Promoting Physical Activity among Adults",
@@ -2030,7 +2048,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 19; Conference name: 8th IEEE International Conference on Serious Games and Applications for Health, SeGAH 2020; Conference date: 12 August 2020 through 14 August 2020; Conference code: 163264"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2128,7 +2147,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>@ARTICLE{Alqahtani2023569,
+          <t>"@ARTICLE{Alqahtani2023569,
     author = "Alqahtani, Felwah and Orji, Rita and Riper, Heleen and McCleary, Nicola and Witteman, Holly and McGrath, Patrick",
     title = "Motivation-based approach for tailoring persuasive mental health applications",
     year = "2023",
@@ -2152,7 +2171,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2254,7 +2274,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Geurts2016135,
+          <t>"@CONFERENCE{Geurts2016135,
     author = "Geurts, Eva and Haesen, Mieke and Dendale, Paul and Luyten, Kris and Coninx, Karin",
     title = "Back on bike: The BoB mobile cycling app for secondary prevention in cardiac patients",
     year = "2016",
@@ -2274,7 +2294,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 9; Conference name: 18th International Conference on Human-Computer Interaction with Mobile Devices and Services, MobileHCI 2016; Conference date: 6 September 2016 through 9 September 2016; Conference code: 123722"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2380,7 +2401,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{7873054,
+          <t>"@INPROCEEDINGS{7873054,
     author = "Khan, Farzana Alam and Khan, Mohammad Ibrahim",
     booktitle = "2016 3rd International Conference on Electrical Engineering and Information Communication Technology (ICEEICT)",
     title = "Android based health care system for aged diabetic patients",
@@ -2393,7 +2414,8 @@
     doi = "10.1109/CEEICT.2016.7873054",
     ISSN = "",
     month = "Sep."
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2491,7 +2513,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Lv2010699,
+          <t>"@CONFERENCE{Lv2010699,
     author = "Lv, Ziyu and Xia, Feng and Wu, Guowei and Yao, Lin and Chen, Zhikui",
     title = "iCare: A mobile health monitoring system for the elderly",
     year = "2010",
@@ -2510,7 +2532,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 86; Conference name: 2010 IEEE/ACM International Conference on Green Computing and Communications, GreenCom 2010, 2010 IEEE/ACM International Conference on Cyber, Physical and Social Computing, CPSCom 2010; Conference date: 18 December 2010 through 20 December 2010; Conference code: 84392; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2604,7 +2627,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>@article{10.1145/3264917,
+          <t>"@article{10.1145/3264917,
     author = "Feustel, Clayton and Aggarwal, Shyamak and Lee, Bongshin and Wilcox, Lauren",
     title = "People Like Me: Designing for Reflection on Aggregate Cohort Data in Personal Informatics Systems",
     year = "2018",
@@ -2621,7 +2644,8 @@
     articleno = "107",
     numpages = "21",
     keywords = "Self-Reflection, Qualitative Study, Personal Informatics, Health and Wellness, Cohort Data"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2809,7 +2833,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Munoz2021,
+          <t>"@CONFERENCE{Munoz2021,
     author = "Munoz, Diego and Favilla, Stu and Pedell, Sonja",
     title = "Evaluating an app to promote a beter visit through shared activities for people living with dementia and their families",
     year = "2021",
@@ -2828,7 +2852,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 20; Conference name: 2021 CHI Conference on Human Factors in Computing Systems: Making Waves, Combining Strengths, CHI 2021; Conference date: 8 May 2021 through 13 May 2021; Conference code: 168790"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2926,7 +2951,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>@ARTICLE{Hassan2020180,
+          <t>"@ARTICLE{Hassan2020180,
     author = "Hassan, Ahmed and Pinkwart, Niels",
     title = "On the Adaptability and Applicability of Multi-touch User Interfaces Addressing Behavioral Interventions for Children with Autism",
     year = "2020",
@@ -2949,7 +2974,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 4; All Open Access, Green Open Access, Hybrid Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3051,7 +3077,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Zhao20151583,
+          <t>"@CONFERENCE{Zhao20151583,
     author = "Zhao, Jason Chen and Davis, Richard C. and Foong, Pin Sym and Zhao, Shengdong",
     title = "CoFacade: A customizable assistive approach for elders and their helpers",
     year = "2015",
@@ -3072,7 +3098,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5; Conference name: 33rd Annual CHI Conference on Human Factors in Computing Systems, CHI 2015; Conference date: 18 April 2015 through 23 April 2015; Conference code: 116824; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3170,7 +3197,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>@ARTICLE{Rincon2019,
+          <t>"@ARTICLE{Rincon2019,
     author = "Rincon, Jaime A. and Costa, Angelo and Carrascosa, Carlos and Novais, Paulo and Julian, Vicente",
     title = "Emerald--exercise monitoring emotional assistant",
     year = "2019",
@@ -3193,7 +3220,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 11; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3565,7 +3593,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Klompmaker2010106,
+          <t>"@CONFERENCE{Klompmaker2010106,
     author = "Klompmaker, Florian and Nebe, Karsten and Bleiker, Andreas and Busch, Clemens and Willemsen, Detlev",
     title = "User centered design of patient user interfaces for remote training supervision: A user study",
     year = "2010",
@@ -3584,7 +3612,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 1; Conference name: 3rd International Conference on Health Informatics, HEALTHINF 2010; Conference date: 20 January 2010 through 23 January 2010; Conference code: 81594"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3686,7 +3715,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{7737132,
+          <t>"@INPROCEEDINGS{7737132,
     author = "Mocanu, Irina and Marian, Cosmin and Rusu, Lucia and Arba, Raluca",
     booktitle = "2016 IEEE 12th International Conference on Intelligent Computer Communication and Processing (ICCP)",
     title = "A Kinect based adaptive exergame",
@@ -3699,7 +3728,8 @@
     doi = "10.1109/ICCP.2016.7737132",
     ISSN = "",
     month = "Sep."
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3793,7 +3823,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/564526.564550,
+          <t>"@inproceedings{10.1145/564526.564550,
     author = "Gregor, Peter and Newell, Alan F",
     title = "Designing for dynamic diversity: making accessible interfaces for older people",
     year = "2001",
@@ -3809,7 +3839,8 @@
     keywords = "user sensitive inclusive design, usability engineering, universal accessibility, design for dynamic diversity, design for all, HCI",
     location = "Alc\'{a}cer do Sal, Portugal",
     series = "WUAUC'01"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3915,7 +3946,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Caurin20111395,
+          <t>"@CONFERENCE{Caurin20111395,
     author = "Caurin, Glauco A. P. and Siqueira, Adriano. A. G. and Andrade, Kleber O. and Joaquim, Ricardo C. and Krebs, Hermano I.",
     title = "Adaptive strategy for multi-user robotic rehabilitation games",
     year = "2011",
@@ -3937,7 +3968,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 28; Conference name: 33rd Annual International Conference of the IEEE Engineering in Medicine and Biology Society, EMBS 2011; Conference date: 30 August 2011 through 3 September 2011; Conference code: 87843"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4232,7 +4264,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{7939260,
+          <t>"@INPROCEEDINGS{7939260,
     author = "Sekhavat, Yoones A.",
     booktitle = "2017 IEEE 5th International Conference on Serious Games and Applications for Health (SeGAH)",
     title = "MPRL: Multiple-Periodic Reinforcement Learning for difficulty adjustment in rehabilitation games",
@@ -4245,7 +4277,8 @@
     doi = "10.1109/SeGAH.2017.7939260",
     ISSN = "",
     month = "April"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4339,7 +4372,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>@ARTICLE{Gonzalez-Gonzalez2019,
+          <t>"@ARTICLE{Gonzalez-Gonzalez2019,
     author = "Gonzalez-Gonzalez, Carina S. and Toledo-Delgado, Pedro A. and Munoz-Cruz, Vanesa and Torres-Carrion, Pablo V.",
     title = "Serious games for rehabilitation: Gestural interaction in personalized gamified exercises through a recommender system",
     year = "2019",
@@ -4362,7 +4395,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 54; All Open Access, Bronze Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4476,7 +4510,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>@ARTICLE{Rachata2021151,
+          <t>"@ARTICLE{Rachata2021151,
     author = "Rachata, Napa and Temdee, Punnarumol",
     title = "Mobile-Based Self-Monitoring for Preventing Patients with Type 2 Diabetes Mellitus and Hypertension from Cardiovascular Complication",
     year = "2021",
@@ -4500,7 +4534,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4590,7 +4625,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>@ARTICLE{Elsayed2017,
+          <t>"@ARTICLE{Elsayed2017,
     author = "Elsayed, Hoda Ahmed Galal and Galal, Mariam Ahmed and Syed, Liyakathunisa",
     title = "HeartCare+: A Smart Heart Care Mobile Application for Framingham-Based Early Risk Prediction of Hard Coronary Heart Diseases in Middle East",
     year = "2017",
@@ -4610,7 +4645,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4712,7 +4748,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>@ARTICLE{Groat2018440,
+          <t>"@ARTICLE{Groat2018440,
     author = "Groat, Danielle and Soni, Hiral and Grando, Maria Adela and Thompson, Bithika and Kaufman, David and Cook, Curtiss B.",
     title = "Design and Testing of a Smartphone Application for Real-Time Self-Tracking Diabetes Self-Management Behaviors",
     year = "2018",
@@ -4736,7 +4772,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 12; All Open Access, Bronze Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4838,7 +4875,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>@ARTICLE{Stinson2010e30,
+          <t>"@ARTICLE{Stinson2010e30,
     author = "Stinson, Jennifer and McGrath, Patrick and Hodnett, Ellen and Feldman, Brian and Duffy, Ciaran and Huber, Adam and Tucker, Lori and Hetherington, Ross and Tse, Shirley and Spiegel, Lynn and Campillo, Sarah and Gill, Navreet and White, Meghan",
     title = "Usability testing of an online self-management program for Adolescents with Juvenile Idiopathic Arthritis",
     year = "2010",
@@ -4862,7 +4899,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 101; All Open Access, Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4960,7 +4998,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>@ARTICLE{Martin2020,
+          <t>"@ARTICLE{Martin2020,
     author = "Martin, Anne and Caon, Maurizio and Adorni, Fulvio and Andreoni, Giuseppe and Ascolese, Antonio and Atkinson, Sarah and Bul, Kim and Carrion, Carme and Castell, Conxa and Ciociola, Valentina and Condon, Laura and Espallargues, Mireia and Hanley, Janet and Jesuthasan, Nithiya and Lafortuna, Claudio L. and Lang, Alexandra and Prinelli, Federica and Puidomenech Puig, Elisa and Tabozzi, Sarah A. and McKinstry, Brian",
     title = "A mobile phone intervention to improve obesity-related health behaviors of adolescents across Europe: Iterative co-design and feasibility study",
     year = "2020",
@@ -4983,7 +5021,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 31; All Open Access, Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -5077,7 +5116,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>@ARTICLE{Moura2019,
+          <t>"@ARTICLE{Moura2019,
     author = "Moura, Thais Norberta Bezerra De and Moreira, Thereza Maria Magalhaes and Sousa, Alcilene Dalilia De and Neto, Antonino Calisto Dos Santos and Sousa, Renan Xavier E. and Lima, Luisa Helena de Oliveira",
     title = "Development and validation of a smartphone educational game regarding healthy lifestyle habits for adolescents; [Elaboracao e validacao de jogo educativo para smartphone sobre habitos de vida saudaveis para adolescentes]; [Desarrollo y validacion de un juego educativo smartphone sobre estilo de vida saludable para adolescentes]",
     year = "2019",
@@ -5097,7 +5136,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5; All Open Access, Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -5191,7 +5231,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>@ARTICLE{Bartlett2017,
+          <t>"@ARTICLE{Bartlett2017,
     author = "Bartlett, Yvonne Kiera and Webb, Thomas L. and Hawley, Mark S.",
     title = "Using persuasive technology to increase physical activity in people with chronic obstructive pulmonary disease by encouraging regular walking: A mixed-methods study exploring opinions and preferences",
     year = "2017",
@@ -5214,7 +5254,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 43; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -5312,7 +5353,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Bielik201261,
+          <t>"@CONFERENCE{Bielik201261,
     author = "Bielik, Pavol and Tomlein, Michal and Kratky, Peter and Mitrik, Stefan and Barla, Michal and Bielikova, Maria",
     title = "Move2Play: An innovative approach to encouraging people to be more physically active",
     year = "2012",
@@ -5332,7 +5373,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 52; Conference name: 2nd ACM SIGHIT International Health Informatics Symposium, IHI'12; Conference date: 28 January 2012 through 30 January 2012; Conference code: 88772"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -5430,7 +5472,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/3240925.3240927,
+          <t>"@inproceedings{10.1145/3240925.3240927,
     author = "Marcu, Gabriela and Misra, Anjali and Caro, Karina and Plank, Meghan and Leader, Amy and Barsevick, Andrea",
     title = "Bounce: Designing a Physical Activity Intervention for Breast Cancer Survivors",
     year = "2018",
@@ -5446,7 +5488,8 @@
     keywords = "physical activity, breast cancer survivors, Behavioral intervention technology",
     location = "New York, NY, USA",
     series = "PervasiveHealth '18"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -5552,7 +5595,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Economou2017684,
+          <t>"@CONFERENCE{Economou2017684,
     author = "Economou, Daphne and Dwek, Miriam and Roberston, Claire and Elliott, Bradley and Kounenis, Thanos and Azimi, Tayebeh and Ramezanian, Mohammad and Bell, Nathan",
     editor = "P.D., Bamidis and S.Th., Konstantinidis and P.P., Rodrigues",
     title = "PhytoCloud: A Gamified Mobile Web Application to Modulate Diet and Physical Activity of Women with Breast Cancer",
@@ -5575,7 +5618,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7; Conference name: 30th IEEE International Symposium on Computer-Based Medical Systems, CBMS 2017; Conference date: 22 June 2017 through 24 June 2017; Conference code: 132222; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -5673,7 +5717,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>@ARTICLE{Zhang2018,
+          <t>"@ARTICLE{Zhang2018,
     author = "Zhang, Xu and Deng, Zhikun and Parvinzamir, Farzad and Dong, Feng",
     title = "MyHealthAvatar lifestyle management support for cancer patients",
     year = "2018",
@@ -5694,7 +5738,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 11; All Open Access, Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -5796,7 +5841,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Plank201698,
+          <t>"@CONFERENCE{Plank201698,
     author = "Plank, Meghan M. and Dalal, Nishtha H.",
     title = "Bounce: An intervention to increase physical activity in breast cancer survivors",
     year = "2016",
@@ -5817,7 +5862,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 2; Conference name: 34th Annual CHI Conference on Human Factors in Computing Systems, CHI EA 2016; Conference date: 7 May 2016 through 12 May 2016; Conference code: 125618"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -5919,7 +5965,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>@ARTICLE{VanDerWeegen2013,
+          <t>"@ARTICLE{VanDerWeegen2013,
     author = "Van Der Weegen, Sanne and Verwey, Renee and Spreeuwenberg, Marieke and Tange, Huibert and Van Der Weijden, Trudy and De Witte, Luc",
     title = "The development of a mobile monitoring and feedback tool to stimulate physical activity of people with a chronic disease in primary care: A user-centered design",
     year = "2013",
@@ -5940,7 +5986,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 95; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6042,7 +6089,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>@ARTICLE{vanderWeegen2014311,
+          <t>"@ARTICLE{vanderWeegen2014311,
     author = "van der Weegen, Sanne and Verwey, Renee and Tange, Huibert J. and Spreeuwenberg, Marieke D. and de Witte, Luc P.",
     title = "Usability testing of a monitoring and feedback tool to stimulate physical activity",
     year = "2014",
@@ -6064,7 +6111,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 28; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6162,7 +6210,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>@ARTICLE{Hong2013,
+          <t>"@ARTICLE{Hong2013,
     author = "Hong, Yan and Dahlke, Deborah Vollmer and Ory, Marcia and Hochhalter, Angela and Reynolds, Jana and Purcell, Ninfa Pena and Talwar, Divya and Eugene, Nola",
     title = "Designing icanfit: A mobile-enabled web application to promote physical activity for older cancer survivors",
     year = "2013",
@@ -6183,7 +6231,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 31; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -6281,7 +6330,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>@ARTICLE{Danbjorg2018,
+          <t>"@ARTICLE{Danbjorg2018,
     author = "Danbjorg, Dorthe Boe and Villadsen, Allan and Gill, Ester and Rothmann, Mette Juel and Clemensen, Jane",
     title = "Usage of an exercise app in the care for people with osteoarthritis: User-driven exploratory study",
     year = "2018",
@@ -6302,7 +6351,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 19; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -6400,7 +6450,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>@ARTICLE{Mirkovic2014,
+          <t>"@ARTICLE{Mirkovic2014,
     author = "Mirkovic, Jelena and Kaufman, David R. and Ruland, Cornelia M.",
     title = "Supporting cancer patients in illness management: Usability evaluation of a mobile app",
     year = "2014",
@@ -6421,7 +6471,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 100; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -6524,7 +6575,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Abdelrazek2018252,
+          <t>"@CONFERENCE{Abdelrazek2018252,
     author = "Abdelrazek, Mohamed and Ibrahim, Amani and Cain, Andrew and Grundy, John",
     title = "Vision: Mobile ehealth learning and intervention platform",
     year = "2018",
@@ -6546,7 +6597,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 4; Conference name: 5th ACM/IEEE 5th International Conference on Mobile Software Engineering and Systems, MOBILESoft 2018, collocated with the 40th International Conference on Software Engineering, ICSE 2018; Conference date: 27 May 2018 through 28 May 2018; Conference code: 138321; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -6739,7 +6791,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{4570573,
+          <t>"@INPROCEEDINGS{4570573,
     author = "Yang, Yaojin",
     booktitle = "2008 International Conference on Information Technology and Applications in Biomedicine",
     title = "The design and implementation of a web mobile-based behavior change application system",
@@ -6752,7 +6804,8 @@
     doi = "10.1109/ITAB.2008.4570573",
     ISSN = "2168-2208",
     month = "May"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -6936,7 +6989,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>@ARTICLE{Sittig2020,
+          <t>"@ARTICLE{Sittig2020,
     author = "Sittig, Scott and Wang, Jing and Iyengar, Sriram and Myneni, Sahiti and Franklin, Amy",
     title = "Incorporating behavioral trigger messages into a mobile health app for chronic disease management: Randomized clinical feasibility trial in diabetes",
     year = "2020",
@@ -6959,7 +7012,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 29; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -7061,7 +7115,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>@ARTICLE{Ayatollahi201616,
+          <t>"@ARTICLE{Ayatollahi201616,
     author = "Ayatollahi, Haleh and Hasannezhad, Mostafa and Fard, Hedieh Saneei and Haghighi, Mehran Kamkar",
     title = "Type I diabetes self-management: Developing a web-based telemedicine application",
     year = "2016",
@@ -7085,7 +7139,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 26"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -7185,7 +7240,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>@ARTICLE{Weymann2015,
+          <t>"@ARTICLE{Weymann2015,
     author = "Weymann, Nina and Dirmaier, Jorg and Von Wolff, Alessa and Kriston, Levente and Harter, Martin",
     title = "Effectiveness of a Web-based tailored interactive health communication application for patients with type 2 diabetes or chronic low back pain: Randomized controlled trial",
     year = "2015",
@@ -7208,7 +7263,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 53; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -7310,7 +7366,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>@ARTICLE{Weymann20131091,
+          <t>"@ARTICLE{Weymann20131091,
     author = "Weymann, Nina and Harter, Martin and Petrak, Frank and Dirmaier, Jorg",
     title = "Health information, behavior change, and decision support for patients with type 2 diabetes: Development of a tailored, preference-sensitive health communication application",
     year = "2013",
@@ -7331,7 +7387,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 16; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -7425,7 +7482,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>@ARTICLE{Dirmaier2013,
+          <t>"@ARTICLE{Dirmaier2013,
     author = "Dirmaier, Jorg and Harter, Martin and Weymann, Nina",
     title = "A tailored, dialogue-based health communication application for patients with chronic low back pain: Study protocol of a randomised controlled trial",
     year = "2013",
@@ -7448,7 +7505,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 13; All Open Access, Gold Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -7546,7 +7604,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>@ARTICLE{Danaher2013,
+          <t>"@ARTICLE{Danaher2013,
     author = "Danaher, Brian G and Milgrom, Jeannette and Seeley, John R and Stuart, Scott and Schembri, Charlene and Tyler, Milagra S and Ericksen, Jennifer and Lester, Whitney and Gemmill, Alan W and Kosty, Derek B and Lewinsohn, Peter",
     title = "MomMoodBooster web-based intervention for postpartum depression: Feasibility trial results",
     year = "2013",
@@ -7569,7 +7627,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 96; All Open Access, Gold Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -7671,7 +7730,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>@ARTICLE{Zulman2012336,
+          <t>"@ARTICLE{Zulman2012336,
     author = "Zulman, Donna M. and Schafenacker, Ann and Barr, Kathryn L. C. and Moore, Ian T. and Fisher, Jake and McCurdy, Kathryn and Derry, Holly A. and Saunders, Edward W. and An, Lawrence C. and Northouse, Laurel",
     title = "Adapting an in-person patient-caregiver communication intervention to a tailored web-based format",
     year = "2012",
@@ -7695,7 +7754,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 46; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -7797,7 +7857,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>@ARTICLE{O'Conner-Von2009230,
+          <t>"@ARTICLE{O'Conner-Von2009230,
     author = "O'Conner-Von, Susan",
     title = "Coping with cancer: A web-based educational program for early and middle adolescents",
     year = "2009",
@@ -7821,7 +7881,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 26; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -8001,7 +8062,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>@ARTICLE{Feuerstein-Simon20181192,
+          <t>"@ARTICLE{Feuerstein-Simon20181192,
     author = "Feuerstein-Simon, Carly and Bzdick, Suzan and Padmanabhuni, Amitha and Bains, Puneetpal and Roe, Cheryl and Weinstock, Ruth S.",
     title = "Use of a Smartphone Application to Reduce Hypoglycemia in Type 1 Diabetes: A Pilot Study",
     year = "2018",
@@ -8025,7 +8086,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 14; All Open Access, Bronze Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -8405,7 +8467,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>@ARTICLE{Bickmore2013142,
+          <t>"@ARTICLE{Bickmore2013142,
     author = "Bickmore, Timothy W. and Schulman, Daniel and Sidner, Candace",
     title = "Automated interventions for multiple health behaviors using conversational agents",
     year = "2013",
@@ -8429,7 +8491,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 132; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -8535,7 +8598,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Mallat20152373,
+          <t>"@CONFERENCE{Mallat20152373,
     author = "Mallat, Hady Khaddaj and Abdulrazak, Bessam",
     editor = "L., Atzori and X., Jin and S., Jarvis and L., Liu and R.A., Calvo and J., Hu and G., Min and N., Georgalas and Y., Wu",
     title = "Assist-Me, a volunteer mobile emergency system to assist elderly people",
@@ -8556,7 +8619,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 7; Conference name: 15th IEEE International Conference on Computer and Information Technology, CIT 2015, 14th IEEE International Conference on Ubiquitous Computing and Communications, IUCC 2015, 13th IEEE International Conference on Dependable, Autonomic and Secure Computing, DASC 2015 and 13th IEEE International Conference on Pervasive Intelligence and Computing, PICom 2015; Conference date: 26 October 2015 through 28 October 2015; Conference code: 118896"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -8654,7 +8718,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>@ARTICLE{Hanke2015257,
+          <t>"@ARTICLE{Hanke2015257,
     author = "Hanke, Sten and Meinedo, Hugo and Portugal, David and Belk, Marios and Quintas, Joao and Christodoulou, Eleni and Sili, Miroslav and Dias, Miguel Sales and Samaras, George",
     editor = "G., Salvendy and J., Zhou and G., Salvendy",
     title = "CogniWin - a virtual assistance system for older adults at work",
@@ -8677,7 +8741,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 8; Conference name: 1st International Conference on Human Aspects of IT for the Aged Population, ITAP 2015 Held as Part of 17th International Conference on Human-Computer Interaction, HCI International 2015; Conference date: 2 August 2015 through 7 August 2015; Conference code: 122469; All Open Access, Bronze Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -8781,7 +8846,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Peissner201281,
+          <t>"@CONFERENCE{Peissner201281,
     author = "Peissner, Matthias and Habe, Dagmar and Janssen, Doris and Sellner, Thomas",
     title = "MyUI: Generating accessible user interfaces from multimodal design patterns",
     year = "2012",
@@ -8801,7 +8866,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 78; Conference name: 4th ACM SIGCHI Symposium on Engineering Interactive Computing Systems, EICS'12; Conference date: 25 June 2012 through 26 June 2012; Conference code: 91302"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -8904,7 +8970,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/3328243.3328251,
+          <t>"@inproceedings{10.1145/3328243.3328251,
     author = "Punchoojit, Lumpapun and Hongwarittorrn, Nutttanont",
     title = "Age Differences in Menu Item Selection for Smartphone: The Effects of Icon Background Colors and Icon Symbols",
     year = "2019",
@@ -8920,7 +8986,8 @@
     keywords = "visual search, senior, mobile, menu, icon, elderly, children, background color, age difference, Smartphone",
     location = "Jakarta, Surabaya, Bali, Indonesia",
     series = "CHIuXiD'19"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -9085,7 +9152,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AbstractThe elderly remain excluded from technology, since they regard traditional computer interfaces as overly technical and difficult to use. However, the older users consider other forms of interaction easier to use - like touch and gesture recognition interfaces. Regarding the touch interfaces, we focused on text-entry tasks and developed and tested 5 virtual QWERTY keyboard variants in order to improve text entry speed and accuracy on tablet devices. Preliminary user tests with young adults revealed that soft keyboards without visual changes remain the fastest method for text entry, and allowed us to rule out the least promising variants. Regarding gesture recognition, we developed regular gestures as well as alternative functionalities based on the motion sensing device: user and ambient sensing. These features allow to create a more intelligent system that reacts to the user and environment without explicit interaction. In the near future, we will perform tests for both interaction modalities with older adults.</t>
+          <t>The elderly remain excluded from technology, since they regard traditional computer interfaces as overly technical and difficult to use. However, the older users consider other forms of interaction easier to use - like touch and gesture recognition interfaces. Regarding the touch interfaces, we focused on text-entry tasks and developed and tested 5 virtual QWERTY keyboard variants in order to improve text entry speed and accuracy on tablet devices. Preliminary user tests with young adults revealed that soft keyboards without visual changes remain the fastest method for text entry, and allowed us to rule out the least promising variants. Regarding gesture recognition, we developed regular gestures as well as alternative functionalities based on the motion sensing device: user and ambient sensing. These features allow to create a more intelligent system that reacts to the user and environment without explicit interaction. In the near future, we will perform tests for both interaction modalities with older adults.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -9214,7 +9281,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>@ARTICLE{Gowans200712,
+          <t>"@ARTICLE{Gowans200712,
     author = "Gowans, Gary and Dye, Richard and Alm, Norman and Vaughan, Phillip and Astell, Arlene and Ellis, Maggie",
     title = "Designing the interface between dementia patients, caregivers and computer-based intervention",
     year = "2007",
@@ -9237,7 +9304,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 22"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -9343,7 +9411,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{7968610,
+          <t>"@INPROCEEDINGS{7968610,
     author = "Awada, Imad Alex and Mocanu, Irina and Florea, Adina Magda and Cramariuc, Bogdan",
     booktitle = "2017 21st International Conference on Control Systems and Computer Science (CSCS)",
     title = "Multimodal Interface for Elderly People",
@@ -9356,7 +9424,8 @@
     doi = "10.1109/CSCS.2017.82",
     ISSN = "2379-0482",
     month = "May"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -9458,7 +9527,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>"nan"</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -9658,7 +9727,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{6659162,
+          <t>"@INPROCEEDINGS{6659162,
     author = "Lu, Fletcher and Turner, Kei",
     booktitle = "2013 IEEE International Games Innovation Conference (IGIC)",
     title = "Improving adolescent fitness attitudes with a mobile fitness game to combat obesity in youth",
@@ -9671,7 +9740,8 @@
     doi = "10.1109/IGIC.2013.6659162",
     ISSN = "2166-675X",
     month = "Sep."
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9773,7 +9843,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{6595851,
+          <t>"@INPROCEEDINGS{6595851,
     author = "Buddharaju, Pradeep and Pamidi, Naga Siva Chandra Prasad",
     booktitle = "2013 IEEE Conference on Computer Vision and Pattern Recognition Workshops",
     title = "Mobile Exergames - Burn Calories While Playing Games on a Smartphone",
@@ -9786,7 +9856,8 @@
     doi = "10.1109/CVPRW.2013.13",
     ISSN = "2160-7516",
     month = "June"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -9885,7 +9956,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/2425296.2425302,
+          <t>"@inproceedings{10.1145/2425296.2425302,
     author = "Harrold, Natalie and Tan, Chek Tien and Rosser, Daniel",
     title = "Towards an expression recognition game to assist the emotional development of children with autism spectrum disorders",
     year = "2012",
@@ -9901,7 +9972,8 @@
     keywords = "user interface, human computer interaction, computer-aided interventions, autism spectrum disorders",
     location = "Singapore, Singapore",
     series = "WASA '12"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -10004,7 +10076,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Tan2013,
+          <t>"@CONFERENCE{Tan2013,
     author = "Tan, Chek Tien and Harrold, Natalie and Rosser, Daniel",
     title = "Can you CopyMe?: An expression mimicking serious game",
     year = "2013",
@@ -10023,7 +10095,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 21; Conference name: SIGGRAPH Asia 2013 Symposium on Mobile Graphics and Interactive Applications, SA 2013; Conference date: 19 November 2013 through 22 November 2013; Conference code: 101543"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -10126,7 +10199,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/1753326.1753649,
+          <t>"@inproceedings{10.1145/1753326.1753649,
     author = "Alankus, Gazihan and Lazar, Amanda and May, Matt and Kelleher, Caitlin",
     title = "Towards customizable games for stroke rehabilitation",
     year = "2010",
@@ -10142,7 +10215,8 @@
     keywords = "video games, stroke rehabilitation, design",
     location = "Atlanta, Georgia, USA",
     series = "CHI '10"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -10330,7 +10404,7 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
-          <t>@ARTICLE{Chen2008,
+          <t>"@ARTICLE{Chen2008,
     author = "Chen, Yinpeng and Xu, Weiwei and Sundaram, Hari and Rikakis, Thanassis and Liu, Sheng-Min",
     title = "A dynamic decision network framework for online media adaptation in stroke rehabilitation",
     year = "2008",
@@ -10351,7 +10425,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 22"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -10457,7 +10532,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>"nan"</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10555,7 +10630,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>@CONFERENCE{AliKhan2018,
+          <t>"@CONFERENCE{AliKhan2018,
     author = "Ali Khan, Hassan and Parvez, Murayyiam and Shahid, Suleman and Javaid, Asbar",
     title = "A comparative study on the effectiveness of adaptive exergames for stroke rehabilitation in Pakistan",
     year = "2018",
@@ -10576,7 +10651,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 8; Conference name: 2018 CHI Conference on Human Factors in Computing Systems, CHI EA 2018; Conference date: 21 April 2018 through 26 April 2018; Conference code: 135975"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -10678,7 +10754,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>@ARTICLE{Salvi2018303,
+          <t>"@ARTICLE{Salvi2018303,
     author = "Salvi, Dario and Ottaviano, Manuel and Muuraiskangas, Salla and Martinez-Romero, Alvaro and Vera-Munoz, Cecilia and Triantafyllidis, Andreas and Cabrera Umpierrez, Maria Fernanda and Arredondo Waldmeyer, Maria Teresa and Skobel, Erik and Knackstedt, Christian and Liedes, Hilkka and Honka, Anita and Luprano, Jean and Cleland, John G.F. and Stut, Wim and Deighan, Carolyn",
     title = "An m-Health system for education and motivation in cardiac rehabilitation: the experience of HeartCycle guided exercise",
     year = "2018",
@@ -10702,7 +10778,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 43; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -10804,7 +10881,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>@ARTICLE{Reid20121357,
+          <t>"@ARTICLE{Reid20121357,
     author = "Reid, Robert D. and Morrin, Louise I. and Beaton, Louise J. and Papadakis, Sophia and Kocourek, Jana and McDonnell, Lisa and D'Angelo, Monika E. Slovinec and Tulloch, Heather and Suskin, Neville and Unsworth, Karen and Blanchard, Chris and Pipe, Andrew L.",
     title = "Randomized trial of an internet-based computer-tailored expert system for physical activity in patients with heart disease",
     year = "2012",
@@ -10827,7 +10904,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 105; All Open Access, Bronze Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -10925,7 +11003,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>@ARTICLE{Walsh201976,
+          <t>"@ARTICLE{Walsh201976,
     author = "Walsh, Deirdre M.J. and Kieran, Moran and Cornelissen, Veronique and Buys, Roselien and Claes, Jomme and Zampognaro, Paolo and Melillo, Fabio and Maglaveras, Nicos and Chouvarda, Ioanna and Triantafyllidis, Andreas and Filos, Dimitris and Woods, Catherine B.",
     title = "The development and codesign of the PATHway intervention: A theory-driven eHealth platform for the self-management of cardiovascular disease",
     year = "2019",
@@ -10949,7 +11027,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 28; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -11047,7 +11126,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Garrido20149,
+          <t>"@CONFERENCE{Garrido20149,
     author = "Garrido, Juan E. and Penichet, Victor M. R. and Lozano, Maria D. and Quigley, Aaron and Kristensson, Per Ola",
     title = "AwToolkit: Attention-aware user interface widgets",
     year = "2014",
@@ -11067,7 +11146,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 16; Conference name: 2014 12th International Working Conference on Advanced Visual Interfaces, AVI 2014; Conference date: 27 May 2014 through 30 May 2014; Conference code: 105962"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -11173,7 +11253,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{1398293,
+          <t>"@INPROCEEDINGS{1398293,
     author = "Amditis, A. and Polychronopoulos, A.",
     booktitle = "2004 IEEE International Conference on Systems, Man and Cybernetics (IEEE Cat. No.04CH37583)",
     title = "Communication and interaction strategies in automotive adaptive interfaces",
@@ -11186,7 +11266,8 @@
     doi = "10.1109/ICSMC.2004.1398293",
     ISSN = "1062-922X",
     month = "Oct"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -11284,7 +11365,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/1216295.1216317,
+          <t>"@inproceedings{10.1145/1216295.1216317,
     author = "Bunt, Andrea and Conati, Cristina and McGrenere, Joanna",
     title = "Supporting interface customization using a mixed-initiative approach",
     year = "2007",
@@ -11300,7 +11381,8 @@
     keywords = "mixed-initiative, adaptive, adaptable, GOMS analysis",
     location = "Honolulu, Hawaii, USA",
     series = "IUI '07"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -11407,7 +11489,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>@ARTICLE{Debevc19961,
+          <t>"@ARTICLE{Debevc19961,
     author = "Debevc, Matjaz and Meyer, Beth and Donlagic, Dali and Svecko, Rajko",
     title = "Design and evaluation of an adaptive icon toolbar",
     year = "1996",
@@ -11431,7 +11513,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 34"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -11529,7 +11612,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>@ARTICLE{Park2011305,
+          <t>"@ARTICLE{Park2011305,
     author = "Park, Jungchul and Han, Sung H.",
     title = "Complementary menus: Combining adaptable and adaptive approaches for menu interface",
     year = "2011",
@@ -11552,7 +11635,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 13"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -11662,7 +11746,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>@ARTICLE{Burke20091085,
+          <t>"@ARTICLE{Burke20091085,
     author = "Burke, J.W. and McNeill, M.D.J. and Charles, D.K. and Morrow, P.J. and Crosbie, J.H. and McDonough, S.M.",
     title = "Optimising engagement for stroke rehabilitation using serious games",
     year = "2009",
@@ -11686,7 +11770,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 475"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -11780,7 +11865,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Gouaich20125,
+          <t>"@CONFERENCE{Gouaich20125,
     author = "Gouaich, Abdelkader and Hocine, Nadia and Van Dokkum, Liesjet and Mottet, Denis",
     title = "Digital-pheromone based difficulty adaptation in post-stroke therapeutic games",
     year = "2012",
@@ -11800,7 +11885,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 16; Conference name: 2nd ACM SIGHIT International Health Informatics Symposium, IHI'12; Conference date: 28 January 2012 through 30 January 2012; Conference code: 88772; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -11902,7 +11988,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>@INPROCEEDINGS{6374154,
+          <t>"@INPROCEEDINGS{6374154,
     author = "Pirovano, Michele and Mainetti, Renato and Baud-Bovy, Gabriel and Lanzi, Pier Luca and Borghese, Nunzio Alberto",
     booktitle = "2012 IEEE Conference on Computational Intelligence and Games (CIG)",
     title = "Self-adaptive games for rehabilitation at home",
@@ -11915,7 +12001,8 @@
     doi = "10.1109/CIG.2012.6374154",
     ISSN = "2325-4289",
     month = "Sep."
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -12009,7 +12096,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Zook201293,
+          <t>"@CONFERENCE{Zook201293,
     author = "Zook, Alexander E. and Riedl, Mark O.",
     title = "A temporal data-driven player model for dynamic difficulty adjustment",
     year = "2012",
@@ -12026,7 +12113,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 54; Conference name: 8th AAAI Conference on Artificial Intelligence and Interactive Digital Entertainment, AIIDE 2012; Conference date: 8 October 2012 through 12 October 2012; Conference code: 98788"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -12128,7 +12216,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Pinto20181,
+          <t>"@CONFERENCE{Pinto20181,
     author = "Pinto, Joana F. and Carvalho, Henrique R. and Chambel, Goncalo R.R. and Ramiro, Joao and Goncalves, Afonso",
     editor = "J.L., Vilaca and D., Duque and N., Rodrigues and N., Dias and T., Grechenig",
     title = "Adaptive gameplay and difficulty adjustment in a gamified upper-limb rehabilitation",
@@ -12149,7 +12237,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 26; Conference name: 6th IEEE International Conference on Serious Games and Applications for Health, SeGAH 2018; Conference date: 16 May 2018 through 18 May 2018; Conference code: 137631"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -12247,7 +12336,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>@inproceedings{10.1145/3314183.3324988,
+          <t>"@inproceedings{10.1145/3314183.3324988,
     author = "Afyouni, Imad and Einea, Anas and Murad, Abdullah",
     title = "RehaBot: Gamified Virtual Assistants Towards Adaptive TeleRehabilitation",
     year = "2019",
@@ -12263,7 +12352,8 @@
     keywords = "user adaptation, telerehabilitation, serious games, intelligent alerting, automatic correction",
     location = "Larnaca, Cyprus",
     series = "UMAP'19 Adjunct"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -12369,7 +12459,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>"nan"</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -12467,7 +12557,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>@BOOK{McCullagh2016283,
+          <t>"@BOOK{McCullagh2016283,
     author = "McCullagh, Paul J. and Carswell, William M.A. and Mulvenna, Maurice D. and Augusto, Juan C. and Zheng, Huiru and Jeffers, Paul W.",
     title = "Nocturnal sensing and intervention for assisted living of people with dementia",
     year = "2016",
@@ -12484,7 +12574,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 10"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -12586,7 +12677,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>@ARTICLE{5681023,
+          <t>"@ARTICLE{5681023,
     author = "Mulvenna, Maurice and Carswell, William and Mccullagh, Paul and Augusto, Juan Carlos and Zheng, Huiru and Jeffers, Paul and Wang, Haiying and Martin, Suzanne",
     journal = "IEEE Communications Magazine",
     title = "Visualization of data for ambient assisted living services",
@@ -12599,7 +12690,8 @@
     doi = "10.1109/MCOM.2011.5681023",
     ISSN = "1558-1896",
     month = "January"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -12693,7 +12785,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Yamagata2013,
+          <t>"@CONFERENCE{Yamagata2013,
     author = "Yamagata, Christina and Coppola, Jean F. and Kowtko, Marc and Joyce, Shannon",
     title = "Mobile app development and usability research to help dementia and Alzheimer patients",
     year = "2013",
@@ -12711,7 +12803,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 62; Conference name: 9th Annual Conference on Long Island Systems, Applications and Technology, LISAT 2013; Conference date: 3 May 2013 through 3 May 2013; Conference code: 99009"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -12809,7 +12902,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Gulla2016,
+          <t>"@CONFERENCE{Gulla2016,
     author = "Gulla, F. and Ceccacci, S. and Menghi, R. and Germani, M.",
     title = "An adaptive smart system to foster disabled and elderly people in kitchen-related task",
     year = "2016",
@@ -12829,7 +12922,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 14; Conference name: 9th ACM International Conference on Pervasive Technologies Related to Assistive Environments, PETRA 2016; Conference date: 29 June 2016 through 1 July 2016; Conference code: 124964"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -12927,7 +13021,7 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>@CONFERENCE{Yra2022,
+          <t>"@CONFERENCE{Yra2022,
     author = "Yra, Ishrat Jahan and Pranto, Maksud Hossain and Das, Amit Kumar",
     editor = "S., Lee and H., Choo and R., Ismail",
     title = "HELLO: An Android-based Mobile Application for Autism Individuals to Improve Socio-Communicational Learnability in Bangladesh",
@@ -12947,7 +13041,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 1; Conference name: 16th International Conference on Ubiquitous Information Management and Communication, IMCOM 2022; Conference date: 3 January 2022 through 5 January 2022; Conference code: 177743"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -13067,7 +13162,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>"nan"</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -13161,7 +13256,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>@ARTICLE{BlansonHenkemans200882,
+          <t>"@ARTICLE{BlansonHenkemans200882,
     author = "Blanson Henkemans, O.A. and Rogers, W.A. and Fisk, A.D. and Neerincx, M.A. and Lindenberg, J. and Van Der Mast, C.A.P.G.",
     title = "Usability of an adaptive computer assistant that improves self-care and health literacy of older adults",
     year = "2008",
@@ -13185,7 +13280,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 29; All Open Access, Green Open Access"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -13279,7 +13375,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>@ARTICLE{Qasim2016367,
+          <t>"@ARTICLE{Qasim2016367,
     author = "Qasim, Mustafa Moosa and Zulkifli, Abdul Nasir and Ahmad, Mazida and Omar, Mazni and Abu Bakar, Juliana Aida",
     title = "Educating parents in dealing with childhood obesity through the use of the BMI monitor APP",
     year = "2016",
@@ -13299,7 +13395,8 @@
     publication_stage = "Final",
     source = "Scopus",
     note = "Cited by: 5"
-}</t>
+}
+"</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
